--- a/results/dwave_pegasus/spreadsheet25_annealing3.xlsx
+++ b/results/dwave_pegasus/spreadsheet25_annealing3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,31 +432,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: [1360, 1359], 5: [1345, 4943, 4941, 4942], 7: [1884, 1658, 4686, 1659, 4689, 4687, 4688], 11: [1780, 4851, 4852, 4854, 4853], 14: [4792, 4837, 1450, 1448, 1449], 29: [1210, 1208, 4763, 4762, 4761, 1209], 30: [1524, 4716, 4717], 39: [4401, 4431, 4656, 1283, 1286, 1285, 1284], 46: [4463, 4462, 1418, 1419, 1420, 4777], 49: [4581, 1374, 1373, 4584, 4583, 4582], 6: [1466, 4372, 4672, 1463, 1465, 1464], 17: [4746, 1240, 1238, 4626, 1239], 19: [4614, 1344, 4613, 4612, 1343], 37: [1631, 1629, 1630], 41: [4551, 1328, 1329, 1330], 47: [4731, 1510, 4778, 1508, 4732, 1509], 1: [1507, 4417, 4418, 1568, 4553], 12: [1405, 4506, 1404, 4508, 1403, 4507], 20: [4704, 4701, 4703, 4702], 21: [1313, 1315, 1314], 22: [4866, 1764, 1765, 4869, 4868, 4867], 24: [4806, 4809, 4807, 4808], 26: [4640, 1390, 4642, 4641, 1388, 1389], 44: [4539, 4821, 1733, 4822, 1734, 4823], 45: [1763, 1537, 4446, 4447, 1613, 4448], 15: [4881, 4882, 4883, 1674, 1675], 16: [4402, 4403, 1643, 1645, 1644], 25: [4509, 4779, 1748, 1749, 4764, 1660], 28: [4927, 4928, 4838, 1614, 1615], 36: [1779, 4432, 4419, 4433, 4434, 1778], 43: [1810, 4749, 4747, 4748], 48: [4386, 1222, 4850, 1225, 1224, 1223], 8: [1673, 4478, 4476, 4477], 27: [1628, 1523, 4491, 4492, 4493], 38: [1540, 4913, 4911, 4912, 1435], 42: [1432, 4521, 1434, 4522, 1433], 9: [4718, 1538, 1539], 10: [4596, 1268, 1270, 1269], 31: [4387, 1554, 1553, 1552, 4388], 33: [4536, 4538, 4537], 35: [1480, 1598, 4568, 1479], 40: [4733, 1600, 1599], 2: [4793, 1494, 1495, 4896, 4897, 1496], 3: [1583, 1584, 4658, 4657], 18: [1255, 1253, 1254], 23: [4389, 4794, 1717, 1719, 4643, 1718], 32: [1358, 4461, 1357], 4: [4569, 1703, 4627, 4628], 34: [1809, 4597, 4599, 4598], 13: [1300, 1298, 1299]}</t>
+          <t>{0: [172], 2: [4275]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.03206827309236948</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02333919943680852</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{0: [1360, 1359], 5: [1345, 4943, 4941, 4942], 7: [1884, 1658, 4686, 1659, 4689, 4687, 4688], 11: [1780, 4851, 4852, 4854, 4853], 14: [4792, 4837, 1450, 1448, 1449], 29: [1210, 1208, 4763, 4762, 4761, 1209], 30: [1524, 4716, 4717], 39: [4401, 4431, 4656, 1283, 1286, 1285, 1284], 46: [4463, 4462, 1418, 1419, 1420, 4777], 49: [4581, 1374, 1373, 4584, 4583, 4582], 6: [1466, 4372, 4672, 1463, 1465, 1464], 17: [4746, 1240, 1238, 4626, 1239], 19: [4614, 1344, 4613, 4612, 1343], 37: [1631, 1629, 1630], 41: [4551, 1328, 1329, 1330], 47: [4731, 1510, 4778, 1508, 4732, 1509], 1: [1507, 4417, 4418, 1568, 4553], 12: [1405, 4506, 1404, 4508, 1403, 4507], 20: [4704, 4701, 4703, 4702], 21: [1313, 1315, 1314], 22: [4866, 1764, 1765, 4869, 4868, 4867], 24: [4806, 4809, 4807, 4808], 26: [4640, 1390, 4642, 4641, 1388, 1389], 44: [4539, 4821, 1733, 4822, 1734, 4823], 45: [1763, 1537, 4446, 4447, 1613, 4448], 15: [4881, 4882, 4883, 1674, 1675], 16: [4402, 4403, 1643, 1645, 1644], 25: [4509, 4779, 1748, 1749, 4764, 1660], 28: [4927, 4928, 4838, 1614, 1615], 36: [1779, 4432, 4419, 4433, 4434, 1778], 43: [1810, 4749, 4747, 4748], 48: [4386, 1222, 4850, 1225, 1224, 1223], 8: [1673, 4478, 4476, 4477], 27: [1628, 1523, 4491, 4492, 4493], 38: [1540, 4913, 4911, 4912, 1435], 42: [1432, 4521, 1434, 4522, 1433], 9: [4718, 1538, 1539], 10: [4596, 1268, 1270, 1269], 31: [4387, 1554, 1553, 1552, 4388], 33: [4536, 4538, 4537], 35: [1480, 1598, 4568, 1479], 40: [4733, 1600, 1599], 2: [4793, 1494, 1495, 4896, 4897, 1496], 3: [1583, 1584, 4658, 4657], 18: [1255, 1253, 1254], 23: [4389, 4794, 1717, 1719, 4643, 1718], 32: [1358, 4461, 1357], 4: [4569, 1703, 4627, 4628], 34: [1809, 4597, 4599, 4598], 13: [1300, 1298, 1299]}</t>
+          <t>{0: [172], 2: [4275]}</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.03206827309236948</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02333919943680852</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -473,30 +473,3884 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>{0: [5382], 2: [2353], 's_0_2': [5397]}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{0: [5382], 2: [2353], 's_0_2': [5397]}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{0: [5415], 2: [238], 1: [4135], 3: [2001]}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{0: [5415], 2: [238], 1: [4135], 3: [2001]}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{0: [2198], 2: [2213], 's_0_2': [4422], 1: [1989], 3: [4585], 's_1_3': [2004]}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{0: [2198], 2: [2213], 's_0_2': [4422], 1: [1989], 3: [4585], 's_1_3': [2004]}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{0: [3402], 2: [3417], 3: [2432], 1: [3508]}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{0: [3402], 2: [3417], 3: [2432], 1: [3508]}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{0: [128, 4545], 2: [173], 's_0_2': [4530], 3: [158], 's_0_3': [4560], 's_2_3': [4425], 1: [4440], 's_3_1': [4455]}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001190476190476191</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01214052265141139</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{0: [128, 4545], 2: [173], 's_0_2': [4530], 3: [158], 's_0_3': [4560], 's_2_3': [4425], 1: [4440], 's_3_1': [4455]}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001190476190476191</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01214052265141139</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{0: [2039], 1: [5590], 4: [5560], 5: [2024], 2: [5530], 3: [1994]}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{0: [2039], 1: [5590], 4: [5560], 5: [2024], 2: [5530], 3: [1994]}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{0: [3555], 1: [198], 's_0_1': [3540], 4: [272], 's_0_4': [287], 5: [3495], 's_1_5': [183], 2: [152], 's_5_2': [3480], 3: [167], 's_2_3': [3375]}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{0: [3555], 1: [198], 's_0_1': [3540], 4: [272], 's_0_4': [287], 5: [3495], 's_1_5': [183], 2: [152], 's_5_2': [3480], 3: [167], 's_2_3': [3375]}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{2: [1964], 5: [5515], 4: [1918], 6: [1903]}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{2: [1964], 5: [5515], 4: [1918], 6: [1903]}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{2: [2744], 5: [5534], 's_2_5': [2759], 4: [5549], 's_5_4': [2818], 6: [5459, 2788], 's_5_6': [2729], 's_4_6': [2773]}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{2: [2744], 5: [5534], 's_2_5': [2759], 4: [5549], 's_5_4': [2818], 6: [5459, 2788], 's_5_6': [2729], 's_4_6': [2773]}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{0: [4044], 1: [4029], 4: [1775], 7: [1685], 3: [1656], 2: [2619], 6: [2620], 5: [4993]}</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{0: [4044], 1: [4029], 4: [1775], 7: [1685], 3: [1656], 2: [2619], 6: [2620], 5: [4993]}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{0: [4122], 1: [4272, 2421], 's_0_1': [4137], 4: [2451], 's_0_4': [2436], 7: [2346], 's_0_7': [2361], 3: [2406], 's_1_3': [4167], 's_1_4': [4258], 2: [5511], 6: [1168], 's_2_6': [5496], 5: [1153], 's_6_5': [5466]}</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{0: [4122], 1: [4272, 2421], 's_0_1': [4137], 4: [2451], 's_0_4': [2436], 7: [2346], 's_0_7': [2361], 3: [2406], 's_1_3': [4167], 's_1_4': [4258], 2: [5511], 6: [1168], 's_2_6': [5496], 5: [1153], 's_6_5': [5466]}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{0: [3521], 3: [2057], 8: [3536], 5: [2042], 7: [3445], 2: [2013], 4: [2163], 6: [3491], 1: [3580]}</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{0: [3521], 3: [2057], 8: [3536], 5: [2042], 7: [3445], 2: [2013], 4: [2163], 6: [3491], 1: [3580]}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{0: [2698], 3: [5384, 2773], 's_0_3': [5414], 8: [5459], 's_0_8': [5444], 5: [5399], 's_3_5': [2683], 7: [2803], 's_3_7': [5534], 2: [2759], 's_8_2': [2744], 4: [2729], 's_8_4': [2714], 6: [2758], 's_5_6': [2743], 's_5_7': [2818], 1: [5564], 's_2_1': [5579]}</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{0: [2698], 3: [5384, 2773], 's_0_3': [5414], 8: [5459], 's_0_8': [5444], 5: [5399], 's_3_5': [2683], 7: [2803], 's_3_7': [5534], 2: [2759], 's_8_2': [2744], 4: [2729], 's_8_4': [2714], 6: [2758], 's_5_6': [2743], 's_5_7': [2818], 1: [5564], 's_2_1': [5579]}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{0: [3031], 1: [345], 8: [390], 3: [2971], 4: [3001], 5: [3121], 9: [330], 2: [2986]}</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{0: [3031], 1: [345], 8: [390], 3: [2971], 4: [3001], 5: [3121], 9: [330], 2: [2986]}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{0: [449], 1: [509, 5657], 's_0_1': [5642], 8: [5672], 's_0_8': [434], 3: [494], 's_1_3': [5521], 4: [524], 's_1_4': [5627], 5: [5656, 344], 's_1_5': [5536], 9: [479, 5566], 's_1_9': [5551], 2: [5597], 's_3_2': [5582], 's_3_9': [5612], 's_5_9': [359], 's_9_2': [464]}</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{0: [449], 1: [509, 5657], 's_0_1': [5642], 8: [5672], 's_0_8': [434], 3: [494], 's_1_3': [5521], 4: [524], 's_1_4': [5627], 5: [5656, 344], 's_1_5': [5536], 9: [479, 5566], 's_1_9': [5551], 2: [5597], 's_3_2': [5582], 's_3_9': [5612], 's_5_9': [359], 's_9_2': [464]}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{0: [5627, 479], 1: [5642], 5: [464], 8: [524], 9: [5582], 10: [5612], 4: [509], 6: [539], 3: [5597], 7: [5551], 2: [494]}</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{0: [5627, 479], 1: [5642], 5: [464], 8: [524], 9: [5582], 10: [5612], 4: [509], 6: [539], 3: [5597], 7: [5551], 2: [494]}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{0: [3416, 2207], 1: [2176, 2177], 's_0_1': [3296], 5: [3461, 2222], 's_0_5': [2147], 8: [3326, 2162], 's_0_8': [3327], 9: [3446, 2102], 's_0_9': [2237], 10: [3371], 's_0_10': [2282], 4: [3266], 's_1_4': [2161], 6: [2192, 3281], 's_1_6': [3401], 's_1_8': [3311], 3: [2072, 2071], 's_5_3': [3476], 7: [2163], 's_5_7': [3566], 's_8_3': [3341], 's_8_6': [2086], 's_8_9': [2101], 's_8_10': [3386], 2: [3506], 's_9_2': [2117], 's_9_3': [3415], 's_10_6': [2236], 's_4_3': [3251], 's_6_3': [3431], 's_3_2': [3491], 's_7_2': [2178]}</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{0: [3416, 2207], 1: [2176, 2177], 's_0_1': [3296], 5: [3461, 2222], 's_0_5': [2147], 8: [3326, 2162], 's_0_8': [3327], 9: [3446, 2102], 's_0_9': [2237], 10: [3371], 's_0_10': [2282], 4: [3266], 's_1_4': [2161], 6: [2192, 3281], 's_1_6': [3401], 's_1_8': [3311], 3: [2072, 2071], 's_5_3': [3476], 7: [2163], 's_5_7': [3566], 's_8_3': [3341], 's_8_6': [2086], 's_8_9': [2101], 's_8_10': [3386], 2: [3506], 's_9_2': [2117], 's_9_3': [3415], 's_10_6': [2236], 's_4_3': [3251], 's_6_3': [3431], 's_3_2': [3491], 's_7_2': [2178]}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{0: [3564], 7: [3563], 2: [3548], 3: [1697], 8: [1653], 9: [3519, 1712], 4: [1727, 3489], 5: [1682], 1: [1742], 6: [3398], 10: [3504], 11: [3474]}</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{0: [3564], 7: [3563], 2: [3548], 3: [1697], 8: [1653], 9: [3519, 1712], 4: [1727, 3489], 5: [1682], 1: [1742], 6: [3398], 10: [3504], 11: [3474]}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{0: [2310], 7: [3013, 3012], 's_0_7': [2325], 2: [2340], 's_7_2': [2355], 3: [2385, 3042, 2430], 's_7_3': [2370], 8: [2550], 's_7_8': [3028], 9: [3072, 3073], 's_2_9': [3087], 4: [2536, 3118], 's_3_4': [3178], 5: [2551, 3103], 's_3_5': [2445], 's_8_9': [2565], 1: [2625, 3193], 's_1_4': [2566], 6: [2580], 's_1_6': [3164], 10: [2521, 2520], 's_1_10': [3208], 's_4_5': [2505], 's_4_6': [2595], 's_4_10': [3253], 11: [2460], 's_4_11': [3148], 's_6_5': [3134], 's_6_9': [3088], 's_10_5': [3238], 's_10_9': [2535], 's_11_9': [2475]}</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001251251251251251</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001973449736685123</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{0: [2310], 7: [3013, 3012], 's_0_7': [2325], 2: [2340], 's_7_2': [2355], 3: [2385, 3042, 2430], 's_7_3': [2370], 8: [2550], 's_7_8': [3028], 9: [3072, 3073], 's_2_9': [3087], 4: [2536, 3118], 's_3_4': [3178], 5: [2551, 3103], 's_3_5': [2445], 's_8_9': [2565], 1: [2625, 3193], 's_1_4': [2566], 6: [2580], 's_1_6': [3164], 10: [2521, 2520], 's_1_10': [3208], 's_4_5': [2505], 's_4_6': [2595], 's_4_10': [3253], 11: [2460], 's_4_11': [3148], 's_6_5': [3134], 's_6_9': [3088], 's_10_5': [3238], 's_10_9': [2535], 's_11_9': [2475]}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0001251251251251251</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001973449736685123</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{0: [5457], 4: [2384], 12: [2413], 1: [5442], 9: [5547], 11: [2354, 5532], 6: [5503], 3: [2428], 5: [5548], 2: [2474], 8: [2489], 7: [2654], 10: [2669]}</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{0: [5457], 4: [2384], 12: [2413], 1: [5442], 9: [5547], 11: [2354, 5532], 6: [5503], 3: [2428], 5: [5548], 2: [2474], 8: [2489], 7: [2654], 10: [2669]}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{0: [383], 4: [4351], 's_0_4': [4366], 12: [247, 4381], 's_0_12': [4426], 1: [322], 's_4_1': [307], 9: [4411, 292], 's_4_9': [368], 11: [442, 4336], 's_4_11': [277], 's_12_1': [4396], 6: [352, 4261], 's_12_6': [337], 3: [382, 4246], 's_1_3': [4231], 's_1_11': [4321], 's_9_11': [4412], 5: [203, 4440], 's_9_5': [233], 's_11_3': [4306], 2: [397], 's_11_2': [412], 8: [4291], 's_11_8': [427], 's_6_3': [367], 's_6_2': [4276], 's_6_8': [487], 7: [308], 's_5_7': [4455], 10: [323], 's_5_10': [4485], 's_7_10': [4531]}</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3.03030303030303e-05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0009577867048047945</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{0: [383], 4: [4351], 's_0_4': [4366], 12: [247, 4381], 's_0_12': [4426], 1: [322], 's_4_1': [307], 9: [4411, 292], 's_4_9': [368], 11: [442, 4336], 's_4_11': [277], 's_12_1': [4396], 6: [352, 4261], 's_12_6': [337], 3: [382, 4246], 's_1_3': [4231], 's_1_11': [4321], 's_9_11': [4412], 5: [203, 4440], 's_9_5': [233], 's_11_3': [4306], 2: [397], 's_11_2': [412], 8: [4291], 's_11_8': [427], 's_6_3': [367], 's_6_2': [4276], 's_6_8': [487], 7: [308], 's_5_7': [4455], 10: [323], 's_5_10': [4485], 's_7_10': [4531]}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3.03030303030303e-05</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0009577867048047945</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{0: [702], 5: [5223], 10: [5208], 12: [5178], 13: [5253], 1: [777], 3: [807], 2: [747], 7: [732], 8: [762], 6: [657], 9: [5163], 11: [776], 4: [792]}</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{0: [702], 5: [5223], 10: [5208], 12: [5178], 13: [5253], 1: [777], 3: [807], 2: [747], 7: [732], 8: [762], 6: [657], 9: [5163], 11: [776], 4: [792]}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{0: [3817], 5: [1429], 's_0_5': [1414], 10: [1369], 's_0_10': [3832], 12: [1475, 1474], 's_0_12': [1490], 13: [1504], 's_0_13': [1519], 1: [3787, 1384], 's_5_1': [3697], 3: [1534, 3772], 's_5_3': [3757], 's_10_1': [3847], 2: [3937], 's_12_2': [3952], 7: [1505, 3982], 's_12_7': [3967], 8: [3652, 1489], 's_12_8': [3727], 's_13_3': [3922], 6: [3878], 's_13_6': [3893], 's_1_8': [1383], 9: [1444, 1445], 's_1_9': [3712], 11: [3741], 's_1_11': [3726], 4: [3803], 's_3_4': [1549], 's_2_7': [1415], 's_7_9': [1460], 's_8_9': [1459]}</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3.03030303030303e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0009577867048047945</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{0: [3817], 5: [1429], 's_0_5': [1414], 10: [1369], 's_0_10': [3832], 12: [1475, 1474], 's_0_12': [1490], 13: [1504], 's_0_13': [1519], 1: [3787, 1384], 's_5_1': [3697], 3: [1534, 3772], 's_5_3': [3757], 's_10_1': [3847], 2: [3937], 's_12_2': [3952], 7: [1505, 3982], 's_12_7': [3967], 8: [3652, 1489], 's_12_8': [3727], 's_13_3': [3922], 6: [3878], 's_13_6': [3893], 's_1_8': [1383], 9: [1444, 1445], 's_1_9': [3712], 11: [3741], 's_1_11': [3726], 4: [3803], 's_3_4': [1549], 's_2_7': [1415], 's_7_9': [1460], 's_8_9': [1459]}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>3.03030303030303e-05</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0009577867048047945</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{0: [1473], 6: [1488], 8: [3533], 9: [3518], 11: [3547, 1563], 12: [3577], 2: [1578], 5: [1638], 13: [1532], 10: [1548], 4: [3683], 14: [3638], 1: [1609], 3: [1608], 7: [3608]}</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{0: [1473], 6: [1488], 8: [3533], 9: [3518], 11: [3547, 1563], 12: [3577], 2: [1578], 5: [1638], 13: [1532], 10: [1548], 4: [3683], 14: [3638], 1: [1609], 3: [1608], 7: [3608]}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{0: [5273, 1648], 6: [5363], 's_0_6': [1707], 8: [1768, 5348], 's_0_8': [5393], 9: [5333, 1813, 5334], 's_0_9': [5274], 11: [1663], 's_0_11': [5258], 12: [1618, 5423], 's_0_12': [5318], 's_6_8': [1753], 's_6_12': [1633], 2: [5408, 1603], 's_8_2': [5409], 5: [1722], 's_8_5': [1737], 's_8_9': [5424], 's_8_11': [5319], 's_9_5': [5304], 13: [1828], 's_9_13': [5289], 's_11_2': [1678], 's_11_12': [5378], 's_12_2': [5468], 10: [5528, 1693], 's_12_10': [5453], 4: [5438], 's_2_4': [1558], 14: [5543, 1708], 's_2_14': [1604], 's_10_4': [1634], 's_10_14': [5469], 1: [1754], 3: [5499], 's_1_3': [5514], 7: [1799], 's_3_7': [1784], 's_3_14': [1664]}</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>7.692307692307693e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.001402308606551314</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{0: [5273, 1648], 6: [5363], 's_0_6': [1707], 8: [1768, 5348], 's_0_8': [5393], 9: [5333, 1813, 5334], 's_0_9': [5274], 11: [1663], 's_0_11': [5258], 12: [1618, 5423], 's_0_12': [5318], 's_6_8': [1753], 's_6_12': [1633], 2: [5408, 1603], 's_8_2': [5409], 5: [1722], 's_8_5': [1737], 's_8_9': [5424], 's_8_11': [5319], 's_9_5': [5304], 13: [1828], 's_9_13': [5289], 's_11_2': [1678], 's_11_12': [5378], 's_12_2': [5468], 10: [5528, 1693], 's_12_10': [5453], 4: [5438], 's_2_4': [1558], 14: [5543, 1708], 's_2_14': [1604], 's_10_4': [1634], 's_10_14': [5469], 1: [1754], 3: [5499], 's_1_3': [5514], 7: [1799], 's_3_7': [1784], 's_3_14': [1664]}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>7.692307692307693e-05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.001402308606551314</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{0: [1945], 2: [4839], 9: [4824], 1: [1795], 14: [1840], 6: [1855], 7: [4809], 11: [1810], 13: [1780], 3: [4765], 4: [4854], 8: [1870, 4884], 12: [4869], 5: [1825], 10: [4944], 15: [4749]}</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{0: [1945], 2: [4839], 9: [4824], 1: [1795], 14: [1840], 6: [1855], 7: [4809], 11: [1810], 13: [1780], 3: [4765], 4: [4854], 8: [1870, 4884], 12: [4869], 5: [1825], 10: [4944], 15: [4749]}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{0: [5287, 1453], 2: [1317, 1318], 's_0_2': [1303], 9: [1332, 1331], 's_0_9': [5317], 1: [5302, 1347], 's_2_1': [5226], 14: [1211, 1316, 5046], 's_2_14': [1212, 5271], 's_9_1': [5256], 6: [1345, 1346], 's_9_6': [1330], 7: [5061, 1181], 's_9_7': [5122, 5121], 11: [5031, 1391], 's_9_11': [5137, 1361], 13: [1377, 5211], 's_9_13': [5332], 's_1_13': [5361], 3: [4927], 's_14_3': [1301], 4: [1271], 's_14_4': [4911], 's_14_7': [5015], 8: [1286, 4956], 's_14_8': [4896], 's_6_3': [4942], 12: [5076, 1287], 's_6_12': [5181], 5: [1241, 1272, 5091], 's_7_5': [5151], 's_11_4': [4986], 's_11_8': [5016], 10: [1392], 's_13_10': [5272], 's_13_12': [5196], 's_12_5': [1302], 's_12_8': [1256], 's_4_5': [4971], 's_4_8': [4941], 15: [5241], 's_5_15': [1242]}</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001904761904761905</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002121053090601913</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{0: [5287, 1453], 2: [1317, 1318], 's_0_2': [1303], 9: [1332, 1331], 's_0_9': [5317], 1: [5302, 1347], 's_2_1': [5226], 14: [1211, 1316, 5046], 's_2_14': [1212, 5271], 's_9_1': [5256], 6: [1345, 1346], 's_9_6': [1330], 7: [5061, 1181], 's_9_7': [5122, 5121], 11: [5031, 1391], 's_9_11': [5137, 1361], 13: [1377, 5211], 's_9_13': [5332], 's_1_13': [5361], 3: [4927], 's_14_3': [1301], 4: [1271], 's_14_4': [4911], 's_14_7': [5015], 8: [1286, 4956], 's_14_8': [4896], 's_6_3': [4942], 12: [5076, 1287], 's_6_12': [5181], 5: [1241, 1272, 5091], 's_7_5': [5151], 's_11_4': [4986], 's_11_8': [5016], 10: [1392], 's_13_10': [5272], 's_13_12': [5196], 's_12_5': [1302], 's_12_8': [1256], 's_4_5': [4971], 's_4_8': [4941], 15: [5241], 's_5_15': [1242]}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0001904761904761905</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.002121053090601913</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{0: [2174, 5441], 2: [2098], 3: [5440], 4: [5501], 8: [2083], 5: [5380], 13: [5486], 14: [5545], 9: [1978], 10: [2053], 11: [2024], 16: [2068], 1: [5455, 5456], 15: [5395], 7: [1963], 6: [5471], 12: [2128]}</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0004631773969430292</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.005199153385975834</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{0: [2174, 5441], 2: [2098], 3: [5440], 4: [5501], 8: [2083], 5: [5380], 13: [5486], 14: [5545], 9: [1978], 10: [2053], 11: [2024], 16: [2068], 1: [5455, 5456], 15: [5395], 7: [1963], 6: [5471], 12: [2128]}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0.0004631773969430292</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.005199153385975834</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{0: [1953, 3550], 2: [3506, 2042], 's_0_2': [3565], 3: [3655], 's_0_3': [1968], 4: [1999, 1998], 's_0_4': [3625], 8: [3535, 3536], 's_0_8': [2118], 5: [2073, 2072], 's_2_5': [3400], 's_2_8': [2178], 13: [3491, 2029, 2028], 's_2_13': [2102], 14: [3445], 's_2_14': [3430], 9: [2058, 3611, 3610], 's_3_9': [1938], 's_4_8': [3520], 10: [3505, 1892], 's_4_10': [3490], 11: [3595], 's_4_11': [3580], 16: [3745], 's_4_16': [1984], 1: [2148], 's_8_1': [2133], 's_8_5': [2087], 15: [1923, 3564], 's_8_15': [1862], 7: [3686, 2164], 's_5_7': [3701], 's_5_9': [3626], 's_5_16': [2088], 6: [3460], 's_13_6': [2057], 's_13_11': [2013], 12: [3775], 's_13_12': [2014], 's_14_10': [1907], 's_9_1': [3671], 's_9_7': [3716], 's_9_15': [3640], 's_10_6': [1937], 's_10_15': [3549], 's_1_7': [3656]}</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0001304347826086956</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.001678846484896332</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{0: [1953, 3550], 2: [3506, 2042], 's_0_2': [3565], 3: [3655], 's_0_3': [1968], 4: [1999, 1998], 's_0_4': [3625], 8: [3535, 3536], 's_0_8': [2118], 5: [2073, 2072], 's_2_5': [3400], 's_2_8': [2178], 13: [3491, 2029, 2028], 's_2_13': [2102], 14: [3445], 's_2_14': [3430], 9: [2058, 3611, 3610], 's_3_9': [1938], 's_4_8': [3520], 10: [3505, 1892], 's_4_10': [3490], 11: [3595], 's_4_11': [3580], 16: [3745], 's_4_16': [1984], 1: [2148], 's_8_1': [2133], 's_8_5': [2087], 15: [1923, 3564], 's_8_15': [1862], 7: [3686, 2164], 's_5_7': [3701], 's_5_9': [3626], 's_5_16': [2088], 6: [3460], 's_13_6': [2057], 's_13_11': [2013], 12: [3775], 's_13_12': [2014], 's_14_10': [1907], 's_9_1': [3671], 's_9_7': [3716], 's_9_15': [3640], 's_10_6': [1937], 's_10_15': [3549], 's_1_7': [3656]}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0001304347826086956</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.001678846484896332</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>{0: [279], 2: [309, 4726], 4: [4771], 9: [249, 4665], 11: [4741], 17: [4696, 354], 1: [324], 5: [4650], 7: [4591], 6: [220, 219], 10: [235], 15: [4711, 385], 12: [4756], 14: [189], 13: [294, 4681], 8: [384], 16: [339], 3: [4710]}</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0007936507936507937</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.006592558621363552</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{0: [279], 2: [309, 4726], 4: [4771], 9: [249, 4665], 11: [4741], 17: [4696, 354], 1: [324], 5: [4650], 7: [4591], 6: [220, 219], 10: [235], 15: [4711, 385], 12: [4756], 14: [189], 13: [294, 4681], 8: [384], 16: [339], 3: [4710]}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0007936507936507937</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.006592558621363552</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.718</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{0: [2253, 2254], 2: [2285, 3911, 3912], 's_0_2': [2269], 4: [3612, 3672, 2283], 's_0_4': [3581], 9: [4032, 2299, 2300, 3926], 's_0_9': [3746], 11: [3762, 3761], 's_0_11': [3776], 17: [2359, 3852, 2360], 's_0_17': [3882], 1: [3927, 2419], 's_2_1': [2434], 5: [2376, 4002], 's_2_5': [2330], 7: [2315, 2314, 3732, 3717], 's_2_7': [2284], 's_2_9': [2165], 's_2_17': [2210], 6: [3702, 2193, 2194], 's_4_6': [3596], 10: [2282], 's_4_10': [2297, 2298], 15: [3777, 2388, 2389], 's_4_15': [3673], 's_9_1': [4017, 2420], 's_9_5': [2361], 's_9_6': [2195], 's_9_11': [2180, 2179], 12: [2344, 2345, 3807], 's_9_12': [2346], 14: [2240], 's_9_14': [2239], 's_11_6': [2209], 's_11_15': [2449], 's_17_1': [3853], 's_17_7': [3747], 's_17_12': [2329], 13: [3792, 2375, 2374], 's_17_13': [3957], 's_17_15': [3477, 2358], 's_1_7': [2418], 's_1_13': [2404], 's_1_15': [2390], 's_5_13': [3987, 2270], 's_7_6': [3731], 8: [3718], 's_7_8': [2479], 16: [3642, 2313], 's_7_16': [2268], 3: [3507], 's_6_3': [2208], 's_6_12': [3687], 's_10_3': [3492], 's_15_13': [3688], 's_15_8': [2464], 's_15_16': [3567], 's_12_13': [3972], 's_12_16': [3657], 's_13_8': [3703]}</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.001574007623869719</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{0: [2253, 2254], 2: [2285, 3911, 3912], 's_0_2': [2269], 4: [3612, 3672, 2283], 's_0_4': [3581], 9: [4032, 2299, 2300, 3926], 's_0_9': [3746], 11: [3762, 3761], 's_0_11': [3776], 17: [2359, 3852, 2360], 's_0_17': [3882], 1: [3927, 2419], 's_2_1': [2434], 5: [2376, 4002], 's_2_5': [2330], 7: [2315, 2314, 3732, 3717], 's_2_7': [2284], 's_2_9': [2165], 's_2_17': [2210], 6: [3702, 2193, 2194], 's_4_6': [3596], 10: [2282], 's_4_10': [2297, 2298], 15: [3777, 2388, 2389], 's_4_15': [3673], 's_9_1': [4017, 2420], 's_9_5': [2361], 's_9_6': [2195], 's_9_11': [2180, 2179], 12: [2344, 2345, 3807], 's_9_12': [2346], 14: [2240], 's_9_14': [2239], 's_11_6': [2209], 's_11_15': [2449], 's_17_1': [3853], 's_17_7': [3747], 's_17_12': [2329], 13: [3792, 2375, 2374], 's_17_13': [3957], 's_17_15': [3477, 2358], 's_1_7': [2418], 's_1_13': [2404], 's_1_15': [2390], 's_5_13': [3987, 2270], 's_7_6': [3731], 8: [3718], 's_7_8': [2479], 16: [3642, 2313], 's_7_16': [2268], 3: [3507], 's_6_3': [2208], 's_6_12': [3687], 's_10_3': [3492], 's_15_13': [3688], 's_15_8': [2464], 's_15_16': [3567], 's_12_13': [3972], 's_12_16': [3657], 's_13_8': [3703]}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.00015</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.001574007623869719</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>{0: [5549], 2: [2744], 3: [2834], 7: [2759], 11: [2684], 5: [5579], 8: [5564], 12: [5444], 13: [5594], 14: [5609], 15: [2714, 5534], 17: [2699], 4: [5384, 2698], 9: [2788], 16: [2773], 6: [5608], 1: [5474], 18: [5489]}</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.000992063492063492</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.007357339768944111</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{0: [5549], 2: [2744], 3: [2834], 7: [2759], 11: [2684], 5: [5579], 8: [5564], 12: [5444], 13: [5594], 14: [5609], 15: [2714, 5534], 17: [2699], 4: [5384, 2698], 9: [2788], 16: [2773], 6: [5608], 1: [5474], 18: [5489]}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.000992063492063492</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.007357339768944111</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>{0: [1464, 4642], 2: [1510, 4672, 1509], 's_0_2': [1434], 3: [1674, 4643], 's_0_3': [1584, 4703], 7: [4657, 4793, 1524], 's_0_7': [1523], 11: [1494, 1495], 's_0_11': [4627], 5: [4807], 's_2_5': [1539], 's_2_7': [4702], 8: [4748, 1599], 's_2_8': [4673], 12: [1374, 4687], 's_2_12': [4671], 13: [4897], 's_2_13': [4912], 's_3_8': [4628], 's_7_8': [1630], 's_7_12': [1479], 14: [1525, 4943], 's_7_14': [1615], 's_11_8': [4613], 15: [4882, 4791, 4792, 1420], 's_11_15': [4867], 17: [1480, 4837], 's_11_17': [4717], 's_5_15': [4822], 's_5_17': [1435], 's_12_15': [1419], 4: [1450, 4777], 's_12_4': [1449], 9: [4821, 1344], 's_12_9': [4686], 16: [1315, 4747], 's_12_16': [1389], 's_13_14': [1481], 's_14_15': [4942], 's_14_17': [1540], 6: [4987], 's_14_6': [5002], 1: [1285], 's_15_1': [4881], 's_15_9': [1270], 's_15_16': [1300], 18: [4776], 's_15_18': [1135], 's_17_4': [4852], 's_9_4': [1405], 's_9_16': [4731], 's_16_4': [4762]}</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0001346153846153846</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001603320334391901</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{0: [1464, 4642], 2: [1510, 4672, 1509], 's_0_2': [1434], 3: [1674, 4643], 's_0_3': [1584, 4703], 7: [4657, 4793, 1524], 's_0_7': [1523], 11: [1494, 1495], 's_0_11': [4627], 5: [4807], 's_2_5': [1539], 's_2_7': [4702], 8: [4748, 1599], 's_2_8': [4673], 12: [1374, 4687], 's_2_12': [4671], 13: [4897], 's_2_13': [4912], 's_3_8': [4628], 's_7_8': [1630], 's_7_12': [1479], 14: [1525, 4943], 's_7_14': [1615], 's_11_8': [4613], 15: [4882, 4791, 4792, 1420], 's_11_15': [4867], 17: [1480, 4837], 's_11_17': [4717], 's_5_15': [4822], 's_5_17': [1435], 's_12_15': [1419], 4: [1450, 4777], 's_12_4': [1449], 9: [4821, 1344], 's_12_9': [4686], 16: [1315, 4747], 's_12_16': [1389], 's_13_14': [1481], 's_14_15': [4942], 's_14_17': [1540], 6: [4987], 's_14_6': [5002], 1: [1285], 's_15_1': [4881], 's_15_9': [1270], 's_15_16': [1300], 18: [4776], 's_15_18': [1135], 's_17_4': [4852], 's_9_4': [1405], 's_9_16': [4731], 's_16_4': [4762]}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0001346153846153846</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.001603320334391901</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>{0: [1026], 3: [966, 4220], 8: [1041, 4070], 9: [4175], 15: [4129], 17: [4114], 4: [1011, 4145], 5: [996], 11: [1056], 12: [4144], 18: [1087], 2: [1071], 7: [936, 937], 14: [1146, 4190], 1: [4130, 1161], 6: [951], 16: [981, 4205], 13: [1086], 10: [4115], 19: [4174]}</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0009316770186335405</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.008761947813457072</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{0: [1026], 3: [966, 4220], 8: [1041, 4070], 9: [4175], 15: [4129], 17: [4114], 4: [1011, 4145], 5: [996], 11: [1056], 12: [4144], 18: [1087], 2: [1071], 7: [936, 937], 14: [1146, 4190], 1: [4130, 1161], 6: [951], 16: [981, 4205], 13: [1086], 10: [4115], 19: [4174]}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0009316770186335405</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.008761947813457072</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>{0: [4494, 4495], 3: [1928, 2034, 4555], 's_0_3': [2048], 8: [4629, 1899, 1898], 's_0_8': [1883], 9: [2078, 2077, 4436], 's_0_9': [2123], 15: [1958, 4465], 's_0_15': [2003], 17: [4510, 1912, 1913], 's_0_17': [2033], 4: [4421, 1943, 1944, 4420], 's_3_4': [4690], 5: [2092, 2093, 4630], 's_3_5': [4571], 11: [1972, 1973], 's_3_11': [4435], 12: [1809, 4449, 1808], 's_3_12': [4554], 's_3_15': [4540], 's_3_17': [4464], 18: [4675, 2018, 2019], 's_3_18': [4660], 2: [4750, 1914], 's_8_2': [4809], 's_8_4': [4600], 7: [4479, 1852, 1853], 's_8_7': [1854], 14: [1838, 1839, 4615, 1974], 's_8_14': [4735], 's_8_17': [4644], 1: [4300], 's_9_1': [4315], 's_9_4': [2183], 's_9_5': [4346], 's_9_18': [2079], 's_15_4': [2047], 6: [4524, 4585, 1868], 's_15_6': [4570], 16: [4480, 1987, 1988], 's_15_16': [2108], 's_17_4': [4525], 's_17_6': [4509], 13: [4450, 4345, 2062], 's_4_13': [1942], 's_4_2': [4705], 's_4_5': [4511, 2168], 's_4_12': [4419], 's_5_14': [4645], 's_5_16': [2063], 's_11_1': [1957], 10: [4374, 4375], 's_11_10': [4360], 's_11_14': [4405], 's_11_16': [4240], 's_12_6': [4539], 's_12_7': [1823], 's_18_13': [2017], 's_18_14': [2004], 's_18_16': [1989], 's_2_14': [4720], 's_7_16': [4255], 's_7_6': [1793], 19: [4210], 's_7_19': [4225], 's_14_10': [4359], 's_1_13': [2032], 's_16_19': [2002], 's_13_10': [1897]}</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0001594202898550724</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001511629635390023</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{0: [4494, 4495], 3: [1928, 2034, 4555], 's_0_3': [2048], 8: [4629, 1899, 1898], 's_0_8': [1883], 9: [2078, 2077, 4436], 's_0_9': [2123], 15: [1958, 4465], 's_0_15': [2003], 17: [4510, 1912, 1913], 's_0_17': [2033], 4: [4421, 1943, 1944, 4420], 's_3_4': [4690], 5: [2092, 2093, 4630], 's_3_5': [4571], 11: [1972, 1973], 's_3_11': [4435], 12: [1809, 4449, 1808], 's_3_12': [4554], 's_3_15': [4540], 's_3_17': [4464], 18: [4675, 2018, 2019], 's_3_18': [4660], 2: [4750, 1914], 's_8_2': [4809], 's_8_4': [4600], 7: [4479, 1852, 1853], 's_8_7': [1854], 14: [1838, 1839, 4615, 1974], 's_8_14': [4735], 's_8_17': [4644], 1: [4300], 's_9_1': [4315], 's_9_4': [2183], 's_9_5': [4346], 's_9_18': [2079], 's_15_4': [2047], 6: [4524, 4585, 1868], 's_15_6': [4570], 16: [4480, 1987, 1988], 's_15_16': [2108], 's_17_4': [4525], 's_17_6': [4509], 13: [4450, 4345, 2062], 's_4_13': [1942], 's_4_2': [4705], 's_4_5': [4511, 2168], 's_4_12': [4419], 's_5_14': [4645], 's_5_16': [2063], 's_11_1': [1957], 10: [4374, 4375], 's_11_10': [4360], 's_11_14': [4405], 's_11_16': [4240], 's_12_6': [4539], 's_12_7': [1823], 's_18_13': [2017], 's_18_14': [2004], 's_18_16': [1989], 's_2_14': [4720], 's_7_16': [4255], 's_7_6': [1793], 19: [4210], 's_7_19': [4225], 's_14_10': [4359], 's_1_13': [2032], 's_16_19': [2002], 's_13_10': [1897]}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0001594202898550724</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001511629635390023</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>{0: [4639], 2: [894, 4744], 5: [954, 955], 13: [879, 4729], 15: [924], 20: [4624], 1: [4669], 3: [4819, 925], 4: [910], 10: [4668, 834], 14: [4789, 819], 18: [4684], 7: [4804], 8: [4790], 17: [4699], 19: [4654, 909], 11: [984], 12: [969], 16: [4714], 9: [818, 4549], 6: [1014]}</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001124859392575928</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.007231834091483276</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{0: [4639], 2: [894, 4744], 5: [954, 955], 13: [879, 4729], 15: [924], 20: [4624], 1: [4669], 3: [4819, 925], 4: [910], 10: [4668, 834], 14: [4789, 819], 18: [4684], 7: [4804], 8: [4790], 17: [4699], 19: [4654, 909], 11: [984], 12: [969], 16: [4714], 9: [818, 4549], 6: [1014]}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.001124859392575928</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.007231834091483276</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>{0: [4255, 1957, 1958], 2: [4302, 4299, 4300, 4301], 's_0_2': [1852], 5: [2032, 2033, 4526, 4525], 's_0_5': [4315], 13: [2227, 4467, 4465, 4466], 's_0_13': [1973], 15: [4181, 1911, 4180], 's_0_15': [1956], 20: [2003, 1867, 4420], 's_0_20': [4360], 1: [2302, 2226, 4257], 's_2_1': [2362], 3: [4241, 2047, 2046], 's_2_3': [2017], 4: [2242, 2183, 4361], 's_2_4': [2092], 10: [2392, 4332], 's_2_10': [2257], 's_2_13': [2077], 14: [4346, 4270, 2107], 's_2_14': [1987], 18: [2407], 's_2_18': [4317], 's_2_20': [1912], 7: [4586, 4421, 2108], 's_5_7': [2048], 8: [2076, 4212, 4211], 's_5_8': [2031, 4120], 's_5_13': [1988], 17: [4377, 2153, 4376, 2152], 's_5_17': [4511], 19: [4496, 2138], 's_5_19': [4571, 2063], 's_13_1': [4407], 's_13_3': [2062], 's_13_4': [4316], 11: [2197, 2198], 's_13_11': [4392], 12: [2168, 2167], 's_13_12': [4451], 's_13_14': [4331], 16: [2272, 4422], 's_13_16': [2348], 's_13_18': [4452], 's_13_19': [2228], 's_13_20': [4464], 's_15_1': [4196, 4195], 9: [2002], 's_15_9': [4225], 6: [4136, 4135], 's_1_6': [2241], 's_1_10': [2347], 's_3_6': [2091], 's_3_7': [4450], 's_3_12': [4436], 's_3_14': [2061], 's_4_7': [2184], 's_4_16': [4362], 's_4_19': [2243], 's_10_16': [4347], 's_14_8': [2106], 's_14_9': [4345], 's_14_17': [2137], 's_18_17': [2422], 's_7_12': [2169], 's_8_6': [2136], 's_8_12': [4226], 's_8_11': [4227], 's_17_12': [4286], 's_17_19': [2213], 's_17_11': [4271], 's_19_11': [4481], 's_11_16': [4437]}</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0002027027027027027</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00164260078123557</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>{0: [4255, 1957, 1958], 2: [4302, 4299, 4300, 4301], 's_0_2': [1852], 5: [2032, 2033, 4526, 4525], 's_0_5': [4315], 13: [2227, 4467, 4465, 4466], 's_0_13': [1973], 15: [4181, 1911, 4180], 's_0_15': [1956], 20: [2003, 1867, 4420], 's_0_20': [4360], 1: [2302, 2226, 4257], 's_2_1': [2362], 3: [4241, 2047, 2046], 's_2_3': [2017], 4: [2242, 2183, 4361], 's_2_4': [2092], 10: [2392, 4332], 's_2_10': [2257], 's_2_13': [2077], 14: [4346, 4270, 2107], 's_2_14': [1987], 18: [2407], 's_2_18': [4317], 's_2_20': [1912], 7: [4586, 4421, 2108], 's_5_7': [2048], 8: [2076, 4212, 4211], 's_5_8': [2031, 4120], 's_5_13': [1988], 17: [4377, 2153, 4376, 2152], 's_5_17': [4511], 19: [4496, 2138], 's_5_19': [4571, 2063], 's_13_1': [4407], 's_13_3': [2062], 's_13_4': [4316], 11: [2197, 2198], 's_13_11': [4392], 12: [2168, 2167], 's_13_12': [4451], 's_13_14': [4331], 16: [2272, 4422], 's_13_16': [2348], 's_13_18': [4452], 's_13_19': [2228], 's_13_20': [4464], 's_15_1': [4196, 4195], 9: [2002], 's_15_9': [4225], 6: [4136, 4135], 's_1_6': [2241], 's_1_10': [2347], 's_3_6': [2091], 's_3_7': [4450], 's_3_12': [4436], 's_3_14': [2061], 's_4_7': [2184], 's_4_16': [4362], 's_4_19': [2243], 's_10_16': [4347], 's_14_8': [2106], 's_14_9': [4345], 's_14_17': [2137], 's_18_17': [2422], 's_7_12': [2169], 's_8_6': [2136], 's_8_12': [4226], 's_8_11': [4227], 's_17_12': [4286], 's_17_19': [2213], 's_17_11': [4271], 's_19_11': [4481], 's_11_16': [4437]}</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0002027027027027027</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00164260078123557</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>{0: [4040], 1: [1025], 2: [4025], 5: [951], 6: [995], 7: [1086], 13: [1040], 12: [3875], 21: [4010], 3: [1101, 4100], 20: [1056, 1055], 9: [4055], 16: [1010, 3980], 4: [1116, 3995], 14: [4160], 18: [4145], 10: [1160, 1161], 15: [1145], 19: [4070], 8: [4115, 1071], 17: [4130], 11: [1221]}</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>{0: [4040], 1: [1025], 2: [4025], 5: [951], 6: [995], 7: [1086], 13: [1040], 12: [3875], 21: [4010], 3: [1101, 4100], 20: [1056, 1055], 9: [4055], 16: [1010, 3980], 4: [1116, 3995], 14: [4160], 18: [4145], 10: [1160, 1161], 15: [1145], 19: [4070], 8: [4115, 1071], 17: [4130], 11: [1221]}</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>{0: [1314, 4566, 4567], 1: [1284], 's_0_1': [4686], 2: [4461, 4581, 1238], 's_0_2': [1148], 5: [4537, 1388], 's_0_5': [1358], 6: [1373, 4626], 's_0_6': [4582], 7: [4416, 1434, 1433, 4417], 's_0_7': [1223], 13: [4597, 1343], 's_0_13': [4612], 's_1_2': [1283], 12: [4641], 's_1_12': [1269], 21: [1404, 4671], 's_1_21': [4656], 3: [4356, 4522, 1298, 4521], 's_2_3': [1178], 's_2_5': [4536], 20: [4506, 4508, 4507], 's_2_20': [1193], 9: [4476, 1583, 4477], 's_5_9': [4538], 's_6_9': [1328], 16: [1538, 4491, 4492], 's_6_16': [4627], 's_6_21': [1389], 's_7_3': [1192], 4: [1342, 1463, 4403, 4402], 's_7_4': [1372], 's_7_9': [4447], 14: [4687, 1448, 1449], 's_7_14': [4672], 18: [1419], 's_7_18': [4762], 's_13_4': [1464], 's_13_12': [1299], 's_13_16': [4598], 10: [4702, 1509, 1508], 's_21_10': [1359], 's_3_4': [4446], 's_3_10': [1523], 's_3_14': [4387], 15: [4371], 's_3_15': [1177], 19: [4432, 1418], 's_3_19': [1327], 's_3_20': [1208], 8: [1598, 1494, 4583], 's_20_8': [4523], 's_20_9': [1568], 17: [1643], 's_20_17': [1628], 's_20_19': [1403], 's_9_16': [4553], 's_9_8': [1553], 's_16_4': [1537], 's_16_10': [4613], 's_16_19': [1313], 's_4_14': [4357], 's_4_15': [4372], 's_4_17': [4388], 's_14_8': [1479], 's_14_18': [4642], 's_18_10': [4717], 's_10_8': [4568], 11: [4463], 's_8_11': [4448]}</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0001857142857142857</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001618200058265797</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{0: [1314, 4566, 4567], 1: [1284], 's_0_1': [4686], 2: [4461, 4581, 1238], 's_0_2': [1148], 5: [4537, 1388], 's_0_5': [1358], 6: [1373, 4626], 's_0_6': [4582], 7: [4416, 1434, 1433, 4417], 's_0_7': [1223], 13: [4597, 1343], 's_0_13': [4612], 's_1_2': [1283], 12: [4641], 's_1_12': [1269], 21: [1404, 4671], 's_1_21': [4656], 3: [4356, 4522, 1298, 4521], 's_2_3': [1178], 's_2_5': [4536], 20: [4506, 4508, 4507], 's_2_20': [1193], 9: [4476, 1583, 4477], 's_5_9': [4538], 's_6_9': [1328], 16: [1538, 4491, 4492], 's_6_16': [4627], 's_6_21': [1389], 's_7_3': [1192], 4: [1342, 1463, 4403, 4402], 's_7_4': [1372], 's_7_9': [4447], 14: [4687, 1448, 1449], 's_7_14': [4672], 18: [1419], 's_7_18': [4762], 's_13_4': [1464], 's_13_12': [1299], 's_13_16': [4598], 10: [4702, 1509, 1508], 's_21_10': [1359], 's_3_4': [4446], 's_3_10': [1523], 's_3_14': [4387], 15: [4371], 's_3_15': [1177], 19: [4432, 1418], 's_3_19': [1327], 's_3_20': [1208], 8: [1598, 1494, 4583], 's_20_8': [4523], 's_20_9': [1568], 17: [1643], 's_20_17': [1628], 's_20_19': [1403], 's_9_16': [4553], 's_9_8': [1553], 's_16_4': [1537], 's_16_10': [4613], 's_16_19': [1313], 's_4_14': [4357], 's_4_15': [4372], 's_4_17': [4388], 's_14_8': [1479], 's_14_18': [4642], 's_18_10': [4717], 's_10_8': [4568], 11: [4463], 's_8_11': [4448]}</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0001857142857142857</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001618200058265797</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>{0: [1086], 7: [4115, 4114], 9: [1101, 3995], 19: [4085], 2: [1026, 4205], 4: [1041], 6: [921, 4129], 12: [936], 1: [1116], 10: [1011, 1010], 13: [3965, 1145], 15: [1071, 4145], 16: [4071, 4070], 17: [4055], 3: [4084], 11: [1161, 1160], 22: [4160], 8: [995, 996], 18: [1056, 4190], 20: [4175], 5: [4100, 980, 4099], 14: [3980], 21: [1146]}</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0007444907683144729</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.005640469602404946</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>{0: [1086], 7: [4115, 4114], 9: [1101, 3995], 19: [4085], 2: [1026, 4205], 4: [1041], 6: [921, 4129], 12: [936], 1: [1116], 10: [1011, 1010], 13: [3965, 1145], 15: [1071, 4145], 16: [4071, 4070], 17: [4055], 3: [4084], 11: [1161, 1160], 22: [4160], 8: [995, 996], 18: [1056, 4190], 20: [4175], 5: [4100, 980, 4099], 14: [3980], 21: [1146]}</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0007444907683144729</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.005640469602404946</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>{0: [4856], 7: [4855, 2034, 2035, 4751], 's_0_7': [2170], 9: [2290, 4451, 2288, 4646, 2289], 's_0_9': [2305], 19: [4752, 4841, 2200], 's_0_19': [2275], 2: [4541, 2079, 2078], 's_7_2': [4766], 4: [4797, 2215, 4720, 4721], 's_7_4': [2109], 6: [4525, 2048, 2049], 's_7_6': [4735], 12: [1973, 4540], 's_7_12': [4555], 1: [4466, 2198], 's_9_1': [2303], 10: [4645, 4346, 2092, 2093], 's_9_10': [2183, 2182], 13: [2229, 4511, 2228], 's_9_13': [4512], 15: [4362, 2213, 4361], 's_9_15': [2287], 16: [2274, 2273, 4495, 4496], 's_9_16': [4527], 17: [1990, 1989, 1988, 4450], 's_9_17': [2138, 4570, 4571], 's_9_19': [2260, 4917], 3: [2094, 2185, 4781], 's_19_3': [2140], 11: [2319, 4722], 's_19_11': [2350], 's_19_13': [2230], 22: [4601, 2153, 2154], 's_2_22': [4586], 8: [2077, 2018, 4421], 's_2_8': [2108], 's_2_16': [4542], 18: [2364, 2214, 4617], 's_2_18': [4556], 20: [4707, 4706], 's_2_20': [2184], 's_4_22': [2139], 's_4_16': [4826], 's_4_18': [2365], 's_4_3': [4736], 's_4_17': [1914, 4705], 5: [4810, 4811, 2257, 2258, 2259], 's_6_5': [4825], 's_6_8': [4510], 's_6_3': [4675], 's_6_10': [2063], 's_6_12': [1913], 's_12_16': [1958], 's_12_17': [2004], 's_1_5': [4407], 's_1_15': [4422], 's_1_22': [4481], 's_10_22': [2152], 's_10_3': [2124, 2125], 's_10_13': [2227], 's_13_16': [4676], 14: [2123], 's_13_14': [4526], 21: [2199, 4661], 's_13_21': [4572], 's_15_8': [4360, 2047], 's_15_16': [2272], 's_15_18': [2363], 's_16_5': [4782], 's_16_11': [4737], 's_16_17': [2033], 's_16_18': [2243], 's_17_5': [2005], 's_17_8': [2062], 's_3_5': [2020], 's_11_5': [4602], 's_11_18': [2304], 's_11_20': [4692], 's_22_8': [4436], 's_22_21': [4631], 's_8_14': [4465], 's_18_20': [4691], 's_18_21': [4662], 's_21_20': [2169]}</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0002705882352941176</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001763568260765832</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{0: [4856], 7: [4855, 2034, 2035, 4751], 's_0_7': [2170], 9: [2290, 4451, 2288, 4646, 2289], 's_0_9': [2305], 19: [4752, 4841, 2200], 's_0_19': [2275], 2: [4541, 2079, 2078], 's_7_2': [4766], 4: [4797, 2215, 4720, 4721], 's_7_4': [2109], 6: [4525, 2048, 2049], 's_7_6': [4735], 12: [1973, 4540], 's_7_12': [4555], 1: [4466, 2198], 's_9_1': [2303], 10: [4645, 4346, 2092, 2093], 's_9_10': [2183, 2182], 13: [2229, 4511, 2228], 's_9_13': [4512], 15: [4362, 2213, 4361], 's_9_15': [2287], 16: [2274, 2273, 4495, 4496], 's_9_16': [4527], 17: [1990, 1989, 1988, 4450], 's_9_17': [2138, 4570, 4571], 's_9_19': [2260, 4917], 3: [2094, 2185, 4781], 's_19_3': [2140], 11: [2319, 4722], 's_19_11': [2350], 's_19_13': [2230], 22: [4601, 2153, 2154], 's_2_22': [4586], 8: [2077, 2018, 4421], 's_2_8': [2108], 's_2_16': [4542], 18: [2364, 2214, 4617], 's_2_18': [4556], 20: [4707, 4706], 's_2_20': [2184], 's_4_22': [2139], 's_4_16': [4826], 's_4_18': [2365], 's_4_3': [4736], 's_4_17': [1914, 4705], 5: [4810, 4811, 2257, 2258, 2259], 's_6_5': [4825], 's_6_8': [4510], 's_6_3': [4675], 's_6_10': [2063], 's_6_12': [1913], 's_12_16': [1958], 's_12_17': [2004], 's_1_5': [4407], 's_1_15': [4422], 's_1_22': [4481], 's_10_22': [2152], 's_10_3': [2124, 2125], 's_10_13': [2227], 's_13_16': [4676], 14: [2123], 's_13_14': [4526], 21: [2199, 4661], 's_13_21': [4572], 's_15_8': [4360, 2047], 's_15_16': [2272], 's_15_18': [2363], 's_16_5': [4782], 's_16_11': [4737], 's_16_17': [2033], 's_16_18': [2243], 's_17_5': [2005], 's_17_8': [2062], 's_3_5': [2020], 's_11_5': [4602], 's_11_18': [2304], 's_11_20': [4692], 's_22_8': [4436], 's_22_21': [4631], 's_8_14': [4465], 's_18_20': [4691], 's_18_21': [4662], 's_21_20': [2169]}</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0002705882352941176</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.001763568260765832</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>{0: [3771], 1: [3756, 3757], 2: [1369, 3862], 16: [3772], 22: [1354], 8: [1504], 9: [1534], 10: [1519, 3832], 12: [3937, 1430, 1429], 15: [1324], 17: [1414, 1415], 20: [3878, 1549], 3: [3863, 1490], 6: [3907, 1445], 13: [3877], 18: [3893, 3892], 19: [1339], 7: [1399, 3802], 11: [3848, 3847], 14: [1460, 3817], 4: [3922], 23: [1475, 3982], 21: [3801], 5: [1491]}</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0006918819188191881</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.005324444825007009</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>{0: [3771], 1: [3756, 3757], 2: [1369, 3862], 16: [3772], 22: [1354], 8: [1504], 9: [1534], 10: [1519, 3832], 12: [3937, 1430, 1429], 15: [1324], 17: [1414, 1415], 20: [3878, 1549], 3: [3863, 1490], 6: [3907, 1445], 13: [3877], 18: [3893, 3892], 19: [1339], 7: [1399, 3802], 11: [3848, 3847], 14: [1460, 3817], 4: [3922], 23: [1475, 3982], 21: [3801], 5: [1491]}</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0006918819188191881</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.005324444825007009</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>{0: [4804, 4805, 4670, 1194], 1: [4701, 4849, 4700, 1044, 1045], 's_0_1': [1119], 2: [1193, 4685, 4640, 1104], 's_0_2': [4686], 16: [880], 's_0_16': [895], 22: [894, 4669, 4668], 's_0_22': [4803, 789], 8: [4835, 940, 1000, 4834], 's_1_8': [4850], 9: [4579, 1058, 4580, 1059], 's_1_9': [1043, 4415], 10: [985, 984], 's_1_10': [4925], 12: [4791, 999, 4790, 760, 4789], 's_1_12': [4715], 15: [4716, 1314, 1315], 's_1_15': [1329], 's_1_16': [4895, 4894], 17: [955, 4818, 4819], 's_1_17': [1030], 20: [1028, 1029, 4744, 4745], 's_1_20': [4654], 3: [1090, 1089, 4551, 4550], 's_2_3': [1148], 6: [1015, 4624, 1013, 1014], 's_2_6': [4639], 13: [4683, 4610, 759, 4609], 's_2_13': [4684], 18: [4656, 4760, 1074, 4655], 's_2_18': [1224], 19: [1164, 4777, 4776], 's_2_19': [1149], 's_16_8': [941, 4909], 's_16_17': [4864], 's_22_10': [4699], 's_22_13': [774], 7: [1240, 4865, 4866], 's_8_7': [1165], 's_8_10': [4955], 11: [4731, 4729, 4730], 's_8_11': [4833, 4728, 745], 14: [4880, 925, 4879], 's_8_14': [1120], 's_8_18': [1075], 's_9_3': [1073], 4: [4534, 4714, 834, 833], 's_9_4': [939], 's_9_20': [4520], 's_10_4': [983], 's_10_14': [970], 23: [1105, 1179, 4775, 1060, 4820], 's_10_23': [4940], 's_12_3': [998], 's_12_4': [4759], 's_12_6': [4970, 761, 4969], 's_12_7': [1255], 's_12_17': [850], 's_12_18': [969], 's_12_23': [4774], 's_15_11': [1239], 's_15_18': [4747, 1404], 's_15_19': [4836, 1405], 21: [1285], 's_15_21': [4806], 's_17_4': [954], 's_17_11': [819], 's_17_14': [4878, 775], 's_20_4': [910], 's_20_6': [4474], 's_20_13': [804], 's_20_18': [4595], 's_20_23': [4746], 5: [1238], 's_3_5': [1253], 's_3_11': [1344, 1343], 's_3_18': [1284], 's_6_11': [879], 's_6_13': [909], 's_6_23': [4910], 's_18_19': [1374], 's_18_23': [1178, 4625], 's_19_11': [1300], 's_19_21': [4761], 's_7_14': [1150], 's_7_21': [1270], 's_11_14': [1135], 's_14_4': [835], 's_14_23': [1210, 4881]}</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0003444444444444445</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001925751416595226</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>{0: [4804, 4805, 4670, 1194], 1: [4701, 4849, 4700, 1044, 1045], 's_0_1': [1119], 2: [1193, 4685, 4640, 1104], 's_0_2': [4686], 16: [880], 's_0_16': [895], 22: [894, 4669, 4668], 's_0_22': [4803, 789], 8: [4835, 940, 1000, 4834], 's_1_8': [4850], 9: [4579, 1058, 4580, 1059], 's_1_9': [1043, 4415], 10: [985, 984], 's_1_10': [4925], 12: [4791, 999, 4790, 760, 4789], 's_1_12': [4715], 15: [4716, 1314, 1315], 's_1_15': [1329], 's_1_16': [4895, 4894], 17: [955, 4818, 4819], 's_1_17': [1030], 20: [1028, 1029, 4744, 4745], 's_1_20': [4654], 3: [1090, 1089, 4551, 4550], 's_2_3': [1148], 6: [1015, 4624, 1013, 1014], 's_2_6': [4639], 13: [4683, 4610, 759, 4609], 's_2_13': [4684], 18: [4656, 4760, 1074, 4655], 's_2_18': [1224], 19: [1164, 4777, 4776], 's_2_19': [1149], 's_16_8': [941, 4909], 's_16_17': [4864], 's_22_10': [4699], 's_22_13': [774], 7: [1240, 4865, 4866], 's_8_7': [1165], 's_8_10': [4955], 11: [4731, 4729, 4730], 's_8_11': [4833, 4728, 745], 14: [4880, 925, 4879], 's_8_14': [1120], 's_8_18': [1075], 's_9_3': [1073], 4: [4534, 4714, 834, 833], 's_9_4': [939], 's_9_20': [4520], 's_10_4': [983], 's_10_14': [970], 23: [1105, 1179, 4775, 1060, 4820], 's_10_23': [4940], 's_12_3': [998], 's_12_4': [4759], 's_12_6': [4970, 761, 4969], 's_12_7': [1255], 's_12_17': [850], 's_12_18': [969], 's_12_23': [4774], 's_15_11': [1239], 's_15_18': [4747, 1404], 's_15_19': [4836, 1405], 21: [1285], 's_15_21': [4806], 's_17_4': [954], 's_17_11': [819], 's_17_14': [4878, 775], 's_20_4': [910], 's_20_6': [4474], 's_20_13': [804], 's_20_18': [4595], 's_20_23': [4746], 5: [1238], 's_3_5': [1253], 's_3_11': [1344, 1343], 's_3_18': [1284], 's_6_11': [879], 's_6_13': [909], 's_6_23': [4910], 's_18_19': [1374], 's_18_23': [1178, 4625], 's_19_11': [1300], 's_19_21': [4761], 's_7_14': [1150], 's_7_21': [1270], 's_11_14': [1135], 's_14_4': [835], 's_14_23': [1210, 4881]}</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0.0003444444444444445</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.001925751416595226</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>{0: [4362, 2393], 3: [4438, 4437], 4: [4527, 2408], 10: [2349, 2348], 16: [4482], 17: [4377, 2422], 18: [2378], 1: [4423, 4422], 5: [2257, 4496, 2258], 7: [2198], 8: [4572, 2288], 13: [2364, 2363], 23: [4466, 2272], 6: [4497], 11: [2423, 4512], 9: [4587], 20: [4542, 2273], 24: [4452, 4451], 14: [2318], 21: [2453], 22: [4467, 2333], 2: [2379, 4588], 15: [4347, 4348, 2452], 19: [2303], 12: [4557]}</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.002214022140221403</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.009146528935692795</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>{0: [4362, 2393], 3: [4438, 4437], 4: [4527, 2408], 10: [2349, 2348], 16: [4482], 17: [4377, 2422], 18: [2378], 1: [4423, 4422], 5: [2257, 4496, 2258], 7: [2198], 8: [4572, 2288], 13: [2364, 2363], 23: [4466, 2272], 6: [4497], 11: [2423, 4512], 9: [4587], 20: [4542, 2273], 24: [4452, 4451], 14: [2318], 21: [2453], 22: [4467, 2333], 2: [2379, 4588], 15: [4347, 4348, 2452], 19: [2303], 12: [4557]}</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0.002214022140221403</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.009146528935692795</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>{0: [3815, 905, 3814], 3: [1070, 1069, 3860], 's_0_3': [935], 4: [3846, 3816, 1249], 's_0_4': [1115], 10: [3712, 1264, 3711, 3710, 950, 949], 's_0_10': [3949], 16: [1007, 874, 3559, 873], 's_0_16': [3844], 17: [3921, 3919, 3920], 's_0_17': [920], 18: [3890, 3891, 1158, 1159], 's_0_18': [964], 1: [3560, 3680, 1098, 1100, 1099], 's_3_1': [3935], 5: [1204, 1188, 1054, 3725], 's_3_5': [3770], 7: [934, 3800, 3799], 's_3_7': [979], 8: [3636, 1279, 1130, 3861, 1280], 's_3_8': [3950], 13: [3754, 1039, 3965, 1040], 's_3_13': [3995], 's_3_17': [1055], 23: [1024, 1023], 's_3_23': [3845], 's_4_5': [3786], 6: [3755, 3756], 's_4_6': [1324], 's_4_10': [3726], 11: [3682, 1339, 1338], 's_4_11': [3847], 's_10_1': [978], 's_10_6': [1384], 9: [1129, 3605, 1128], 's_10_9': [1008], 's_10_11': [1309], 's_10_13': [3964], 20: [1218, 1220, 1219, 3739, 3740], 's_10_20': [1173], 24: [3829, 994, 3830], 's_10_24': [3904], 's_16_13': [1038], 14: [992, 3455], 's_16_14': [3544], 21: [828, 3619], 's_16_21': [3664], 22: [3515, 1234, 1233, 1235, 3516], 's_16_22': [977], 's_17_1': [1085], 's_17_11': [3906], 's_17_13': [1025], 's_17_18': [1205], 's_17_24': [1009], 2: [993, 3649, 3650], 's_18_2': [1143], 's_18_6': [1189], 's_1_5': [1187], 's_1_7': [3695], 's_1_13': [3785], 's_1_14': [3500], 's_1_22': [3561], 's_1_23': [3635], 's_5_6': [1084], 's_5_7': [1114], 15: [948, 3590, 3589], 's_5_15': [3575], 's_5_20': [1203], 's_7_23': [3769], 's_7_24': [859], 's_8_13': [3966], 's_8_22': [3951], 's_8_9': [3696], 's_8_11': [1294], 19: [1248, 3681], 's_8_19': [3666], 's_8_24': [1144], 12: [1160, 4026], 's_13_12': [4010], 's_13_20': [889], 's_23_22': [3530], 's_23_15': [3574], 's_23_20': [3724], 's_6_22': [3771], 's_11_19': [3591], 's_9_14': [1083], 's_9_22': [1113], 's_9_2': [1068], 's_9_19': [3531], 's_20_22': [3876], 's_20_2': [919], 's_20_12': [4041], 's_20_19': [3651], 's_14_22': [1157], 's_21_2': [858], 's_21_15': [888], 's_22_12': [1250], 's_22_15': [1053]}</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0001938775510204082</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.001393109418732582</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>{0: [3815, 905, 3814], 3: [1070, 1069, 3860], 's_0_3': [935], 4: [3846, 3816, 1249], 's_0_4': [1115], 10: [3712, 1264, 3711, 3710, 950, 949], 's_0_10': [3949], 16: [1007, 874, 3559, 873], 's_0_16': [3844], 17: [3921, 3919, 3920], 's_0_17': [920], 18: [3890, 3891, 1158, 1159], 's_0_18': [964], 1: [3560, 3680, 1098, 1100, 1099], 's_3_1': [3935], 5: [1204, 1188, 1054, 3725], 's_3_5': [3770], 7: [934, 3800, 3799], 's_3_7': [979], 8: [3636, 1279, 1130, 3861, 1280], 's_3_8': [3950], 13: [3754, 1039, 3965, 1040], 's_3_13': [3995], 's_3_17': [1055], 23: [1024, 1023], 's_3_23': [3845], 's_4_5': [3786], 6: [3755, 3756], 's_4_6': [1324], 's_4_10': [3726], 11: [3682, 1339, 1338], 's_4_11': [3847], 's_10_1': [978], 's_10_6': [1384], 9: [1129, 3605, 1128], 's_10_9': [1008], 's_10_11': [1309], 's_10_13': [3964], 20: [1218, 1220, 1219, 3739, 3740], 's_10_20': [1173], 24: [3829, 994, 3830], 's_10_24': [3904], 's_16_13': [1038], 14: [992, 3455], 's_16_14': [3544], 21: [828, 3619], 's_16_21': [3664], 22: [3515, 1234, 1233, 1235, 3516], 's_16_22': [977], 's_17_1': [1085], 's_17_11': [3906], 's_17_13': [1025], 's_17_18': [1205], 's_17_24': [1009], 2: [993, 3649, 3650], 's_18_2': [1143], 's_18_6': [1189], 's_1_5': [1187], 's_1_7': [3695], 's_1_13': [3785], 's_1_14': [3500], 's_1_22': [3561], 's_1_23': [3635], 's_5_6': [1084], 's_5_7': [1114], 15: [948, 3590, 3589], 's_5_15': [3575], 's_5_20': [1203], 's_7_23': [3769], 's_7_24': [859], 's_8_13': [3966], 's_8_22': [3951], 's_8_9': [3696], 's_8_11': [1294], 19: [1248, 3681], 's_8_19': [3666], 's_8_24': [1144], 12: [1160, 4026], 's_13_12': [4010], 's_13_20': [889], 's_23_22': [3530], 's_23_15': [3574], 's_23_20': [3724], 's_6_22': [3771], 's_11_19': [3591], 's_9_14': [1083], 's_9_22': [1113], 's_9_2': [1068], 's_9_19': [3531], 's_20_22': [3876], 's_20_2': [919], 's_20_12': [4041], 's_20_19': [3651], 's_14_22': [1157], 's_21_2': [858], 's_21_15': [888], 's_22_12': [1250], 's_22_15': [1053]}</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0001938775510204082</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.001393109418732582</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>{0: [1133, 4354, 4355], 1: [4505, 1013], 2: [4504, 953], 3: [4444, 4445], 4: [878, 4520, 4519], 7: [938], 10: [1012], 11: [1103], 15: [1042, 1043], 17: [908], 19: [4340, 1027], 24: [4385, 1088], 5: [4414, 4489, 893], 6: [4565, 1028], 8: [4430, 1073], 9: [998, 997], 14: [4475, 4474], 20: [4415], 23: [982, 983], 12: [923], 16: [4460, 4459], 21: [4369, 967], 25: [4550, 1058], 22: [4399, 4400], 13: [758], 18: [4490]}</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.002774274905422447</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.009950189934213803</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>{0: [1133, 4354, 4355], 1: [4505, 1013], 2: [4504, 953], 3: [4444, 4445], 4: [878, 4520, 4519], 7: [938], 10: [1012], 11: [1103], 15: [1042, 1043], 17: [908], 19: [4340, 1027], 24: [4385, 1088], 5: [4414, 4489, 893], 6: [4565, 1028], 8: [4430, 1073], 9: [998, 997], 14: [4475, 4474], 20: [4415], 23: [982, 983], 12: [923], 16: [4460, 4459], 21: [4369, 967], 25: [4550, 1058], 22: [4399, 4400], 13: [758], 18: [4490]}</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0.002774274905422447</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.009950189934213803</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>{0: [5511, 5510, 974, 5404, 972, 973], 1: [5449, 5450, 5451, 1287, 1288, 1289], 's_0_1': [868], 2: [732, 989, 733, 734, 5568, 5569], 's_0_2': [5403], 3: [5616, 5614, 5615], 's_0_3': [1064], 4: [5332, 5331, 5480, 1078, 5330], 's_0_4': [988], 7: [882, 5599, 884, 883], 's_0_7': [5224], 10: [897, 898], 's_0_10': [5254], 11: [1259, 5346, 1258], 's_0_11': [1244], 15: [5255, 1108, 5556, 5554, 5555, 1109], 's_0_15': [1274], 17: [5388, 5389], 's_0_17': [838], 19: [5300, 5301], 's_0_19': [987], 24: [928, 929], 's_0_24': [5539], 5: [5283, 5284, 5287, 5286, 5285], 's_1_5': [1392, 5181], 6: [5151, 1123, 1122], 's_1_6': [5121], 8: [5467, 1183, 1182, 5466, 5464, 5465], 's_1_8': [1033], 9: [5496, 1169, 5240, 1167, 1168], 's_1_9': [5241], 's_1_11': [5571], 14: [5600, 5570, 5361, 5360, 1093, 1094], 's_1_14': [5601], 's_1_15': [944], 's_1_24': [5434], 's_2_3': [1004], 's_2_5': [748], 's_2_7': [5598], 's_2_14': [1079, 5660], 20: [1318, 5208, 5209, 5210, 1212, 5256], 's_2_20': [747], 23: [1154, 5690, 5691, 1377, 1378, 1379, 5692], 's_2_23': [5675], 's_3_9': [5630], 12: [1047, 1049, 1048], 's_3_12': [1034], 16: [1229, 1003, 5526, 5525, 5524], 's_3_16': [5631], 21: [854, 5272, 5271, 5270, 5269, 853, 852], 's_3_21': [5629], 's_3_23': [1334], 's_4_6': [5375], 's_4_11': [1347], 's_4_12': [5405], 's_4_14': [1393], 's_4_16': [959], 's_4_23': [5317], 25: [5421, 5540, 5482, 1198, 5481], 's_4_25': [1243], 's_7_5': [5299], 's_7_14': [5584, 5585], 's_7_16': [899], 's_7_21': [869], 's_7_24': [5314], 's_10_8': [5479], 's_10_20': [5194], 22: [5420, 943, 5419], 's_10_22': [5359], 's_11_14': [1273], 's_11_16': [5661], 's_11_20': [5376], 's_15_5': [1017], 's_15_6': [1124], 's_15_8': [1319], 's_15_16': [5435], 's_15_19': [1002], 's_15_20': [1107], 's_15_22': [1138], 's_15_24': [914], 's_15_25': [1199], 's_17_16': [5374], 's_17_21': [5373], 's_17_22': [1018], 's_19_6': [1227], 's_19_9': [1152], 's_19_22': [958], 's_24_21': [5329], 's_24_22': [5509, 823], 13: [1063, 1062], 's_5_13': [1077], 's_5_14': [1303], 's_5_20': [1242], 's_5_23': [5302], 's_6_9': [5225], 's_6_14': [5345], 's_6_20': [1137], 's_8_9': [5390], 's_8_14': [1228], 18: [1438], 's_8_18': [1423], 's_8_20': [1333, 5406], 's_8_25': [1454], 's_9_16': [5646], 's_9_25': [1153], 's_14_23': [1362], 's_20_25': [1197], 's_23_16': [5541], 's_23_21': [5257], 's_12_16': [5495], 's_12_21': [1032], 's_12_22': [5344], 's_16_25': [1363], 's_21_22': [913], 's_22_13': [5315]}</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003565217391304348</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001724262533793574</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>{0: [5511, 5510, 974, 5404, 972, 973], 1: [5449, 5450, 5451, 1287, 1288, 1289], 's_0_1': [868], 2: [732, 989, 733, 734, 5568, 5569], 's_0_2': [5403], 3: [5616, 5614, 5615], 's_0_3': [1064], 4: [5332, 5331, 5480, 1078, 5330], 's_0_4': [988], 7: [882, 5599, 884, 883], 's_0_7': [5224], 10: [897, 898], 's_0_10': [5254], 11: [1259, 5346, 1258], 's_0_11': [1244], 15: [5255, 1108, 5556, 5554, 5555, 1109], 's_0_15': [1274], 17: [5388, 5389], 's_0_17': [838], 19: [5300, 5301], 's_0_19': [987], 24: [928, 929], 's_0_24': [5539], 5: [5283, 5284, 5287, 5286, 5285], 's_1_5': [1392, 5181], 6: [5151, 1123, 1122], 's_1_6': [5121], 8: [5467, 1183, 1182, 5466, 5464, 5465], 's_1_8': [1033], 9: [5496, 1169, 5240, 1167, 1168], 's_1_9': [5241], 's_1_11': [5571], 14: [5600, 5570, 5361, 5360, 1093, 1094], 's_1_14': [5601], 's_1_15': [944], 's_1_24': [5434], 's_2_3': [1004], 's_2_5': [748], 's_2_7': [5598], 's_2_14': [1079, 5660], 20: [1318, 5208, 5209, 5210, 1212, 5256], 's_2_20': [747], 23: [1154, 5690, 5691, 1377, 1378, 1379, 5692], 's_2_23': [5675], 's_3_9': [5630], 12: [1047, 1049, 1048], 's_3_12': [1034], 16: [1229, 1003, 5526, 5525, 5524], 's_3_16': [5631], 21: [854, 5272, 5271, 5270, 5269, 853, 852], 's_3_21': [5629], 's_3_23': [1334], 's_4_6': [5375], 's_4_11': [1347], 's_4_12': [5405], 's_4_14': [1393], 's_4_16': [959], 's_4_23': [5317], 25: [5421, 5540, 5482, 1198, 5481], 's_4_25': [1243], 's_7_5': [5299], 's_7_14': [5584, 5585], 's_7_16': [899], 's_7_21': [869], 's_7_24': [5314], 's_10_8': [5479], 's_10_20': [5194], 22: [5420, 943, 5419], 's_10_22': [5359], 's_11_14': [1273], 's_11_16': [5661], 's_11_20': [5376], 's_15_5': [1017], 's_15_6': [1124], 's_15_8': [1319], 's_15_16': [5435], 's_15_19': [1002], 's_15_20': [1107], 's_15_22': [1138], 's_15_24': [914], 's_15_25': [1199], 's_17_16': [5374], 's_17_21': [5373], 's_17_22': [1018], 's_19_6': [1227], 's_19_9': [1152], 's_19_22': [958], 's_24_21': [5329], 's_24_22': [5509, 823], 13: [1063, 1062], 's_5_13': [1077], 's_5_14': [1303], 's_5_20': [1242], 's_5_23': [5302], 's_6_9': [5225], 's_6_14': [5345], 's_6_20': [1137], 's_8_9': [5390], 's_8_14': [1228], 18: [1438], 's_8_18': [1423], 's_8_20': [1333, 5406], 's_8_25': [1454], 's_9_16': [5646], 's_9_25': [1153], 's_14_23': [1362], 's_20_25': [1197], 's_23_16': [5541], 's_23_21': [5257], 's_12_16': [5495], 's_12_21': [1032], 's_12_22': [5344], 's_16_25': [1363], 's_21_22': [913], 's_22_13': [5315]}</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0003565217391304348</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.001724262533793574</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>{0: [3192], 7: [2371, 3222], 12: [2400, 3072], 13: [3177, 2341], 14: [2311], 16: [2356], 21: [2326, 2325], 26: [2206, 3191], 3: [3116, 3117], 5: [3221], 6: [3267], 1: [3206, 3207], 8: [2416, 3087, 2415], 19: [3148, 3147], 20: [2310], 24: [2281, 2280], 15: [2296], 22: [2191, 2192], 18: [3252], 9: [3102], 11: [2295, 3132], 2: [3312], 10: [2266, 3282], 17: [2250], 25: [3251, 2176], 4: [3327], 23: [2251]}</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001613003288045164</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.007857132675221819</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>{0: [3192], 7: [2371, 3222], 12: [2400, 3072], 13: [3177, 2341], 14: [2311], 16: [2356], 21: [2326, 2325], 26: [2206, 3191], 3: [3116, 3117], 5: [3221], 6: [3267], 1: [3206, 3207], 8: [2416, 3087, 2415], 19: [3148, 3147], 20: [2310], 24: [2281, 2280], 15: [2296], 22: [2191, 2192], 18: [3252], 9: [3102], 11: [2295, 3132], 2: [3312], 10: [2266, 3282], 17: [2250], 25: [3251, 2176], 4: [3327], 23: [2251]}</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001613003288045164</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.007857132675221819</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>{0: [3638, 3640, 1758, 3639], 7: [1743, 3655, 3654], 's_0_7': [2043], 12: [1681, 1682, 3547, 3548], 's_0_12': [1578], 13: [3789, 3790, 2013, 2012, 2014], 's_0_13': [2029], 14: [1803, 3624], 's_0_14': [1863], 16: [3428, 3429, 3430, 1968, 1967], 's_0_16': [1757], 21: [1624, 3609, 1623, 3803, 3608], 's_0_21': [1669], 26: [3670, 3819, 1879, 1877, 1878], 's_0_26': [1759], 3: [1653, 3700, 1698, 3592, 3699, 3593], 's_7_3': [1984], 5: [1952, 2088, 3595, 1953], 's_7_5': [2058], 6: [1786, 1788, 1787], 's_7_6': [3669], 's_7_14': [1713], 's_7_16': [1742], 's_7_21': [3578], 1: [3325, 1861, 3534, 3326, 3535, 1862], 's_12_1': [3324], 's_12_3': [1458], 8: [1667, 1668], 's_12_8': [3278], 19: [1607, 1562, 3473], 's_12_19': [3443], 20: [1593, 3383, 1592], 's_12_20': [3413], 24: [3398, 1847, 3399], 's_12_24': [1697, 1696], 's_13_1': [3311], 15: [3415, 1937, 3414], 's_13_15': [2087, 3550], 's_13_16': [3400], 22: [1998, 1999], 's_13_22': [3610], 's_13_26': [1909, 3909], 's_14_1': [3519], 18: [3504, 1819, 1817, 1818], 's_14_18': [3594], 's_14_21': [1848], 9: [1488, 1547, 3518], 's_16_9': [1532], 11: [1726, 3489, 1727], 's_16_11': [1712], 2: [3715, 3714, 3743, 3744, 1774], 's_21_2': [1609], 's_21_3': [1654], 's_21_6': [1773], 's_21_8': [3563], 10: [3505, 1833, 3759, 1832, 1834], 's_21_10': [3758], 's_21_19': [1563], 's_21_20': [3668], 's_26_1': [1876], 's_26_3': [1744], 's_26_5': [3671], 's_26_15': [3564, 1892], 17: [1638, 3459, 3458], 's_26_17': [3474], 25: [3549, 3685, 1923], 's_26_25': [1849], 's_3_22': [3805, 1969], 's_3_8': [1652], 's_3_9': [3577], 's_3_11': [1728], 's_3_20': [3653], 's_5_15': [3490], 's_5_10': [1954, 3760, 2074], 's_5_25': [3625], 's_6_15': [3384], 's_6_24': [3294], 's_6_18': [3369], 's_1_15': [2072, 2071], 's_1_17': [3533], 's_1_22': [1997], 's_1_24': [3444], 's_8_17': [3623], 's_8_11': [3354], 's_8_18': [3309], 's_8_20': [3368], 's_19_17': [3503], 's_19_24': [3397], 's_19_20': [3338], 's_20_9': [1608], 's_20_11': [1711], 's_24_15': [3355], 4: [1908, 3460, 1907], 's_24_4': [1922], 's_24_11': [1772], 's_15_10': [3340], 's_15_18': [1802], 's_22_2': [3745], 's_22_4': [3520], 's_18_10': [3279], 23: [3729], 's_18_23': [1804], 's_18_25': [3684], 's_9_17': [3457], 's_11_17': [3488], 's_2_4': [1893], 's_2_10': [1789], 's_2_23': [1939], 's_10_23': [1924]}</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0002477064220183486</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0015425671813454</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>{0: [3638, 3640, 1758, 3639], 7: [1743, 3655, 3654], 's_0_7': [2043], 12: [1681, 1682, 3547, 3548], 's_0_12': [1578], 13: [3789, 3790, 2013, 2012, 2014], 's_0_13': [2029], 14: [1803, 3624], 's_0_14': [1863], 16: [3428, 3429, 3430, 1968, 1967], 's_0_16': [1757], 21: [1624, 3609, 1623, 3803, 3608], 's_0_21': [1669], 26: [3670, 3819, 1879, 1877, 1878], 's_0_26': [1759], 3: [1653, 3700, 1698, 3592, 3699, 3593], 's_7_3': [1984], 5: [1952, 2088, 3595, 1953], 's_7_5': [2058], 6: [1786, 1788, 1787], 's_7_6': [3669], 's_7_14': [1713], 's_7_16': [1742], 's_7_21': [3578], 1: [3325, 1861, 3534, 3326, 3535, 1862], 's_12_1': [3324], 's_12_3': [1458], 8: [1667, 1668], 's_12_8': [3278], 19: [1607, 1562, 3473], 's_12_19': [3443], 20: [1593, 3383, 1592], 's_12_20': [3413], 24: [3398, 1847, 3399], 's_12_24': [1697, 1696], 's_13_1': [3311], 15: [3415, 1937, 3414], 's_13_15': [2087, 3550], 's_13_16': [3400], 22: [1998, 1999], 's_13_22': [3610], 's_13_26': [1909, 3909], 's_14_1': [3519], 18: [3504, 1819, 1817, 1818], 's_14_18': [3594], 's_14_21': [1848], 9: [1488, 1547, 3518], 's_16_9': [1532], 11: [1726, 3489, 1727], 's_16_11': [1712], 2: [3715, 3714, 3743, 3744, 1774], 's_21_2': [1609], 's_21_3': [1654], 's_21_6': [1773], 's_21_8': [3563], 10: [3505, 1833, 3759, 1832, 1834], 's_21_10': [3758], 's_21_19': [1563], 's_21_20': [3668], 's_26_1': [1876], 's_26_3': [1744], 's_26_5': [3671], 's_26_15': [3564, 1892], 17: [1638, 3459, 3458], 's_26_17': [3474], 25: [3549, 3685, 1923], 's_26_25': [1849], 's_3_22': [3805, 1969], 's_3_8': [1652], 's_3_9': [3577], 's_3_11': [1728], 's_3_20': [3653], 's_5_15': [3490], 's_5_10': [1954, 3760, 2074], 's_5_25': [3625], 's_6_15': [3384], 's_6_24': [3294], 's_6_18': [3369], 's_1_15': [2072, 2071], 's_1_17': [3533], 's_1_22': [1997], 's_1_24': [3444], 's_8_17': [3623], 's_8_11': [3354], 's_8_18': [3309], 's_8_20': [3368], 's_19_17': [3503], 's_19_24': [3397], 's_19_20': [3338], 's_20_9': [1608], 's_20_11': [1711], 's_24_15': [3355], 4: [1908, 3460, 1907], 's_24_4': [1922], 's_24_11': [1772], 's_15_10': [3340], 's_15_18': [1802], 's_22_2': [3745], 's_22_4': [3520], 's_18_10': [3279], 23: [3729], 's_18_23': [1804], 's_18_25': [3684], 's_9_17': [3457], 's_11_17': [3488], 's_2_4': [1893], 's_2_10': [1789], 's_2_23': [1939], 's_10_23': [1924]}</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0002477064220183486</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0015425671813454</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>{0: [4984, 1000], 2: [911], 4: [5029, 1046], 6: [4971, 4970], 8: [1016, 1015], 9: [4880, 1150], 10: [4790, 941, 940], 14: [955, 4925, 956], 15: [881, 5059], 22: [865, 4865, 4864], 24: [4895, 4894], 7: [4940, 4939], 13: [896, 1031, 5014], 21: [4954, 820], 23: [851, 850, 4924], 12: [5044, 5045], 20: [4998, 4999], 25: [4849, 926, 925], 1: [4955, 985], 27: [4834, 880], 3: [835, 4879], 11: [1060], 16: [1045], 19: [4910, 4909], 17: [1030], 18: [4819, 895], 26: [971, 970], 5: [1091]}</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.004220206601158982</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01209995797710451</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>{0: [4984, 1000], 2: [911], 4: [5029, 1046], 6: [4971, 4970], 8: [1016, 1015], 9: [4880, 1150], 10: [4790, 941, 940], 14: [955, 4925, 956], 15: [881, 5059], 22: [865, 4865, 4864], 24: [4895, 4894], 7: [4940, 4939], 13: [896, 1031, 5014], 21: [4954, 820], 23: [851, 850, 4924], 12: [5044, 5045], 20: [4998, 4999], 25: [4849, 926, 925], 1: [4955, 985], 27: [4834, 880], 3: [835, 4879], 11: [1060], 16: [1045], 19: [4910, 4909], 17: [1030], 18: [4819, 895], 26: [971, 970], 5: [1091]}</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0.004220206601158982</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01209995797710451</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>{0: [1232, 1245, 1246, 1247, 3382, 3381], 2: [3562, 1545, 3397, 1547, 1546], 's_0_2': [3396], 4: [3309, 1622, 3442, 1487, 3308], 's_0_4': [3383], 6: [1515, 3323, 1516], 's_0_6': [3097, 3096], 8: [1335, 3354, 1711, 1710, 3036, 3037, 3038], 's_0_8': [3066], 9: [3200, 3202, 1231, 3201], 's_0_9': [3156], 10: [1352, 1501, 1351, 3277], 's_0_10': [3276], 14: [1458, 1457, 3053, 3052, 1455, 1456], 's_0_14': [3051], 15: [1412, 3487], 's_0_15': [3486], 22: [3261, 1305, 1306, 1530, 3128, 3127], 's_0_22': [1307], 24: [3504, 3503, 3291, 1321, 1322, 3502], 's_0_24': [3441, 1277], 's_2_4': [3428], 7: [3069, 3068, 3067, 1440], 's_2_7': [1740, 3099, 3098], 13: [3188, 1605, 1606, 3294, 3293], 's_2_13': [3248], 's_2_15': [1413], 21: [1592, 3456, 3458, 3457], 's_2_21': [1577], 23: [3576, 3578, 1563, 3577], 's_2_23': [1428], 's_4_6': [1517], 12: [1728, 1712, 1726, 3429, 1727], 's_4_12': [3368], 's_4_13': [1667], 's_4_14': [3412], 20: [3351, 3352, 3353], 's_4_20': [3338], 25: [1636, 3278, 1638, 1637], 's_4_25': [1681], 's_6_8': [3324], 's_6_9': [1576], 's_6_10': [1472], 's_6_13': [3187], 1: [1653, 1652, 1560, 3113, 1651], 's_8_1': [3203], 's_8_7': [1590], 's_8_9': [1320], 's_8_12': [1742], 's_8_14': [1635], 's_8_20': [1336], 's_8_22': [1290], 27: [3007, 3006, 1263, 1262, 1261, 1260], 's_8_27': [3081], 3: [3112, 3111, 1187, 1186, 1185], 's_9_3': [1170], 11: [3172, 1350], 's_9_11': [3186], 16: [1410, 1411], 's_9_16': [3307, 3306], 19: [3233, 3232, 3230, 3231], 's_9_19': [1201], 's_9_22': [1441], 's_9_24': [1216], 's_10_11': [1381], 's_10_15': [1367], 's_10_16': [3322], 17: [1485, 3173, 3247, 1486], 's_10_17': [1500], 18: [3218, 3217, 1398, 1397, 1396, 3216], 's_10_18': [3337], 's_10_19': [1366], 's_10_25': [1502, 3533], 's_14_1': [1650], 's_14_7': [2917], 's_14_13': [1725], 's_14_15': [3367], 's_14_17': [2932], 's_14_18': [3532], 's_14_22': [3142], 's_14_23': [3592], 26: [3471, 3472, 3474, 3473], 's_14_26': [3622, 1473], 's_15_26': [1337], 's_22_1': [3129], 's_22_3': [3126], 's_22_7': [2947], 's_22_16': [2992], 's_22_17': [3158], 's_22_18': [3262], 's_22_19': [1276], 's_22_24': [3246], 's_22_25': [1531], 's_24_1': [1668], 's_24_3': [3501], 5: [1860, 3189, 1787, 1786], 's_24_5': [1772], 's_24_18': [3517], 's_24_19': [1171], 's_24_21': [1293], 's_24_26': [1532], 's_7_27': [1425], 's_7_5': [1875], 's_7_11': [3082], 's_7_16': [2977], 's_13_12': [3279], 's_13_17': [2978], 's_13_18': [1741], 's_21_1': [3443], 's_21_3': [1172], 's_21_20': [1562], 's_23_25': [3608], 's_23_27': [3591], 's_23_12': [1713], 's_23_18': [1383], 's_12_5': [3249], 's_12_26': [1757], 's_20_3': [3336], 's_25_1': [3593], 's_25_17': [1591], 's_25_19': [1621], 's_1_3': [3143, 1471], 's_1_27': [1575], 's_27_3': [3531], 's_27_16': [3022], 's_27_17': [1470], 's_27_18': [3411], 's_27_26': [1278], 's_3_19': [1291], 's_16_17': [1426], 's_19_18': [1756]}</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0003587786259541985</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.001651238734887972</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>{0: [1232, 1245, 1246, 1247, 3382, 3381], 2: [3562, 1545, 3397, 1547, 1546], 's_0_2': [3396], 4: [3309, 1622, 3442, 1487, 3308], 's_0_4': [3383], 6: [1515, 3323, 1516], 's_0_6': [3097, 3096], 8: [1335, 3354, 1711, 1710, 3036, 3037, 3038], 's_0_8': [3066], 9: [3200, 3202, 1231, 3201], 's_0_9': [3156], 10: [1352, 1501, 1351, 3277], 's_0_10': [3276], 14: [1458, 1457, 3053, 3052, 1455, 1456], 's_0_14': [3051], 15: [1412, 3487], 's_0_15': [3486], 22: [3261, 1305, 1306, 1530, 3128, 3127], 's_0_22': [1307], 24: [3504, 3503, 3291, 1321, 1322, 3502], 's_0_24': [3441, 1277], 's_2_4': [3428], 7: [3069, 3068, 3067, 1440], 's_2_7': [1740, 3099, 3098], 13: [3188, 1605, 1606, 3294, 3293], 's_2_13': [3248], 's_2_15': [1413], 21: [1592, 3456, 3458, 3457], 's_2_21': [1577], 23: [3576, 3578, 1563, 3577], 's_2_23': [1428], 's_4_6': [1517], 12: [1728, 1712, 1726, 3429, 1727], 's_4_12': [3368], 's_4_13': [1667], 's_4_14': [3412], 20: [3351, 3352, 3353], 's_4_20': [3338], 25: [1636, 3278, 1638, 1637], 's_4_25': [1681], 's_6_8': [3324], 's_6_9': [1576], 's_6_10': [1472], 's_6_13': [3187], 1: [1653, 1652, 1560, 3113, 1651], 's_8_1': [3203], 's_8_7': [1590], 's_8_9': [1320], 's_8_12': [1742], 's_8_14': [1635], 's_8_20': [1336], 's_8_22': [1290], 27: [3007, 3006, 1263, 1262, 1261, 1260], 's_8_27': [3081], 3: [3112, 3111, 1187, 1186, 1185], 's_9_3': [1170], 11: [3172, 1350], 's_9_11': [3186], 16: [1410, 1411], 's_9_16': [3307, 3306], 19: [3233, 3232, 3230, 3231], 's_9_19': [1201], 's_9_22': [1441], 's_9_24': [1216], 's_10_11': [1381], 's_10_15': [1367], 's_10_16': [3322], 17: [1485, 3173, 3247, 1486], 's_10_17': [1500], 18: [3218, 3217, 1398, 1397, 1396, 3216], 's_10_18': [3337], 's_10_19': [1366], 's_10_25': [1502, 3533], 's_14_1': [1650], 's_14_7': [2917], 's_14_13': [1725], 's_14_15': [3367], 's_14_17': [2932], 's_14_18': [3532], 's_14_22': [3142], 's_14_23': [3592], 26: [3471, 3472, 3474, 3473], 's_14_26': [3622, 1473], 's_15_26': [1337], 's_22_1': [3129], 's_22_3': [3126], 's_22_7': [2947], 's_22_16': [2992], 's_22_17': [3158], 's_22_18': [3262], 's_22_19': [1276], 's_22_24': [3246], 's_22_25': [1531], 's_24_1': [1668], 's_24_3': [3501], 5: [1860, 3189, 1787, 1786], 's_24_5': [1772], 's_24_18': [3517], 's_24_19': [1171], 's_24_21': [1293], 's_24_26': [1532], 's_7_27': [1425], 's_7_5': [1875], 's_7_11': [3082], 's_7_16': [2977], 's_13_12': [3279], 's_13_17': [2978], 's_13_18': [1741], 's_21_1': [3443], 's_21_3': [1172], 's_21_20': [1562], 's_23_25': [3608], 's_23_27': [3591], 's_23_12': [1713], 's_23_18': [1383], 's_12_5': [3249], 's_12_26': [1757], 's_20_3': [3336], 's_25_1': [3593], 's_25_17': [1591], 's_25_19': [1621], 's_1_3': [3143, 1471], 's_1_27': [1575], 's_27_3': [3531], 's_27_16': [3022], 's_27_17': [1470], 's_27_18': [3411], 's_27_26': [1278], 's_3_19': [1291], 's_16_17': [1426], 's_19_18': [1756]}</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0003587786259541985</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.001651238734887972</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>{0: [1748, 1749], 1: [4704, 4703], 4: [1734, 4673], 9: [4734], 10: [4478, 1703], 13: [1868, 4719, 1869], 21: [1854, 4554], 23: [4658], 11: [1778, 1779], 24: [4599, 1659], 7: [1883, 1884], 12: [1810, 4659, 1809], 20: [1825, 1824], 27: [4689, 1764, 4628], 15: [4524, 1733], 26: [4584], 3: [4538, 4539], 8: [4570, 4569], 25: [1794], 5: [1793, 4494], 28: [4615, 4614], 16: [1674], 18: [4674], 22: [4629], 6: [1928, 4585], 19: [4644, 1913], 17: [4510, 4509], 2: [1718], 14: [1839]}</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0007164008023688985</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.004918358042489416</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>{0: [1748, 1749], 1: [4704, 4703], 4: [1734, 4673], 9: [4734], 10: [4478, 1703], 13: [1868, 4719, 1869], 21: [1854, 4554], 23: [4658], 11: [1778, 1779], 24: [4599, 1659], 7: [1883, 1884], 12: [1810, 4659, 1809], 20: [1825, 1824], 27: [4689, 1764, 4628], 15: [4524, 1733], 26: [4584], 3: [4538, 4539], 8: [4570, 4569], 25: [1794], 5: [1793, 4494], 28: [4615, 4614], 16: [1674], 18: [4674], 22: [4629], 6: [1928, 4585], 19: [4644, 1913], 17: [4510, 4509], 2: [1718], 14: [1839]}</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0007164008023688985</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.004918358042489416</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>{0: [5464, 613, 5462, 5463], 1: [5434, 5329, 883], 's_0_1': [868], 4: [493, 492], 's_0_4': [508], 9: [5357, 5477, 538], 's_0_9': [5402], 10: [5327, 404, 403], 's_0_10': [523], 13: [5221, 838, 5222, 5223, 5224, 837], 's_0_13': [823], 21: [703, 5433, 5418, 658], 's_0_21': [5493], 23: [583, 5371, 5372], 's_0_23': [628], 11: [419, 914, 5507, 5509, 5508], 's_1_11': [884, 5584], 's_1_13': [807], 's_1_21': [5419], 24: [763, 554, 5268, 5267, 553], 's_1_24': [792], 's_4_9': [5447], 's_4_13': [5237], 's_4_23': [5417], 's_4_24': [507], 7: [5283, 449, 448, 447, 5282], 's_9_7': [657], 12: [854, 5311, 5313, 5312, 5314, 853], 's_9_12': [5476, 313], 20: [5478, 673], 's_9_20': [5387], 27: [464, 462, 463], 's_9_27': [5356], 15: [719, 5521, 5523, 5522], 's_10_15': [5536], 's_10_24': [5266], 26: [5207, 718, 5328, 612], 's_10_26': [5206, 402], 's_10_27': [5341], 3: [973, 5449, 943, 944], 's_13_3': [5239, 942], 's_13_7': [5236], 8: [672, 5177], 's_13_8': [522], 's_13_15': [5538], 25: [372, 373, 374, 5551, 5552], 's_13_25': [387], 5: [5148, 733, 5193, 732], 's_21_5': [702], 's_21_11': [704], 's_21_12': [5373], 's_21_20': [643], 28: [5567, 749, 5568], 's_21_28': [659], 's_23_12': [418], 16: [5252, 5254, 5253], 's_23_16': [568], 's_23_24': [598], 's_11_3': [5510, 5495], 's_11_12': [869], 18: [5596], 's_11_18': [5581], 22: [689, 5612, 5614, 5613], 's_11_22': [494], 's_11_24': [5269, 913], 's_24_8': [687], 's_24_15': [5537], 's_24_27': [5597], 's_24_28': [569], 's_7_5': [5298], 6: [5147, 537], 's_7_6': [446], 's_7_12': [627], 's_7_18': [434], 's_7_27': [5701], 's_12_26': [5358], 's_12_28': [748], 19: [5494, 809, 899, 5644], 's_12_19': [5659], 's_12_20': [5479], 's_12_22': [5629], 's_12_25': [388], 's_20_28': [734], 's_27_16': [477], 's_27_22': [5627], 17: [5583, 794, 5388, 793], 's_15_17': [808], 's_15_28': [539], 2: [5448], 's_26_2': [688], 's_26_5': [5208], 's_26_6': [552], 's_26_8': [611], 's_26_16': [642], 14: [5554, 974], 's_3_14': [959], 's_3_16': [958], 's_8_5': [641], 's_8_6': [567], 's_25_28': [524], 's_25_18': [359], 's_25_22': [644], 's_5_17': [5403], 's_5_6': [5192], 's_28_2': [764], 's_28_19': [824], 's_22_14': [989], 's_2_17': [779], 's_17_19': [5718], 's_19_14': [5553]}</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0001727272727272727</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.001241133845779937</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>{0: [5464, 613, 5462, 5463], 1: [5434, 5329, 883], 's_0_1': [868], 4: [493, 492], 's_0_4': [508], 9: [5357, 5477, 538], 's_0_9': [5402], 10: [5327, 404, 403], 's_0_10': [523], 13: [5221, 838, 5222, 5223, 5224, 837], 's_0_13': [823], 21: [703, 5433, 5418, 658], 's_0_21': [5493], 23: [583, 5371, 5372], 's_0_23': [628], 11: [419, 914, 5507, 5509, 5508], 's_1_11': [884, 5584], 's_1_13': [807], 's_1_21': [5419], 24: [763, 554, 5268, 5267, 553], 's_1_24': [792], 's_4_9': [5447], 's_4_13': [5237], 's_4_23': [5417], 's_4_24': [507], 7: [5283, 449, 448, 447, 5282], 's_9_7': [657], 12: [854, 5311, 5313, 5312, 5314, 853], 's_9_12': [5476, 313], 20: [5478, 673], 's_9_20': [5387], 27: [464, 462, 463], 's_9_27': [5356], 15: [719, 5521, 5523, 5522], 's_10_15': [5536], 's_10_24': [5266], 26: [5207, 718, 5328, 612], 's_10_26': [5206, 402], 's_10_27': [5341], 3: [973, 5449, 943, 944], 's_13_3': [5239, 942], 's_13_7': [5236], 8: [672, 5177], 's_13_8': [522], 's_13_15': [5538], 25: [372, 373, 374, 5551, 5552], 's_13_25': [387], 5: [5148, 733, 5193, 732], 's_21_5': [702], 's_21_11': [704], 's_21_12': [5373], 's_21_20': [643], 28: [5567, 749, 5568], 's_21_28': [659], 's_23_12': [418], 16: [5252, 5254, 5253], 's_23_16': [568], 's_23_24': [598], 's_11_3': [5510, 5495], 's_11_12': [869], 18: [5596], 's_11_18': [5581], 22: [689, 5612, 5614, 5613], 's_11_22': [494], 's_11_24': [5269, 913], 's_24_8': [687], 's_24_15': [5537], 's_24_27': [5597], 's_24_28': [569], 's_7_5': [5298], 6: [5147, 537], 's_7_6': [446], 's_7_12': [627], 's_7_18': [434], 's_7_27': [5701], 's_12_26': [5358], 's_12_28': [748], 19: [5494, 809, 899, 5644], 's_12_19': [5659], 's_12_20': [5479], 's_12_22': [5629], 's_12_25': [388], 's_20_28': [734], 's_27_16': [477], 's_27_22': [5627], 17: [5583, 794, 5388, 793], 's_15_17': [808], 's_15_28': [539], 2: [5448], 's_26_2': [688], 's_26_5': [5208], 's_26_6': [552], 's_26_8': [611], 's_26_16': [642], 14: [5554, 974], 's_3_14': [959], 's_3_16': [958], 's_8_5': [641], 's_8_6': [567], 's_25_28': [524], 's_25_18': [359], 's_25_22': [644], 's_5_17': [5403], 's_5_6': [5192], 's_28_2': [764], 's_28_19': [824], 's_22_14': [989], 's_2_17': [779], 's_17_19': [5718], 's_19_14': [5553]}</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0001727272727272727</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.001241133845779937</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>{0: [5217], 11: [2383, 2382], 14: [5201, 5202], 15: [2352], 18: [5097, 2367], 22: [5322, 5323, 2457], 3: [5351, 5352], 5: [5367, 2442], 7: [5113, 5112, 2232, 2231], 24: [2427, 5308], 27: [5263, 5262], 28: [5248, 5247], 1: [2202, 2203], 13: [2308, 5216, 2307], 17: [2412, 5276, 5277], 21: [2172, 5081], 23: [2187, 5366, 2188], 29: [2293, 2292], 4: [5231, 5232], 6: [5172, 2217, 5171], 9: [2398, 2397, 5082], 19: [5142], 20: [5292, 2353], 25: [2261, 2322, 5157], 10: [2218], 16: [2247, 5246], 26: [5337, 5338], 8: [2142, 5186], 2: [2337, 5307], 12: [5261, 5141, 2127]}</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.003840245775729647</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0112656518723466</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>{0: [5217], 11: [2383, 2382], 14: [5201, 5202], 15: [2352], 18: [5097, 2367], 22: [5322, 5323, 2457], 3: [5351, 5352], 5: [5367, 2442], 7: [5113, 5112, 2232, 2231], 24: [2427, 5308], 27: [5263, 5262], 28: [5248, 5247], 1: [2202, 2203], 13: [2308, 5216, 2307], 17: [2412, 5276, 5277], 21: [2172, 5081], 23: [2187, 5366, 2188], 29: [2293, 2292], 4: [5231, 5232], 6: [5172, 2217, 5171], 9: [2398, 2397, 5082], 19: [5142], 20: [5292, 2353], 25: [2261, 2322, 5157], 10: [2218], 16: [2247, 5246], 26: [5337, 5338], 8: [2142, 5186], 2: [2337, 5307], 12: [5261, 5141, 2127]}</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0.003840245775729647</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0112656518723466</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>{0: [3588, 873, 3589], 11: [3783, 886, 887, 888, 889, 3694, 754], 's_0_11': [874], 14: [271, 3375, 3679, 3376, 3678, 3677, 498, 497], 's_0_14': [798], 15: [3093, 783, 3108, 766, 767, 768, 3618], 's_0_15': [3619], 18: [3514, 662, 663, 3513], 's_0_18': [858], 22: [3394, 3152, 3393, 3153, 691, 693, 692], 's_0_22': [872], 3: [902, 841, 3289], 's_11_3': [3364], 5: [694, 437, 438, 436, 3708, 3707], 's_11_5': [3709], 7: [3360, 753, 3453, 3451, 3452, 302, 301], 's_11_7': [3454], 's_11_18': [664], 24: [3214, 346, 3211, 3212, 3213], 's_11_24': [991, 3379], 27: [3752, 3693, 573, 574], 's_11_27': [649], 28: [630, 633, 632, 3274, 3273, 631], 's_11_28': [871], 1: [543, 842, 843, 3573, 3572, 528], 's_14_1': [813], 's_14_5': [499], 's_14_7': [272], 13: [317, 3346, 572, 707, 3348, 3347], 's_14_13': [212], 's_14_15': [3664], 17: [3244, 3241, 3242, 3243], 's_14_17': [496], 's_14_18': [678], 21: [255, 256], 's_14_21': [3316], 23: [3332, 527, 526, 3180, 3181, 556, 3182], 's_14_23': [270], 29: [3646, 3648, 3647, 601, 602, 603], 's_14_29': [3602], 4: [705, 3363, 3362, 3138, 796, 615, 616], 's_15_4': [675], 6: [3571, 3092, 333, 465, 466, 3361, 332], 's_15_6': [3107], 's_15_7': [3484], 9: [3166, 3169, 3168, 3167], 's_15_9': [751], 19: [3406, 3407, 3722, 648, 647], 's_15_19': [3633], 20: [3438, 3437, 619, 618, 617], 's_15_20': [782], 's_15_28': [645], 's_18_4': [677], 's_18_7': [723], 's_18_19': [3603], 25: [3528, 736, 737, 738], 's_18_25': [3333], 's_18_28': [3663], 's_22_1': [977, 3424], 's_22_3': [932], 's_22_9': [661], 10: [406, 3226], 's_22_10': [391], 16: [452, 541, 3423, 3422, 542], 's_22_16': [797], 's_22_24': [3151], 26: [3558, 3557, 421, 422, 3556], 's_22_26': [827], 's_22_29': [600], 's_3_1': [3334], 's_3_9': [901], 's_3_24': [961], 's_5_20': [3843], 's_5_23': [435], 's_5_24': [3286], 's_5_28': [3586, 3587], 's_5_26': [3466], 's_5_27': [724], 's_7_6': [3496], 8: [811, 812, 3541, 3542, 3543], 's_7_8': [393], 's_7_16': [752], 's_7_19': [467], 's_7_20': [3436], 's_7_23': [3225, 166], 2: [587, 331, 3271, 3272], 's_7_2': [588], 's_7_17': [316], 's_7_21': [3210], 's_24_4': [781], 's_24_2': [511], 's_24_26': [3391, 347], 12: [558, 559], 's_27_12': [3782], 's_27_20': [3767], 's_27_29': [3617], 's_27_13': [709, 708], 's_27_25': [739], 's_28_4': [3063], 's_28_16': [3197], 's_28_29': [3318], 's_28_17': [856], 's_1_4': [857], 's_1_6': [3662, 3661], 's_1_8': [3469], 's_1_12': [3467], 's_1_16': [3527], 's_1_19': [529], 's_1_20': [3439], 's_1_23': [3482], 's_13_4': [571], 's_13_6': [3481], 's_13_16': [512], 's_13_19': [646], 's_13_20': [482], 's_13_29': [318], 's_13_21': [3270, 227], 's_13_25': [3303], 's_13_26': [408, 407], 's_17_8': [3259], 's_17_23': [676], 's_17_10': [481], 's_17_25': [721], 's_21_23': [3331], 's_21_9': [240], 's_23_4': [3137, 420, 3091], 's_23_16': [3257], 's_29_4': [3227], 's_29_6': [3631], 's_29_8': [348], 's_29_20': [604], 's_29_2': [3377], 's_29_26': [423], 's_4_2': [586], 's_4_6': [3077], 's_4_8': [3378], 's_4_9': [3139, 780], 's_4_25': [3048, 735], 's_6_2': [451], 's_6_8': [3601, 363], 's_6_9': [450], 's_6_10': [3122], 's_6_19': [362], 's_19_12': [544], 's_19_2': [377], 's_19_25': [3468], 's_20_16': [557], 's_20_25': [722], 's_25_8': [3228], 's_10_2': [3196], 's_10_26': [3256], 's_16_2': [3287], 's_16_26': [3302], 's_8_12': [483, 3512]}</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0006168831168831169</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.001990606630645368</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>{0: [3588, 873, 3589], 11: [3783, 886, 887, 888, 889, 3694, 754], 's_0_11': [874], 14: [271, 3375, 3679, 3376, 3678, 3677, 498, 497], 's_0_14': [798], 15: [3093, 783, 3108, 766, 767, 768, 3618], 's_0_15': [3619], 18: [3514, 662, 663, 3513], 's_0_18': [858], 22: [3394, 3152, 3393, 3153, 691, 693, 692], 's_0_22': [872], 3: [902, 841, 3289], 's_11_3': [3364], 5: [694, 437, 438, 436, 3708, 3707], 's_11_5': [3709], 7: [3360, 753, 3453, 3451, 3452, 302, 301], 's_11_7': [3454], 's_11_18': [664], 24: [3214, 346, 3211, 3212, 3213], 's_11_24': [991, 3379], 27: [3752, 3693, 573, 574], 's_11_27': [649], 28: [630, 633, 632, 3274, 3273, 631], 's_11_28': [871], 1: [543, 842, 843, 3573, 3572, 528], 's_14_1': [813], 's_14_5': [499], 's_14_7': [272], 13: [317, 3346, 572, 707, 3348, 3347], 's_14_13': [212], 's_14_15': [3664], 17: [3244, 3241, 3242, 3243], 's_14_17': [496], 's_14_18': [678], 21: [255, 256], 's_14_21': [3316], 23: [3332, 527, 526, 3180, 3181, 556, 3182], 's_14_23': [270], 29: [3646, 3648, 3647, 601, 602, 603], 's_14_29': [3602], 4: [705, 3363, 3362, 3138, 796, 615, 616], 's_15_4': [675], 6: [3571, 3092, 333, 465, 466, 3361, 332], 's_15_6': [3107], 's_15_7': [3484], 9: [3166, 3169, 3168, 3167], 's_15_9': [751], 19: [3406, 3407, 3722, 648, 647], 's_15_19': [3633], 20: [3438, 3437, 619, 618, 617], 's_15_20': [782], 's_15_28': [645], 's_18_4': [677], 's_18_7': [723], 's_18_19': [3603], 25: [3528, 736, 737, 738], 's_18_25': [3333], 's_18_28': [3663], 's_22_1': [977, 3424], 's_22_3': [932], 's_22_9': [661], 10: [406, 3226], 's_22_10': [391], 16: [452, 541, 3423, 3422, 542], 's_22_16': [797], 's_22_24': [3151], 26: [3558, 3557, 421, 422, 3556], 's_22_26': [827], 's_22_29': [600], 's_3_1': [3334], 's_3_9': [901], 's_3_24': [961], 's_5_20': [3843], 's_5_23': [435], 's_5_24': [3286], 's_5_28': [3586, 3587], 's_5_26': [3466], 's_5_27': [724], 's_7_6': [3496], 8: [811, 812, 3541, 3542, 3543], 's_7_8': [393], 's_7_16': [752], 's_7_19': [467], 's_7_20': [3436], 's_7_23': [3225, 166], 2: [587, 331, 3271, 3272], 's_7_2': [588], 's_7_17': [316], 's_7_21': [3210], 's_24_4': [781], 's_24_2': [511], 's_24_26': [3391, 347], 12: [558, 559], 's_27_12': [3782], 's_27_20': [3767], 's_27_29': [3617], 's_27_13': [709, 708], 's_27_25': [739], 's_28_4': [3063], 's_28_16': [3197], 's_28_29': [3318], 's_28_17': [856], 's_1_4': [857], 's_1_6': [3662, 3661], 's_1_8': [3469], 's_1_12': [3467], 's_1_16': [3527], 's_1_19': [529], 's_1_20': [3439], 's_1_23': [3482], 's_13_4': [571], 's_13_6': [3481], 's_13_16': [512], 's_13_19': [646], 's_13_20': [482], 's_13_29': [318], 's_13_21': [3270, 227], 's_13_25': [3303], 's_13_26': [408, 407], 's_17_8': [3259], 's_17_23': [676], 's_17_10': [481], 's_17_25': [721], 's_21_23': [3331], 's_21_9': [240], 's_23_4': [3137, 420, 3091], 's_23_16': [3257], 's_29_4': [3227], 's_29_6': [3631], 's_29_8': [348], 's_29_20': [604], 's_29_2': [3377], 's_29_26': [423], 's_4_2': [586], 's_4_6': [3077], 's_4_8': [3378], 's_4_9': [3139, 780], 's_4_25': [3048, 735], 's_6_2': [451], 's_6_8': [3601, 363], 's_6_9': [450], 's_6_10': [3122], 's_6_19': [362], 's_19_12': [544], 's_19_2': [377], 's_19_25': [3468], 's_20_16': [557], 's_20_25': [722], 's_25_8': [3228], 's_10_2': [3196], 's_10_26': [3256], 's_16_2': [3287], 's_16_26': [3302], 's_8_12': [483, 3512]}</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0006168831168831169</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001990606630645368</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>{0: [4603, 2529], 1: [4557, 2379], 5: [4647, 4648], 11: [2573, 4678, 2574], 12: [4618, 2468, 2469], 19: [2513, 2514], 20: [4708, 4707], 30: [2528, 4438], 2: [4543, 4542], 7: [2333, 4468, 4467], 14: [4663, 4662, 2364], 16: [2394], 29: [4692, 4693], 9: [2633, 4588, 4589], 10: [4498, 2589, 2588], 17: [2544], 23: [2499, 4633], 24: [2423, 4497], 26: [4753, 2438, 2439], 8: [2559, 2558], 15: [4482, 4483], 18: [4558], 25: [2483, 2484, 4723], 27: [4573, 2498], 28: [4528], 13: [4738], 21: [2604, 2603], 3: [4513], 4: [4439, 2602], 6: [2453, 2452], 22: [2543]}</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.002416727960491752</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00849225484971178</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>{0: [4603, 2529], 1: [4557, 2379], 5: [4647, 4648], 11: [2573, 4678, 2574], 12: [4618, 2468, 2469], 19: [2513, 2514], 20: [4708, 4707], 30: [2528, 4438], 2: [4543, 4542], 7: [2333, 4468, 4467], 14: [4663, 4662, 2364], 16: [2394], 29: [4692, 4693], 9: [2633, 4588, 4589], 10: [4498, 2589, 2588], 17: [2544], 23: [2499, 4633], 24: [2423, 4497], 26: [4753, 2438, 2439], 8: [2559, 2558], 15: [4482, 4483], 18: [4558], 25: [2483, 2484, 4723], 27: [4573, 2498], 28: [4528], 13: [4738], 21: [2604, 2603], 3: [4513], 4: [4439, 2602], 6: [2453, 2452], 22: [2543]}</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0.002416727960491752</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.00849225484971178</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>{0: [1562, 3005, 3006, 3007, 1560, 1561], 1: [3140, 3410, 3409, 1050, 932, 931], 's_0_1': [3004, 1035], 5: [1455, 2962, 2961, 1082, 1081, 1080, 2960], 's_0_5': [1440], 11: [1412, 3336, 1592, 3338, 3337], 's_0_11': [3458], 12: [1215, 3442, 3441, 3215, 1216, 1217], 's_0_12': [3443], 19: [3380, 1171, 3246, 3308, 3307, 1321], 's_0_19': [3323], 20: [2992, 2991, 1110, 1111, 3516, 1113, 1112], 's_0_20': [1230], 30: [1486, 3232, 3230, 3231], 's_0_30': [3158], 2: [991, 990, 3113, 3112, 3111, 3110], 's_1_2': [3109], 's_1_5': [930], 7: [1278, 1275, 3156, 1277, 3155, 1276], 's_1_7': [946], 's_1_12': [3214], 14: [1127, 3290, 1007, 1006], 's_1_14': [3305], 16: [1185, 1095, 3050], 's_1_16': [2975], 's_1_20': [3065], 29: [3488, 3487, 1202, 3486], 's_1_29': [1172], 9: [3080, 1140, 3353, 3352, 3351, 1141], 's_5_9': [3260], 10: [3185, 3322, 3321, 1201], 's_5_10': [3320], 's_5_16': [2945], 17: [2917, 2918, 1622, 1621, 1620], 's_5_17': [2963], 23: [1067, 3425], 's_5_23': [1097], 24: [3096, 3095], 's_5_24': [1096], 26: [3397, 1427, 2977, 1425, 1426, 3202], 's_5_26': [1290], 's_11_7': [1262], 8: [3455, 3457, 3456, 3517, 1337], 's_11_8': [1413], 's_11_14': [3335], 15: [3382, 3277, 1441, 1442], 's_11_15': [3412], 's_11_17': [3368], 18: [1395, 1397, 1396], 's_11_18': [3472], 's_11_29': [1607], 's_12_2': [1200], 's_12_7': [2976], 's_12_15': [1487], 's_12_16': [3020], 25: [1022, 1021, 1126, 3245, 1036], 's_12_25': [3200], 27: [3366, 3081, 1335, 1336], 's_12_27': [3276], 28: [3172, 1381, 3427, 1382], 's_12_28': [1517], 's_19_9': [1366], 13: [1186], 's_19_13': [3306], 's_19_15': [1457], 's_19_18': [3247], 's_19_23': [1052], 's_19_25': [3379], 's_19_26': [1576], 's_19_27': [1292], 's_20_8': [1187], 's_20_14': [3530, 3531, 1157], 's_20_16': [2930], 21: [1546, 1547, 3562, 3561, 3560, 3559], 's_20_21': [3545], 's_20_25': [1125], 's_20_26': [3501, 3502], 's_20_29': [3365], 3: [1247, 3171, 1246], 's_30_3': [1261], 4: [1545, 1471, 3051, 3052, 1470], 's_30_4': [1485], 6: [3142, 1306], 's_30_6': [3143], 's_30_7': [1051], 's_30_10': [1411], 's_30_15': [1501], 22: [1351, 3396, 1352], 's_30_22': [3262], 's_30_25': [3229], 's_30_28': [3173], 's_2_6': [1320], 's_2_7': [1005], 's_2_14': [3364], 's_2_16': [3049], 's_2_17': [3098], 's_2_18': [3097], 's_2_27': [1170], 's_7_4': [2931, 2932], 's_7_8': [3426], 's_7_22': [3411], 's_7_24': [3036, 1245], 's_7_25': [3170], 's_14_10': [1066], 's_14_21': [3500, 1098], 's_16_9': [3126], 's_16_27': [3066], 's_29_8': [1128], 's_29_10': [1232, 1231], 's_29_21': [1488], 's_29_26': [1577], 's_9_17': [1637], 's_9_10': [1155], 's_9_24': [1065], 's_9_25': [3350], 's_9_26': [1472], 's_10_22': [1307], 's_10_13': [3261], 's_23_8': [3470], 's_23_25': [1037], 's_24_6': [1291], 's_24_25': [1020], 's_26_6': [1305], 's_26_18': [3067], 's_26_28': [1502], 's_26_15': [3187], 's_8_18': [1398], 's_8_3': [3471], 's_15_6': [3127], 's_15_21': [3217], 's_18_6': [3201], 's_18_27': [3216], 's_27_3': [3291], 's_28_6': [1456], 's_28_3': [3186], 's_28_22': [1367], 's_21_4': [1532, 1531, 1530], 's_3_22': [3381]}</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0004492753623188405</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.001835437298769633</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>{0: [1562, 3005, 3006, 3007, 1560, 1561], 1: [3140, 3410, 3409, 1050, 932, 931], 's_0_1': [3004, 1035], 5: [1455, 2962, 2961, 1082, 1081, 1080, 2960], 's_0_5': [1440], 11: [1412, 3336, 1592, 3338, 3337], 's_0_11': [3458], 12: [1215, 3442, 3441, 3215, 1216, 1217], 's_0_12': [3443], 19: [3380, 1171, 3246, 3308, 3307, 1321], 's_0_19': [3323], 20: [2992, 2991, 1110, 1111, 3516, 1113, 1112], 's_0_20': [1230], 30: [1486, 3232, 3230, 3231], 's_0_30': [3158], 2: [991, 990, 3113, 3112, 3111, 3110], 's_1_2': [3109], 's_1_5': [930], 7: [1278, 1275, 3156, 1277, 3155, 1276], 's_1_7': [946], 's_1_12': [3214], 14: [1127, 3290, 1007, 1006], 's_1_14': [3305], 16: [1185, 1095, 3050], 's_1_16': [2975], 's_1_20': [3065], 29: [3488, 3487, 1202, 3486], 's_1_29': [1172], 9: [3080, 1140, 3353, 3352, 3351, 1141], 's_5_9': [3260], 10: [3185, 3322, 3321, 1201], 's_5_10': [3320], 's_5_16': [2945], 17: [2917, 2918, 1622, 1621, 1620], 's_5_17': [2963], 23: [1067, 3425], 's_5_23': [1097], 24: [3096, 3095], 's_5_24': [1096], 26: [3397, 1427, 2977, 1425, 1426, 3202], 's_5_26': [1290], 's_11_7': [1262], 8: [3455, 3457, 3456, 3517, 1337], 's_11_8': [1413], 's_11_14': [3335], 15: [3382, 3277, 1441, 1442], 's_11_15': [3412], 's_11_17': [3368], 18: [1395, 1397, 1396], 's_11_18': [3472], 's_11_29': [1607], 's_12_2': [1200], 's_12_7': [2976], 's_12_15': [1487], 's_12_16': [3020], 25: [1022, 1021, 1126, 3245, 1036], 's_12_25': [3200], 27: [3366, 3081, 1335, 1336], 's_12_27': [3276], 28: [3172, 1381, 3427, 1382], 's_12_28': [1517], 's_19_9': [1366], 13: [1186], 's_19_13': [3306], 's_19_15': [1457], 's_19_18': [3247], 's_19_23': [1052], 's_19_25': [3379], 's_19_26': [1576], 's_19_27': [1292], 's_20_8': [1187], 's_20_14': [3530, 3531, 1157], 's_20_16': [2930], 21: [1546, 1547, 3562, 3561, 3560, 3559], 's_20_21': [3545], 's_20_25': [1125], 's_20_26': [3501, 3502], 's_20_29': [3365], 3: [1247, 3171, 1246], 's_30_3': [1261], 4: [1545, 1471, 3051, 3052, 1470], 's_30_4': [1485], 6: [3142, 1306], 's_30_6': [3143], 's_30_7': [1051], 's_30_10': [1411], 's_30_15': [1501], 22: [1351, 3396, 1352], 's_30_22': [3262], 's_30_25': [3229], 's_30_28': [3173], 's_2_6': [1320], 's_2_7': [1005], 's_2_14': [3364], 's_2_16': [3049], 's_2_17': [3098], 's_2_18': [3097], 's_2_27': [1170], 's_7_4': [2931, 2932], 's_7_8': [3426], 's_7_22': [3411], 's_7_24': [3036, 1245], 's_7_25': [3170], 's_14_10': [1066], 's_14_21': [3500, 1098], 's_16_9': [3126], 's_16_27': [3066], 's_29_8': [1128], 's_29_10': [1232, 1231], 's_29_21': [1488], 's_29_26': [1577], 's_9_17': [1637], 's_9_10': [1155], 's_9_24': [1065], 's_9_25': [3350], 's_9_26': [1472], 's_10_22': [1307], 's_10_13': [3261], 's_23_8': [3470], 's_23_25': [1037], 's_24_6': [1291], 's_24_25': [1020], 's_26_6': [1305], 's_26_18': [3067], 's_26_28': [1502], 's_26_15': [3187], 's_8_18': [1398], 's_8_3': [3471], 's_15_6': [3127], 's_15_21': [3217], 's_18_6': [3201], 's_18_27': [3216], 's_27_3': [3291], 's_28_6': [1456], 's_28_3': [3186], 's_28_22': [1367], 's_21_4': [1532, 1531, 1530], 's_3_22': [3381]}</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0004492753623188405</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.001835437298769633</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>{0: [1724, 5439, 1723], 1: [1859], 2: [1618, 5558, 1619], 4: [5634, 1738, 1739], 6: [5709, 1873, 5559, 1874], 9: [5529, 5528], 12: [1708, 5514, 5513], 21: [5603, 1889, 5604], 22: [1769, 5648, 5649], 23: [1829], 26: [1709, 5572, 5573], 28: [5484, 5485], 30: [1649, 5469, 5468], 14: [5635, 1934, 5574], 18: [5544, 1664, 5543], 3: [5379, 5378], 10: [1603, 5633, 1604], 15: [1573, 5557, 1574], 7: [5663, 5664, 1783, 1784], 19: [1514, 5679, 5678], 5: [1693, 5708, 1694], 11: [1844, 5470], 16: [5618, 5619, 1919, 5620], 27: [5589, 1799], 20: [1814], 24: [1754, 1753], 25: [1798, 1918, 5394], 31: [5499, 5498], 13: [5588], 29: [1903, 5680, 1904], 17: [1559], 8: [1634, 5454, 5453]}</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0029296875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.009575435946371216</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>{0: [1724, 5439, 1723], 1: [1859], 2: [1618, 5558, 1619], 4: [5634, 1738, 1739], 6: [5709, 1873, 5559, 1874], 9: [5529, 5528], 12: [1708, 5514, 5513], 21: [5603, 1889, 5604], 22: [1769, 5648, 5649], 23: [1829], 26: [1709, 5572, 5573], 28: [5484, 5485], 30: [1649, 5469, 5468], 14: [5635, 1934, 5574], 18: [5544, 1664, 5543], 3: [5379, 5378], 10: [1603, 5633, 1604], 15: [1573, 5557, 1574], 7: [5663, 5664, 1783, 1784], 19: [1514, 5679, 5678], 5: [1693, 5708, 1694], 11: [1844, 5470], 16: [5618, 5619, 1919, 5620], 27: [5589, 1799], 20: [1814], 24: [1754, 1753], 25: [1798, 1918, 5394], 31: [5499, 5498], 13: [5588], 29: [1903, 5680, 1904], 17: [1559], 8: [1634, 5454, 5453]}</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0029296875</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.009575435946371216</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>{0: [214, 3513, 213, 3511, 3512], 1: [3451, 408], 's_0_1': [3450], 2: [3766, 3768, 588, 589, 3767], 's_0_2': [573], 4: [3465, 3466, 3467, 3468, 3573, 738], 's_0_4': [693], 6: [349, 3555, 348, 3558, 3557, 3556], 's_0_6': [303], 9: [258, 3693, 3691, 3692], 's_0_9': [257], 12: [243, 454, 3780, 244, 3900, 3902, 3901], 's_0_12': [3645], 21: [3526, 363, 3858, 3857, 424, 364, 3796], 's_0_21': [287], 22: [3453, 677, 3797, 678, 679, 3798], 's_0_22': [663], 23: [3482, 452], 's_0_23': [467], 26: [3332, 482, 483, 484, 485, 4037], 's_0_26': [3527], 28: [3570, 152, 154, 153], 's_0_28': [3600], 30: [617, 3408, 3407, 333, 3406, 332], 's_0_30': [602], 's_1_6': [3586], 14: [317, 319, 318], 's_1_14': [3616], 18: [184, 334, 3571, 3735, 438, 3736], 's_1_18': [393], 3: [3649, 844, 843], 's_2_3': [3753], 10: [3661, 453, 560, 3662, 559], 's_2_10': [409], 's_2_12': [3782], 15: [665, 3977, 739, 740, 3978], 's_2_15': [3708], 's_2_18': [3572], 's_2_21': [394], 's_2_26': [3647], 's_4_3': [858], 's_4_6': [797], 7: [948, 3604, 3603, 3601, 3602], 's_4_7': [3574], 's_4_14': [302], 19: [3723, 3694, 783], 's_4_19': [813], 's_4_21': [242], 's_4_26': [497], 's_4_28': [167], 5: [827, 829, 828], 's_6_5': [3543], 's_6_7': [768], 11: [3722, 649, 647, 648], 's_6_11': [3541, 3542], 's_6_14': [3646], 16: [3813, 365, 3811, 3812], 's_6_16': [3826], 's_6_23': [437], 27: [3752, 229, 3676, 3677, 512, 513, 514], 's_6_27': [228], 's_6_28': [198], 's_9_10': [288], 's_9_12': [3615], 's_9_14': [304], 's_9_18': [3707], 20: [274, 273, 272, 3437, 3436], 's_9_20': [3585], 's_9_22': [529], 24: [379, 3931, 380], 's_9_24': [3706], 25: [3664, 619, 3663, 618], 's_9_25': [724], 's_9_27': [3720], 's_12_10': [3842], 's_12_18': [185], 's_12_22': [680], 's_12_26': [455], 's_12_27': [3630], 's_12_28': [3825], 31: [543, 544, 3961, 3962, 545], 's_12_31': [305], 's_21_7': [378], 13: [4022, 500, 3751, 499], 's_21_13': [3887], 's_21_14': [3496], 29: [3828, 709, 3784, 754, 3783], 's_21_29': [664], 's_21_30': [3631], 's_22_15': [3678], 17: [3588, 528, 3587], 's_22_17': [723], 's_22_26': [3333], 's_22_27': [3377], 's_23_20': [3481], 's_23_27': [527], 's_23_31': [3497], 8: [3915, 3916, 3918, 3917], 's_26_8': [515], 's_26_10': [3872], 's_26_13': [3992], 's_26_15': [4038], 's_26_16': [3946], 's_26_18': [3721], 's_26_30': [392], 's_28_18': [183], 's_28_20': [3540], 's_30_5': [3393], 's_30_10': [422, 423], 's_30_11': [632], 's_30_20': [572], 's_30_25': [708, 707], 's_14_16': [3856], 's_14_18': [3781], 's_14_20': [3421], 's_14_27': [3765], 's_18_10': [3660], 's_18_13': [439], 's_18_24': [335], 's_3_7': [978], 's_3_25': [919], 's_3_29': [949], 's_10_7': [498], 's_10_15': [3947], 's_10_17': [3632], 's_10_31': [3932], 's_15_8': [710], 's_15_13': [4023], 's_15_16': [575], 's_15_19': [3648], 's_15_31': [3963], 's_7_5': [3454], 's_7_17': [3589], 's_7_19': [3618], 's_7_25': [888], 's_7_31': [558], 's_19_29': [859], 's_19_5': [3738], 's_19_17': [798], 's_5_8': [3903], 's_11_25': [3873], 's_11_29': [3633], 's_11_8': [633, 634], 's_16_25': [3827], 's_16_29': [784], 's_16_24': [3871], 's_27_25': [3617], 's_27_13': [3750], 's_27_20': [3422], 's_27_31': [3452], 's_20_8': [289], 's_24_8': [350], 's_24_31': [425], 's_25_8': [604], 's_13_8': [469]}</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0003483870967741936</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.001486449372758168</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>{0: [214, 3513, 213, 3511, 3512], 1: [3451, 408], 's_0_1': [3450], 2: [3766, 3768, 588, 589, 3767], 's_0_2': [573], 4: [3465, 3466, 3467, 3468, 3573, 738], 's_0_4': [693], 6: [349, 3555, 348, 3558, 3557, 3556], 's_0_6': [303], 9: [258, 3693, 3691, 3692], 's_0_9': [257], 12: [243, 454, 3780, 244, 3900, 3902, 3901], 's_0_12': [3645], 21: [3526, 363, 3858, 3857, 424, 364, 3796], 's_0_21': [287], 22: [3453, 677, 3797, 678, 679, 3798], 's_0_22': [663], 23: [3482, 452], 's_0_23': [467], 26: [3332, 482, 483, 484, 485, 4037], 's_0_26': [3527], 28: [3570, 152, 154, 153], 's_0_28': [3600], 30: [617, 3408, 3407, 333, 3406, 332], 's_0_30': [602], 's_1_6': [3586], 14: [317, 319, 318], 's_1_14': [3616], 18: [184, 334, 3571, 3735, 438, 3736], 's_1_18': [393], 3: [3649, 844, 843], 's_2_3': [3753], 10: [3661, 453, 560, 3662, 559], 's_2_10': [409], 's_2_12': [3782], 15: [665, 3977, 739, 740, 3978], 's_2_15': [3708], 's_2_18': [3572], 's_2_21': [394], 's_2_26': [3647], 's_4_3': [858], 's_4_6': [797], 7: [948, 3604, 3603, 3601, 3602], 's_4_7': [3574], 's_4_14': [302], 19: [3723, 3694, 783], 's_4_19': [813], 's_4_21': [242], 's_4_26': [497], 's_4_28': [167], 5: [827, 829, 828], 's_6_5': [3543], 's_6_7': [768], 11: [3722, 649, 647, 648], 's_6_11': [3541, 3542], 's_6_14': [3646], 16: [3813, 365, 3811, 3812], 's_6_16': [3826], 's_6_23': [437], 27: [3752, 229, 3676, 3677, 512, 513, 514], 's_6_27': [228], 's_6_28': [198], 's_9_10': [288], 's_9_12': [3615], 's_9_14': [304], 's_9_18': [3707], 20: [274, 273, 272, 3437, 3436], 's_9_20': [3585], 's_9_22': [529], 24: [379, 3931, 380], 's_9_24': [3706], 25: [3664, 619, 3663, 618], 's_9_25': [724], 's_9_27': [3720], 's_12_10': [3842], 's_12_18': [185], 's_12_22': [680], 's_12_26': [455], 's_12_27': [3630], 's_12_28': [3825], 31: [543, 544, 3961, 3962, 545], 's_12_31': [305], 's_21_7': [378], 13: [4022, 500, 3751, 499], 's_21_13': [3887], 's_21_14': [3496], 29: [3828, 709, 3784, 754, 3783], 's_21_29': [664], 's_21_30': [3631], 's_22_15': [3678], 17: [3588, 528, 3587], 's_22_17': [723], 's_22_26': [3333], 's_22_27': [3377], 's_23_20': [3481], 's_23_27': [527], 's_23_31': [3497], 8: [3915, 3916, 3918, 3917], 's_26_8': [515], 's_26_10': [3872], 's_26_13': [3992], 's_26_15': [4038], 's_26_16': [3946], 's_26_18': [3721], 's_26_30': [392], 's_28_18': [183], 's_28_20': [3540], 's_30_5': [3393], 's_30_10': [422, 423], 's_30_11': [632], 's_30_20': [572], 's_30_25': [708, 707], 's_14_16': [3856], 's_14_18': [3781], 's_14_20': [3421], 's_14_27': [3765], 's_18_10': [3660], 's_18_13': [439], 's_18_24': [335], 's_3_7': [978], 's_3_25': [919], 's_3_29': [949], 's_10_7': [498], 's_10_15': [3947], 's_10_17': [3632], 's_10_31': [3932], 's_15_8': [710], 's_15_13': [4023], 's_15_16': [575], 's_15_19': [3648], 's_15_31': [3963], 's_7_5': [3454], 's_7_17': [3589], 's_7_19': [3618], 's_7_25': [888], 's_7_31': [558], 's_19_29': [859], 's_19_5': [3738], 's_19_17': [798], 's_5_8': [3903], 's_11_25': [3873], 's_11_29': [3633], 's_11_8': [633, 634], 's_16_25': [3827], 's_16_29': [784], 's_16_24': [3871], 's_27_25': [3617], 's_27_13': [3750], 's_27_20': [3422], 's_27_31': [3452], 's_20_8': [289], 's_24_8': [350], 's_24_31': [425], 's_25_8': [604], 's_13_8': [469]}</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0003483870967741936</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.001486449372758168</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>{0: [1368, 1367], 3: [3411, 1307], 5: [1473, 3607, 3606], 16: [3591, 1233], 22: [1292, 3396], 23: [1517, 3532, 3533], 31: [1352, 3472], 32: [3381, 1366], 6: [1336, 3291], 14: [3367, 3366], 15: [1187, 3441, 3442], 24: [3322, 1443, 1442], 8: [1246, 1248, 1247], 2: [1293, 3471], 4: [1397, 1398], 26: [3531, 1171, 1172], 29: [3351, 1278, 1277], 30: [3562, 3560, 3561], 1: [3426, 3427, 1487], 17: [1232, 3486], 7: [1516, 3276, 3277], 19: [1458, 1457], 20: [1413, 3352, 1412], 21: [1427, 3337], 9: [1472, 3308, 3306, 3307], 10: [3382], 11: [3456, 3487, 1337], 12: [3576, 1262, 1263], 13: [1382, 1381], 18: [1321, 1322], 27: [3517, 3516], 28: [1202, 3336], 25: [1128, 3501, 3502]}</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.001888574126534467</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.007325490205745791</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>{0: [1368, 1367], 3: [3411, 1307], 5: [1473, 3607, 3606], 16: [3591, 1233], 22: [1292, 3396], 23: [1517, 3532, 3533], 31: [1352, 3472], 32: [3381, 1366], 6: [1336, 3291], 14: [3367, 3366], 15: [1187, 3441, 3442], 24: [3322, 1443, 1442], 8: [1246, 1248, 1247], 2: [1293, 3471], 4: [1397, 1398], 26: [3531, 1171, 1172], 29: [3351, 1278, 1277], 30: [3562, 3560, 3561], 1: [3426, 3427, 1487], 17: [1232, 3486], 7: [1516, 3276, 3277], 19: [1458, 1457], 20: [1413, 3352, 1412], 21: [1427, 3337], 9: [1472, 3308, 3306, 3307], 10: [3382], 11: [3456, 3487, 1337], 12: [3576, 1262, 1263], 13: [1382, 1381], 18: [1321, 1322], 27: [3517, 3516], 28: [1202, 3336], 25: [1128, 3501, 3502]}</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0.001888574126534467</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.007325490205745791</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>{0: [424, 426, 3751, 425], 3: [696, 4053, 3946, 3947, 605], 's_0_3': [3931], 5: [3798, 3797, 3796], 's_0_5': [379], 16: [3631, 3781, 364], 's_0_16': [409], 22: [4170, 471, 4171, 4173, 4172], 's_0_22': [4261], 23: [3842, 3843, 3844, 922, 679, 921, 920], 's_0_23': [3752], 31: [3632, 456, 455, 453, 454], 's_0_31': [3916], 32: [4143, 4141, 561, 4142], 's_0_32': [4052], 6: [681, 411, 4069, 4067, 4068, 741], 's_3_6': [4007, 501, 500], 14: [4024, 260, 4021, 4023, 4022], 's_3_14': [3945], 15: [3976, 350, 352, 351], 's_3_15': [335], 's_3_22': [4188], 24: [619, 695, 3873], 's_3_24': [604], 's_3_32': [726], 8: [3915, 4216, 319, 321, 320], 's_5_8': [274], 's_5_16': [439], 's_5_23': [469], 's_5_31': [544], 2: [859, 3706, 334, 3723, 3722, 3721], 's_16_2': [333], 4: [4051, 3766, 245, 3765, 244], 's_16_4': [3780], 's_16_8': [318], 26: [289, 3825, 3826, 3827, 545, 546, 4037], 's_16_26': [288], 29: [3735, 3736, 800, 799, 3782, 3783, 484], 's_16_29': [423], 30: [3691, 3692, 784, 499, 3813, 3812], 's_16_30': [273], 1: [487, 4249, 4248, 4247, 4246, 261], 's_22_1': [772], 's_22_6': [742], 's_22_8': [4186], 's_22_15': [4126], 17: [441, 380, 3961, 440], 's_22_17': [4276], 's_22_31': [562, 4232], 's_22_32': [636], 's_23_1': [4234], 's_23_2': [844], 7: [485, 861, 4219, 4218, 4217, 486], 's_23_7': [4159], 19: [3872, 665, 560, 3932], 's_23_19': [664], 's_23_24': [694], 's_31_2': [559], 's_31_4': [3662, 394], 20: [3857, 3858, 591, 590], 's_31_20': [589, 3767, 529], 21: [4080, 4081], 's_31_21': [4096], 's_32_7': [711], 's_32_8': [336], 9: [4201, 530, 531, 4202], 's_32_9': [276], 10: [3992, 3993, 3962, 3963, 785], 's_32_10': [786], 's_32_17': [381, 3991], 's_6_7': [891], 11: [3886, 3768, 3887, 830, 3888, 3889, 829], 's_6_11': [4054], 's_6_20': [740], 's_6_21': [470], 's_6_29': [4008], 's_14_1': [231, 4155], 12: [3750, 304, 307, 306, 305], 's_14_12': [4066], 13: [575, 576, 4112, 4111, 4110, 169, 170, 171], 's_14_13': [4005], 's_14_4': [3975], 18: [3874, 4128, 4097, 4098, 845, 846], 's_14_18': [771], 's_14_19': [620], 's_14_21': [275], 's_15_1': [337], 's_15_9': [382, 4231], 's_15_4': [4036], 's_15_11': [3871], 27: [756, 755, 3977, 3978], 's_15_27': [4158, 4156, 4157], 's_24_13': [4038], 's_24_10': [710], 's_24_27': [3918], 's_24_30': [634], 's_8_1': [246], 's_8_9': [367], 's_8_11': [3900, 215], 's_8_26': [3841], 28: [201, 3856, 3855, 200], 's_8_28': [3930], 's_8_29': [3720], 's_2_11': [828], 25: [139, 410, 3811, 3810], 's_2_25': [3705], 's_2_28': [349], 's_4_12': [184], 's_4_21': [4095], 's_4_30': [243], 's_26_7': [547], 's_26_9': [4127], 's_26_25': [94], 's_26_28': [109], 's_26_30': [514], 's_26_17': [290], 's_26_27': [3828], 's_29_7': [801], 's_29_12': [199], 's_30_12': [229], 's_30_11': [649], 's_30_25': [3690], 's_30_18': [3903], 's_1_7': [606], 's_1_9': [532], 's_1_12': [4260], 's_1_13': [577], 's_17_25': [365], 's_17_28': [3960], 's_7_18': [860, 3948], 's_7_19': [666], 's_19_11': [680], 's_19_20': [3902], 's_19_27': [3933], 's_20_11': [709], 's_20_25': [395], 's_20_10': [725], 's_20_27': [3859], 's_21_13': [366], 's_21_28': [186], 's_9_10': [515], 's_9_12': [232, 4275], 's_9_18': [516], 's_12_25': [259], 's_13_11': [3885], 's_13_25': [3795], 's_18_11': [3994], 's_18_27': [3979], 's_28_25': [185]}</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0005100671140939595</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.001852932502199989</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>{0: [424, 426, 3751, 425], 3: [696, 4053, 3946, 3947, 605], 's_0_3': [3931], 5: [3798, 3797, 3796], 's_0_5': [379], 16: [3631, 3781, 364], 's_0_16': [409], 22: [4170, 471, 4171, 4173, 4172], 's_0_22': [4261], 23: [3842, 3843, 3844, 922, 679, 921, 920], 's_0_23': [3752], 31: [3632, 456, 455, 453, 454], 's_0_31': [3916], 32: [4143, 4141, 561, 4142], 's_0_32': [4052], 6: [681, 411, 4069, 4067, 4068, 741], 's_3_6': [4007, 501, 500], 14: [4024, 260, 4021, 4023, 4022], 's_3_14': [3945], 15: [3976, 350, 352, 351], 's_3_15': [335], 's_3_22': [4188], 24: [619, 695, 3873], 's_3_24': [604], 's_3_32': [726], 8: [3915, 4216, 319, 321, 320], 's_5_8': [274], 's_5_16': [439], 's_5_23': [469], 's_5_31': [544], 2: [859, 3706, 334, 3723, 3722, 3721], 's_16_2': [333], 4: [4051, 3766, 245, 3765, 244], 's_16_4': [3780], 's_16_8': [318], 26: [289, 3825, 3826, 3827, 545, 546, 4037], 's_16_26': [288], 29: [3735, 3736, 800, 799, 3782, 3783, 484], 's_16_29': [423], 30: [3691, 3692, 784, 499, 3813, 3812], 's_16_30': [273], 1: [487, 4249, 4248, 4247, 4246, 261], 's_22_1': [772], 's_22_6': [742], 's_22_8': [4186], 's_22_15': [4126], 17: [441, 380, 3961, 440], 's_22_17': [4276], 's_22_31': [562, 4232], 's_22_32': [636], 's_23_1': [4234], 's_23_2': [844], 7: [485, 861, 4219, 4218, 4217, 486], 's_23_7': [4159], 19: [3872, 665, 560, 3932], 's_23_19': [664], 's_23_24': [694], 's_31_2': [559], 's_31_4': [3662, 394], 20: [3857, 3858, 591, 590], 's_31_20': [589, 3767, 529], 21: [4080, 4081], 's_31_21': [4096], 's_32_7': [711], 's_32_8': [336], 9: [4201, 530, 531, 4202], 's_32_9': [276], 10: [3992, 3993, 3962, 3963, 785], 's_32_10': [786], 's_32_17': [381, 3991], 's_6_7': [891], 11: [3886, 3768, 3887, 830, 3888, 3889, 829], 's_6_11': [4054], 's_6_20': [740], 's_6_21': [470], 's_6_29': [4008], 's_14_1': [231, 4155], 12: [3750, 304, 307, 306, 305], 's_14_12': [4066], 13: [575, 576, 4112, 4111, 4110, 169, 170, 171], 's_14_13': [4005], 's_14_4': [3975], 18: [3874, 4128, 4097, 4098, 845, 846], 's_14_18': [771], 's_14_19': [620], 's_14_21': [275], 's_15_1': [337], 's_15_9': [382, 4231], 's_15_4': [4036], 's_15_11': [3871], 27: [756, 755, 3977, 3978], 's_15_27': [4158, 4156, 4157], 's_24_13': [4038], 's_24_10': [710], 's_24_27': [3918], 's_24_30': [634], 's_8_1': [246], 's_8_9': [367], 's_8_11': [3900, 215], 's_8_26': [3841], 28: [201, 3856, 3855, 200], 's_8_28': [3930], 's_8_29': [3720], 's_2_11': [828], 25: [139, 410, 3811, 3810], 's_2_25': [3705], 's_2_28': [349], 's_4_12': [184], 's_4_21': [4095], 's_4_30': [243], 's_26_7': [547], 's_26_9': [4127], 's_26_25': [94], 's_26_28': [109], 's_26_30': [514], 's_26_17': [290], 's_26_27': [3828], 's_29_7': [801], 's_29_12': [199], 's_30_12': [229], 's_30_11': [649], 's_30_25': [3690], 's_30_18': [3903], 's_1_7': [606], 's_1_9': [532], 's_1_12': [4260], 's_1_13': [577], 's_17_25': [365], 's_17_28': [3960], 's_7_18': [860, 3948], 's_7_19': [666], 's_19_11': [680], 's_19_20': [3902], 's_19_27': [3933], 's_20_11': [709], 's_20_25': [395], 's_20_10': [725], 's_20_27': [3859], 's_21_13': [366], 's_21_28': [186], 's_9_10': [515], 's_9_12': [232, 4275], 's_9_18': [516], 's_12_25': [259], 's_13_11': [3885], 's_13_25': [3795], 's_18_11': [3994], 's_18_27': [3979], 's_28_25': [185]}</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0005100671140939595</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.001852932502199989</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>{0: [3155, 1155, 3156], 1: [3172, 3171, 1021, 3170], 6: [3231, 1245, 1246], 7: [1127, 3200, 1126], 15: [1217, 1216], 16: [1050, 1051], 24: [1141, 3035, 1140], 26: [1276, 1277, 3351], 27: [3186, 3185], 29: [1230, 3080, 3081], 33: [3050, 1006, 3049, 1005], 2: [2991, 2990, 1020], 3: [1110, 1111], 5: [1170, 1171], 12: [1290, 3260, 3261, 1291], 17: [946, 1065, 1035, 3140], 30: [1306, 3276, 1307], 31: [991, 3034, 990], 9: [3306, 1262], 10: [3111, 3110], 13: [1066, 3230], 14: [3066, 3065], 20: [3291, 3290], 25: [1231, 3320, 3321], 32: [3245, 3246], 4: [3005, 1200, 1201], 11: [3127, 3126, 1096, 3125], 8: [1082, 1081, 3215], 23: [3305, 1097], 18: [1185, 1186], 19: [1320, 3095, 1261, 3096], 22: [1036, 931, 3184], 21: [1080], 28: [1202, 3364, 1112, 3365]}</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.005109294473076239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01182578437113929</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>{0: [3155, 1155, 3156], 1: [3172, 3171, 1021, 3170], 6: [3231, 1245, 1246], 7: [1127, 3200, 1126], 15: [1217, 1216], 16: [1050, 1051], 24: [1141, 3035, 1140], 26: [1276, 1277, 3351], 27: [3186, 3185], 29: [1230, 3080, 3081], 33: [3050, 1006, 3049, 1005], 2: [2991, 2990, 1020], 3: [1110, 1111], 5: [1170, 1171], 12: [1290, 3260, 3261, 1291], 17: [946, 1065, 1035, 3140], 30: [1306, 3276, 1307], 31: [991, 3034, 990], 9: [3306, 1262], 10: [3111, 3110], 13: [1066, 3230], 14: [3066, 3065], 20: [3291, 3290], 25: [1231, 3320, 3321], 32: [3245, 3246], 4: [3005, 1200, 1201], 11: [3127, 3126, 1096, 3125], 8: [1082, 1081, 3215], 23: [3305, 1097], 18: [1185, 1186], 19: [1320, 3095, 1261, 3096], 22: [1036, 931, 3184], 21: [1080], 28: [1202, 3364, 1112, 3365]}</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0.005109294473076239</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01182578437113929</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.241</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>{0: [4831, 4832, 4833, 867, 866, 865], 1: [223, 268, 267, 5281, 357, 356, 355, 4801], 's_0_1': [370], 6: [463, 462, 5179, 897, 5297, 5299, 5298], 's_0_6': [5239], 7: [944, 5087, 943, 5088, 942, 5089], 's_0_7': [851], 15: [4817, 671, 670], 's_0_15': [4818], 16: [5150, 5146, 5149, 505, 506, 507, 5148, 5147], 's_0_16': [4846], 24: [838, 837, 836, 5013, 5012, 5011, 5116, 341], 's_0_24': [5224], 26: [4774, 279, 4771, 4773, 535, 4772], 's_0_26': [4803, 745], 27: [611, 5040, 5041, 5044, 5043, 5042], 's_0_27': [5059], 29: [551, 793, 792, 325, 4906, 4907, 4908, 791, 790], 's_0_29': [4924], 33: [5208, 822, 5430, 5431, 5327, 538, 5432, 5433, 5434, 823], 's_0_33': [868], 2: [5462, 328, 5461], 's_1_2': [5476], 3: [4953, 5370, 596, 597, 5371, 5372, 598], 's_1_3': [388], 5: [313, 310, 311, 5252, 5251, 312], 's_1_5': [4800], 12: [5524, 613, 5520, 5521, 5522, 5478, 5523, 808], 's_1_12': [5415, 253], 17: [5315, 5221, 5222, 5314, 718, 5313, 612], 's_1_17': [5220], 's_1_24': [5026], 's_1_26': [429], 30: [928, 4876, 4877, 4878, 805, 4954, 927, 926], 's_1_30': [385], 31: [853, 5355, 5356, 5358, 5357], 's_1_31': [252], 's_6_2': [508, 5447], 9: [5164, 492, 5163, 5160, 5161, 5162], 's_6_9': [852], 10: [5404, 4892, 581, 582, 5403, 5402, 583], 's_6_10': [898], 's_6_12': [5537, 5536], 13: [972, 970, 971], 's_6_13': [5209], 14: [432, 4966, 326, 418, 5266, 327], 's_6_14': [5386], 20: [701, 5074, 778, 777, 5073], 's_6_20': [912], 25: [5328, 642, 5192, 520, 521, 5223, 522], 's_6_25': [5237], 's_6_29': [552, 553], 's_6_30': [5269], 32: [4999, 4998, 5283, 717, 716], 's_6_32': [896], 4: [401, 536, 5118, 402, 5117], 's_7_4': [747], 's_7_9': [821], 11: [446, 447, 973, 5419, 5418, 5417, 5341, 493], 's_7_11': [5495], 's_7_12': [5539], 's_7_13': [5300], 's_7_15': [686], 's_7_16': [567], 's_7_20': [957], 's_7_27': [881], 's_15_25': [4802], 's_15_26': [654], 's_15_30': [4863], 's_16_4': [4952], 8: [4909, 715, 4939, 4936, 4937, 880, 4938], 's_16_8': [4922], 's_16_11': [5102], 's_16_13': [882, 5194], 's_16_14': [5267], 23: [430, 431], 's_16_23': [4996], 's_16_24': [5134], 's_16_29': [806], 's_16_32': [672], 's_24_9': [296], 's_24_10': [566], 's_24_11': [5056], 's_24_12': [5538], 's_24_17': [763, 5373], 18: [5175, 235, 239, 238, 237, 236], 's_24_18': [281], 19: [372, 477, 658, 657, 5206, 5207], 's_24_19': [387], 's_24_27': [776], 's_24_29': [5119], 's_24_31': [5464], 's_24_33': [5479], 's_26_10': [580], 's_26_18': [4756], 's_26_25': [4787], 's_26_30': [340], 's_27_4': [491], 's_27_13': [5029, 941], 's_27_18': [5055], 22: [5177, 687, 688], 's_27_22': [626], 's_27_25': [641], 's_27_30': [761], 's_29_3': [640, 4997], 's_29_4': [4982], 's_29_5': [4830], 's_29_12': [5494], 's_29_14': [371], 's_29_17': [807], 21: [4891, 295], 's_29_21': [4845], 's_29_25': [5027], 's_33_2': [554], 's_33_3': [178], 's_33_5': [5446], 's_33_12': [5509], 's_33_14': [5312], 's_33_18': [224], 's_33_20': [5388], 's_33_22': [5387, 568], 's_33_25': [762], 28: [4741, 4742, 732, 731, 730, 4743], 's_33_28': [5193], 's_33_32': [5284], 's_2_3': [5385], 's_2_11': [5477, 448], 's_2_14': [419], 's_2_31': [5340], 's_3_8': [610], 's_3_12': [628], 's_3_28': [595], 's_3_32': [4968], 's_5_8': [4921], 's_5_9': [342], 's_5_10': [5401], 's_5_11': [5416], 's_5_19': [5131], 's_5_25': [627], 's_5_30': [280, 4951], 's_12_11': [494], 's_12_18': [5535], 's_12_19': [674, 5508], 's_12_22': [689], 's_17_10': [958], 's_17_13': [987], 's_17_14': [297], 's_17_19': [5448], 's_17_22': [5463], 's_30_11': [5389], 's_30_20': [5104], 's_30_25': [4862], 's_30_32': [911], 's_31_10': [703], 's_31_19': [373], 's_31_20': [5329], 's_31_25': [523], 's_9_4': [5191], 's_9_18': [222], 's_9_19': [537], 's_9_20': [656], 's_9_23': [5176], 's_10_4': [5057], 's_10_19': [643], 's_13_11': [913, 5359], 's_13_8': [4894], 's_13_32': [4984], 's_13_20': [986], 's_14_18': [5265], 's_14_19': [5101], 's_14_21': [4995], 's_20_28': [5028], 's_20_4': [5072], 's_25_28': [519, 4757], 's_25_32': [5253], 's_32_8': [820], 's_32_19': [5282], 's_32_22': [5268], 's_4_28': [400], 's_4_21': [416], 's_11_19': [5236], 's_11_22': [673], 's_11_23': [5071], 's_8_18': [221], 's_8_21': [386], 's_8_23': [445], 's_18_28': [220]}</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0007647058823529412</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.002033147766290535</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>{0: [4831, 4832, 4833, 867, 866, 865], 1: [223, 268, 267, 5281, 357, 356, 355, 4801], 's_0_1': [370], 6: [463, 462, 5179, 897, 5297, 5299, 5298], 's_0_6': [5239], 7: [944, 5087, 943, 5088, 942, 5089], 's_0_7': [851], 15: [4817, 671, 670], 's_0_15': [4818], 16: [5150, 5146, 5149, 505, 506, 507, 5148, 5147], 's_0_16': [4846], 24: [838, 837, 836, 5013, 5012, 5011, 5116, 341], 's_0_24': [5224], 26: [4774, 279, 4771, 4773, 535, 4772], 's_0_26': [4803, 745], 27: [611, 5040, 5041, 5044, 5043, 5042], 's_0_27': [5059], 29: [551, 793, 792, 325, 4906, 4907, 4908, 791, 790], 's_0_29': [4924], 33: [5208, 822, 5430, 5431, 5327, 538, 5432, 5433, 5434, 823], 's_0_33': [868], 2: [5462, 328, 5461], 's_1_2': [5476], 3: [4953, 5370, 596, 597, 5371, 5372, 598], 's_1_3': [388], 5: [313, 310, 311, 5252, 5251, 312], 's_1_5': [4800], 12: [5524, 613, 5520, 5521, 5522, 5478, 5523, 808], 's_1_12': [5415, 253], 17: [5315, 5221, 5222, 5314, 718, 5313, 612], 's_1_17': [5220], 's_1_24': [5026], 's_1_26': [429], 30: [928, 4876, 4877, 4878, 805, 4954, 927, 926], 's_1_30': [385], 31: [853, 5355, 5356, 5358, 5357], 's_1_31': [252], 's_6_2': [508, 5447], 9: [5164, 492, 5163, 5160, 5161, 5162], 's_6_9': [852], 10: [5404, 4892, 581, 582, 5403, 5402, 583], 's_6_10': [898], 's_6_12': [5537, 5536], 13: [972, 970, 971], 's_6_13': [5209], 14: [432, 4966, 326, 418, 5266, 327], 's_6_14': [5386], 20: [701, 5074, 778, 777, 5073], 's_6_20': [912], 25: [5328, 642, 5192, 520, 521, 5223, 522], 's_6_25': [5237], 's_6_29': [552, 553], 's_6_30': [5269], 32: [4999, 4998, 5283, 717, 716], 's_6_32': [896], 4: [401, 536, 5118, 402, 5117], 's_7_4': [747], 's_7_9': [821], 11: [446, 447, 973, 5419, 5418, 5417, 5341, 493], 's_7_11': [5495], 's_7_12': [5539], 's_7_13': [5300], 's_7_15': [686], 's_7_16': [567], 's_7_20': [957], 's_7_27': [881], 's_15_25': [4802], 's_15_26': [654], 's_15_30': [4863], 's_16_4': [4952], 8: [4909, 715, 4939, 4936, 4937, 880, 4938], 's_16_8': [4922], 's_16_11': [5102], 's_16_13': [882, 5194], 's_16_14': [5267], 23: [430, 431], 's_16_23': [4996], 's_16_24': [5134], 's_16_29': [806], 's_16_32': [672], 's_24_9': [296], 's_24_10': [566], 's_24_11': [5056], 's_24_12': [5538], 's_24_17': [763, 5373], 18: [5175, 235, 239, 238, 237, 236], 's_24_18': [281], 19: [372, 477, 658, 657, 5206, 5207], 's_24_19': [387], 's_24_27': [776], 's_24_29': [5119], 's_24_31': [5464], 's_24_33': [5479], 's_26_10': [580], 's_26_18': [4756], 's_26_25': [4787], 's_26_30': [340], 's_27_4': [491], 's_27_13': [5029, 941], 's_27_18': [5055], 22: [5177, 687, 688], 's_27_22': [626], 's_27_25': [641], 's_27_30': [761], 's_29_3': [640, 4997], 's_29_4': [4982], 's_29_5': [4830], 's_29_12': [5494], 's_29_14': [371], 's_29_17': [807], 21: [4891, 295], 's_29_21': [4845], 's_29_25': [5027], 's_33_2': [554], 's_33_3': [178], 's_33_5': [5446], 's_33_12': [5509], 's_33_14': [5312], 's_33_18': [224], 's_33_20': [5388], 's_33_22': [5387, 568], 's_33_25': [762], 28: [4741, 4742, 732, 731, 730, 4743], 's_33_28': [5193], 's_33_32': [5284], 's_2_3': [5385], 's_2_11': [5477, 448], 's_2_14': [419], 's_2_31': [5340], 's_3_8': [610], 's_3_12': [628], 's_3_28': [595], 's_3_32': [4968], 's_5_8': [4921], 's_5_9': [342], 's_5_10': [5401], 's_5_11': [5416], 's_5_19': [5131], 's_5_25': [627], 's_5_30': [280, 4951], 's_12_11': [494], 's_12_18': [5535], 's_12_19': [674, 5508], 's_12_22': [689], 's_17_10': [958], 's_17_13': [987], 's_17_14': [297], 's_17_19': [5448], 's_17_22': [5463], 's_30_11': [5389], 's_30_20': [5104], 's_30_25': [4862], 's_30_32': [911], 's_31_10': [703], 's_31_19': [373], 's_31_20': [5329], 's_31_25': [523], 's_9_4': [5191], 's_9_18': [222], 's_9_19': [537], 's_9_20': [656], 's_9_23': [5176], 's_10_4': [5057], 's_10_19': [643], 's_13_11': [913, 5359], 's_13_8': [4894], 's_13_32': [4984], 's_13_20': [986], 's_14_18': [5265], 's_14_19': [5101], 's_14_21': [4995], 's_20_28': [5028], 's_20_4': [5072], 's_25_28': [519, 4757], 's_25_32': [5253], 's_32_8': [820], 's_32_19': [5282], 's_32_22': [5268], 's_4_28': [400], 's_4_21': [416], 's_11_19': [5236], 's_11_22': [673], 's_11_23': [5071], 's_8_18': [221], 's_8_21': [386], 's_8_23': [445], 's_18_28': [220]}</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0007647058823529412</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.002033147766290535</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>{0: [5381, 2189, 2188], 5: [2038, 5306, 5307], 7: [2219, 5455, 5456], 11: [5487, 5486], 12: [2157, 2158], 13: [1963, 5396, 5395], 15: [5261], 20: [5472, 2068, 5471], 21: [2248, 5442, 2143, 5441], 24: [5126, 2187], 26: [5321, 5320, 1978], 28: [5246, 5380, 2098, 2097], 29: [2294, 5502, 5501], 34: [2204, 5366, 2203], 1: [2307, 2308], 3: [5292, 2218], 4: [5351, 5350], 9: [5457, 2322, 5322, 2323], 14: [2083, 5291, 2082], 27: [5425, 2053, 2052], 32: [5277, 2354, 2353], 33: [5365, 2007, 2008], 6: [5427, 2128, 5426], 22: [2022, 2024, 2023], 23: [2113, 2112], 10: [2293, 5170, 5171, 2292], 2: [5185, 5186, 2142], 16: [2174, 5412, 5411, 2173], 19: [2202, 5230, 5231], 25: [2247, 5215, 5216], 30: [2232, 2233], 31: [5275, 5276], 17: [2066, 5336, 2067], 18: [5290, 1977], 8: [2127, 5200, 5201]}</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.004932526756630991</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.011397137187344</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>{0: [5381, 2189, 2188], 5: [2038, 5306, 5307], 7: [2219, 5455, 5456], 11: [5487, 5486], 12: [2157, 2158], 13: [1963, 5396, 5395], 15: [5261], 20: [5472, 2068, 5471], 21: [2248, 5442, 2143, 5441], 24: [5126, 2187], 26: [5321, 5320, 1978], 28: [5246, 5380, 2098, 2097], 29: [2294, 5502, 5501], 34: [2204, 5366, 2203], 1: [2307, 2308], 3: [5292, 2218], 4: [5351, 5350], 9: [5457, 2322, 5322, 2323], 14: [2083, 5291, 2082], 27: [5425, 2053, 2052], 32: [5277, 2354, 2353], 33: [5365, 2007, 2008], 6: [5427, 2128, 5426], 22: [2022, 2024, 2023], 23: [2113, 2112], 10: [2293, 5170, 5171, 2292], 2: [5185, 5186, 2142], 16: [2174, 5412, 5411, 2173], 19: [2202, 5230, 5231], 25: [2247, 5215, 5216], 30: [2232, 2233], 31: [5275, 5276], 17: [2066, 5336, 2067], 18: [5290, 1977], 8: [2127, 5200, 5201]}</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0.004932526756630991</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.011397137187344</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.356</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>{0: [1101, 4025, 4171, 4172, 606, 1102, 605, 4024, 4023], 5: [4096, 798, 799, 800, 4098, 4366, 4367, 517, 516, 4097], 's_0_5': [336], 7: [3752, 4007, 664, 665, 936, 4009, 4008], 's_0_7': [965, 966, 4235], 11: [1039, 1024, 710, 709, 3769, 3768], 's_0_11': [1040], 12: [4414, 861, 4080, 862, 4081, 863, 4082, 4083], 's_0_12': [321], 13: [3963, 3962, 4110, 4111, 469, 470, 471], 's_0_13': [291], 15: [577, 4294, 4291, 4292, 4293], 's_0_15': [4295], 20: [695, 3799, 3843, 3798, 694], 's_0_20': [604], 21: [531, 438, 439, 4052, 440], 's_0_21': [4022], 24: [4323, 4325, 4324], 's_0_24': [4340], 26: [3991, 3992, 4068, 622, 621, 620], 's_0_26': [607], 28: [3754, 4054, 4309, 877, 876, 874, 875], 's_0_28': [4310], 29: [859, 980, 979, 3784], 's_0_29': [4070], 34: [260, 3945, 3946, 636, 4112, 576, 575, 3948, 3947], 's_0_34': [4053], 1: [770, 771, 697, 696, 4157, 4158], 's_5_1': [3844], 3: [4231, 367, 3828, 3827, 3826, 365, 366], 's_5_3': [368], 4: [4336, 410, 3976, 427, 426, 425], 's_5_4': [4351], 9: [548, 547, 545, 546], 's_5_9': [563], 's_5_12': [815], 14: [350, 4021, 562, 4247, 4246, 381, 382], 's_5_14': [383], 's_5_26': [4352], 27: [3888, 680, 4353, 682, 4277, 681], 's_5_27': [4368], 32: [364, 3721, 3723, 3722], 's_5_32': [783], 33: [725, 3933, 847, 846, 3903, 845], 's_5_33': [726], 's_7_3': [3813], 6: [3889, 3916, 3917, 813, 814, 3918], 's_7_6': [3783, 649], 's_7_9': [544], 's_7_11': [3753], 's_7_13': [500], 22: [4055, 711, 4217, 4218, 922, 1026, 4220, 4219], 's_7_22': [4159, 981], 23: [3931, 398, 397, 394, 395, 4006, 396], 's_7_23': [3751], 's_7_27': [3993], 's_7_28': [906], 's_7_34': [591], 10: [951, 755, 529, 3857, 3858, 3859, 3860, 950], 's_11_10': [1009], 's_11_20': [754], 's_11_22': [1025], 's_11_28': [889], 's_11_32': [3724], 's_11_34': [574, 3708], 2: [4113, 758, 757, 756], 's_12_2': [4473], 's_12_4': [290], 's_12_13': [156], 's_12_15': [802], 16: [860, 4039, 231, 4038, 4036, 484, 485, 4037], 's_12_16': [275], 19: [892, 4233, 4234], 's_12_19': [893], 25: [486, 487, 4399, 4398, 4397], 's_12_25': [832], 's_12_28': [4249], 's_12_34': [4095], 's_13_1': [4142], 's_13_3': [246], 's_13_14': [4261], 's_13_16': [4125], 's_13_20': [3842], 's_13_21': [3961], 's_13_23': [3766], 's_13_26': [530], 30: [560, 3978, 3979, 3977], 's_13_30': [785], 's_13_33': [3964], 's_13_34': [261], 's_15_2': [4308], 's_15_3': [4321, 442], 's_15_14': [532], 's_15_28': [937], 31: [453, 817, 454, 455, 456, 4128, 4126, 816, 4127], 's_15_31': [457], 's_15_34': [637], 's_20_1': [769], 's_20_16': [3797], 17: [743, 3648, 742, 741, 3677, 3678, 739, 740], 's_20_17': [693], 's_20_27': [679], 's_20_28': [934], 's_20_30': [590], 's_21_4': [3811], 's_21_9': [3872], 's_21_10': [3707], 's_21_16': [3887], 's_21_17': [423], 's_21_23': [3631], 's_21_25': [501], 's_21_34': [4051], 's_24_17': [4338], 's_24_19': [667], 's_24_22': [952], 's_24_28': [1012], 's_26_4': [320], 's_26_14': [4322], 's_26_16': [515], 18: [786, 4187, 4189, 4188], 's_26_18': [666], 's_26_23': [305], 's_26_27': [4307], 8: [891, 3904, 890], 's_28_8': [3934], 's_28_16': [921], 's_28_19': [4279], 's_28_29': [3694], 's_28_33': [4144], 's_29_10': [949], 's_29_16': [4040], 's_29_32': [844], 's_34_1': [4248], 's_34_3': [4066], 's_34_4': [3975], 's_34_6': [335], 's_34_10': [3949], 's_34_19': [651], 's_34_30': [830], 's_34_33': [3873], 's_1_2': [4173], 's_1_3': [4156], 's_1_6': [3874], 's_1_25': [712], 's_3_4': [4306], 's_3_14': [3871], 's_3_16': [232], 's_3_31': [3901], 's_3_32': [514], 's_4_6': [424], 's_4_25': [4232], 's_4_22': [412], 's_9_25': [4382], 's_9_16': [3812], 's_9_30': [561], 's_14_6': [380], 's_14_18': [4186], 's_14_16': [245], 's_14_23': [4141], 's_27_25': [787], 's_27_31': [4276], 's_27_22': [4143], 's_27_17': [4203], 's_27_33': [4354], 's_32_6': [3738], 's_32_31': [3736], 's_32_16': [499], 's_33_6': [3902], 's_33_10': [829], 's_33_18': [4174], 's_33_17': [724], 's_33_19': [4369], 's_6_8': [905], 's_6_17': [3679], 's_22_25': [923], 's_22_31': [4339], 's_22_8': [4099], 's_22_19': [772], 's_23_25': [4067], 's_23_10': [3692], 's_23_31': [3662], 's_23_16': [4005], 's_10_2': [4114], 's_10_8': [3919], 's_10_17': [528], 's_2_18': [4278], 's_2_25': [4384], 's_2_31': [4429], 's_16_31': [411], 's_16_17': [483], 's_19_18': [801], 's_19_17': [727], 's_25_17': [4383], 's_25_31': [4202], 's_30_31': [3632, 559], 's_30_8': [920], 's_31_18': [4263], 's_18_8': [4204]}</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0005252525252525254</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.001606536998147155</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>{0: [1101, 4025, 4171, 4172, 606, 1102, 605, 4024, 4023], 5: [4096, 798, 799, 800, 4098, 4366, 4367, 517, 516, 4097], 's_0_5': [336], 7: [3752, 4007, 664, 665, 936, 4009, 4008], 's_0_7': [965, 966, 4235], 11: [1039, 1024, 710, 709, 3769, 3768], 's_0_11': [1040], 12: [4414, 861, 4080, 862, 4081, 863, 4082, 4083], 's_0_12': [321], 13: [3963, 3962, 4110, 4111, 469, 470, 471], 's_0_13': [291], 15: [577, 4294, 4291, 4292, 4293], 's_0_15': [4295], 20: [695, 3799, 3843, 3798, 694], 's_0_20': [604], 21: [531, 438, 439, 4052, 440], 's_0_21': [4022], 24: [4323, 4325, 4324], 's_0_24': [4340], 26: [3991, 3992, 4068, 622, 621, 620], 's_0_26': [607], 28: [3754, 4054, 4309, 877, 876, 874, 875], 's_0_28': [4310], 29: [859, 980, 979, 3784], 's_0_29': [4070], 34: [260, 3945, 3946, 636, 4112, 576, 575, 3948, 3947], 's_0_34': [4053], 1: [770, 771, 697, 696, 4157, 4158], 's_5_1': [3844], 3: [4231, 367, 3828, 3827, 3826, 365, 366], 's_5_3': [368], 4: [4336, 410, 3976, 427, 426, 425], 's_5_4': [4351], 9: [548, 547, 545, 546], 's_5_9': [563], 's_5_12': [815], 14: [350, 4021, 562, 4247, 4246, 381, 382], 's_5_14': [383], 's_5_26': [4352], 27: [3888, 680, 4353, 682, 4277, 681], 's_5_27': [4368], 32: [364, 3721, 3723, 3722], 's_5_32': [783], 33: [725, 3933, 847, 846, 3903, 845], 's_5_33': [726], 's_7_3': [3813], 6: [3889, 3916, 3917, 813, 814, 3918], 's_7_6': [3783, 649], 's_7_9': [544], 's_7_11': [3753], 's_7_13': [500], 22: [4055, 711, 4217, 4218, 922, 1026, 4220, 4219], 's_7_22': [4159, 981], 23: [3931, 398, 397, 394, 395, 4006, 396], 's_7_23': [3751], 's_7_27': [3993], 's_7_28': [906], 's_7_34': [591], 10: [951, 755, 529, 3857, 3858, 3859, 3860, 950], 's_11_10': [1009], 's_11_20': [754], 's_11_22': [1025], 's_11_28': [889], 's_11_32': [3724], 's_11_34': [574, 3708], 2: [4113, 758, 757, 756], 's_12_2': [4473], 's_12_4': [290], 's_12_13': [156], 's_12_15': [802], 16: [860, 4039, 231, 4038, 4036, 484, 485, 4037], 's_12_16': [275], 19: [892, 4233, 4234], 's_12_19': [893], 25: [486, 487, 4399, 4398, 4397], 's_12_25': [832], 's_12_28': [4249], 's_12_34': [4095], 's_13_1': [4142], 's_13_3': [246], 's_13_14': [4261], 's_13_16': [4125], 's_13_20': [3842], 's_13_21': [3961], 's_13_23': [3766], 's_13_26': [530], 30: [560, 3978, 3979, 3977], 's_13_30': [785], 's_13_33': [3964], 's_13_34': [261], 's_15_2': [4308], 's_15_3': [4321, 442], 's_15_14': [532], 's_15_28': [937], 31: [453, 817, 454, 455, 456, 4128, 4126, 816, 4127], 's_15_31': [457], 's_15_34': [637], 's_20_1': [769], 's_20_16': [3797], 17: [743, 3648, 742, 741, 3677, 3678, 739, 740], 's_20_17': [693], 's_20_27': [679], 's_20_28': [934], 's_20_30': [590], 's_21_4': [3811], 's_21_9': [3872], 's_21_10': [3707], 's_21_16': [3887], 's_21_17': [423], 's_21_23': [3631], 's_21_25': [501], 's_21_34': [4051], 's_24_17': [4338], 's_24_19': [667], 's_24_22': [952], 's_24_28': [1012], 's_26_4': [320], 's_26_14': [4322], 's_26_16': [515], 18: [786, 4187, 4189, 4188], 's_26_18': [666], 's_26_23': [305], 's_26_27': [4307], 8: [891, 3904, 890], 's_28_8': [3934], 's_28_16': [921], 's_28_19': [4279], 's_28_29': [3694], 's_28_33': [4144], 's_29_10': [949], 's_29_16': [4040], 's_29_32': [844], 's_34_1': [4248], 's_34_3': [4066], 's_34_4': [3975], 's_34_6': [335], 's_34_10': [3949], 's_34_19': [651], 's_34_30': [830], 's_34_33': [3873], 's_1_2': [4173], 's_1_3': [4156], 's_1_6': [3874], 's_1_25': [712], 's_3_4': [4306], 's_3_14': [3871], 's_3_16': [232], 's_3_31': [3901], 's_3_32': [514], 's_4_6': [424], 's_4_25': [4232], 's_4_22': [412], 's_9_25': [4382], 's_9_16': [3812], 's_9_30': [561], 's_14_6': [380], 's_14_18': [4186], 's_14_16': [245], 's_14_23': [4141], 's_27_25': [787], 's_27_31': [4276], 's_27_22': [4143], 's_27_17': [4203], 's_27_33': [4354], 's_32_6': [3738], 's_32_31': [3736], 's_32_16': [499], 's_33_6': [3902], 's_33_10': [829], 's_33_18': [4174], 's_33_17': [724], 's_33_19': [4369], 's_6_8': [905], 's_6_17': [3679], 's_22_25': [923], 's_22_31': [4339], 's_22_8': [4099], 's_22_19': [772], 's_23_25': [4067], 's_23_10': [3692], 's_23_31': [3662], 's_23_16': [4005], 's_10_2': [4114], 's_10_8': [3919], 's_10_17': [528], 's_2_18': [4278], 's_2_25': [4384], 's_2_31': [4429], 's_16_31': [411], 's_16_17': [483], 's_19_18': [801], 's_19_17': [727], 's_25_17': [4383], 's_25_31': [4202], 's_30_31': [3632, 559], 's_30_8': [920], 's_31_18': [4263], 's_18_8': [4204]}</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0005252525252525254</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.001606536998147155</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>{0: [249, 4815, 4816], 3: [4890, 250], 8: [341, 339, 340], 9: [4801, 324, 4800, 325], 16: [4695, 414, 4696], 19: [159, 160], 21: [4952, 415, 416], 25: [4831, 370], 27: [294], 32: [4995, 264, 265], 1: [130, 4875, 4876], 5: [5070, 5010, 251], 15: [191, 4905, 4906], 30: [4965, 4966], 33: [4846, 4845], 35: [295, 4891], 4: [220, 4951, 221], 10: [4920, 4921], 12: [4936, 235, 236], 22: [4756, 280, 279], 26: [5101, 355, 356], 6: [4711, 4710], 7: [354, 4741], 13: [4980, 205, 206], 23: [4772, 99, 4771, 4770], 24: [4830, 190], 29: [309, 310], 2: [4922, 429, 430], 18: [444, 4725, 4726], 20: [4740, 114, 115, 116], 11: [386, 5041, 311], 17: [5026, 5025], 28: [4967, 445, 4996], 31: [5055, 266], 34: [176, 4860, 175], 14: [385, 4861]}</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.002761533463287849</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.008419508277355787</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>{0: [249, 4815, 4816], 3: [4890, 250], 8: [341, 339, 340], 9: [4801, 324, 4800, 325], 16: [4695, 414, 4696], 19: [159, 160], 21: [4952, 415, 416], 25: [4831, 370], 27: [294], 32: [4995, 264, 265], 1: [130, 4875, 4876], 5: [5070, 5010, 251], 15: [191, 4905, 4906], 30: [4965, 4966], 33: [4846, 4845], 35: [295, 4891], 4: [220, 4951, 221], 10: [4920, 4921], 12: [4936, 235, 236], 22: [4756, 280, 279], 26: [5101, 355, 356], 6: [4711, 4710], 7: [354, 4741], 13: [4980, 205, 206], 23: [4772, 99, 4771, 4770], 24: [4830, 190], 29: [309, 310], 2: [4922, 429, 430], 18: [444, 4725, 4726], 20: [4740, 114, 115, 116], 11: [386, 5041, 311], 17: [5026, 5025], 28: [4967, 445, 4996], 31: [5055, 266], 34: [176, 4860, 175], 14: [385, 4861]}</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0.002761533463287849</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.008419508277355787</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>{0: [4371, 4370, 940, 908, 939, 938, 4369], 3: [760, 1178, 4759, 879, 4625, 4622, 4623, 4624], 's_0_3': [1177], 8: [1001, 5179, 4549, 924, 927, 926, 925], 's_0_8': [863, 4504], 9: [1166, 1225, 1313, 1314, 4851, 1165, 1315, 4850], 's_0_9': [4356], 16: [1043, 1373, 1073, 4567, 4566, 4564, 4565], 's_0_16': [1042], 19: [1301, 1300, 1299, 4639, 4640, 4641], 's_0_19': [954], 21: [4430, 997, 4459, 4458, 728, 729, 4608], 's_0_21': [817], 25: [1045, 955, 1120, 4835, 4834], 's_0_25': [4729], 27: [1327], 's_0_27': [1252, 4311], 32: [4880, 714, 4970, 4686, 4685, 1015, 4668, 4669, 1014], 's_0_32': [4804], 1: [4818, 986, 985, 4521, 4520, 4819, 984, 983, 4519], 's_3_1': [1193], 5: [850, 4773, 4774], 's_3_5': [849], 15: [4578, 653, 654, 655, 656, 5073, 5074, 5075], 's_3_15': [623], 's_3_19': [1163], 30: [957, 956, 790, 4833, 4908, 4909, 865], 's_3_30': [819, 820], 's_3_32': [909], 33: [4743, 4744, 1074, 4747, 4746, 4745], 's_3_33': [789], 35: [4626, 1347, 1346, 1342, 1343, 1344, 1345], 's_3_35': [4536], 4: [744, 745, 746, 5226, 5225, 5224, 5223, 747], 's_8_4': [5239], 10: [4472, 968, 4473, 4476, 4475, 4474], 's_8_10': [923], 12: [5001, 4999, 5000], 's_8_12': [911], 's_8_16': [848], 22: [5195, 1089, 1090, 1092, 1091, 5091, 5090], 's_8_22': [5194], 's_8_25': [4864, 880], 26: [4714, 730, 4712, 4713], 's_8_26': [910], 's_8_30': [4789], 6: [1257, 1256, 1255, 4896, 4895], 's_9_6': [4866], 7: [4820, 1104, 1107, 1106, 1105], 's_9_7': [1164], 's_9_10': [1298], 13: [833, 834, 835, 836, 5149, 5152, 5151, 5150], 's_9_13': [5136], 's_9_16': [4582], 's_9_22': [4805], 23: [4942, 4941, 1058, 1059, 1060, 4940], 's_9_23': [1360], 24: [5043, 5046, 1061, 5044, 5045], 's_9_24': [4985], 's_9_25': [4791], 29: [4670, 4414, 4415, 4416, 1223, 1224], 's_9_29': [4701], 's_9_32': [4971], 's_9_33': [1285], 's_9_35': [4432], 2: [4491, 4522, 4507, 1359, 1358], 's_16_2': [1418], 18: [774, 806, 805, 804, 4655, 4654, 4653], 's_16_18': [4579], 's_16_19': [1284], 20: [5104, 5105, 1031, 998, 999, 4775, 1030], 's_16_20': [1013], 's_16_21': [1028], 's_16_22': [4535], 's_16_23': [4550], 's_19_1': [1328], 's_19_10': [1148], 's_19_20': [1029], 's_19_23': [1269, 1270, 4881, 1330], 's_19_24': [1316], 's_21_4': [743], 11: [4399, 4487, 758, 4488], 's_21_11': [4398], 's_21_15': [579], 17: [878, 4490, 4489], 's_21_17': [4443, 4444], 's_21_18': [4609], 's_21_23': [4460], 28: [4683, 700, 699], 's_21_28': [698], 's_25_1': [895], 's_25_6': [4836], 's_25_7': [1135], 's_25_23': [1075], 's_25_26': [4715], 's_25_33': [1044], 's_27_35': [4341], 's_32_4': [4593], 's_32_7': [4790], 's_32_12': [1046], 's_32_13': [1016], 's_32_18': [1149], 's_32_28': [715], 's_32_30': [4969], 31: [4847, 4848, 970, 4849], 's_32_31': [969], 's_32_33': [4667, 684], 's_32_35': [1329], 's_1_2': [4506], 's_1_4': [987], 's_1_13': [4534], 's_1_23': [4505], 's_1_24': [5059], 's_1_26': [775], 's_1_28': [4684], 's_5_4': [4803], 's_5_26': [624], 's_5_15': [4802, 609], 's_5_20': [851], 's_5_31': [595], 's_15_4': [4968], 's_15_24': [866], 's_15_10': [608], 's_15_11': [668], 's_15_20': [5103, 686, 5012], 's_15_22': [5089], 's_15_30': [640], 34: [4431, 1137, 1136, 4925, 1208, 1209, 1210, 4926], 's_15_34': [1122], 's_30_4': [941, 942], 's_30_26': [4878], 's_30_28': [4863], 's_30_12': [4998], 's_30_20': [5029], 's_33_2': [1374], 's_33_4': [4758], 's_33_26': [864], 14: [1254, 4597, 4596, 759, 4594, 4595], 's_33_14': [4610], 's_33_22': [4760], 's_33_34': [4761], 's_33_35': [4762], 's_35_2': [4792], 's_35_4': [1332], 's_35_13': [5137], 's_35_14': [1404], 's_35_22': [5076], 's_4_6': [1242], 's_4_7': [5240], 's_4_22': [1197], 's_4_26': [4788], 's_10_2': [1388], 's_10_11': [548], 's_10_20': [4580], 's_10_29': [1103], 's_10_34': [1268], 's_12_6': [1121], 's_12_22': [1076], 's_12_31': [4984], 's_12_34': [1150], 's_22_13': [1317], 's_22_7': [4865], 's_22_29': [1088], 's_26_28': [4728, 669], 's_26_31': [580], 's_6_23': [1271], 's_6_24': [1241], 's_6_14': [1240, 1239], 's_6_20': [4910], 's_7_18': [1179], 's_7_20': [5120], 's_7_29': [1194], 's_13_11': [832], 's_13_18': [5163], 's_13_24': [1062], 's_13_34': [4924], 's_23_20': [4700], 's_23_29': [4445], 's_24_18': [5058], 's_24_20': [881], 's_24_34': [1286], 's_29_18': [773], 's_29_11': [4429], 's_2_14': [4612], 's_18_28': [4638], 's_18_14': [803], 's_18_20': [791], 's_20_31': [971], 's_20_34': [5060], 's_11_14': [818], 's_11_17': [877], 's_17_34': [1118], 's_28_14': [4698], 's_31_34': [1000], 's_14_34': [4611]}</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0005487179487179488</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.001697358430333924</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>{0: [4371, 4370, 940, 908, 939, 938, 4369], 3: [760, 1178, 4759, 879, 4625, 4622, 4623, 4624], 's_0_3': [1177], 8: [1001, 5179, 4549, 924, 927, 926, 925], 's_0_8': [863, 4504], 9: [1166, 1225, 1313, 1314, 4851, 1165, 1315, 4850], 's_0_9': [4356], 16: [1043, 1373, 1073, 4567, 4566, 4564, 4565], 's_0_16': [1042], 19: [1301, 1300, 1299, 4639, 4640, 4641], 's_0_19': [954], 21: [4430, 997, 4459, 4458, 728, 729, 4608], 's_0_21': [817], 25: [1045, 955, 1120, 4835, 4834], 's_0_25': [4729], 27: [1327], 's_0_27': [1252, 4311], 32: [4880, 714, 4970, 4686, 4685, 1015, 4668, 4669, 1014], 's_0_32': [4804], 1: [4818, 986, 985, 4521, 4520, 4819, 984, 983, 4519], 's_3_1': [1193], 5: [850, 4773, 4774], 's_3_5': [849], 15: [4578, 653, 654, 655, 656, 5073, 5074, 5075], 's_3_15': [623], 's_3_19': [1163], 30: [957, 956, 790, 4833, 4908, 4909, 865], 's_3_30': [819, 820], 's_3_32': [909], 33: [4743, 4744, 1074, 4747, 4746, 4745], 's_3_33': [789], 35: [4626, 1347, 1346, 1342, 1343, 1344, 1345], 's_3_35': [4536], 4: [744, 745, 746, 5226, 5225, 5224, 5223, 747], 's_8_4': [5239], 10: [4472, 968, 4473, 4476, 4475, 4474], 's_8_10': [923], 12: [5001, 4999, 5000], 's_8_12': [911], 's_8_16': [848], 22: [5195, 1089, 1090, 1092, 1091, 5091, 5090], 's_8_22': [5194], 's_8_25': [4864, 880], 26: [4714, 730, 4712, 4713], 's_8_26': [910], 's_8_30': [4789], 6: [1257, 1256, 1255, 4896, 4895], 's_9_6': [4866], 7: [4820, 1104, 1107, 1106, 1105], 's_9_7': [1164], 's_9_10': [1298], 13: [833, 834, 835, 836, 5149, 5152, 5151, 5150], 's_9_13': [5136], 's_9_16': [4582], 's_9_22': [4805], 23: [4942, 4941, 1058, 1059, 1060, 4940], 's_9_23': [1360], 24: [5043, 5046, 1061, 5044, 5045], 's_9_24': [4985], 's_9_25': [4791], 29: [4670, 4414, 4415, 4416, 1223, 1224], 's_9_29': [4701], 's_9_32': [4971], 's_9_33': [1285], 's_9_35': [4432], 2: [4491, 4522, 4507, 1359, 1358], 's_16_2': [1418], 18: [774, 806, 805, 804, 4655, 4654, 4653], 's_16_18': [4579], 's_16_19': [1284], 20: [5104, 5105, 1031, 998, 999, 4775, 1030], 's_16_20': [1013], 's_16_21': [1028], 's_16_22': [4535], 's_16_23': [4550], 's_19_1': [1328], 's_19_10': [1148], 's_19_20': [1029], 's_19_23': [1269, 1270, 4881, 1330], 's_19_24': [1316], 's_21_4': [743], 11: [4399, 4487, 758, 4488], 's_21_11': [4398], 's_21_15': [579], 17: [878, 4490, 4489], 's_21_17': [4443, 4444], 's_21_18': [4609], 's_21_23': [4460], 28: [4683, 700, 699], 's_21_28': [698], 's_25_1': [895], 's_25_6': [4836], 's_25_7': [1135], 's_25_23': [1075], 's_25_26': [4715], 's_25_33': [1044], 's_27_35': [4341], 's_32_4': [4593], 's_32_7': [4790], 's_32_12': [1046], 's_32_13': [1016], 's_32_18': [1149], 's_32_28': [715], 's_32_30': [4969], 31: [4847, 4848, 970, 4849], 's_32_31': [969], 's_32_33': [4667, 684], 's_32_35': [1329], 's_1_2': [4506], 's_1_4': [987], 's_1_13': [4534], 's_1_23': [4505], 's_1_24': [5059], 's_1_26': [775], 's_1_28': [4684], 's_5_4': [4803], 's_5_26': [624], 's_5_15': [4802, 609], 's_5_20': [851], 's_5_31': [595], 's_15_4': [4968], 's_15_24': [866], 's_15_10': [608], 's_15_11': [668], 's_15_20': [5103, 686, 5012], 's_15_22': [5089], 's_15_30': [640], 34: [4431, 1137, 1136, 4925, 1208, 1209, 1210, 4926], 's_15_34': [1122], 's_30_4': [941, 942], 's_30_26': [4878], 's_30_28': [4863], 's_30_12': [4998], 's_30_20': [5029], 's_33_2': [1374], 's_33_4': [4758], 's_33_26': [864], 14: [1254, 4597, 4596, 759, 4594, 4595], 's_33_14': [4610], 's_33_22': [4760], 's_33_34': [4761], 's_33_35': [4762], 's_35_2': [4792], 's_35_4': [1332], 's_35_13': [5137], 's_35_14': [1404], 's_35_22': [5076], 's_4_6': [1242], 's_4_7': [5240], 's_4_22': [1197], 's_4_26': [4788], 's_10_2': [1388], 's_10_11': [548], 's_10_20': [4580], 's_10_29': [1103], 's_10_34': [1268], 's_12_6': [1121], 's_12_22': [1076], 's_12_31': [4984], 's_12_34': [1150], 's_22_13': [1317], 's_22_7': [4865], 's_22_29': [1088], 's_26_28': [4728, 669], 's_26_31': [580], 's_6_23': [1271], 's_6_24': [1241], 's_6_14': [1240, 1239], 's_6_20': [4910], 's_7_18': [1179], 's_7_20': [5120], 's_7_29': [1194], 's_13_11': [832], 's_13_18': [5163], 's_13_24': [1062], 's_13_34': [4924], 's_23_20': [4700], 's_23_29': [4445], 's_24_18': [5058], 's_24_20': [881], 's_24_34': [1286], 's_29_18': [773], 's_29_11': [4429], 's_2_14': [4612], 's_18_28': [4638], 's_18_14': [803], 's_18_20': [791], 's_20_31': [971], 's_20_34': [5060], 's_11_14': [818], 's_11_17': [877], 's_17_34': [1118], 's_28_14': [4698], 's_31_34': [1000], 's_14_34': [4611]}</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0005487179487179488</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.001697358430333924</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>{0: [2014, 3685, 3686], 8: [3716, 2180, 2179], 12: [2300, 3745, 3746, 2299], 13: [2029, 2030], 18: [3865, 2015, 3866], 24: [2166, 2164, 2165], 33: [1938, 3715, 1939], 34: [3941, 2060, 1999, 2000, 3940], 1: [3851, 2150, 2149], 2: [3971, 3970], 6: [3806, 1969, 3805], 7: [3761, 2134], 11: [2059, 3897, 3896], 14: [3821, 2240, 2239], 15: [3881, 3882], 20: [3926, 2195, 3986], 25: [2105, 2104], 26: [2269, 3775, 3776], 30: [3790, 3791], 35: [3701, 2058], 3: [1985, 3909, 3911, 3910], 27: [4002, 4000, 4001, 2135], 28: [1984, 3759, 2074, 3760], 31: [2119, 2120], 36: [3850, 3730, 1954], 5: [3820], 9: [1924, 1925], 17: [3641, 2090, 2089, 2088], 22: [3925, 3895, 1955], 4: [2121, 4077, 4076, 2075], 21: [3956, 2209, 2210], 29: [4046, 1940, 4045], 16: [4030, 2285, 4032, 4031], 23: [3924, 1910, 1909], 19: [4047, 2224, 2225], 10: [1895, 3836, 3835, 1894], 32: [3595, 2073, 2194, 3656]}</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.006475913566378114</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01221314580993339</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>{0: [2014, 3685, 3686], 8: [3716, 2180, 2179], 12: [2300, 3745, 3746, 2299], 13: [2029, 2030], 18: [3865, 2015, 3866], 24: [2166, 2164, 2165], 33: [1938, 3715, 1939], 34: [3941, 2060, 1999, 2000, 3940], 1: [3851, 2150, 2149], 2: [3971, 3970], 6: [3806, 1969, 3805], 7: [3761, 2134], 11: [2059, 3897, 3896], 14: [3821, 2240, 2239], 15: [3881, 3882], 20: [3926, 2195, 3986], 25: [2105, 2104], 26: [2269, 3775, 3776], 30: [3790, 3791], 35: [3701, 2058], 3: [1985, 3909, 3911, 3910], 27: [4002, 4000, 4001, 2135], 28: [1984, 3759, 2074, 3760], 31: [2119, 2120], 36: [3850, 3730, 1954], 5: [3820], 9: [1924, 1925], 17: [3641, 2090, 2089, 2088], 22: [3925, 3895, 1955], 4: [2121, 4077, 4076, 2075], 21: [3956, 2209, 2210], 29: [4046, 1940, 4045], 16: [4030, 2285, 4032, 4031], 23: [3924, 1910, 1909], 19: [4047, 2224, 2225], 10: [1895, 3836, 3835, 1894], 32: [3595, 2073, 2194, 3656]}</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0.006475913566378114</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01221314580993339</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>{0: [4211, 3656, 3580, 2073, 4182, 2074, 2075, 2076, 4181], 8: [1893, 3806, 3805, 1894, 4043, 4044, 1791, 1790, 3909], 's_0_8': [3579], 12: [4374, 4375, 3970, 4376, 2420, 3972, 3971, 2137, 2135, 2136], 's_0_12': [2077], 13: [1925, 3985, 2389, 2390, 2405, 3987, 3986], 's_0_13': [2406], 18: [3757, 1624, 3758, 1864, 3762, 3761, 3760, 3759], 's_0_18': [2179], 24: [3926, 2180, 4031, 2181], 's_0_24': [4166], 33: [1807, 4329, 4180, 4179], 's_0_33': [2061], 34: [2238, 4002, 3717, 2359, 2362, 2361, 2360], 's_0_34': [4197], 1: [2315, 1851, 4045, 4047, 4046], 's_8_1': [4089], 2: [1594, 2211, 2210, 2209, 3746, 3743, 3744, 3745], 's_8_2': [1908], 6: [4121, 4120, 1490, 1491, 4117, 4119, 4118], 's_8_6': [1461, 4042], 7: [1656, 1746, 4149, 4148], 's_8_7': [1641], 11: [2226, 3997, 2225, 4001, 1609, 1610, 3998, 3999, 4000], 's_8_11': [1535], 's_8_13': [3807], 14: [3836, 2089, 2090, 2091, 1821, 1822, 4269, 4270], 's_8_14': [4029], 15: [1878, 1880, 1879, 3882, 3881, 3880], 's_8_15': [3594], 's_8_18': [3774], 20: [3897, 2239, 3910, 3911, 2285], 's_8_20': [2059], 25: [1430, 1431, 4102, 1838, 1837, 4210, 1926, 4104, 4103], 's_8_25': [1520], 26: [3968, 3969, 4075, 1836, 1835], 's_8_26': [1565], 30: [1672, 1774, 1775, 4208, 4209, 1776], 's_8_30': [4074], 's_8_33': [1792], 35: [1728, 4088, 1730, 1729], 's_8_35': [3908], 3: [1954, 3893, 1957, 1956, 1955, 3894, 3895], 's_12_3': [4360], 's_12_13': [4033], 's_12_20': [2375, 3898], 's_12_25': [4359], 's_12_26': [1895], 27: [1654, 1655, 1597, 1596, 1595, 3923, 3924, 3925, 1970, 1971], 's_12_27': [4373], 28: [2345, 3852, 1761, 1760, 3938, 3939, 3851, 3850, 1909, 1910], 's_12_28': [3942], 31: [3669, 1987, 1986, 3670, 3777, 3776, 3775, 1984, 1985], 's_12_31': [2419], 's_12_34': [4346, 4347], 36: [2286, 3729, 4059, 4062, 4061, 4060, 1939, 1940, 1942, 1941], 's_12_36': [2255], 's_13_2': [3747], 5: [4255, 3983, 1866, 3984, 1865], 's_13_5': [3954], 's_13_15': [3883], 's_13_18': [2374], 's_13_36': [2240], 's_18_3': [1534], 's_18_5': [1625], 9: [1968, 3832, 3833, 1820, 1969, 3835, 3834], 's_18_9': [1429], 's_18_11': [3698], 's_18_15': [1863], 17: [3731, 1999, 3730, 3864, 3865, 2000, 2001, 4106, 4105], 's_18_17': [3732, 2344], 22: [4257, 2302, 4316, 3773, 1684, 1685, 1686, 1687, 4315, 4314, 4313], 's_18_22': [1639], 's_18_28': [2329], 's_18_31': [2449], 's_18_36': [1804], 's_24_2': [4151], 4: [4226, 2149, 2150, 2151], 's_24_4': [2182], 's_24_11': [4032], 's_24_17': [4091], 's_24_20': [3956], 21: [1745, 1744, 2223, 2224, 3819, 3821, 3820], 's_24_21': [2165], 's_33_5': [4254], 's_33_28': [1911], 29: [2167, 4241, 1852, 4240], 's_33_29': [2002], 's_33_30': [4178], 's_34_11': [4212], 16: [3702, 2016, 3686, 3701, 2014, 3940, 2015], 's_34_16': [3687], 's_34_17': [3716, 2058], 's_34_21': [3672], 's_34_22': [2107, 4331, 4332], 's_34_36': [2346], 's_1_6': [2166], 's_1_15': [2330, 4017], 's_1_17': [2270], 's_1_20': [3912], 's_1_26': [4134], 's_1_28': [3957], 's_1_31': [2314], 's_2_3': [1504, 3863], 's_2_4': [4136], 's_2_14': [4077, 4076], 's_2_21': [3818], 's_2_22': [3788], 's_2_27': [3803], 's_6_5': [3982], 's_6_7': [1701], 's_6_9': [3817], 's_6_14': [1806], 23: [2029, 4345, 2032, 2030, 2031], 's_6_23': [4135], 's_6_25': [1416, 4072], 's_6_26': [3967], 's_6_30': [1521], 's_6_36': [2301], 's_7_26': [4164], 's_7_28': [4133], 's_7_14': [1881], 's_7_27': [4163], 19: [4194, 4195, 4196], 's_7_19': [1716], 10: [4420, 1927, 1657, 4300, 4298, 4299, 1867], 's_7_10': [1747], 's_7_35': [1626], 's_11_15': [2105], 's_11_3': [1476, 1475], 's_11_21': [3728], 's_11_22': [4286], 's_11_16': [2045], 's_11_19': [4227, 2212], 's_11_25': [1355, 4027], 's_11_35': [3953], 's_14_17': [4090], 's_14_5': [4256], 's_14_16': [2088], 's_14_21': [4014], 's_14_30': [1777], 's_15_16': [2120], 's_15_21': [2195], 's_15_25': [3879, 3877, 3878], 's_15_26': [4030], 's_15_27': [1850], 's_20_3': [3896], 's_20_31': [2254], 32: [3791, 3789, 3790], 's_20_32': [2284, 3792], 's_25_26': [1550], 's_25_28': [1505, 3937], 's_25_22': [4448, 4449], 's_25_29': [4344], 's_25_10': [1853], 's_25_30': [4207], 's_25_35': [1611], 's_25_36': [4405], 's_26_17': [1670], 's_26_3': [1640], 's_26_31': [1834], 's_26_36': [1715], 's_30_28': [4224], 's_30_21': [3714], 's_30_9': [3849], 's_30_19': [1731], 's_30_32': [1789], 's_35_31': [3684], 's_35_36': [1671], 's_35_32': [3804], 's_3_17': [3715], 's_3_9': [1549], 's_3_22': [1699], 's_3_29': [1972], 's_27_17': [4150], 's_27_21': [3699], 's_27_22': [4358], 's_27_10': [1612], 's_27_16': [4015], 's_27_19': [4193], 's_27_23': [4165], 's_28_4': [2134], 's_28_23': [3866], 's_28_32': [2119], 's_31_4': [4225], 's_31_10': [1988], 's_31_16': [3640], 's_31_36': [1938], 's_36_17': [2121], 's_36_22': [2287], 's_36_9': [1924], 's_36_10': [4390], 's_36_32': [1819], 's_5_10': [4284], 's_9_16': [3700], 's_9_23': [3655], 's_17_21': [1759], 's_17_22': [1714], 's_22_10': [1642, 4283], 's_22_23': [1912], 's_22_29': [4271], 's_4_16': [3941], 's_4_19': [2017], 's_4_29': [2152], 's_21_32': [2104], 's_29_10': [1762, 4239], 's_29_19': [2046], 's_23_10': [2047]}</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0004807692307692309</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.001520325798157875</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>{0: [4211, 3656, 3580, 2073, 4182, 2074, 2075, 2076, 4181], 8: [1893, 3806, 3805, 1894, 4043, 4044, 1791, 1790, 3909], 's_0_8': [3579], 12: [4374, 4375, 3970, 4376, 2420, 3972, 3971, 2137, 2135, 2136], 's_0_12': [2077], 13: [1925, 3985, 2389, 2390, 2405, 3987, 3986], 's_0_13': [2406], 18: [3757, 1624, 3758, 1864, 3762, 3761, 3760, 3759], 's_0_18': [2179], 24: [3926, 2180, 4031, 2181], 's_0_24': [4166], 33: [1807, 4329, 4180, 4179], 's_0_33': [2061], 34: [2238, 4002, 3717, 2359, 2362, 2361, 2360], 's_0_34': [4197], 1: [2315, 1851, 4045, 4047, 4046], 's_8_1': [4089], 2: [1594, 2211, 2210, 2209, 3746, 3743, 3744, 3745], 's_8_2': [1908], 6: [4121, 4120, 1490, 1491, 4117, 4119, 4118], 's_8_6': [1461, 4042], 7: [1656, 1746, 4149, 4148], 's_8_7': [1641], 11: [2226, 3997, 2225, 4001, 1609, 1610, 3998, 3999, 4000], 's_8_11': [1535], 's_8_13': [3807], 14: [3836, 2089, 2090, 2091, 1821, 1822, 4269, 4270], 's_8_14': [4029], 15: [1878, 1880, 1879, 3882, 3881, 3880], 's_8_15': [3594], 's_8_18': [3774], 20: [3897, 2239, 3910, 3911, 2285], 's_8_20': [2059], 25: [1430, 1431, 4102, 1838, 1837, 4210, 1926, 4104, 4103], 's_8_25': [1520], 26: [3968, 3969, 4075, 1836, 1835], 's_8_26': [1565], 30: [1672, 1774, 1775, 4208, 4209, 1776], 's_8_30': [4074], 's_8_33': [1792], 35: [1728, 4088, 1730, 1729], 's_8_35': [3908], 3: [1954, 3893, 1957, 1956, 1955, 3894, 3895], 's_12_3': [4360], 's_12_13': [4033], 's_12_20': [2375, 3898], 's_12_25': [4359], 's_12_26': [1895], 27: [1654, 1655, 1597, 1596, 1595, 3923, 3924, 3925, 1970, 1971], 's_12_27': [4373], 28: [2345, 3852, 1761, 1760, 3938, 3939, 3851, 3850, 1909, 1910], 's_12_28': [3942], 31: [3669, 1987, 1986, 3670, 3777, 3776, 3775, 1984, 1985], 's_12_31': [2419], 's_12_34': [4346, 4347], 36: [2286, 3729, 4059, 4062, 4061, 4060, 1939, 1940, 1942, 1941], 's_12_36': [2255], 's_13_2': [3747], 5: [4255, 3983, 1866, 3984, 1865], 's_13_5': [3954], 's_13_15': [3883], 's_13_18': [2374], 's_13_36': [2240], 's_18_3': [1534], 's_18_5': [1625], 9: [1968, 3832, 3833, 1820, 1969, 3835, 3834], 's_18_9': [1429], 's_18_11': [3698], 's_18_15': [1863], 17: [3731, 1999, 3730, 3864, 3865, 2000, 2001, 4106, 4105], 's_18_17': [3732, 2344], 22: [4257, 2302, 4316, 3773, 1684, 1685, 1686, 1687, 4315, 4314, 4313], 's_18_22': [1639], 's_18_28': [2329], 's_18_31': [2449], 's_18_36': [1804], 's_24_2': [4151], 4: [4226, 2149, 2150, 2151], 's_24_4': [2182], 's_24_11': [4032], 's_24_17': [4091], 's_24_20': [3956], 21: [1745, 1744, 2223, 2224, 3819, 3821, 3820], 's_24_21': [2165], 's_33_5': [4254], 's_33_28': [1911], 29: [2167, 4241, 1852, 4240], 's_33_29': [2002], 's_33_30': [4178], 's_34_11': [4212], 16: [3702, 2016, 3686, 3701, 2014, 3940, 2015], 's_34_16': [3687], 's_34_17': [3716, 2058], 's_34_21': [3672], 's_34_22': [2107, 4331, 4332], 's_34_36': [2346], 's_1_6': [2166], 's_1_15': [2330, 4017], 's_1_17': [2270], 's_1_20': [3912], 's_1_26': [4134], 's_1_28': [3957], 's_1_31': [2314], 's_2_3': [1504, 3863], 's_2_4': [4136], 's_2_14': [4077, 4076], 's_2_21': [3818], 's_2_22': [3788], 's_2_27': [3803], 's_6_5': [3982], 's_6_7': [1701], 's_6_9': [3817], 's_6_14': [1806], 23: [2029, 4345, 2032, 2030, 2031], 's_6_23': [4135], 's_6_25': [1416, 4072], 's_6_26': [3967], 's_6_30': [1521], 's_6_36': [2301], 's_7_26': [4164], 's_7_28': [4133], 's_7_14': [1881], 's_7_27': [4163], 19: [4194, 4195, 4196], 's_7_19': [1716], 10: [4420, 1927, 1657, 4300, 4298, 4299, 1867], 's_7_10': [1747], 's_7_35': [1626], 's_11_15': [2105], 's_11_3': [1476, 1475], 's_11_21': [3728], 's_11_22': [4286], 's_11_16': [2045], 's_11_19': [4227, 2212], 's_11_25': [1355, 4027], 's_11_35': [3953], 's_14_17': [4090], 's_14_5': [4256], 's_14_16': [2088], 's_14_21': [4014], 's_14_30': [1777], 's_15_16': [2120], 's_15_21': [2195], 's_15_25': [3879, 3877, 3878], 's_15_26': [4030], 's_15_27': [1850], 's_20_3': [3896], 's_20_31': [2254], 32: [3791, 3789, 3790], 's_20_32': [2284, 3792], 's_25_26': [1550], 's_25_28': [1505, 3937], 's_25_22': [4448, 4449], 's_25_29': [4344], 's_25_10': [1853], 's_25_30': [4207], 's_25_35': [1611], 's_25_36': [4405], 's_26_17': [1670], 's_26_3': [1640], 's_26_31': [1834], 's_26_36': [1715], 's_30_28': [4224], 's_30_21': [3714], 's_30_9': [3849], 's_30_19': [1731], 's_30_32': [1789], 's_35_31': [3684], 's_35_36': [1671], 's_35_32': [3804], 's_3_17': [3715], 's_3_9': [1549], 's_3_22': [1699], 's_3_29': [1972], 's_27_17': [4150], 's_27_21': [3699], 's_27_22': [4358], 's_27_10': [1612], 's_27_16': [4015], 's_27_19': [4193], 's_27_23': [4165], 's_28_4': [2134], 's_28_23': [3866], 's_28_32': [2119], 's_31_4': [4225], 's_31_10': [1988], 's_31_16': [3640], 's_31_36': [1938], 's_36_17': [2121], 's_36_22': [2287], 's_36_9': [1924], 's_36_10': [4390], 's_36_32': [1819], 's_5_10': [4284], 's_9_16': [3700], 's_9_23': [3655], 's_17_21': [1759], 's_17_22': [1714], 's_22_10': [1642, 4283], 's_22_23': [1912], 's_22_29': [4271], 's_4_16': [3941], 's_4_19': [2017], 's_4_29': [2152], 's_21_32': [2104], 's_29_10': [1762, 4239], 's_29_19': [2046], 's_23_10': [2047]}</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0004807692307692309</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.001520325798157875</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>{0: [5037, 2651, 5038], 9: [2561, 5022, 5023], 11: [4963, 2395, 2396], 21: [2650, 4842, 4843], 23: [4707, 2424, 2426, 2425], 30: [5068, 2366, 5067], 35: [4979, 4978], 2: [2515, 2516], 4: [5006, 5021, 2291], 5: [2410, 2411], 6: [4993, 2455, 4992], 17: [4918, 4917], 20: [2380, 2381, 4737], 24: [2606, 5082, 5083], 29: [4903, 4812, 2470], 33: [2532, 2531], 36: [2486, 2485], 7: [4962, 5098, 5097, 2336], 10: [2409, 2259, 4753, 4752], 16: [2290, 4902], 28: [4888, 4887], 31: [2547, 2546, 2545, 4783], 3: [4857], 13: [2501, 2500], 19: [4797, 2365], 34: [4949, 5052, 5053, 2576], 1: [4933, 4932, 2335], 14: [2215, 4948, 4947, 2216], 15: [2454, 4798], 22: [4977, 2274, 2275], 32: [2440, 4872, 4873], 18: [5008, 5007, 2351], 12: [4858, 2605], 8: [4991, 4811, 2305, 2306], 27: [2260], 37: [2321, 2320], 26: [4782, 2350], 25: [4826, 4827]}</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.00760233918128655</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.01308949081029204</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>{0: [5037, 2651, 5038], 9: [2561, 5022, 5023], 11: [4963, 2395, 2396], 21: [2650, 4842, 4843], 23: [4707, 2424, 2426, 2425], 30: [5068, 2366, 5067], 35: [4979, 4978], 2: [2515, 2516], 4: [5006, 5021, 2291], 5: [2410, 2411], 6: [4993, 2455, 4992], 17: [4918, 4917], 20: [2380, 2381, 4737], 24: [2606, 5082, 5083], 29: [4903, 4812, 2470], 33: [2532, 2531], 36: [2486, 2485], 7: [4962, 5098, 5097, 2336], 10: [2409, 2259, 4753, 4752], 16: [2290, 4902], 28: [4888, 4887], 31: [2547, 2546, 2545, 4783], 3: [4857], 13: [2501, 2500], 19: [4797, 2365], 34: [4949, 5052, 5053, 2576], 1: [4933, 4932, 2335], 14: [2215, 4948, 4947, 2216], 15: [2454, 4798], 22: [4977, 2274, 2275], 32: [2440, 4872, 4873], 18: [5008, 5007, 2351], 12: [4858, 2605], 8: [4991, 4811, 2305, 2306], 27: [2260], 37: [2321, 2320], 26: [4782, 2350], 25: [4826, 4827]}</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0.00760233918128655</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.01308949081029204</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>{0: [4053, 411, 4052], 9: [1029, 1028, 4444, 4443, 561, 4442, 562, 563], 's_0_9': [4037], 11: [787, 4250, 4111, 4112, 4113, 786, 4249], 's_0_11': [501], 21: [4141, 365, 366, 369, 368, 367], 's_0_21': [3991], 23: [4006, 4429, 4428, 290, 291, 4427, 4426, 292], 's_0_23': [396, 4022], 30: [741, 743, 4279, 4278, 742], 's_0_30': [4008, 470, 4007], 35: [517, 531, 532, 594, 593, 4367], 's_0_35': [4067], 2: [4562, 713, 4564, 4563], 's_9_2': [863], 4: [997, 998, 1044, 4624], 's_9_4': [4760], 5: [4263, 441, 4260, 4262, 4261], 's_9_5': [4202], 6: [819, 3931, 620, 818, 817, 816, 815, 3933, 3932], 's_9_6': [560], 17: [263, 636, 4620, 4621, 4622, 638, 4368, 637], 's_9_17': [773], 20: [1103, 4231, 4232, 4233, 1102, 953, 952, 4235, 4234], 's_9_20': [4445], 's_9_23': [548], 24: [4595, 909, 4594], 's_9_24': [908], 29: [4142, 606, 609, 608, 607], 's_9_29': [4157], 33: [4173, 727, 4307, 4308], 's_9_33': [832], 36: [698, 4459, 4456, 4457, 4458], 's_9_36': [1043], 's_11_5': [862], 7: [382, 4186, 4188, 4187], 's_11_7': [696], 10: [1089, 4370, 1087, 1088], 's_11_10': [1042], 16: [339, 338, 337, 711, 4218, 4217, 4216, 336], 's_11_16': [4143], 's_11_21': [381], 28: [4651, 4339, 4338, 652, 653, 4652, 654], 's_11_28': [651], 's_11_29': [576], 31: [965, 4355, 968, 966, 967, 4354], 's_11_31': [877], 's_11_33': [726], 's_11_35': [516], 's_11_36': [923, 4384], 3: [4081, 425, 4276, 4171, 426], 's_21_3': [3946], 's_21_6': [380], 13: [383, 4639, 4638, 4637, 4351, 427, 428, 4636], 's_21_13': [4366], 19: [4650, 4711, 4696, 322, 323, 324], 's_21_19': [370], 's_21_23': [4021], 's_21_29': [4292, 4291], 34: [4681, 759, 4683, 503, 504, 4682], 's_21_34': [4486], 1: [350, 4472, 4471, 351, 352, 353], 's_23_1': [4036], 's_23_5': [4275], 's_23_6': [3930], 14: [1072, 4400, 4399, 4396, 4398, 399, 398, 4397], 's_23_14': [233], 15: [4759, 4758, 533, 534, 4757], 's_23_15': [4412], 's_23_20': [4430], 22: [4504, 4503, 519, 893, 4697, 4698, 804, 894, 4744], 's_23_22': [4414], 32: [260, 4099, 4095, 4096, 4098, 4097], 's_23_32': [4066], 's_23_34': [758], 's_30_6': [740], 's_30_7': [801], 's_30_14': [4383], 's_30_16': [4038, 710], 18: [4323, 4322, 3992, 458, 455, 456, 457], 's_30_18': [3993], 's_30_22': [892], 's_30_31': [4264], 's_30_33': [847], 's_35_2': [4578], 12: [4068, 666, 669, 4277, 668, 667], 's_35_12': [4127], 's_35_13': [4382], 's_35_20': [502], 's_35_22': [595, 4743], 's_35_32': [487, 486], 's_2_12': [4518], 's_2_15': [714], 's_2_17': [564], 's_2_24': [774], 's_2_29': [623], 's_2_34': [488], 's_4_24': [879], 8: [293, 729, 4546, 4550, 4549, 4548, 4547], 's_4_8': [1119, 4700], 's_4_22': [4654], 's_5_1': [4126], 's_5_3': [276], 's_5_16': [397], 's_5_17': [712], 's_5_18': [577], 's_6_1': [335], 's_6_8': [4668], 's_6_12': [665], 's_6_13': [4609, 849], 's_6_15': [834], 's_6_18': [3962, 485], 's_6_31': [4159], 's_6_32': [785], 's_6_33': [4293], 's_6_36': [4488], 's_17_13': [4635], 27: [4246, 4305, 4155, 262, 261], 's_17_27': [248, 247], 's_17_12': [4353], 's_17_8': [4545], 's_17_16': [234, 4591], 's_17_20': [981, 982, 4369], 's_17_29': [4487], 's_17_33': [4248], 's_17_34': [4623], 37: [489, 4665, 384, 4666], 's_17_37': [264], 's_20_3': [471], 26: [683, 954, 4535, 4534, 4532, 4533], 's_20_26': [1104], 's_20_28': [4340], 's_20_10': [4490], 's_20_14': [4325], 's_20_19': [307], 's_20_22': [4489], 's_24_31': [1012, 1013], 's_24_34': [4684], 's_29_28': [624], 's_29_12': [621], 's_29_15': [4502], 's_29_8': [4593], 's_29_33': [4203], 's_29_34': [4517], 's_29_36': [4413], 's_33_7': [772], 's_33_18': [4306], 's_36_28': [802], 's_36_15': [518], 's_36_34': [4441], 's_36_14': [442], 25: [4520, 938, 833, 4519], 's_36_25': [848], 's_7_1': [4201, 306], 's_7_13': [4336], 's_7_18': [4321], 's_7_27': [4185, 156], 's_10_8': [1148, 4475], 's_10_31': [1118], 's_10_14': [4310], 's_10_25': [1133], 's_16_8': [4606], 's_16_32': [4083], 's_16_37': [4561], 's_28_1': [354], 's_28_26': [579], 's_28_12': [4728], 's_28_19': [444], 's_28_31': [937, 4309], 's_28_37': [459], 's_31_13': [983], 's_31_26': [1057, 1058], 's_31_14': [1027], 's_31_32': [4084], 's_3_1': [3976], 's_3_12': [4082], 's_13_1': [4381], 's_13_12': [684], 's_13_14': [4501, 413], 's_13_15': [699], 's_13_18': [4352], 's_19_8': [4470], 's_19_22': [4712], 's_19_14': [400], 's_19_37': [4576], 's_34_8': [744], 's_34_14': [4592], 's_34_37': [4742], 's_1_26': [4531], 's_1_27': [4411], 's_14_27': [277], 's_14_18': [697], 's_14_25': [4385], 's_14_37': [414], 's_22_37': [4667], 's_32_27': [186], 's_32_12': [681], 's_18_26': [473], 's_18_12': [591], 's_26_25': [878], 's_8_25': [1163]}</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0003930348258706467</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00139622059315634</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>{0: [4053, 411, 4052], 9: [1029, 1028, 4444, 4443, 561, 4442, 562, 563], 's_0_9': [4037], 11: [787, 4250, 4111, 4112, 4113, 786, 4249], 's_0_11': [501], 21: [4141, 365, 366, 369, 368, 367], 's_0_21': [3991], 23: [4006, 4429, 4428, 290, 291, 4427, 4426, 292], 's_0_23': [396, 4022], 30: [741, 743, 4279, 4278, 742], 's_0_30': [4008, 470, 4007], 35: [517, 531, 532, 594, 593, 4367], 's_0_35': [4067], 2: [4562, 713, 4564, 4563], 's_9_2': [863], 4: [997, 998, 1044, 4624], 's_9_4': [4760], 5: [4263, 441, 4260, 4262, 4261], 's_9_5': [4202], 6: [819, 3931, 620, 818, 817, 816, 815, 3933, 3932], 's_9_6': [560], 17: [263, 636, 4620, 4621, 4622, 638, 4368, 637], 's_9_17': [773], 20: [1103, 4231, 4232, 4233, 1102, 953, 952, 4235, 4234], 's_9_20': [4445], 's_9_23': [548], 24: [4595, 909, 4594], 's_9_24': [908], 29: [4142, 606, 609, 608, 607], 's_9_29': [4157], 33: [4173, 727, 4307, 4308], 's_9_33': [832], 36: [698, 4459, 4456, 4457, 4458], 's_9_36': [1043], 's_11_5': [862], 7: [382, 4186, 4188, 4187], 's_11_7': [696], 10: [1089, 4370, 1087, 1088], 's_11_10': [1042], 16: [339, 338, 337, 711, 4218, 4217, 4216, 336], 's_11_16': [4143], 's_11_21': [381], 28: [4651, 4339, 4338, 652, 653, 4652, 654], 's_11_28': [651], 's_11_29': [576], 31: [965, 4355, 968, 966, 967, 4354], 's_11_31': [877], 's_11_33': [726], 's_11_35': [516], 's_11_36': [923, 4384], 3: [4081, 425, 4276, 4171, 426], 's_21_3': [3946], 's_21_6': [380], 13: [383, 4639, 4638, 4637, 4351, 427, 428, 4636], 's_21_13': [4366], 19: [4650, 4711, 4696, 322, 323, 324], 's_21_19': [370], 's_21_23': [4021], 's_21_29': [4292, 4291], 34: [4681, 759, 4683, 503, 504, 4682], 's_21_34': [4486], 1: [350, 4472, 4471, 351, 352, 353], 's_23_1': [4036], 's_23_5': [4275], 's_23_6': [3930], 14: [1072, 4400, 4399, 4396, 4398, 399, 398, 4397], 's_23_14': [233], 15: [4759, 4758, 533, 534, 4757], 's_23_15': [4412], 's_23_20': [4430], 22: [4504, 4503, 519, 893, 4697, 4698, 804, 894, 4744], 's_23_22': [4414], 32: [260, 4099, 4095, 4096, 4098, 4097], 's_23_32': [4066], 's_23_34': [758], 's_30_6': [740], 's_30_7': [801], 's_30_14': [4383], 's_30_16': [4038, 710], 18: [4323, 4322, 3992, 458, 455, 456, 457], 's_30_18': [3993], 's_30_22': [892], 's_30_31': [4264], 's_30_33': [847], 's_35_2': [4578], 12: [4068, 666, 669, 4277, 668, 667], 's_35_12': [4127], 's_35_13': [4382], 's_35_20': [502], 's_35_22': [595, 4743], 's_35_32': [487, 486], 's_2_12': [4518], 's_2_15': [714], 's_2_17': [564], 's_2_24': [774], 's_2_29': [623], 's_2_34': [488], 's_4_24': [879], 8: [293, 729, 4546, 4550, 4549, 4548, 4547], 's_4_8': [1119, 4700], 's_4_22': [4654], 's_5_1': [4126], 's_5_3': [276], 's_5_16': [397], 's_5_17': [712], 's_5_18': [577], 's_6_1': [335], 's_6_8': [4668], 's_6_12': [665], 's_6_13': [4609, 849], 's_6_15': [834], 's_6_18': [3962, 485], 's_6_31': [4159], 's_6_32': [785], 's_6_33': [4293], 's_6_36': [4488], 's_17_13': [4635], 27: [4246, 4305, 4155, 262, 261], 's_17_27': [248, 247], 's_17_12': [4353], 's_17_8': [4545], 's_17_16': [234, 4591], 's_17_20': [981, 982, 4369], 's_17_29': [4487], 's_17_33': [4248], 's_17_34': [4623], 37: [489, 4665, 384, 4666], 's_17_37': [264], 's_20_3': [471], 26: [683, 954, 4535, 4534, 4532, 4533], 's_20_26': [1104], 's_20_28': [4340], 's_20_10': [4490], 's_20_14': [4325], 's_20_19': [307], 's_20_22': [4489], 's_24_31': [1012, 1013], 's_24_34': [4684], 's_29_28': [624], 's_29_12': [621], 's_29_15': [4502], 's_29_8': [4593], 's_29_33': [4203], 's_29_34': [4517], 's_29_36': [4413], 's_33_7': [772], 's_33_18': [4306], 's_36_28': [802], 's_36_15': [518], 's_36_34': [4441], 's_36_14': [442], 25: [4520, 938, 833, 4519], 's_36_25': [848], 's_7_1': [4201, 306], 's_7_13': [4336], 's_7_18': [4321], 's_7_27': [4185, 156], 's_10_8': [1148, 4475], 's_10_31': [1118], 's_10_14': [4310], 's_10_25': [1133], 's_16_8': [4606], 's_16_32': [4083], 's_16_37': [4561], 's_28_1': [354], 's_28_26': [579], 's_28_12': [4728], 's_28_19': [444], 's_28_31': [937, 4309], 's_28_37': [459], 's_31_13': [983], 's_31_26': [1057, 1058], 's_31_14': [1027], 's_31_32': [4084], 's_3_1': [3976], 's_3_12': [4082], 's_13_1': [4381], 's_13_12': [684], 's_13_14': [4501, 413], 's_13_15': [699], 's_13_18': [4352], 's_19_8': [4470], 's_19_22': [4712], 's_19_14': [400], 's_19_37': [4576], 's_34_8': [744], 's_34_14': [4592], 's_34_37': [4742], 's_1_26': [4531], 's_1_27': [4411], 's_14_27': [277], 's_14_18': [697], 's_14_25': [4385], 's_14_37': [414], 's_22_37': [4667], 's_32_27': [186], 's_32_12': [681], 's_18_26': [473], 's_18_12': [591], 's_26_25': [878], 's_8_25': [1163]}</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0003930348258706467</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.00139622059315634</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>{0: [1565, 3938, 3937], 2: [3953, 1820, 3954], 5: [1699, 3879, 3878], 23: [1804, 3939, 1805], 24: [1760, 1759], 32: [1594, 1595], 34: [1744, 1746, 1745], 35: [4103, 1520, 4102], 36: [1625, 1624], 3: [3864, 3863], 4: [3970, 3968, 3969], 6: [1821, 4059], 8: [3774, 1865, 1864], 10: [4164, 1835, 1836], 13: [3729, 1610, 3728, 1609], 15: [1790, 3699, 1789], 25: [3833, 3834], 28: [1850, 1851, 3984], 30: [3999, 1730], 7: [1549, 4043, 1550], 9: [1654, 1564, 3803], 11: [1729, 3788, 3789], 29: [3850, 1519, 3848, 3849], 37: [3895, 1685, 1684, 3894], 1: [1640, 3909, 3908], 27: [4014, 1880], 16: [3983, 1656, 1655], 17: [1671, 3998], 19: [1641, 4030, 4028, 4029], 31: [3759, 3758], 21: [1941, 4089, 1626, 4088], 38: [1894, 1895, 4104], 26: [1715, 3923, 1714], 18: [1909, 3865], 14: [1669, 3819, 3818, 1670], 22: [3744, 1940, 1939], 20: [1776, 1774, 1775], 12: [3924, 1879], 33: [3773]}</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.00393761820605835</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.009746778522235074</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>{0: [1565, 3938, 3937], 2: [3953, 1820, 3954], 5: [1699, 3879, 3878], 23: [1804, 3939, 1805], 24: [1760, 1759], 32: [1594, 1595], 34: [1744, 1746, 1745], 35: [4103, 1520, 4102], 36: [1625, 1624], 3: [3864, 3863], 4: [3970, 3968, 3969], 6: [1821, 4059], 8: [3774, 1865, 1864], 10: [4164, 1835, 1836], 13: [3729, 1610, 3728, 1609], 15: [1790, 3699, 1789], 25: [3833, 3834], 28: [1850, 1851, 3984], 30: [3999, 1730], 7: [1549, 4043, 1550], 9: [1654, 1564, 3803], 11: [1729, 3788, 3789], 29: [3850, 1519, 3848, 3849], 37: [3895, 1685, 1684, 3894], 1: [1640, 3909, 3908], 27: [4014, 1880], 16: [3983, 1656, 1655], 17: [1671, 3998], 19: [1641, 4030, 4028, 4029], 31: [3759, 3758], 21: [1941, 4089, 1626, 4088], 38: [1894, 1895, 4104], 26: [1715, 3923, 1714], 18: [1909, 3865], 14: [1669, 3819, 3818, 1670], 22: [3744, 1940, 1939], 20: [1776, 1774, 1775], 12: [3924, 1879], 33: [3773]}</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0.00393761820605835</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.009746778522235074</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>{0: [3587, 3589, 1040, 3588, 1039, 1038], 2: [3528, 678, 679, 484, 3827, 3828, 1115, 3830, 3829], 's_0_2': [588], 5: [920, 979, 3890, 3889], 's_0_5': [3904], 23: [3950, 1085, 1083, 3680, 1084], 's_0_23': [3605], 24: [3662, 3663, 873, 3664], 's_0_24': [888], 32: [3512, 528, 4039, 529, 4038, 4037, 530], 's_0_32': [558], 34: [964, 965, 918, 919, 3769], 's_0_34': [3934], 35: [4025, 995, 906, 4099], 's_0_35': [3995], 36: [666, 618, 619, 620, 4082], 's_0_36': [604, 603], 3: [934, 933, 3618, 3617, 3619], 's_2_3': [573], 4: [1054, 3755, 3631, 3632, 3633, 769, 3753, 3754], 's_2_4': [1144], 6: [3861, 1175, 1172, 1173, 1174], 's_2_6': [3935], 8: [411, 3651, 410, 3650, 3649, 3648, 3647, 3646, 409], 's_2_8': [3736], 10: [3516, 3513, 3514, 948, 782, 3515], 's_2_10': [602], 13: [4069, 949, 3799, 814, 815], 's_2_13': [950], 15: [784, 1024, 783, 828, 3696, 3695, 3694], 's_2_15': [1069], 's_2_24': [874], 25: [3709, 3708, 3767, 574], 's_2_25': [3766], 28: [1203, 1204, 1205, 3981, 3980, 3977, 3978, 3979], 's_2_28': [3846], 30: [395, 724, 3693, 394, 3692], 's_2_30': [3826], 's_2_32': [3707], 7: [876, 875], 's_5_7': [3919], 9: [3902, 3888, 649, 3573, 3572, 648], 's_5_9': [3574, 978], 11: [3949, 708, 709, 710, 707, 3948, 3393], 's_5_11': [905], 's_5_13': [3784], 's_5_15': [829], 's_5_23': [1009, 3785], 29: [3891, 3965, 1130, 1068, 1129, 3634, 3635], 's_5_29': [1100], 37: [3545, 3544, 3963, 755, 3541, 3542, 3543, 753, 754], 's_5_37': [3859], 1: [680, 3875, 3874, 3873, 634, 3454, 3453, 632, 633], 's_23_1': [3455], 's_23_4': [3845], 's_23_11': [3348, 3349, 3350, 1082], 's_23_15': [1099], 27: [1143, 3723, 1188, 3724, 3725], 's_23_27': [3681], 's_23_28': [3770], 's_23_29': [1220], 's_23_37': [1098], 's_24_1': [872], 's_24_4': [423], 's_24_15': [3604], 's_24_25': [589], 's_24_29': [813], 's_24_30': [453], 's_24_34': [3529], 's_24_37': [498], 's_32_1': [3872], 's_32_3': [543], 's_32_7': [4024], 's_32_9': [3917], 's_32_11': [4023], 16: [576, 4100, 1145, 4010, 4009, 4008, 515, 4007], 's_32_16': [591], 17: [756, 3962, 3993, 3992, 4067, 3946, 455], 's_32_17': [396], 19: [4041, 1116, 4158, 4160, 921, 861, 4159], 's_32_19': [4040], 31: [3812, 514, 3363, 3362, 512, 513], 's_32_31': [3857], 's_34_4': [994], 's_34_10': [3559], 's_34_13': [3739], 's_34_15': [3679], 's_34_35': [4084], 's_35_16': [3994], 21: [4127, 4129, 4128], 's_35_21': [996], 's_35_29': [1010], 38: [469, 470, 4053, 440, 4054, 4052], 's_35_38': [891], 's_36_4': [3752], 's_36_9': [3858], 's_36_21': [621], 's_36_25': [3797], 26: [4143, 799, 800, 4113, 801], 's_36_26': [4173], 's_36_31': [3602], 's_3_1': [3469], 's_3_9': [723], 's_3_13': [3710], 's_3_15': [1158, 3620], 18: [962, 3485, 1052, 3575, 1053], 's_3_18': [3500], 's_3_29': [3530], 's_3_37': [483], 14: [665, 3843, 664, 3603, 662, 663], 's_4_14': [3783], 's_4_8': [348], 's_4_13': [3800], 22: [3335, 936, 935, 3334, 857, 858, 859, 3814], 's_4_22': [3860], 's_4_26': [3798], 's_4_27': [1189], 's_4_30': [438], 's_6_10': [3531], 's_6_16': [4026], 's_6_37': [3560], 's_6_19': [4085], 's_8_11': [693], 's_8_15': [993], 's_8_28': [3976], 20: [3947, 561, 559, 560], 's_8_20': [3677], 's_8_27': [1008], 's_8_30': [3796], 's_8_31': [499, 3751], 's_8_38': [3991], 's_10_1': [812], 12: [845, 3844, 844, 3424, 842, 843], 's_10_12': [977], 's_10_14': [3423], 's_10_18': [1218], 's_13_16': [830], 's_13_7': [3964], 's_13_17': [4083], 's_13_22': [4070], 's_13_26': [785], 33: [3903], 's_13_33': [3918], 's_15_1': [827], 's_15_9': [798], 's_15_22': [889], 's_15_27': [1114], 's_15_29': [3711], 's_15_30': [3738], 's_25_11': [3678], 's_25_9': [3722], 's_25_12': [3768], 's_25_20': [3782], 's_28_1': [1070], 's_28_14': [590], 's_28_16': [4011], 's_28_18': [3590], 's_28_27': [3606], 's_28_29': [3920], 's_28_38': [605], 's_30_11': [694], 's_30_17': [3931], 's_30_27': [739], 's_7_11': [890], 's_7_21': [4114], 's_9_14': [647, 3468], 's_9_16': [3887], 's_9_37': [768], 's_9_31': [545], 's_9_33': [740], 's_11_1': [692], 's_11_14': [3333], 's_11_20': [3933, 3932], 's_11_26': [711], 's_11_31': [767], 's_11_37': [3394, 1007], 's_29_18': [1128], 's_37_1': [797], 's_37_14': [3813], 's_37_12': [3558], 's_37_17': [695], 's_37_18': [1113], 's_37_22': [3484], 's_37_31': [3527, 452], 's_37_33': [725], 's_1_14': [677], 's_1_16': [1025], 's_16_17': [4068], 's_16_19': [1056], 's_16_21': [516], 's_17_14': [575], 's_17_19': [4098], 's_19_22': [860], 's_19_26': [4204], 's_19_21': [1011], 's_19_38': [696], 's_31_14': [3377], 's_31_22': [796], 's_31_12': [3378], 's_31_38': [3811, 439], 's_21_22': [951], 's_21_26': [816], 's_21_20': [4112], 's_38_20': [4022], 's_26_12': [846], 's_14_20': [3842], 's_18_12': [3439], 's_18_22': [1037], 's_12_22': [887]}</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0003444976076555024</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.001291121529226636</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{0: [3587, 3589, 1040, 3588, 1039, 1038], 2: [3528, 678, 679, 484, 3827, 3828, 1115, 3830, 3829], 's_0_2': [588], 5: [920, 979, 3890, 3889], 's_0_5': [3904], 23: [3950, 1085, 1083, 3680, 1084], 's_0_23': [3605], 24: [3662, 3663, 873, 3664], 's_0_24': [888], 32: [3512, 528, 4039, 529, 4038, 4037, 530], 's_0_32': [558], 34: [964, 965, 918, 919, 3769], 's_0_34': [3934], 35: [4025, 995, 906, 4099], 's_0_35': [3995], 36: [666, 618, 619, 620, 4082], 's_0_36': [604, 603], 3: [934, 933, 3618, 3617, 3619], 's_2_3': [573], 4: [1054, 3755, 3631, 3632, 3633, 769, 3753, 3754], 's_2_4': [1144], 6: [3861, 1175, 1172, 1173, 1174], 's_2_6': [3935], 8: [411, 3651, 410, 3650, 3649, 3648, 3647, 3646, 409], 's_2_8': [3736], 10: [3516, 3513, 3514, 948, 782, 3515], 's_2_10': [602], 13: [4069, 949, 3799, 814, 815], 's_2_13': [950], 15: [784, 1024, 783, 828, 3696, 3695, 3694], 's_2_15': [1069], 's_2_24': [874], 25: [3709, 3708, 3767, 574], 's_2_25': [3766], 28: [1203, 1204, 1205, 3981, 3980, 3977, 3978, 3979], 's_2_28': [3846], 30: [395, 724, 3693, 394, 3692], 's_2_30': [3826], 's_2_32': [3707], 7: [876, 875], 's_5_7': [3919], 9: [3902, 3888, 649, 3573, 3572, 648], 's_5_9': [3574, 978], 11: [3949, 708, 709, 710, 707, 3948, 3393], 's_5_11': [905], 's_5_13': [3784], 's_5_15': [829], 's_5_23': [1009, 3785], 29: [3891, 3965, 1130, 1068, 1129, 3634, 3635], 's_5_29': [1100], 37: [3545, 3544, 3963, 755, 3541, 3542, 3543, 753, 754], 's_5_37': [3859], 1: [680, 3875, 3874, 3873, 634, 3454, 3453, 632, 633], 's_23_1': [3455], 's_23_4': [3845], 's_23_11': [3348, 3349, 3350, 1082], 's_23_15': [1099], 27: [1143, 3723, 1188, 3724, 3725], 's_23_27': [3681], 's_23_28': [3770], 's_23_29': [1220], 's_23_37': [1098], 's_24_1': [872], 's_24_4': [423], 's_24_15': [3604], 's_24_25': [589], 's_24_29': [813], 's_24_30': [453], 's_24_34': [3529], 's_24_37': [498], 's_32_1': [3872], 's_32_3': [543], 's_32_7': [4024], 's_32_9': [3917], 's_32_11': [4023], 16: [576, 4100, 1145, 4010, 4009, 4008, 515, 4007], 's_32_16': [591], 17: [756, 3962, 3993, 3992, 4067, 3946, 455], 's_32_17': [396], 19: [4041, 1116, 4158, 4160, 921, 861, 4159], 's_32_19': [4040], 31: [3812, 514, 3363, 3362, 512, 513], 's_32_31': [3857], 's_34_4': [994], 's_34_10': [3559], 's_34_13': [3739], 's_34_15': [3679], 's_34_35': [4084], 's_35_16': [3994], 21: [4127, 4129, 4128], 's_35_21': [996], 's_35_29': [1010], 38: [469, 470, 4053, 440, 4054, 4052], 's_35_38': [891], 's_36_4': [3752], 's_36_9': [3858], 's_36_21': [621], 's_36_25': [3797], 26: [4143, 799, 800, 4113, 801], 's_36_26': [4173], 's_36_31': [3602], 's_3_1': [3469], 's_3_9': [723], 's_3_13': [3710], 's_3_15': [1158, 3620], 18: [962, 3485, 1052, 3575, 1053], 's_3_18': [3500], 's_3_29': [3530], 's_3_37': [483], 14: [665, 3843, 664, 3603, 662, 663], 's_4_14': [3783], 's_4_8': [348], 's_4_13': [3800], 22: [3335, 936, 935, 3334, 857, 858, 859, 3814], 's_4_22': [3860], 's_4_26': [3798], 's_4_27': [1189], 's_4_30': [438], 's_6_10': [3531], 's_6_16': [4026], 's_6_37': [3560], 's_6_19': [4085], 's_8_11': [693], 's_8_15': [993], 's_8_28': [3976], 20: [3947, 561, 559, 560], 's_8_20': [3677], 's_8_27': [1008], 's_8_30': [3796], 's_8_31': [499, 3751], 's_8_38': [3991], 's_10_1': [812], 12: [845, 3844, 844, 3424, 842, 843], 's_10_12': [977], 's_10_14': [3423], 's_10_18': [1218], 's_13_16': [830], 's_13_7': [3964], 's_13_17': [4083], 's_13_22': [4070], 's_13_26': [785], 33: [3903], 's_13_33': [3918], 's_15_1': [827], 's_15_9': [798], 's_15_22': [889], 's_15_27': [1114], 's_15_29': [3711], 's_15_30': [3738], 's_25_11': [3678], 's_25_9': [3722], 's_25_12': [3768], 's_25_20': [3782], 's_28_1': [1070], 's_28_14': [590], 's_28_16': [4011], 's_28_18': [3590], 's_28_27': [3606], 's_28_29': [3920], 's_28_38': [605], 's_30_11': [694], 's_30_17': [3931], 's_30_27': [739], 's_7_11': [890], 's_7_21': [4114], 's_9_14': [647, 3468], 's_9_16': [3887], 's_9_37': [768], 's_9_31': [545], 's_9_33': [740], 's_11_1': [692], 's_11_14': [3333], 's_11_20': [3933, 3932], 's_11_26': [711], 's_11_31': [767], 's_11_37': [3394, 1007], 's_29_18': [1128], 's_37_1': [797], 's_37_14': [3813], 's_37_12': [3558], 's_37_17': [695], 's_37_18': [1113], 's_37_22': [3484], 's_37_31': [3527, 452], 's_37_33': [725], 's_1_14': [677], 's_1_16': [1025], 's_16_17': [4068], 's_16_19': [1056], 's_16_21': [516], 's_17_14': [575], 's_17_19': [4098], 's_19_22': [860], 's_19_26': [4204], 's_19_21': [1011], 's_19_38': [696], 's_31_14': [3377], 's_31_22': [796], 's_31_12': [3378], 's_31_38': [3811, 439], 's_21_22': [951], 's_21_26': [816], 's_21_20': [4112], 's_38_20': [4022], 's_26_12': [846], 's_14_20': [3842], 's_18_12': [3439], 's_18_22': [1037], 's_12_22': [887]}</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0.0003444976076555024</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.001291121529226636</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>{0: [3406, 453, 452], 7: [498, 497], 23: [3706, 347, 348, 349], 26: [423, 229, 3692, 3691], 28: [3405, 288, 287], 32: [3452, 437, 3451], 34: [257, 3390, 3391], 38: [3585, 3586, 513, 3587], 39: [558, 3482], 2: [363, 3497, 3496], 11: [3570, 3571, 393], 12: [3572, 3617, 543], 18: [3511, 3512], 19: [544, 559, 3647], 29: [3662, 3661], 35: [3722, 3678, 3602, 603], 4: [3421, 3422], 5: [3720, 394, 3721], 6: [3750, 3751, 482, 483, 484], 8: [3782, 3781, 3841, 289], 9: [3526, 3527], 13: [258, 3856, 259], 14: [527, 3556, 3557, 528], 15: [3631, 364], 20: [3466, 422], 27: [3420, 243, 242], 30: [317, 3601, 319, 318], 3: [304, 302, 303], 17: [378, 379], 25: [3736, 407, 408, 409], 24: [272, 274, 273], 31: [3436], 33: [3645, 438, 3646], 10: [3528, 588], 16: [332, 3616, 333], 1: [3481, 228], 22: [3542, 3540, 467, 3541], 21: [3676, 3677], 37: [3660, 153, 154], 36: [3735, 213, 214]}</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.003812636165577342</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.009923771191579916</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>{0: [3406, 453, 452], 7: [498, 497], 23: [3706, 347, 348, 349], 26: [423, 229, 3692, 3691], 28: [3405, 288, 287], 32: [3452, 437, 3451], 34: [257, 3390, 3391], 38: [3585, 3586, 513, 3587], 39: [558, 3482], 2: [363, 3497, 3496], 11: [3570, 3571, 393], 12: [3572, 3617, 543], 18: [3511, 3512], 19: [544, 559, 3647], 29: [3662, 3661], 35: [3722, 3678, 3602, 603], 4: [3421, 3422], 5: [3720, 394, 3721], 6: [3750, 3751, 482, 483, 484], 8: [3782, 3781, 3841, 289], 9: [3526, 3527], 13: [258, 3856, 259], 14: [527, 3556, 3557, 528], 15: [3631, 364], 20: [3466, 422], 27: [3420, 243, 242], 30: [317, 3601, 319, 318], 3: [304, 302, 303], 17: [378, 379], 25: [3736, 407, 408, 409], 24: [272, 274, 273], 31: [3436], 33: [3645, 438, 3646], 10: [3528, 588], 16: [332, 3616, 333], 1: [3481, 228], 22: [3542, 3540, 467, 3541], 21: [3676, 3677], 37: [3660, 153, 154], 36: [3735, 213, 214]}</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0.003812636165577342</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.009923771191579916</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>{0: [2543, 4138, 4453, 2617, 2690, 2691, 4184, 2616], 7: [3941, 3942, 2602, 4363, 2452, 2450, 2451], 's_0_7': [4423], 23: [4259, 2572, 2571, 2570, 2569, 3643, 3642, 2374, 3641, 3640, 3639], 's_0_23': [2556], 26: [2673, 2674, 2677, 2676, 2675], 's_0_26': [3929], 28: [2437, 2767, 4379, 4376, 4377, 4378], 's_0_28': [4454], 32: [2120, 4123, 4122, 4001, 2361, 4002], 's_0_32': [4137, 2376], 34: [4437, 4436, 1849, 1850, 1851, 4438, 1852, 1853, 4435], 's_0_34': [2498], 38: [4274, 4273, 4272, 4015, 2031, 2032, 4256, 2347, 4257], 's_0_38': [2752], 39: [1954, 3820, 2030, 3880, 3884, 3883, 3882, 3881], 's_0_39': [3899], 2: [3774, 3775, 2059, 4452, 4451, 2138, 2060, 2061, 2062, 4421], 's_7_2': [4467], 11: [2449, 4333, 3823, 2527, 2526, 3897, 3898, 3958, 2525], 's_7_11': [3957], 12: [2301, 4198, 4197], 's_7_12': [2601], 18: [4045, 4303, 4302, 2001, 2002, 4301, 2377, 4299, 4300], 's_7_18': [2587], 19: [2224, 4062, 2226, 4047, 2225], 's_7_19': [2240], 29: [4269, 4270, 4271, 4286, 4287, 2436, 4049, 4048, 2435], 's_7_29': [4033], 's_7_34': [4439], 35: [4076, 3851, 2136, 2135, 2134], 's_7_35': [2180], 4: [3731, 3732], 's_23_4': [2359], 5: [2467, 4348, 4075, 1971, 1972, 4345, 4346, 4347], 's_23_5': [2557], 6: [1940, 3969, 3970, 2194, 2195, 2555, 3973, 3972, 3971], 's_23_6': [3838], 8: [3700, 3821, 2119, 2073, 3701], 's_23_8': [2043], 9: [4317, 2213, 2209, 2210, 2211, 4315, 4316, 2212], 's_23_9': [3656], 's_23_11': [4153], 13: [2076, 1984, 1985, 4060, 4135, 1986], 's_23_13': [3850, 1879, 1878], 14: [4213, 3926, 3868, 3927, 2478, 2479, 2481, 2480], 's_23_14': [3703], 15: [4119, 3581, 3580, 1863, 1866, 3579, 1865, 1864], 's_23_15': [1968], 20: [2482, 2628, 2629, 3928, 2393, 2645, 2646, 2647, 4393, 4394], 's_23_20': [2573], 's_23_26': [3644], 27: [2168, 2167, 2164, 2165, 2166], 's_23_27': [3686, 2133], 30: [3895, 1955, 3628, 3627, 3626, 3629, 2088, 3910, 2089], 's_23_30': [2298], 's_23_34': [3654], 's_23_38': [2586], 3: [4229, 4226, 4227, 4228], 's_26_3': [4214], 17: [2613, 3854, 2615, 2614], 's_26_17': [3989], 25: [2719, 3805, 2014, 3670, 3674, 3673, 3672, 3671], 's_26_25': [3779], 's_26_28': [4334], 's_26_29': [4034], 's_26_30': [2689, 2688], 's_26_38': [4289], 's_28_2': [2183], 's_28_5': [4375], 's_28_9': [2077], 's_28_20': [2528], 24: [2344, 2345, 2317, 2316, 4165, 4166, 4167, 2346], 's_28_24': [4362], 's_28_27': [4361], 31: [2704, 2705, 4319, 2706, 2707], 's_28_31': [4304], 33: [3896, 4032, 4031, 2107, 2106, 2105], 's_28_33': [2122], 10: [2151, 4121], 's_32_10': [2150], 's_32_14': [4092], 16: [2253, 2254, 2257, 2256, 2255], 's_32_16': [2270], 's_32_30': [2090], 's_32_33': [2075], 1: [3759, 3760, 3762, 3761], 's_34_1': [1834], 's_34_2': [2108], 's_34_6': [1835], 's_34_13': [1838, 1837, 1836], 's_34_18': [2047], 22: [2284, 2541, 4481, 4527, 4078, 4077, 2285, 2286, 2287, 2288], 's_34_22': [2153], 's_34_25': [3685], 's_38_2': [2033], 's_38_18': [4255], 's_38_19': [2241, 4212], 21: [1941, 4180, 2421, 4182, 4181], 's_38_21': [2017, 4241], 's_38_22': [2348], 's_38_27': [2182], 's_38_30': [4000], 37: [2512, 2510, 2511], 's_38_37': [4288], 's_38_39': [1970], 's_39_1': [2419], 's_39_2': [1969], 's_39_14': [2434], 's_39_19': [2300], 's_39_20': [2599], 's_39_25': [1894], 's_39_35': [2015], 's_2_1': [2074], 's_2_6': [2045], 's_2_15': [4120], 's_2_20': [2483], 's_2_24': [2318], 's_2_25': [3790], 's_11_1': [2464], 's_11_5': [4258], 's_11_9': [2239, 3836], 's_11_12': [2542], 's_11_14': [2509], 's_11_17': [3943], 's_11_18': [4318], 's_11_20': [2495], 's_11_24': [2360], 's_11_33': [2315], 's_12_22': [4152], 's_12_18': [2302], 's_12_19': [4136], 's_12_10': [4106], 's_18_16': [2272], 36: [1924, 1926, 1925], 's_18_36': [4210], 's_18_20': [2378], 's_18_3': [4225], 's_18_9': [2092], 's_18_30': [2000], 's_19_6': [2330], 's_19_21': [2331], 's_19_33': [4061], 's_29_15': [4284], 's_29_24': [2406], 's_29_13': [1987], 's_29_21': [1942], 's_29_14': [2465], 's_29_5': [2362], 's_29_17': [2630], 's_29_37': [4063], 's_35_6': [3776], 's_35_21': [4196], 's_35_14': [3912, 3911], 's_35_5': [2137], 's_35_10': [4211], 's_35_30': [3806], 's_4_27': [3746], 's_4_24': [3747], 's_4_14': [3718, 2433], 's_5_36': [4195], 's_5_15': [1880], 's_5_24': [4105, 2016], 's_5_37': [2497, 2496], 's_6_8': [3791, 2104], 's_6_9': [2196], 's_6_15': [2193], 's_6_17': [3974], 's_6_21': [2420], 's_6_24': [3852], 's_6_37': [3988], 's_8_25': [2029], 's_8_13': [3745], 's_8_30': [3595], 's_9_22': [4422], 's_9_27': [4496], 's_9_20': [2407], 's_9_3': [2197], 's_9_10': [2152], 's_13_36': [4030], 's_13_24': [2046], 's_13_3': [2091], 's_13_30': [3716, 3715], 's_13_33': [4090], 's_14_22': [4003], 's_14_20': [2644, 3869], 's_14_25': [3688], 's_14_21': [4183], 's_15_16': [3596], 's_15_21': [4179], 's_15_25': [3624, 3625, 1953], 's_15_30': [2208], 's_20_22': [4482], 's_20_3': [2392], 's_20_30': [2523, 3598], 's_27_1': [2179], 's_27_22': [4512, 4511], 's_30_17': [3611, 3612, 3613, 3614], 's_3_16': [2271], 's_3_21': [2121], 's_3_31': [2722], 's_17_25': [3809], 's_25_16': [2268], 's_25_36': [1923], 's_25_31': [2720, 2721, 4124], 's_24_16': [3807], 's_24_22': [3987], 's_24_36': [4150], 's_33_16': [4332, 4331], 's_10_22': [4091], 's_16_1': [2269], 's_1_22': [2299], 's_1_36': [1939], 's_22_37': [4018], 's_21_36': [4134]}</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0008883720930232558</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.001987081044209681</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>{0: [2543, 4138, 4453, 2617, 2690, 2691, 4184, 2616], 7: [3941, 3942, 2602, 4363, 2452, 2450, 2451], 's_0_7': [4423], 23: [4259, 2572, 2571, 2570, 2569, 3643, 3642, 2374, 3641, 3640, 3639], 's_0_23': [2556], 26: [2673, 2674, 2677, 2676, 2675], 's_0_26': [3929], 28: [2437, 2767, 4379, 4376, 4377, 4378], 's_0_28': [4454], 32: [2120, 4123, 4122, 4001, 2361, 4002], 's_0_32': [4137, 2376], 34: [4437, 4436, 1849, 1850, 1851, 4438, 1852, 1853, 4435], 's_0_34': [2498], 38: [4274, 4273, 4272, 4015, 2031, 2032, 4256, 2347, 4257], 's_0_38': [2752], 39: [1954, 3820, 2030, 3880, 3884, 3883, 3882, 3881], 's_0_39': [3899], 2: [3774, 3775, 2059, 4452, 4451, 2138, 2060, 2061, 2062, 4421], 's_7_2': [4467], 11: [2449, 4333, 3823, 2527, 2526, 3897, 3898, 3958, 2525], 's_7_11': [3957], 12: [2301, 4198, 4197], 's_7_12': [2601], 18: [4045, 4303, 4302, 2001, 2002, 4301, 2377, 4299, 4300], 's_7_18': [2587], 19: [2224, 4062, 2226, 4047, 2225], 's_7_19': [2240], 29: [4269, 4270, 4271, 4286, 4287, 2436, 4049, 4048, 2435], 's_7_29': [4033], 's_7_34': [4439], 35: [4076, 3851, 2136, 2135, 2134], 's_7_35': [2180], 4: [3731, 3732], 's_23_4': [2359], 5: [2467, 4348, 4075, 1971, 1972, 4345, 4346, 4347], 's_23_5': [2557], 6: [1940, 3969, 3970, 2194, 2195, 2555, 3973, 3972, 3971], 's_23_6': [3838], 8: [3700, 3821, 2119, 2073, 3701], 's_23_8': [2043], 9: [4317, 2213, 2209, 2210, 2211, 4315, 4316, 2212], 's_23_9': [3656], 's_23_11': [4153], 13: [2076, 1984, 1985, 4060, 4135, 1986], 's_23_13': [3850, 1879, 1878], 14: [4213, 3926, 3868, 3927, 2478, 2479, 2481, 2480], 's_23_14': [3703], 15: [4119, 3581, 3580, 1863, 1866, 3579, 1865, 1864], 's_23_15': [1968], 20: [2482, 2628, 2629, 3928, 2393, 2645, 2646, 2647, 4393, 4394], 's_23_20': [2573], 's_23_26': [3644], 27: [2168, 2167, 2164, 2165, 2166], 's_23_27': [3686, 2133], 30: [3895, 1955, 3628, 3627, 3626, 3629, 2088, 3910, 2089], 's_23_30': [2298], 's_23_34': [3654], 's_23_38': [2586], 3: [4229, 4226, 4227, 4228], 's_26_3': [4214], 17: [2613, 3854, 2615, 2614], 's_26_17': [3989], 25: [2719, 3805, 2014, 3670, 3674, 3673, 3672, 3671], 's_26_25': [3779], 's_26_28': [4334], 's_26_29': [4034], 's_26_30': [2689, 2688], 's_26_38': [4289], 's_28_2': [2183], 's_28_5': [4375], 's_28_9': [2077], 's_28_20': [2528], 24: [2344, 2345, 2317, 2316, 4165, 4166, 4167, 2346], 's_28_24': [4362], 's_28_27': [4361], 31: [2704, 2705, 4319, 2706, 2707], 's_28_31': [4304], 33: [3896, 4032, 4031, 2107, 2106, 2105], 's_28_33': [2122], 10: [2151, 4121], 's_32_10': [2150], 's_32_14': [4092], 16: [2253, 2254, 2257, 2256, 2255], 's_32_16': [2270], 's_32_30': [2090], 's_32_33': [2075], 1: [3759, 3760, 3762, 3761], 's_34_1': [1834], 's_34_2': [2108], 's_34_6': [1835], 's_34_13': [1838, 1837, 1836], 's_34_18': [2047], 22: [2284, 2541, 4481, 4527, 4078, 4077, 2285, 2286, 2287, 2288], 's_34_22': [2153], 's_34_25': [3685], 's_38_2': [2033], 's_38_18': [4255], 's_38_19': [2241, 4212], 21: [1941, 4180, 2421, 4182, 4181], 's_38_21': [2017, 4241], 's_38_22': [2348], 's_38_27': [2182], 's_38_30': [4000], 37: [2512, 2510, 2511], 's_38_37': [4288], 's_38_39': [1970], 's_39_1': [2419], 's_39_2': [1969], 's_39_14': [2434], 's_39_19': [2300], 's_39_20': [2599], 's_39_25': [1894], 's_39_35': [2015], 's_2_1': [2074], 's_2_6': [2045], 's_2_15': [4120], 's_2_20': [2483], 's_2_24': [2318], 's_2_25': [3790], 's_11_1': [2464], 's_11_5': [4258], 's_11_9': [2239, 3836], 's_11_12': [2542], 's_11_14': [2509], 's_11_17': [3943], 's_11_18': [4318], 's_11_20': [2495], 's_11_24': [2360], 's_11_33': [2315], 's_12_22': [4152], 's_12_18': [2302], 's_12_19': [4136], 's_12_10': [4106], 's_18_16': [2272], 36: [1924, 1926, 1925], 's_18_36': [4210], 's_18_20': [2378], 's_18_3': [4225], 's_18_9': [2092], 's_18_30': [2000], 's_19_6': [2330], 's_19_21': [2331], 's_19_33': [4061], 's_29_15': [4284], 's_29_24': [2406], 's_29_13': [1987], 's_29_21': [1942], 's_29_14': [2465], 's_29_5': [2362], 's_29_17': [2630], 's_29_37': [4063], 's_35_6': [3776], 's_35_21': [4196], 's_35_14': [3912, 3911], 's_35_5': [2137], 's_35_10': [4211], 's_35_30': [3806], 's_4_27': [3746], 's_4_24': [3747], 's_4_14': [3718, 2433], 's_5_36': [4195], 's_5_15': [1880], 's_5_24': [4105, 2016], 's_5_37': [2497, 2496], 's_6_8': [3791, 2104], 's_6_9': [2196], 's_6_15': [2193], 's_6_17': [3974], 's_6_21': [2420], 's_6_24': [3852], 's_6_37': [3988], 's_8_25': [2029], 's_8_13': [3745], 's_8_30': [3595], 's_9_22': [4422], 's_9_27': [4496], 's_9_20': [2407], 's_9_3': [2197], 's_9_10': [2152], 's_13_36': [4030], 's_13_24': [2046], 's_13_3': [2091], 's_13_30': [3716, 3715], 's_13_33': [4090], 's_14_22': [4003], 's_14_20': [2644, 3869], 's_14_25': [3688], 's_14_21': [4183], 's_15_16': [3596], 's_15_21': [4179], 's_15_25': [3624, 3625, 1953], 's_15_30': [2208], 's_20_22': [4482], 's_20_3': [2392], 's_20_30': [2523, 3598], 's_27_1': [2179], 's_27_22': [4512, 4511], 's_30_17': [3611, 3612, 3613, 3614], 's_3_16': [2271], 's_3_21': [2121], 's_3_31': [2722], 's_17_25': [3809], 's_25_16': [2268], 's_25_36': [1923], 's_25_31': [2720, 2721, 4124], 's_24_16': [3807], 's_24_22': [3987], 's_24_36': [4150], 's_33_16': [4332, 4331], 's_10_22': [4091], 's_16_1': [2269], 's_1_22': [2299], 's_1_36': [1939], 's_22_37': [4018], 's_21_36': [4134]}</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0008883720930232558</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.001987081044209681</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>{0: [591, 4006, 4007], 3: [4157, 4156], 4: [4127, 4126, 501], 17: [620, 4037, 4038], 19: [4110, 305, 4171, 306], 20: [562, 4022, 561], 21: [440, 4306, 442, 441], 35: [3991, 412, 411], 36: [3992, 530], 37: [4172, 605, 606], 39: [4217, 485, 487, 486], 1: [531, 4067], 10: [471, 4111], 13: [4307, 576, 577], 15: [651, 516, 4112], 26: [4336, 366, 367], 33: [291, 292, 4322, 4321], 40: [4142], 8: [502, 4232, 532], 11: [4080, 351, 4081], 14: [681, 682, 4247, 4248], 28: [546, 4082], 16: [455, 4051, 4052], 18: [426, 425], 25: [4351, 621, 4352, 622], 27: [398, 396, 397], 6: [4202, 4201], 29: [322, 321], 31: [4186, 4187, 547], 30: [382, 381, 4021], 32: [4260, 4261, 4262], 23: [4141, 4246, 277, 276], 7: [337, 336, 4097, 4096], 34: [275, 290, 4066], 5: [456, 457], 38: [352, 4277, 4276], 2: [4292, 4291], 22: [4381, 4383, 4382], 24: [578, 4367, 472], 9: [4095, 4125, 216], 12: [4275]}</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.007234394377842083</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01257543488582656</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>{0: [591, 4006, 4007], 3: [4157, 4156], 4: [4127, 4126, 501], 17: [620, 4037, 4038], 19: [4110, 305, 4171, 306], 20: [562, 4022, 561], 21: [440, 4306, 442, 441], 35: [3991, 412, 411], 36: [3992, 530], 37: [4172, 605, 606], 39: [4217, 485, 487, 486], 1: [531, 4067], 10: [471, 4111], 13: [4307, 576, 577], 15: [651, 516, 4112], 26: [4336, 366, 367], 33: [291, 292, 4322, 4321], 40: [4142], 8: [502, 4232, 532], 11: [4080, 351, 4081], 14: [681, 682, 4247, 4248], 28: [546, 4082], 16: [455, 4051, 4052], 18: [426, 425], 25: [4351, 621, 4352, 622], 27: [398, 396, 397], 6: [4202, 4201], 29: [322, 321], 31: [4186, 4187, 547], 30: [382, 381, 4021], 32: [4260, 4261, 4262], 23: [4141, 4246, 277, 276], 7: [337, 336, 4097, 4096], 34: [275, 290, 4066], 5: [456, 457], 38: [352, 4277, 4276], 2: [4292, 4291], 22: [4381, 4383, 4382], 24: [578, 4367, 472], 9: [4095, 4125, 216], 12: [4275]}</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0.007234394377842083</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01257543488582656</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>{0: [2209, 1908, 3685, 3686, 3687, 2720, 2719, 3689, 3944, 3688], 3: [2645, 2644, 3582, 3583, 3373, 2642, 3539, 2643], 's_0_3': [2418], 4: [3250, 3311, 1938, 1939, 3520, 1968, 1967, 3415, 2026, 2027], 's_0_4': [3729], 17: [2000, 2073, 1999, 1997, 3580, 1998], 's_0_17': [3670], 19: [2597, 3911, 2254, 2253, 3524, 3523, 2388, 3612], 's_0_19': [2718], 20: [2627, 1969, 1970, 3925, 3926, 3927, 2628, 2629, 3928], 's_0_20': [3854], 21: [3627, 3882, 3883, 3884, 3628, 3478, 2553, 2554, 2555, 2556], 's_0_21': [2478], 35: [2524, 3760, 3763, 3761, 2374, 3762], 's_0_35': [1984], 36: [2330, 2614, 2615, 3942, 3943], 's_0_36': [3974], 37: [1861, 3340, 3341, 3342, 2688, 2687, 3344, 3644, 3343], 's_0_37': [2613], 39: [2310, 3537, 2311, 2405, 2404, 2312, 3777, 2314, 2313], 's_0_39': [3717], 1: [4031, 3820, 3821, 4034, 4033, 4032, 3611, 2223, 2224, 2225], 's_3_1': [2660], 10: [2360, 2359, 2357, 2356, 3552, 2358], 's_3_10': [3597], 13: [2537, 2747, 3161, 2538, 3162, 3163, 2536, 3223, 2611, 3284], 's_3_13': [3374], 15: [3447, 3359, 2371, 2372, 3358], 's_3_15': [2567], 's_3_21': [3733], 26: [2775, 2776, 2777, 3554, 3657, 3658, 3659, 2673], 's_3_26': [3584], 33: [3192, 3193, 3704, 2659, 2658, 2656, 2657], 's_3_33': [3869], 's_3_39': [3372], 40: [3298, 3314, 2706, 2705, 3299, 2702, 2703, 3718, 3719, 2704], 's_3_40': [3494], 's_4_1': [1924], 8: [2176, 2179, 3477, 3476, 2177, 2178], 's_4_8': [3101, 3100], 11: [2075, 3971, 2165, 3866, 2149, 3535, 3536, 2148], 's_4_11': [1892], 's_4_13': [2011], 14: [2087, 2086, 2507, 2116, 2506, 3253, 3251, 3252], 's_4_14': [2131], 's_4_20': [3835], 28: [2522, 3328, 3327, 3326, 3325, 1833, 1832], 's_4_28': [3564], 16: [3956, 3957, 3940, 2297, 2298, 2299, 2300, 3941], 's_17_16': [3581], 18: [3522, 3521, 3506, 2030, 2029, 2028], 's_17_18': [3655], 25: [2477, 3386, 2671, 3385, 2476, 3387, 3268, 3269], 's_17_25': [3370], 27: [3836, 3642, 2195, 2194, 3641], 's_17_27': [3640], 's_17_28': [3490], 's_17_35': [3775], 's_17_37': [3310], 6: [3985, 2285, 3988, 3986, 3987], 's_19_6': [2180], 's_19_10': [2432], 's_19_16': [2255], 's_19_21': [3508, 3509, 2582], 's_19_26': [3568, 3569], 29: [2133, 3731, 2134], 's_19_29': [2135], 31: [1955, 2493, 2492, 2491, 3178, 3176, 3175, 1951, 3177, 1952, 1953, 1954], 's_19_31': [3910], 's_19_33': [3403], 's_20_1': [2060, 2059], 's_20_6': [2495], 's_20_16': [1985, 3850], 's_20_18': [3745], 's_20_21': [3793, 3794], 30: [2583, 2584, 3853, 3643, 2526, 3838, 2525], 's_20_30': [2540], 's_20_31': [3700], 32: [3434, 3433, 3432, 3566, 2267], 's_20_32': [2612], 's_20_33': [3464], 's_20_36': [2390], 's_20_37': [3674], 's_21_1': [2239], 's_21_6': [2465], 's_21_8': [3626], 's_21_13': [2523], 's_21_14': [2508], 's_21_16': [3958], 23: [3565, 3463, 3400, 2450, 2042, 2449, 2448, 3401, 3402, 2447], 's_21_23': [3898], 's_21_26': [2598], 's_21_27': [2283], 's_21_31': [3598], 's_21_35': [2599], 7: [2674, 3809, 2342, 3808, 3807, 2057, 3491, 3492, 2343, 2344], 's_35_7': [2764, 3764], 's_35_8': [2373], 's_35_10': [3732], 's_35_26': [2539], 's_35_30': [2375], 's_35_31': [3673], 34: [2509, 3703, 3701, 3702], 's_35_34': [2329], 's_36_1': [2600], 's_36_16': [2480], 's_36_39': [2315], 5: [2626, 3237, 3238], 's_37_5': [2596], 's_37_7': [2102], 's_37_13': [3419], 's_37_15': [2282], 's_37_28': [1876], 's_37_31': [3355], 38: [2192, 3625, 3282, 2013, 2012, 3281, 3280], 's_37_38': [2071], 's_37_40': [3449], 2: [3102, 2521, 3104, 3103], 's_39_2': [2325], 's_39_8': [2208], 's_39_11': [3972], 22: [2238, 3266, 2237, 2236], 's_39_22': [3312], 's_39_25': [2327], 's_39_27': [3852], 's_39_38': [3297], 's_1_8': [3791], 's_1_18': [2031], 's_1_27': [2196], 's_1_31': [4030], 's_1_34': [2088], 's_1_40': [4049], 's_10_18': [2328], 's_10_5': [3222], 's_10_14': [3267], 's_10_6': [2345], 's_10_7': [3462], 's_10_15': [3117], 24: [2146, 3207, 3206], 's_10_24': [2341], 's_10_32': [2463, 2462], 's_13_8': [2070, 3116, 2145], 's_13_31': [2445], 's_13_40': [3404], 's_13_14': [3133, 3132, 3131, 2115], 's_13_15': [3148], 's_13_24': [2191], 's_13_28': [2161, 2162], 's_13_32': [2732], 's_13_33': [2415], 's_15_40': [2717], 's_15_16': [3357], 's_15_28': [3313], 's_15_32': [2387], 's_15_38': [2416], 's_26_27': [2389], 's_26_2': [2760], 's_26_7': [2749], 's_26_30': [2570, 2569], 's_33_34': [3748], 's_33_5': [2326], 's_33_25': [2551], 's_33_24': [2400], 's_40_23': [2433], 's_40_25': [2701], 's_40_28': [3329], 's_8_14': [3296], 's_8_18': [3671], 's_8_22': [3461], 's_8_32': [3431], 's_11_31': [3865], 's_11_6': [2240], 9: [2104, 2105, 4001, 2269, 2270, 4003, 4002], 's_11_9': [2346, 4047, 4046], 's_11_16': [2090, 2089], 's_11_28': [1848], 's_11_29': [3806], 's_11_38': [1923], 's_14_18': [3550], 's_14_31': [2461], 's_14_2': [2505], 's_14_5': [2446], 's_14_7': [2117], 's_14_22': [2221], 's_14_28': [2281], 's_28_31': [3505], 's_28_7': [2056], 's_16_18': [2045, 3970], 's_16_27': [2210], 's_16_9': [2420], 's_16_29': [3776], 's_18_6': [2015], 's_18_23': [3460], 's_18_38': [3595], 's_25_2': [2716], 's_25_5': [2641], 's_25_22': [3371], 's_25_23': [3493], 's_25_24': [2147], 's_25_32': [2266], 's_25_38': [2401], 's_27_22': [3672], 's_6_23': [3973], 's_29_34': [2284], 's_29_32': [2268], 's_29_22': [3746], 's_31_2': [2250], 's_31_5': [2386], 's_31_23': [3613], 's_31_30': [2494], 's_31_38': [2101], 's_30_23': [4063], 's_30_7': [2419], 's_30_9': [2541], 's_32_23': [2222], 's_32_7': [3507], 's_23_34': [2043], 's_23_9': [4018], 12: [1982], 's_23_12': [3445], 's_23_22': [3416], 's_23_38': [2207], 's_7_9': [3792], 's_7_38': [3430], 's_34_9': [2510], 's_5_2': [2566], 's_38_12': [3295], 's_22_24': [2206]}</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.001074561403508772</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.002116994906969356</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>{0: [2209, 1908, 3685, 3686, 3687, 2720, 2719, 3689, 3944, 3688], 3: [2645, 2644, 3582, 3583, 3373, 2642, 3539, 2643], 's_0_3': [2418], 4: [3250, 3311, 1938, 1939, 3520, 1968, 1967, 3415, 2026, 2027], 's_0_4': [3729], 17: [2000, 2073, 1999, 1997, 3580, 1998], 's_0_17': [3670], 19: [2597, 3911, 2254, 2253, 3524, 3523, 2388, 3612], 's_0_19': [2718], 20: [2627, 1969, 1970, 3925, 3926, 3927, 2628, 2629, 3928], 's_0_20': [3854], 21: [3627, 3882, 3883, 3884, 3628, 3478, 2553, 2554, 2555, 2556], 's_0_21': [2478], 35: [2524, 3760, 3763, 3761, 2374, 3762], 's_0_35': [1984], 36: [2330, 2614, 2615, 3942, 3943], 's_0_36': [3974], 37: [1861, 3340, 3341, 3342, 2688, 2687, 3344, 3644, 3343], 's_0_37': [2613], 39: [2310, 3537, 2311, 2405, 2404, 2312, 3777, 2314, 2313], 's_0_39': [3717], 1: [4031, 3820, 3821, 4034, 4033, 4032, 3611, 2223, 2224, 2225], 's_3_1': [2660], 10: [2360, 2359, 2357, 2356, 3552, 2358], 's_3_10': [3597], 13: [2537, 2747, 3161, 2538, 3162, 3163, 2536, 3223, 2611, 3284], 's_3_13': [3374], 15: [3447, 3359, 2371, 2372, 3358], 's_3_15': [2567], 's_3_21': [3733], 26: [2775, 2776, 2777, 3554, 3657, 3658, 3659, 2673], 's_3_26': [3584], 33: [3192, 3193, 3704, 2659, 2658, 2656, 2657], 's_3_33': [3869], 's_3_39': [3372], 40: [3298, 3314, 2706, 2705, 3299, 2702, 2703, 3718, 3719, 2704], 's_3_40': [3494], 's_4_1': [1924], 8: [2176, 2179, 3477, 3476, 2177, 2178], 's_4_8': [3101, 3100], 11: [2075, 3971, 2165, 3866, 2149, 3535, 3536, 2148], 's_4_11': [1892], 's_4_13': [2011], 14: [2087, 2086, 2507, 2116, 2506, 3253, 3251, 3252], 's_4_14': [2131], 's_4_20': [3835], 28: [2522, 3328, 3327, 3326, 3325, 1833, 1832], 's_4_28': [3564], 16: [3956, 3957, 3940, 2297, 2298, 2299, 2300, 3941], 's_17_16': [3581], 18: [3522, 3521, 3506, 2030, 2029, 2028], 's_17_18': [3655], 25: [2477, 3386, 2671, 3385, 2476, 3387, 3268, 3269], 's_17_25': [3370], 27: [3836, 3642, 2195, 2194, 3641], 's_17_27': [3640], 's_17_28': [3490], 's_17_35': [3775], 's_17_37': [3310], 6: [3985, 2285, 3988, 3986, 3987], 's_19_6': [2180], 's_19_10': [2432], 's_19_16': [2255], 's_19_21': [3508, 3509, 2582], 's_19_26': [3568, 3569], 29: [2133, 3731, 2134], 's_19_29': [2135], 31: [1955, 2493, 2492, 2491, 3178, 3176, 3175, 1951, 3177, 1952, 1953, 1954], 's_19_31': [3910], 's_19_33': [3403], 's_20_1': [2060, 2059], 's_20_6': [2495], 's_20_16': [1985, 3850], 's_20_18': [3745], 's_20_21': [3793, 3794], 30: [2583, 2584, 3853, 3643, 2526, 3838, 2525], 's_20_30': [2540], 's_20_31': [3700], 32: [3434, 3433, 3432, 3566, 2267], 's_20_32': [2612], 's_20_33': [3464], 's_20_36': [2390], 's_20_37': [3674], 's_21_1': [2239], 's_21_6': [2465], 's_21_8': [3626], 's_21_13': [2523], 's_21_14': [2508], 's_21_16': [3958], 23: [3565, 3463, 3400, 2450, 2042, 2449, 2448, 3401, 3402, 2447], 's_21_23': [3898], 's_21_26': [2598], 's_21_27': [2283], 's_21_31': [3598], 's_21_35': [2599], 7: [2674, 3809, 2342, 3808, 3807, 2057, 3491, 3492, 2343, 2344], 's_35_7': [2764, 3764], 's_35_8': [2373], 's_35_10': [3732], 's_35_26': [2539], 's_35_30': [2375], 's_35_31': [3673], 34: [2509, 3703, 3701, 3702], 's_35_34': [2329], 's_36_1': [2600], 's_36_16': [2480], 's_36_39': [2315], 5: [2626, 3237, 3238], 's_37_5': [2596], 's_37_7': [2102], 's_37_13': [3419], 's_37_15': [2282], 's_37_28': [1876], 's_37_31': [3355], 38: [2192, 3625, 3282, 2013, 2012, 3281, 3280], 's_37_38': [2071], 's_37_40': [3449], 2: [3102, 2521, 3104, 3103], 's_39_2': [2325], 's_39_8': [2208], 's_39_11': [3972], 22: [2238, 3266, 2237, 2236], 's_39_22': [3312], 's_39_25': [2327], 's_39_27': [3852], 's_39_38': [3297], 's_1_8': [3791], 's_1_18': [2031], 's_1_27': [2196], 's_1_31': [4030], 's_1_34': [2088], 's_1_40': [4049], 's_10_18': [2328], 's_10_5': [3222], 's_10_14': [3267], 's_10_6': [2345], 's_10_7': [3462], 's_10_15': [3117], 24: [2146, 3207, 3206], 's_10_24': [2341], 's_10_32': [2463, 2462], 's_13_8': [2070, 3116, 2145], 's_13_31': [2445], 's_13_40': [3404], 's_13_14': [3133, 3132, 3131, 2115], 's_13_15': [3148], 's_13_24': [2191], 's_13_28': [2161, 2162], 's_13_32': [2732], 's_13_33': [2415], 's_15_40': [2717], 's_15_16': [3357], 's_15_28': [3313], 's_15_32': [2387], 's_15_38': [2416], 's_26_27': [2389], 's_26_2': [2760], 's_26_7': [2749], 's_26_30': [2570, 2569], 's_33_34': [3748], 's_33_5': [2326], 's_33_25': [2551], 's_33_24': [2400], 's_40_23': [2433], 's_40_25': [2701], 's_40_28': [3329], 's_8_14': [3296], 's_8_18': [3671], 's_8_22': [3461], 's_8_32': [3431], 's_11_31': [3865], 's_11_6': [2240], 9: [2104, 2105, 4001, 2269, 2270, 4003, 4002], 's_11_9': [2346, 4047, 4046], 's_11_16': [2090, 2089], 's_11_28': [1848], 's_11_29': [3806], 's_11_38': [1923], 's_14_18': [3550], 's_14_31': [2461], 's_14_2': [2505], 's_14_5': [2446], 's_14_7': [2117], 's_14_22': [2221], 's_14_28': [2281], 's_28_31': [3505], 's_28_7': [2056], 's_16_18': [2045, 3970], 's_16_27': [2210], 's_16_9': [2420], 's_16_29': [3776], 's_18_6': [2015], 's_18_23': [3460], 's_18_38': [3595], 's_25_2': [2716], 's_25_5': [2641], 's_25_22': [3371], 's_25_23': [3493], 's_25_24': [2147], 's_25_32': [2266], 's_25_38': [2401], 's_27_22': [3672], 's_6_23': [3973], 's_29_34': [2284], 's_29_32': [2268], 's_29_22': [3746], 's_31_2': [2250], 's_31_5': [2386], 's_31_23': [3613], 's_31_30': [2494], 's_31_38': [2101], 's_30_23': [4063], 's_30_7': [2419], 's_30_9': [2541], 's_32_23': [2222], 's_32_7': [3507], 's_23_34': [2043], 's_23_9': [4018], 12: [1982], 's_23_12': [3445], 's_23_22': [3416], 's_23_38': [2207], 's_7_9': [3792], 's_7_38': [3430], 's_34_9': [2510], 's_5_2': [2566], 's_38_12': [3295], 's_22_24': [2206]}</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0.001074561403508772</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.002116994906969356</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>{0: [1395, 1396], 2: [3215, 3216], 20: [3006, 3005, 1051, 1050], 36: [1337, 1397, 3409, 3411, 3410], 38: [1291, 3322, 1292], 40: [1111, 3184, 3186, 3185], 1: [1202, 1200, 1201], 9: [1261, 1155, 3156], 15: [1366, 3229, 3231, 3230], 17: [1171, 1170], 24: [3110, 1080, 1081, 1082], 32: [1305, 3307, 1306, 1307], 41: [3035, 3036, 1381, 1380], 7: [1066, 3080, 2991, 2990, 1065], 14: [3096, 3095], 16: [1021, 3245], 22: [3065, 3066], 26: [1097, 1096, 1095, 2976, 2975], 23: [1335, 3260, 3261, 1336], 25: [946, 3306, 3305, 947], 30: [1275, 1276, 3426, 1277], 34: [3140, 932, 931], 39: [3470, 1005, 1006, 3425, 1007], 4: [3276, 1245, 1246], 5: [3127, 1322, 1320, 1321], 10: [1127, 3320, 3321], 35: [1232, 3352, 1112, 3351], 37: [3111, 1231, 1230], 19: [3199, 3200], 21: [3337, 1247, 3336, 3335, 990, 991], 27: [1036, 3291, 3290], 13: [1278, 1382, 3471, 1427, 3472], 18: [3125, 3126, 1125, 1126], 29: [1083, 3456, 3455], 31: [3441, 1262, 3366], 33: [3170, 3172, 3171], 3: [1217, 1215, 1216], 28: [1426, 1425, 1260, 3081, 3082], 8: [1067, 1052, 3381, 3380], 6: [1185, 1186], 11: [1290, 1351, 1350, 3050, 3051], 12: [3364, 1140, 1141, 3365]}</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.009809720989845212</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.01445439017467526</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>{0: [1395, 1396], 2: [3215, 3216], 20: [3006, 3005, 1051, 1050], 36: [1337, 1397, 3409, 3411, 3410], 38: [1291, 3322, 1292], 40: [1111, 3184, 3186, 3185], 1: [1202, 1200, 1201], 9: [1261, 1155, 3156], 15: [1366, 3229, 3231, 3230], 17: [1171, 1170], 24: [3110, 1080, 1081, 1082], 32: [1305, 3307, 1306, 1307], 41: [3035, 3036, 1381, 1380], 7: [1066, 3080, 2991, 2990, 1065], 14: [3096, 3095], 16: [1021, 3245], 22: [3065, 3066], 26: [1097, 1096, 1095, 2976, 2975], 23: [1335, 3260, 3261, 1336], 25: [946, 3306, 3305, 947], 30: [1275, 1276, 3426, 1277], 34: [3140, 932, 931], 39: [3470, 1005, 1006, 3425, 1007], 4: [3276, 1245, 1246], 5: [3127, 1322, 1320, 1321], 10: [1127, 3320, 3321], 35: [1232, 3352, 1112, 3351], 37: [3111, 1231, 1230], 19: [3199, 3200], 21: [3337, 1247, 3336, 3335, 990, 991], 27: [1036, 3291, 3290], 13: [1278, 1382, 3471, 1427, 3472], 18: [3125, 3126, 1125, 1126], 29: [1083, 3456, 3455], 31: [3441, 1262, 3366], 33: [3170, 3172, 3171], 3: [1217, 1215, 1216], 28: [1426, 1425, 1260, 3081, 3082], 8: [1067, 1052, 3381, 3380], 6: [1185, 1186], 11: [1290, 1351, 1350, 3050, 3051], 12: [3364, 1140, 1141, 3365]}</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0.009809720989845212</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01445439017467526</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>{0: [4536, 1358, 4537], 2: [1163, 1151, 1150, 1149, 1148, 4476, 4475], 's_0_2': [4535], 20: [1268, 701, 4626, 1269, 4701, 4700, 4699, 4698, 699, 700], 's_0_20': [4551], 36: [1479, 1480, 5061, 5062, 1481], 's_0_36': [4598, 1523], 38: [805, 804, 803, 4564, 1375, 1374, 1373, 4491, 4490, 4489, 878], 's_0_38': [1208], 40: [1253, 1001, 1000, 999, 4521, 4520, 998], 's_0_40': [1223], 1: [4672, 715, 4671, 4670, 1434, 4669, 4668, 714, 4593], 's_2_1': [4655], 9: [1509, 1571, 4958, 1510, 4882, 4880, 1508, 4881], 's_2_9': [4477], 15: [5135, 5136, 5137, 1452, 1120, 1121, 4956, 4957, 1451], 's_2_15': [4971], 17: [1314, 1630, 1313, 4402, 4403, 1552, 4778, 1554, 1553], 's_2_17': [1403, 4447, 4446], 's_2_20': [4566], 24: [1272, 1271, 4744, 4745, 1270, 4746], 's_2_24': [5121], 32: [791, 5088, 5089, 5093, 5092, 5091, 5090], 's_2_32': [5106, 1256], 's_2_38': [1118], 's_2_40': [1133], 41: [4909, 4910, 4943, 4942, 1330, 4911], 's_2_41': [4895], 's_20_1': [4683], 7: [1238, 822, 4582, 821, 820, 4581, 4580, 954, 4879, 955], 's_20_7': [5013], 14: [1422, 4627, 1418, 1419, 5182, 4717, 1495, 1496, 5032, 1541], 's_20_14': [1404], 16: [1164, 4729, 4731, 4730], 's_20_16': [1209], 22: [5269, 4639, 1028, 1029, 5270, 1032, 1031, 1030], 's_20_22': [909], 26: [5196, 1389, 1390, 1392, 5122, 1391], 's_20_26': [4702], 's_20_32': [716], 's_20_40': [1104, 1103], 23: [4853, 4852, 4851, 5030, 1166, 4849, 1165, 4850], 's_36_23': [1196], 25: [1342, 1347, 1343, 1344, 1346, 1345], 's_36_25': [5046], 's_36_26': [4687], 30: [5014, 4925, 1091, 5015, 5018, 5017, 5016], 's_36_30': [1376], 34: [1463, 1466, 1465, 1464], 's_36_34': [4732], 39: [1210, 5077, 1061, 5075, 5076, 1212, 1211], 's_36_39': [1406], 4: [983, 984, 1646, 1645, 4793, 4792, 4790, 4791], 's_38_4': [4534], 5: [777, 4806, 776, 4939, 1255, 4941, 4940], 's_38_5': [806, 5058], 10: [4865, 1060, 1059, 4417, 4416, 4415, 1058], 's_38_10': [1372], 's_38_15': [4912], 's_38_23': [4848], 35: [4986, 926, 4985, 4984], 's_38_35': [4969], 37: [940, 4864, 835, 5302, 5301, 5300, 5299, 867, 866, 4954], 's_38_37': [4998], 's_38_40': [1013], 's_40_1': [4654], 's_40_4': [4474], 's_40_9': [4522], 's_40_15': [4955], 's_40_16': [4685], 's_40_17': [1298], 19: [1285, 1284, 4506, 1283], 's_40_19': [4431], 21: [4686, 1179, 1225, 834, 4818, 4820, 4819], 's_40_21': [1178], 27: [1073, 4775, 1075, 1074], 's_40_27': [4505], 's_40_32': [1016], 's_40_39': [5120], 's_1_7': [4878], 13: [5226, 5225, 5224, 897, 4788, 4789, 895, 896], 's_1_13': [669, 670], 's_1_14': [1494], 18: [971, 970, 4834, 972, 4835, 1329, 4777, 1420, 4837, 4836], 's_1_18': [4833], 's_1_19': [4656], 's_1_21': [1254], 's_1_22': [4638], 29: [4743, 579, 580, 581], 's_1_29': [4773], 31: [4625, 4624, 986, 5074, 4594, 879, 881, 880], 's_1_31': [924], 33: [1436, 4821, 1539, 4822, 1435], 's_1_33': [1359], 's_9_7': [4583], 's_9_14': [4492], 's_9_19': [4507], 's_9_22': [1045], 's_9_33': [4763], 3: [5243, 5242, 5241, 5239, 1135, 1136, 1137, 5240], 's_9_3': [1601, 1602], 's_9_15': [4987], 's_9_17': [4613], 28: [1302, 1615, 5107, 1497, 1616, 5108], 's_9_28': [5063], 's_9_30': [1511], 's_15_31': [1119], 8: [611, 582, 5151, 5150, 5148, 5149], 's_15_8': [942], 's_15_16': [4761], 's_15_25': [5152], 's_15_30': [5045], 's_15_34': [4897], 's_15_41': [1360], 's_17_14': [4748], 's_17_18': [4838], 's_17_19': [4371], 's_17_21': [1299], 's_17_33': [4688], 6: [4462, 4459, 4460, 4461], 's_17_6': [1522], 's_17_23': [1570], 's_17_28': [4823], 's_24_7': [819], 's_24_22': [894], 's_24_29': [4759, 4758], 's_24_10': [4866], 's_24_16': [864], 's_24_23': [5031], 's_24_26': [4747], 's_24_27': [969], 's_24_37': [1273], 's_24_41': [1286], 's_32_14': [5078], 's_32_33': [1361, 5047], 's_32_5': [5043], 's_32_8': [5087], 's_32_25': [1331], 's_41_7': [956], 's_41_18': [1555], 11: [1047, 5178, 911, 912, 5179], 's_41_11': [4894], 12: [4595, 5180, 4596, 1239, 4927, 4926, 1240, 1241, 1242, 5181], 's_41_12': [4928], 's_41_26': [4972], 's_41_28': [1600], 's_41_37': [790, 4908], 's_7_3': [837], 's_7_4': [968], 's_7_8': [5134], 's_7_11': [5163], 's_7_12': [939], 's_7_18': [5254], 's_7_19': [1328], 's_7_21': [865], 's_7_34': [4567], 's_14_4': [4973], 's_14_6': [1433], 's_14_12': [4611, 4612], 's_14_30': [1556], 's_14_37': [1437], 's_16_21': [4714], 's_16_25': [4716], 's_16_10': [4715], 's_16_27': [1090], 's_16_23': [910], 's_22_18': [5209], 's_22_3': [1077], 's_22_4': [4565], 's_22_6': [1043], 's_22_11': [5194], 's_22_37': [1093], 's_22_39': [5286, 1138], 's_26_33': [4867], 's_26_3': [1407], 's_26_25': [5166], 's_26_12': [1317], 's_26_28': [1467], 's_26_30': [1421], 's_26_39': [5195], 's_23_21': [1105], 's_23_31': [5029], 's_23_33': [5002, 1540], 's_23_30': [985], 's_23_37': [1167], 's_23_8': [1181], 's_25_18': [4762], 's_25_3': [1332], 's_25_6': [1327], 's_25_12': [4597], 's_25_35': [5001], 's_25_37': [5287], 's_30_13': [1106, 1107], 's_30_4': [1631], 's_30_11': [4924], 's_30_28': [1301], 's_30_5': [941], 's_30_27': [1076], 's_30_39': [4970], 's_34_33': [4807], 's_34_10': [1448, 1449], 's_39_13': [5210, 1182], 's_39_18': [5105, 1092], 's_39_35': [1046], 's_39_12': [1122], 's_4_18': [1450], 's_4_21': [4684], 's_4_33': [1524], 's_4_3': [1647], 's_4_5': [4776], 's_4_10': [982], 's_4_27': [1014], 's_4_28': [4898], 's_4_37': [4804], 's_5_18': [1300], 's_5_21': [4896], 's_5_33': [1315], 's_5_27': [775, 4774], 's_10_18': [1015], 's_10_31': [4550, 1089], 's_10_27': [4430], 's_10_37': [4760], 's_35_13': [4999], 's_35_31': [927, 5104], 's_35_3': [5000], 's_35_12': [1316], 's_35_37': [925], 's_37_18': [5059], 's_19_12': [4641], 's_19_21': [1194, 1193], 's_21_13': [760], 's_21_3': [4805], 's_27_31': [4640], 's_27_6': [4445], 's_27_12': [4610], 's_13_28': [5227], 's_13_29': [595], 's_13_31': [987], 's_29_8': [5042], 's_31_11': [882], 's_31_12': [1224], 's_33_12': [1405], 's_3_11': [852], 's_3_28': [1482], 's_8_12': [1257], 's_11_12': [5255, 1062]}</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0008577235772357724</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.001925984343580678</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>{0: [4536, 1358, 4537], 2: [1163, 1151, 1150, 1149, 1148, 4476, 4475], 's_0_2': [4535], 20: [1268, 701, 4626, 1269, 4701, 4700, 4699, 4698, 699, 700], 's_0_20': [4551], 36: [1479, 1480, 5061, 5062, 1481], 's_0_36': [4598, 1523], 38: [805, 804, 803, 4564, 1375, 1374, 1373, 4491, 4490, 4489, 878], 's_0_38': [1208], 40: [1253, 1001, 1000, 999, 4521, 4520, 998], 's_0_40': [1223], 1: [4672, 715, 4671, 4670, 1434, 4669, 4668, 714, 4593], 's_2_1': [4655], 9: [1509, 1571, 4958, 1510, 4882, 4880, 1508, 4881], 's_2_9': [4477], 15: [5135, 5136, 5137, 1452, 1120, 1121, 4956, 4957, 1451], 's_2_15': [4971], 17: [1314, 1630, 1313, 4402, 4403, 1552, 4778, 1554, 1553], 's_2_17': [1403, 4447, 4446], 's_2_20': [4566], 24: [1272, 1271, 4744, 4745, 1270, 4746], 's_2_24': [5121], 32: [791, 5088, 5089, 5093, 5092, 5091, 5090], 's_2_32': [5106, 1256], 's_2_38': [1118], 's_2_40': [1133], 41: [4909, 4910, 4943, 4942, 1330, 4911], 's_2_41': [4895], 's_20_1': [4683], 7: [1238, 822, 4582, 821, 820, 4581, 4580, 954, 4879, 955], 's_20_7': [5013], 14: [1422, 4627, 1418, 1419, 5182, 4717, 1495, 1496, 5032, 1541], 's_20_14': [1404], 16: [1164, 4729, 4731, 4730], 's_20_16': [1209], 22: [5269, 4639, 1028, 1029, 5270, 1032, 1031, 1030], 's_20_22': [909], 26: [5196, 1389, 1390, 1392, 5122, 1391], 's_20_26': [4702], 's_20_32': [716], 's_20_40': [1104, 1103], 23: [4853, 4852, 4851, 5030, 1166, 4849, 1165, 4850], 's_36_23': [1196], 25: [1342, 1347, 1343, 1344, 1346, 1345], 's_36_25': [5046], 's_36_26': [4687], 30: [5014, 4925, 1091, 5015, 5018, 5017, 5016], 's_36_30': [1376], 34: [1463, 1466, 1465, 1464], 's_36_34': [4732], 39: [1210, 5077, 1061, 5075, 5076, 1212, 1211], 's_36_39': [1406], 4: [983, 984, 1646, 1645, 4793, 4792, 4790, 4791], 's_38_4': [4534], 5: [777, 4806, 776, 4939, 1255, 4941, 4940], 's_38_5': [806, 5058], 10: [4865, 1060, 1059, 4417, 4416, 4415, 1058], 's_38_10': [1372], 's_38_15': [4912], 's_38_23': [4848], 35: [4986, 926, 4985, 4984], 's_38_35': [4969], 37: [940, 4864, 835, 5302, 5301, 5300, 5299, 867, 866, 4954], 's_38_37': [4998], 's_38_40': [1013], 's_40_1': [4654], 's_40_4': [4474], 's_40_9': [4522], 's_40_15': [4955], 's_40_16': [4685], 's_40_17': [1298], 19: [1285, 1284, 4506, 1283], 's_40_19': [4431], 21: [4686, 1179, 1225, 834, 4818, 4820, 4819], 's_40_21': [1178], 27: [1073, 4775, 1075, 1074], 's_40_27': [4505], 's_40_32': [1016], 's_40_39': [5120], 's_1_7': [4878], 13: [5226, 5225, 5224, 897, 4788, 4789, 895, 896], 's_1_13': [669, 670], 's_1_14': [1494], 18: [971, 970, 4834, 972, 4835, 1329, 4777, 1420, 4837, 4836], 's_1_18': [4833], 's_1_19': [4656], 's_1_21': [1254], 's_1_22': [4638], 29: [4743, 579, 580, 581], 's_1_29': [4773], 31: [4625, 4624, 986, 5074, 4594, 879, 881, 880], 's_1_31': [924], 33: [1436, 4821, 1539, 4822, 1435], 's_1_33': [1359], 's_9_7': [4583], 's_9_14': [4492], 's_9_19': [4507], 's_9_22': [1045], 's_9_33': [4763], 3: [5243, 5242, 5241, 5239, 1135, 1136, 1137, 5240], 's_9_3': [1601, 1602], 's_9_15': [4987], 's_9_17': [4613], 28: [1302, 1615, 5107, 1497, 1616, 5108], 's_9_28': [5063], 's_9_30': [1511], 's_15_31': [1119], 8: [611, 582, 5151, 5150, 5148, 5149], 's_15_8': [942], 's_15_16': [4761], 's_15_25': [5152], 's_15_30': [5045], 's_15_34': [4897], 's_15_41': [1360], 's_17_14': [4748], 's_17_18': [4838], 's_17_19': [4371], 's_17_21': [1299], 's_17_33': [4688], 6: [4462, 4459, 4460, 4461], 's_17_6': [1522], 's_17_23': [1570], 's_17_28': [4823], 's_24_7': [819], 's_24_22': [894], 's_24_29': [4759, 4758], 's_24_10': [4866], 's_24_16': [864], 's_24_23': [5031], 's_24_26': [4747], 's_24_27': [969], 's_24_37': [1273], 's_24_41': [1286], 's_32_14': [5078], 's_32_33': [1361, 5047], 's_32_5': [5043], 's_32_8': [5087], 's_32_25': [1331], 's_41_7': [956], 's_41_18': [1555], 11: [1047, 5178, 911, 912, 5179], 's_41_11': [4894], 12: [4595, 5180, 4596, 1239, 4927, 4926, 1240, 1241, 1242, 5181], 's_41_12': [4928], 's_41_26': [4972], 's_41_28': [1600], 's_41_37': [790, 4908], 's_7_3': [837], 's_7_4': [968], 's_7_8': [5134], 's_7_11': [5163], 's_7_12': [939], 's_7_18': [5254], 's_7_19': [1328], 's_7_21': [865], 's_7_34': [4567], 's_14_4': [4973], 's_14_6': [1433], 's_14_12': [4611, 4612], 's_14_30': [1556], 's_14_37': [1437], 's_16_21': [4714], 's_16_25': [4716], 's_16_10': [4715], 's_16_27': [1090], 's_16_23': [910], 's_22_18': [5209], 's_22_3': [1077], 's_22_4': [4565], 's_22_6': [1043], 's_22_11': [5194], 's_22_37': [1093], 's_22_39': [5286, 1138], 's_26_33': [4867], 's_26_3': [1407], 's_26_25': [5166], 's_26_12': [1317], 's_26_28': [1467], 's_26_30': [1421], 's_26_39': [5195], 's_23_21': [1105], 's_23_31': [5029], 's_23_33': [5002, 1540], 's_23_30': [985], 's_23_37': [1167], 's_23_8': [1181], 's_25_18': [4762], 's_25_3': [1332], 's_25_6': [1327], 's_25_12': [4597], 's_25_35': [5001], 's_25_37': [5287], 's_30_13': [1106, 1107], 's_30_4': [1631], 's_30_11': [4924], 's_30_28': [1301], 's_30_5': [941], 's_30_27': [1076], 's_30_39': [4970], 's_34_33': [4807], 's_34_10': [1448, 1449], 's_39_13': [5210, 1182], 's_39_18': [5105, 1092], 's_39_35': [1046], 's_39_12': [1122], 's_4_18': [1450], 's_4_21': [4684], 's_4_33': [1524], 's_4_3': [1647], 's_4_5': [4776], 's_4_10': [982], 's_4_27': [1014], 's_4_28': [4898], 's_4_37': [4804], 's_5_18': [1300], 's_5_21': [4896], 's_5_33': [1315], 's_5_27': [775, 4774], 's_10_18': [1015], 's_10_31': [4550, 1089], 's_10_27': [4430], 's_10_37': [4760], 's_35_13': [4999], 's_35_31': [927, 5104], 's_35_3': [5000], 's_35_12': [1316], 's_35_37': [925], 's_37_18': [5059], 's_19_12': [4641], 's_19_21': [1194, 1193], 's_21_13': [760], 's_21_3': [4805], 's_27_31': [4640], 's_27_6': [4445], 's_27_12': [4610], 's_13_28': [5227], 's_13_29': [595], 's_13_31': [987], 's_29_8': [5042], 's_31_11': [882], 's_31_12': [1224], 's_33_12': [1405], 's_3_11': [852], 's_3_28': [1482], 's_8_12': [1257], 's_11_12': [5255, 1062]}</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0.0008577235772357724</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.001925984343580678</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>{0: [456, 4441, 457], 2: [261, 4201, 4202], 6: [547, 4247], 14: [426, 4382, 4531, 428, 427], 16: [458, 4576, 4577], 28: [4352, 277, 4351], 29: [4321, 607, 4322], 31: [549, 4396, 548, 4397], 37: [4187, 4186, 217, 4185], 40: [351, 4546, 353, 352], 41: [4381, 336, 338, 337], 3: [4275, 4276, 668, 667, 4277], 9: [4232, 4231], 11: [323, 4246, 322], 27: [4411, 441, 442, 4412], 30: [4606, 262, 263], 34: [4457, 397, 4455, 398, 4456], 36: [4291, 367], 5: [4216, 564, 563, 562, 4217], 17: [4532, 471, 472, 473], 19: [4472, 487, 488, 4470, 4471], 20: [4547, 501, 503, 502], 38: [518, 517], 4: [4290, 293, 292], 7: [384, 382, 383, 4366], 8: [534, 533, 532, 531], 13: [621, 4383, 623, 622], 21: [218, 4487, 4485, 4486], 22: [4591, 4592], 23: [4502, 4501, 369, 368], 35: [577, 4172, 4171], 12: [4260, 172, 4336, 4335], 18: [308, 307], 24: [4426, 232, 233], 33: [4305, 4306, 413, 412], 10: [4233, 4261, 4262, 606], 25: [4563, 4517, 608], 39: [4561, 443, 4562], 26: [411, 4142, 4141, 276], 42: [4125, 246, 247, 248], 15: [669, 4608, 4607, 399], 32: [4545, 4230, 158, 157], 1: [593, 4367]}</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01592223452688569</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01738376795912792</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>{0: [456, 4441, 457], 2: [261, 4201, 4202], 6: [547, 4247], 14: [426, 4382, 4531, 428, 427], 16: [458, 4576, 4577], 28: [4352, 277, 4351], 29: [4321, 607, 4322], 31: [549, 4396, 548, 4397], 37: [4187, 4186, 217, 4185], 40: [351, 4546, 353, 352], 41: [4381, 336, 338, 337], 3: [4275, 4276, 668, 667, 4277], 9: [4232, 4231], 11: [323, 4246, 322], 27: [4411, 441, 442, 4412], 30: [4606, 262, 263], 34: [4457, 397, 4455, 398, 4456], 36: [4291, 367], 5: [4216, 564, 563, 562, 4217], 17: [4532, 471, 472, 473], 19: [4472, 487, 488, 4470, 4471], 20: [4547, 501, 503, 502], 38: [518, 517], 4: [4290, 293, 292], 7: [384, 382, 383, 4366], 8: [534, 533, 532, 531], 13: [621, 4383, 623, 622], 21: [218, 4487, 4485, 4486], 22: [4591, 4592], 23: [4502, 4501, 369, 368], 35: [577, 4172, 4171], 12: [4260, 172, 4336, 4335], 18: [308, 307], 24: [4426, 232, 233], 33: [4305, 4306, 413, 412], 10: [4233, 4261, 4262, 606], 25: [4563, 4517, 608], 39: [4561, 443, 4562], 26: [411, 4142, 4141, 276], 42: [4125, 246, 247, 248], 15: [669, 4608, 4607, 399], 32: [4545, 4230, 158, 157], 1: [593, 4367]}</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0.01592223452688569</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01738376795912792</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>{0: [3468, 3844, 3977, 889, 753, 754, 770, 755, 3978], 2: [3768, 817, 816, 815, 814, 3829, 3574, 979, 978], 's_0_2': [3573], 6: [1565, 1564, 1563, 3469, 887, 3364, 3365, 3366, 888, 3367, 1562], 's_0_6': [3604, 3603], 14: [1202, 1088, 3544, 3545, 1203, 1205, 4026, 740, 3933, 3934, 1204, 980, 4025, 1086, 1087], 's_0_14': [3813], 16: [3512, 3513, 738, 737, 1141, 3380, 3379, 752, 3378], 's_0_16': [723], 28: [953, 3815, 3814, 950, 4294, 952, 951], 's_0_28': [859], 29: [3350, 3409, 3872, 1037, 1038, 3873, 3874, 3875, 1040, 1039], 's_0_29': [3484, 3485], 31: [876, 797, 799, 783, 784, 3892, 875, 3891, 798, 3890, 3889], 's_0_31': [3709], 37: [4008, 652, 4207, 4206, 4208, 1132, 771, 772, 4323, 4324, 4325], 's_0_37': [680], 40: [1117, 1118, 4355, 4354, 923, 4399, 4398, 4397, 483, 484, 485, 486, 487], 's_0_40': [3962], 41: [878, 1146, 1147, 4386, 620, 621, 622, 4428, 4429, 4430, 4431, 1283, 4491, 4492], 's_0_41': [593, 4352, 517, 516, 515], 3: [4308, 4371, 4369, 1236, 727, 1234, 4370, 1237, 1235, 4309, 997, 3696], 's_2_3': [4249, 801, 802], 's_2_6': [933], 9: [965, 1445, 3965, 3966, 3964, 3907, 3967, 1446, 1447, 1448], 's_2_9': [905], 11: [3333, 3334, 709, 710, 3828, 711, 4218, 712, 708, 707], 's_2_11': [3753], 's_2_14': [918], 27: [3995, 4012, 4459, 4460, 1415, 4458, 1162, 1385, 1116, 1386, 4131, 4130, 1161], 's_2_27': [3994], 30: [3680, 4504, 934, 935, 936, 4415, 938, 937], 's_2_30': [3919], 34: [4263, 1382, 4265, 1220, 4264, 1219, 3740, 3741, 1384, 1383, 1188, 1221, 1222], 's_2_34': [3590, 3589], 36: [3904, 1025, 741, 4038, 4039, 1160, 4041, 4040], 's_2_36': [4098], 's_2_40': [739, 3677, 3678], 5: [1418, 1417, 1416, 3336, 1247, 1248, 3591, 3592, 1548, 1549, 4101, 1550, 4102], 's_6_5': [3653], 's_6_9': [3968], 's_6_11': [3363], 17: [3935, 1100, 1099, 1534, 3757, 3756, 1098, 3755], 's_6_17': [3893], 19: [3588, 3562, 891, 1428, 1430, 1431, 1429, 828, 830, 4072, 4071, 829, 4070, 4069], 's_6_19': [3577], 20: [4176, 1341, 3846, 1474, 3683, 1339, 3847, 1340, 3816, 3682, 1337, 1338, 3936], 's_6_20': [1336], 's_6_29': [947], 38: [3922, 1519, 1518, 1517, 3442, 3441, 1172, 3560, 991, 3559, 992], 's_6_38': [1307], 's_14_3': [1103], 4: [4024, 921, 982, 981, 4159], 's_14_4': [4009], 's_14_5': [3516], 7: [3425, 1053, 1505, 1506, 4192, 4191, 4190, 1052, 1056, 3424, 1054, 1055], 's_14_7': [1007], 8: [994, 993, 3621, 3712, 3711, 1158, 3620], 's_14_8': [873, 3619], 's_14_9': [3979], 's_14_11': [3843], 13: [3502, 3501, 1130, 3950, 1129, 1128], 's_14_13': [3531], 's_14_20': [3426], 21: [906, 4073, 1535, 1177, 4143, 4144, 4145, 1490, 1176, 1491, 4147, 4146], 's_14_21': [1281], 22: [3576, 3575, 3801, 1083, 3800, 1084], 's_14_22': [1114, 1113], 23: [1324, 1325, 4086, 4084, 4083, 696, 3877, 697, 698, 4082, 4085], 's_14_23': [3949, 785, 3948], 's_14_31': [845], 35: [3785, 1264, 3786, 1399, 3727, 3726], 's_14_35': [3636], 's_14_37': [1102], 's_14_38': [3410], 's_14_40': [4340], 's_16_5': [1112], 's_16_11': [781], 's_16_19': [3408, 827], 's_16_38': [1006], 's_16_40': [3527, 3528], 's_28_7': [4189], 's_28_8': [1009], 12: [575, 576, 4296, 1282, 4221, 4128, 4127, 4113, 4220, 846, 4219], 's_28_12': [922], 18: [663, 3587, 558, 863, 559, 560, 561, 562, 4292, 4234, 862, 4293], 's_28_18': [4444, 4443], 's_28_20': [3845], 24: [4205, 4579, 4235, 4580, 1071, 1072, 1074, 1073], 's_28_24': [954, 4610], 's_28_29': [3830], 33: [4056, 4055, 4277, 4278, 1026, 4175, 4279, 682, 996], 's_28_33': [1042], 's_28_40': [4489, 893], 's_28_41': [4295], 10: [1232, 3876, 1250, 3411, 1295, 1296, 1297, 1353, 1298, 3906, 1354, 1352], 's_29_10': [3351], 's_29_12': [590], 's_29_17': [3500], 's_29_18': [3887], 25: [843, 842, 977, 3438, 3439], 's_29_25': [872], 's_29_27': [4010], 's_29_38': [3335], 's_31_4': [4099], 's_31_7': [3423], 's_31_17': [1085], 's_31_19': [3723], 's_31_23': [695, 3903], 's_31_25': [3679], 's_31_27': [1115], 's_31_34': [877], 39: [3648, 3649, 3650, 3651, 1309, 4162, 4163, 1626, 1625, 1624, 3668, 3667], 's_31_39': [1310], 's_37_3': [787], 's_37_4': [4054], 's_37_5': [1566], 's_37_10': [4326], 's_37_11': [4368], 's_37_21': [1596], 's_37_24': [1027, 4385], 26: [1191, 1475, 1476, 1477, 1057, 4280, 4281, 1190, 4282], 's_37_26': [1536], 's_37_40': [4322], 42: [4446, 4266, 1371, 4115, 1372, 4252, 4116, 3802, 4114, 1370, 1369], 's_37_42': [1326], 's_40_7': [812, 3541, 3542, 3543], 15: [3695, 3797, 3798, 1069, 1068, 964, 3860, 3799, 3725, 3530], 's_40_15': [3857, 3859, 3858], 's_40_18': [4037], 's_40_23': [4007, 605], 's_40_26': [4310], 's_40_27': [4519, 848], 's_41_5': [1433], 's_41_7': [4160], 's_41_9': [1508, 4522], 's_41_10': [1313], 's_41_11': [4233], 's_41_12': [3932], 's_41_23': [4413], 's_41_24': [4549, 968], 's_41_26': [1058], 's_41_33': [773, 4353, 637], 's_41_34': [4401], 's_41_42': [1388], 's_3_5': [1251], 's_3_8': [1173], 's_3_19': [3697], 's_3_20': [3981], 's_3_11': [832, 4339, 4338], 's_3_12': [757], 's_3_15': [3861], 's_3_21': [1192], 32: [966, 4174, 666, 4173], 's_3_32': [4203], 's_3_33': [4307], 's_3_35': [1279], 's_9_20': [3937], 's_9_7': [1462], 's_9_10': [1265], 's_9_17': [1444], 's_9_32': [665, 3963], 's_11_12': [606], 's_11_23': [713], 's_11_33': [4383], 's_11_36': [742], 's_27_20': [1355], 's_27_34': [4236], 's_27_38': [1461, 1460], 's_27_10': [3921], 's_27_24': [4445], 's_27_26': [1551, 4132], 's_27_36': [1010], 's_27_39': [1401], 's_27_42': [4251], 's_30_19': [3784], 's_30_34': [3739], 's_30_15': [3724], 's_30_21': [4416], 's_30_23': [4503], 's_30_24': [939], 's_30_32': [967], 's_30_39': [949], 's_30_42': [4129], 1: [3517, 1293, 3472, 1443], 's_34_1': [3532], 's_34_8': [3681], 's_34_19': [3561], 's_34_10': [3396], 's_34_15': [1143], 's_34_18': [847], 's_34_23': [1206], 's_34_35': [3787], 's_34_36': [4100], 's_34_38': [1187, 3486], 's_34_42': [3771], 's_36_7': [1159, 3770], 's_36_12': [591], 's_36_17': [1101], 's_36_23': [726, 4023], 's_36_33': [1145], 's_5_1': [1488], 's_5_8': [1233], 's_5_10': [4432], 's_5_17': [3788], 's_5_21': [4028], 's_5_22': [1398], 's_5_39': [1578], 's_5_42': [4237], 's_17_8': [3710], 's_17_13': [3470], 's_17_15': [3754], 's_17_21': [1504, 3832], 's_17_23': [3878], 's_17_22': [1144], 's_17_26': [1189], 's_17_39': [1579, 3833], 's_19_1': [1458], 's_19_7': [3952], 's_19_10': [4222], 's_19_18': [892], 's_19_20': [1413], 's_19_21': [3982], 's_19_24': [4204], 's_19_25': [858], 's_19_33': [1266], 's_19_38': [1502], 's_20_1': [1294], 's_20_13': [1322], 's_20_10': [3862], 's_20_23': [3996], 's_20_26': [3848], 's_20_33': [4057], 's_20_35': [1459], 's_38_1': [3457], 's_38_10': [3652], 's_38_21': [3863], 's_38_25': [3305, 976], 's_4_12': [756], 's_4_33': [1011, 1012, 4400], 's_4_23': [861], 's_7_21': [4087], 's_7_35': [1312, 1311, 4042, 1400], 's_7_22': [1082], 's_7_39': [3635], 's_8_1': [3606], 's_8_10': [3622], 's_8_22': [1249], 's_8_35': [1414], 's_8_39': [1023], 's_13_1': [3456, 3455], 's_13_10': [1397], 's_13_15': [3666, 3665], 's_13_26': [1175], 's_13_35': [1263], 's_21_23': [681], 's_21_32': [636], 's_21_39': [1489], 's_21_42': [4357, 4356], 's_22_15': [3515], 's_22_23': [1323], 's_22_42': [1368], 's_23_33': [995], 's_23_24': [4578], 's_35_10': [1174], 's_12_10': [4311], 's_12_18': [786], 's_12_26': [4297], 's_12_32': [4068], 's_12_42': [1357], 's_18_39': [648], 's_18_24': [4564], 's_33_32': [667], 's_33_26': [4250], 's_33_42': [1041], 's_25_15': [3529], 's_25_39': [3634], 's_39_15': [724], 's_26_42': [3817]}</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.001351254480286738</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.002229353224915558</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>{0: [3468, 3844, 3977, 889, 753, 754, 770, 755, 3978], 2: [3768, 817, 816, 815, 814, 3829, 3574, 979, 978], 's_0_2': [3573], 6: [1565, 1564, 1563, 3469, 887, 3364, 3365, 3366, 888, 3367, 1562], 's_0_6': [3604, 3603], 14: [1202, 1088, 3544, 3545, 1203, 1205, 4026, 740, 3933, 3934, 1204, 980, 4025, 1086, 1087], 's_0_14': [3813], 16: [3512, 3513, 738, 737, 1141, 3380, 3379, 752, 3378], 's_0_16': [723], 28: [953, 3815, 3814, 950, 4294, 952, 951], 's_0_28': [859], 29: [3350, 3409, 3872, 1037, 1038, 3873, 3874, 3875, 1040, 1039], 's_0_29': [3484, 3485], 31: [876, 797, 799, 783, 784, 3892, 875, 3891, 798, 3890, 3889], 's_0_31': [3709], 37: [4008, 652, 4207, 4206, 4208, 1132, 771, 772, 4323, 4324, 4325], 's_0_37': [680], 40: [1117, 1118, 4355, 4354, 923, 4399, 4398, 4397, 483, 484, 485, 486, 487], 's_0_40': [3962], 41: [878, 1146, 1147, 4386, 620, 621, 622, 4428, 4429, 4430, 4431, 1283, 4491, 4492], 's_0_41': [593, 4352, 517, 516, 515], 3: [4308, 4371, 4369, 1236, 727, 1234, 4370, 1237, 1235, 4309, 997, 3696], 's_2_3': [4249, 801, 802], 's_2_6': [933], 9: [965, 1445, 3965, 3966, 3964, 3907, 3967, 1446, 1447, 1448], 's_2_9': [905], 11: [3333, 3334, 709, 710, 3828, 711, 4218, 712, 708, 707], 's_2_11': [3753], 's_2_14': [918], 27: [3995, 4012, 4459, 4460, 1415, 4458, 1162, 1385, 1116, 1386, 4131, 4130, 1161], 's_2_27': [3994], 30: [3680, 4504, 934, 935, 936, 4415, 938, 937], 's_2_30': [3919], 34: [4263, 1382, 4265, 1220, 4264, 1219, 3740, 3741, 1384, 1383, 1188, 1221, 1222], 's_2_34': [3590, 3589], 36: [3904, 1025, 741, 4038, 4039, 1160, 4041, 4040], 's_2_36': [4098], 's_2_40': [739, 3677, 3678], 5: [1418, 1417, 1416, 3336, 1247, 1248, 3591, 3592, 1548, 1549, 4101, 1550, 4102], 's_6_5': [3653], 's_6_9': [3968], 's_6_11': [3363], 17: [3935, 1100, 1099, 1534, 3757, 3756, 1098, 3755], 's_6_17': [3893], 19: [3588, 3562, 891, 1428, 1430, 1431, 1429, 828, 830, 4072, 4071, 829, 4070, 4069], 's_6_19': [3577], 20: [4176, 1341, 3846, 1474, 3683, 1339, 3847, 1340, 3816, 3682, 1337, 1338, 3936], 's_6_20': [1336], 's_6_29': [947], 38: [3922, 1519, 1518, 1517, 3442, 3441, 1172, 3560, 991, 3559, 992], 's_6_38': [1307], 's_14_3': [1103], 4: [4024, 921, 982, 981, 4159], 's_14_4': [4009], 's_14_5': [3516], 7: [3425, 1053, 1505, 1506, 4192, 4191, 4190, 1052, 1056, 3424, 1054, 1055], 's_14_7': [1007], 8: [994, 993, 3621, 3712, 3711, 1158, 3620], 's_14_8': [873, 3619], 's_14_9': [3979], 's_14_11': [3843], 13: [3502, 3501, 1130, 3950, 1129, 1128], 's_14_13': [3531], 's_14_20': [3426], 21: [906, 4073, 1535, 1177, 4143, 4144, 4145, 1490, 1176, 1491, 4147, 4146], 's_14_21': [1281], 22: [3576, 3575, 3801, 1083, 3800, 1084], 's_14_22': [1114, 1113], 23: [1324, 1325, 4086, 4084, 4083, 696, 3877, 697, 698, 4082, 4085], 's_14_23': [3949, 785, 3948], 's_14_31': [845], 35: [3785, 1264, 3786, 1399, 3727, 3726], 's_14_35': [3636], 's_14_37': [1102], 's_14_38': [3410], 's_14_40': [4340], 's_16_5': [1112], 's_16_11': [781], 's_16_19': [3408, 827], 's_16_38': [1006], 's_16_40': [3527, 3528], 's_28_7': [4189], 's_28_8': [1009], 12: [575, 576, 4296, 1282, 4221, 4128, 4127, 4113, 4220, 846, 4219], 's_28_12': [922], 18: [663, 3587, 558, 863, 559, 560, 561, 562, 4292, 4234, 862, 4293], 's_28_18': [4444, 4443], 's_28_20': [3845], 24: [4205, 4579, 4235, 4580, 1071, 1072, 1074, 1073], 's_28_24': [954, 4610], 's_28_29': [3830], 33: [4056, 4055, 4277, 4278, 1026, 4175, 4279, 682, 996], 's_28_33': [1042], 's_28_40': [4489, 893], 's_28_41': [4295], 10: [1232, 3876, 1250, 3411, 1295, 1296, 1297, 1353, 1298, 3906, 1354, 1352], 's_29_10': [3351], 's_29_12': [590], 's_29_17': [3500], 's_29_18': [3887], 25: [843, 842, 977, 3438, 3439], 's_29_25': [872], 's_29_27': [4010], 's_29_38': [3335], 's_31_4': [4099], 's_31_7': [3423], 's_31_17': [1085], 's_31_19': [3723], 's_31_23': [695, 3903], 's_31_25': [3679], 's_31_27': [1115], 's_31_34': [877], 39: [3648, 3649, 3650, 3651, 1309, 4162, 4163, 1626, 1625, 1624, 3668, 3667], 's_31_39': [1310], 's_37_3': [787], 's_37_4': [4054], 's_37_5': [1566], 's_37_10': [4326], 's_37_11': [4368], 's_37_21': [1596], 's_37_24': [1027, 4385], 26: [1191, 1475, 1476, 1477, 1057, 4280, 4281, 1190, 4282], 's_37_26': [1536], 's_37_40': [4322], 42: [4446, 4266, 1371, 4115, 1372, 4252, 4116, 3802, 4114, 1370, 1369], 's_37_42': [1326], 's_40_7': [812, 3541, 3542, 3543], 15: [3695, 3797, 3798, 1069, 1068, 964, 3860, 3799, 3725, 3530], 's_40_15': [3857, 3859, 3858], 's_40_18': [4037], 's_40_23': [4007, 605], 's_40_26': [4310], 's_40_27': [4519, 848], 's_41_5': [1433], 's_41_7': [4160], 's_41_9': [1508, 4522], 's_41_10': [1313], 's_41_11': [4233], 's_41_12': [3932], 's_41_23': [4413], 's_41_24': [4549, 968], 's_41_26': [1058], 's_41_33': [773, 4353, 637], 's_41_34': [4401], 's_41_42': [1388], 's_3_5': [1251], 's_3_8': [1173], 's_3_19': [3697], 's_3_20': [3981], 's_3_11': [832, 4339, 4338], 's_3_12': [757], 's_3_15': [3861], 's_3_21': [1192], 32: [966, 4174, 666, 4173], 's_3_32': [4203], 's_3_33': [4307], 's_3_35': [1279], 's_9_20': [3937], 's_9_7': [1462], 's_9_10': [1265], 's_9_17': [1444], 's_9_32': [665, 3963], 's_11_12': [606], 's_11_23': [713], 's_11_33': [4383], 's_11_36': [742], 's_27_20': [1355], 's_27_34': [4236], 's_27_38': [1461, 1460], 's_27_10': [3921], 's_27_24': [4445], 's_27_26': [1551, 4132], 's_27_36': [1010], 's_27_39': [1401], 's_27_42': [4251], 's_30_19': [3784], 's_30_34': [3739], 's_30_15': [3724], 's_30_21': [4416], 's_30_23': [4503], 's_30_24': [939], 's_30_32': [967], 's_30_39': [949], 's_30_42': [4129], 1: [3517, 1293, 3472, 1443], 's_34_1': [3532], 's_34_8': [3681], 's_34_19': [3561], 's_34_10': [3396], 's_34_15': [1143], 's_34_18': [847], 's_34_23': [1206], 's_34_35': [3787], 's_34_36': [4100], 's_34_38': [1187, 3486], 's_34_42': [3771], 's_36_7': [1159, 3770], 's_36_12': [591], 's_36_17': [1101], 's_36_23': [726, 4023], 's_36_33': [1145], 's_5_1': [1488], 's_5_8': [1233], 's_5_10': [4432], 's_5_17': [3788], 's_5_21': [4028], 's_5_22': [1398], 's_5_39': [1578], 's_5_42': [4237], 's_17_8': [3710], 's_17_13': [3470], 's_17_15': [3754], 's_17_21': [1504, 3832], 's_17_23': [3878], 's_17_22': [1144], 's_17_26': [1189], 's_17_39': [1579, 3833], 's_19_1': [1458], 's_19_7': [3952], 's_19_10': [4222], 's_19_18': [892], 's_19_20': [1413], 's_19_21': [3982], 's_19_24': [4204], 's_19_25': [858], 's_19_33': [1266], 's_19_38': [1502], 's_20_1': [1294], 's_20_13': [1322], 's_20_10': [3862], 's_20_23': [3996], 's_20_26': [3848], 's_20_33': [4057], 's_20_35': [1459], 's_38_1': [3457], 's_38_10': [3652], 's_38_21': [3863], 's_38_25': [3305, 976], 's_4_12': [756], 's_4_33': [1011, 1012, 4400], 's_4_23': [861], 's_7_21': [4087], 's_7_35': [1312, 1311, 4042, 1400], 's_7_22': [1082], 's_7_39': [3635], 's_8_1': [3606], 's_8_10': [3622], 's_8_22': [1249], 's_8_35': [1414], 's_8_39': [1023], 's_13_1': [3456, 3455], 's_13_10': [1397], 's_13_15': [3666, 3665], 's_13_26': [1175], 's_13_35': [1263], 's_21_23': [681], 's_21_32': [636], 's_21_39': [1489], 's_21_42': [4357, 4356], 's_22_15': [3515], 's_22_23': [1323], 's_22_42': [1368], 's_23_33': [995], 's_23_24': [4578], 's_35_10': [1174], 's_12_10': [4311], 's_12_18': [786], 's_12_26': [4297], 's_12_32': [4068], 's_12_42': [1357], 's_18_39': [648], 's_18_24': [4564], 's_33_32': [667], 's_33_26': [4250], 's_33_42': [1041], 's_25_15': [3529], 's_25_39': [3634], 's_39_15': [724], 's_26_42': [3817]}</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0.001351254480286738</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.002229353224915558</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>{0: [808, 5386, 5388, 5387], 2: [5550, 507, 508, 509, 5551], 6: [432, 5297, 718, 5298, 717], 12: [5432, 5433], 13: [388, 254, 253, 5400, 5401], 16: [464, 463], 22: [5266, 583, 5267], 33: [5568, 702, 764, 763, 5268], 43: [703, 704, 5492, 5493], 1: [269, 267, 5491, 268], 4: [5595, 5596, 5597, 5598, 779], 10: [5328, 688, 5627, 5628, 689], 14: [224, 5506, 5507, 657, 658, 5508], 19: [5461, 372, 373, 374], 20: [328, 329], 21: [5311, 297, 628, 5236, 627, 5237], 28: [492, 494, 493], 37: [327, 5190, 687, 5192, 5191, 462], 38: [5520, 359, 5521], 42: [749, 5446, 5447, 5448], 7: [5535, 5356, 5355, 5565, 194, 193], 30: [5522, 642, 643], 34: [672, 5206, 5207], 40: [734, 733, 5312, 5313], 11: [5463, 5357, 673], 41: [5462, 539, 538], 17: [5402, 5613, 794, 5403, 793], 23: [252, 5220, 5221, 5223, 5222], 25: [5431, 447, 448], 32: [5580, 5581, 5583, 5582], 15: [674, 5566, 5567], 24: [5416, 5417, 778, 777, 5418], 26: [719, 478, 5538, 5536, 5537], 29: [612, 5641, 613, 614, 5642, 5643], 31: [5370, 5371, 5372, 568], 5: [5340, 419, 418, 477, 5341], 27: [5251, 748, 5252, 5253], 39: [387, 314, 313, 312, 5146], 35: [598, 5283], 3: [299, 5611, 5552, 524, 5612], 9: [5476, 569, 5478, 5477], 18: [402, 5327, 404, 403], 8: [5281, 537, 554, 553, 5282], 36: [567, 597, 656, 5176, 5177]}</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.006622058144900785</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.01192931335358543</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>{0: [808, 5386, 5388, 5387], 2: [5550, 507, 508, 509, 5551], 6: [432, 5297, 718, 5298, 717], 12: [5432, 5433], 13: [388, 254, 253, 5400, 5401], 16: [464, 463], 22: [5266, 583, 5267], 33: [5568, 702, 764, 763, 5268], 43: [703, 704, 5492, 5493], 1: [269, 267, 5491, 268], 4: [5595, 5596, 5597, 5598, 779], 10: [5328, 688, 5627, 5628, 689], 14: [224, 5506, 5507, 657, 658, 5508], 19: [5461, 372, 373, 374], 20: [328, 329], 21: [5311, 297, 628, 5236, 627, 5237], 28: [492, 494, 493], 37: [327, 5190, 687, 5192, 5191, 462], 38: [5520, 359, 5521], 42: [749, 5446, 5447, 5448], 7: [5535, 5356, 5355, 5565, 194, 193], 30: [5522, 642, 643], 34: [672, 5206, 5207], 40: [734, 733, 5312, 5313], 11: [5463, 5357, 673], 41: [5462, 539, 538], 17: [5402, 5613, 794, 5403, 793], 23: [252, 5220, 5221, 5223, 5222], 25: [5431, 447, 448], 32: [5580, 5581, 5583, 5582], 15: [674, 5566, 5567], 24: [5416, 5417, 778, 777, 5418], 26: [719, 478, 5538, 5536, 5537], 29: [612, 5641, 613, 614, 5642, 5643], 31: [5370, 5371, 5372, 568], 5: [5340, 419, 418, 477, 5341], 27: [5251, 748, 5252, 5253], 39: [387, 314, 313, 312, 5146], 35: [598, 5283], 3: [299, 5611, 5552, 524, 5612], 9: [5476, 569, 5478, 5477], 18: [402, 5327, 404, 403], 8: [5281, 537, 554, 553, 5282], 36: [567, 597, 656, 5176, 5177]}</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0.006622058144900785</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01192931335358543</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>{0: [1069, 1068, 3151, 3152, 3153, 3154, 3155, 1066, 1067], 2: [3975, 3976, 3979, 751, 752, 753, 3977, 3978, 770, 769, 768], 's_0_2': [3169], 6: [3195, 1010, 1009, 1008, 3605, 3196, 3197, 3198, 856, 3604, 858, 857], 's_0_6': [3620], 12: [363, 3481, 301, 302], 's_0_12': [3166], 13: [722, 886, 526, 3285, 3286, 3289, 3288, 3287], 's_0_13': [661], 16: [3541, 3542, 663, 3633, 3634, 3635, 1158, 1159, 1160], 's_0_16': [3740], 22: [3334, 3333, 574, 3572, 571, 572, 573], 's_0_22': [3168], 33: [4201, 1054, 1055, 4202, 4203, 1056, 4205, 816, 4204], 's_0_33': [3770], 43: [3665, 4096, 4097, 4098, 4099, 933, 934, 935, 3949, 980], 's_0_43': [3500], 1: [3451, 286, 287, 290, 289, 288], 's_2_1': [275], 4: [395, 1039, 3785, 391, 392, 393, 394, 3781, 3784, 3783, 3782], 's_2_4': [3961], 10: [3917, 3497, 541, 542, 545, 3496, 544, 543], 's_2_10': [560], 14: [423, 259, 827, 828, 3710, 3600, 3709, 618, 258, 3706, 3707, 3708], 's_2_14': [3558], 's_2_16': [3980], 19: [711, 3945, 3992, 4068, 3946, 4067, 469, 470], 's_2_19': [245], 20: [3315, 3316, 3874, 3317, 920, 919, 918, 3318, 3319, 917], 's_2_20': [905], 21: [456, 3900, 151, 152, 153, 4113, 4112, 4111, 4110, 156, 155, 154], 's_2_21': [771], 28: [3375, 3376, 3693, 588, 587, 589, 631, 3378, 3377], 's_2_28': [590], 37: [3601, 3602, 3603, 801, 800, 799, 798], 's_2_37': [3753], 38: [3556, 3555, 3300, 3093, 3585, 183, 182, 181, 3090, 3091, 525, 3092], 's_2_38': [3108], 42: [3798, 3799, 3993, 3995, 3994, 814, 815], 's_2_42': [3859], 7: [211, 812, 3393, 3240, 737, 3244, 3241, 3242, 3243, 736], 's_6_7': [691], 's_6_12': [3180], 's_6_22': [3182], 30: [741, 515, 303, 304, 305, 4025, 4024, 4023, 4022, 4021], 's_6_30': [4040], 34: [797, 3435, 796, 242, 3514, 3511, 3513, 3512], 's_6_34': [3213], 's_6_37': [3664], 40: [876, 603, 4084, 604, 605, 4083, 4082], 's_6_40': [995], 's_6_42': [813], 's_6_43': [3919], 's_12_10': [347], 11: [199, 198, 197, 196, 3227, 3226, 3225], 's_12_11': [316], 's_12_16': [378], 's_12_30': [3526], 41: [485, 482, 484, 3586, 483], 's_12_41': [3482], 's_13_4': [407], 17: [979, 3739, 976, 977, 978], 's_13_17': [3229], 's_13_20': [466], 's_13_21': [3270], 's_13_22': [902], 23: [4066, 3886, 212, 217, 216, 213, 214, 215], 's_13_23': [227], 25: [3452, 496, 3662, 497, 498], 's_13_25': [3167], 32: [932, 3424, 3421, 3422, 3423], 's_13_32': [557], 's_13_38': [106], 's_16_10': [452], 15: [4156, 4157, 4159, 951, 950, 4158, 949, 948, 947, 3274, 3273], 's_16_15': [1161, 4160], 24: [3752, 455, 3815, 3814, 3750, 3751, 454, 3813, 3812], 's_16_24': [3830], 26: [420, 890, 889, 888, 887, 3364, 891, 3363, 3362, 421, 3361], 's_16_26': [3650, 3649], 29: [3530, 437, 3527, 3529, 3528], 's_16_29': [558], 31: [664, 439, 424, 829, 3842, 3768, 3767, 514], 's_16_31': [739], 's_16_37': [783], 's_16_38': [3540], 's_16_42': [4010], 5: [4005, 3588, 842, 843, 844, 4006, 4007, 4008, 4009, 845], 's_22_5': [3573], 's_22_10': [3257], 's_22_11': [586], 's_22_24': [3797], 's_22_25': [3272], 27: [3437, 3888, 3439, 3438, 647, 649, 648], 's_22_27': [633], 's_22_28': [3632], 's_22_29': [678], 's_22_37': [3571, 348], 39: [3544, 873, 874, 3844, 3843, 575, 3932, 3930, 3931, 365], 's_22_39': [872], 's_22_40': [3678], 's_33_4': [3845], 's_33_14': [3695], 's_33_15': [3875], 's_33_23': [232], 's_33_26': [4189], 35: [3858, 4128, 740, 861, 860, 3918], 's_33_35': [4144], 's_33_37': [4234], 's_33_40': [4085], 3: [3724, 993, 992, 3455, 632, 3453, 3454], 's_43_3': [3469], 9: [646, 3348, 4218, 696, 695, 694, 692, 693], 's_43_9': [3948], 's_43_15': [336], 's_43_17': [3574], 18: [411, 410, 332, 333, 409, 331, 3646], 's_43_18': [4081], 's_43_30': [1040], 's_43_40': [516], 's_43_42': [785], 's_1_4': [3826], 's_1_5': [3991], 8: [3856, 3857, 726, 4038, 3407, 4037, 530, 529, 527, 528], 's_1_8': [4036], 's_1_19': [4052, 4051], 's_1_20': [3301], 's_1_23': [3331], 's_1_29': [3436], 's_1_32': [272], 's_1_38': [285], 's_4_7': [406], 's_4_8': [3347], 's_4_9': [709], 's_4_10': [559], 's_4_15': [3860], 's_4_17': [964], 's_4_18': [3211], 's_4_19': [3872], 's_4_24': [1144], 's_4_26': [3769], 's_4_38': [3122], 's_4_41': [3721], 's_10_32': [422], 's_10_11': [3495], 's_10_14': [408, 3616, 3615], 's_10_24': [3887], 's_10_26': [3137], 's_10_30': [546], 's_10_35': [3902, 3903], 's_10_40': [3947], 's_10_41': [3332], 's_14_23': [3765], 's_14_38': [243], 's_14_7': [3408], 's_14_9': [3723], 's_14_11': [3780], 's_14_24': [244], 's_14_25': [499], 's_14_26': [3619], 's_14_30': [3661], 's_14_31': [754], 's_14_34': [617], 36: [379, 3811, 380], 's_14_36': [3810], 's_14_39': [364], 's_14_40': [3647], 's_19_8': [620], 's_19_9': [666], 's_19_15': [531], 's_19_23': [335], 's_19_24': [3916], 's_19_31': [440], 's_19_36': [3901], 's_19_39': [260], 's_19_41': [500], 's_19_42': [4053, 4054], 's_20_3': [3394], 's_20_7': [121], 's_20_21': [166], 's_20_25': [3302], 's_20_31': [784], 's_20_37': [3694], 's_20_42': [3964], 's_21_5': [186], 's_21_23': [4125], 's_21_7': [3255], 's_21_11': [3210], 's_21_24': [169], 's_21_35': [846], 's_21_37': [786], 's_21_39': [200], 's_28_5': [3587], 's_28_8': [512], 's_28_23': [3360], 's_28_32': [317], 's_28_7': [601], 's_28_15': [767], 's_28_24': [679], 's_28_27': [3557], 's_28_34': [167], 's_28_40': [3617], 's_37_5': [3738], 's_37_8': [727, 4278], 's_37_18': [273], 's_37_39': [3679], 's_38_7': [361], 's_38_26': [435], 's_38_30': [3570], 's_42_5': [936], 's_42_8': [4039], 's_42_27': [3889], 's_42_30': [1070], 's_7_5': [3484], 's_7_32': [931], 's_7_3': [707], 's_7_11': [676], 's_7_15': [811], 's_7_18': [346], 's_7_26': [436], 's_30_8': [319], 's_30_9': [742], 's_30_26': [875], 's_30_15': [906], 's_30_41': [3962], 's_30_31': [3796], 's_34_5': [723], 's_34_8': [513], 's_34_23': [228], 's_34_39': [3543], 's_34_18': [318], 's_34_11': [3510], 's_40_8': [591], 's_40_26': [4174], 's_40_31': [3827], 's_40_35': [4069], 's_11_9': [616], 's_41_29': [3391], 's_41_32': [467, 3406], 's_41_18': [3736], 's_41_24': [3766], 's_41_25': [481], 's_17_3': [3515], 's_17_24': [3829], 's_17_26': [3904], 's_17_27': [962], 's_23_24': [229], 's_23_36': [3691], 's_25_8': [3677], 's_25_18': [438], 's_25_27': [3663], 's_32_3': [3409], 's_32_9': [662], 's_32_15': [3305], 's_32_26': [377, 3271], 's_15_5': [561], 's_15_29': [3485, 1007], 's_15_18': [4143, 4142, 4141], 's_24_39': [634], 's_24_27': [3828], 's_24_35': [755], 's_26_5': [3589], 's_26_3': [991], 's_26_9': [4219], 's_26_18': [3181], 's_29_9': [708], 's_29_27': [602], 's_29_39': [1038], 's_31_8': [425], 's_31_27': [619], 's_31_35': [859], 's_31_36': [3841], 's_5_9': [3349], 's_27_39': [710, 3933], 's_27_35': [3873], 's_39_8': [665], 's_39_3': [3559], 's_39_36': [3871], 's_35_8': [725], 's_3_8': [677], 's_3_9': [3468], 's_8_36': [274]}</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0008829787234042551</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.001740838616465361</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>{0: [1069, 1068, 3151, 3152, 3153, 3154, 3155, 1066, 1067], 2: [3975, 3976, 3979, 751, 752, 753, 3977, 3978, 770, 769, 768], 's_0_2': [3169], 6: [3195, 1010, 1009, 1008, 3605, 3196, 3197, 3198, 856, 3604, 858, 857], 's_0_6': [3620], 12: [363, 3481, 301, 302], 's_0_12': [3166], 13: [722, 886, 526, 3285, 3286, 3289, 3288, 3287], 's_0_13': [661], 16: [3541, 3542, 663, 3633, 3634, 3635, 1158, 1159, 1160], 's_0_16': [3740], 22: [3334, 3333, 574, 3572, 571, 572, 573], 's_0_22': [3168], 33: [4201, 1054, 1055, 4202, 4203, 1056, 4205, 816, 4204], 's_0_33': [3770], 43: [3665, 4096, 4097, 4098, 4099, 933, 934, 935, 3949, 980], 's_0_43': [3500], 1: [3451, 286, 287, 290, 289, 288], 's_2_1': [275], 4: [395, 1039, 3785, 391, 392, 393, 394, 3781, 3784, 3783, 3782], 's_2_4': [3961], 10: [3917, 3497, 541, 542, 545, 3496, 544, 543], 's_2_10': [560], 14: [423, 259, 827, 828, 3710, 3600, 3709, 618, 258, 3706, 3707, 3708], 's_2_14': [3558], 's_2_16': [3980], 19: [711, 3945, 3992, 4068, 3946, 4067, 469, 470], 's_2_19': [245], 20: [3315, 3316, 3874, 3317, 920, 919, 918, 3318, 3319, 917], 's_2_20': [905], 21: [456, 3900, 151, 152, 153, 4113, 4112, 4111, 4110, 156, 155, 154], 's_2_21': [771], 28: [3375, 3376, 3693, 588, 587, 589, 631, 3378, 3377], 's_2_28': [590], 37: [3601, 3602, 3603, 801, 800, 799, 798], 's_2_37': [3753], 38: [3556, 3555, 3300, 3093, 3585, 183, 182, 181, 3090, 3091, 525, 3092], 's_2_38': [3108], 42: [3798, 3799, 3993, 3995, 3994, 814, 815], 's_2_42': [3859], 7: [211, 812, 3393, 3240, 737, 3244, 3241, 3242, 3243, 736], 's_6_7': [691], 's_6_12': [3180], 's_6_22': [3182], 30: [741, 515, 303, 304, 305, 4025, 4024, 4023, 4022, 4021], 's_6_30': [4040], 34: [797, 3435, 796, 242, 3514, 3511, 3513, 3512], 's_6_34': [3213], 's_6_37': [3664], 40: [876, 603, 4084, 604, 605, 4083, 4082], 's_6_40': [995], 's_6_42': [813], 's_6_43': [3919], 's_12_10': [347], 11: [199, 198, 197, 196, 3227, 3226, 3225], 's_12_11': [316], 's_12_16': [378], 's_12_30': [3526], 41: [485, 482, 484, 3586, 483], 's_12_41': [3482], 's_13_4': [407], 17: [979, 3739, 976, 977, 978], 's_13_17': [3229], 's_13_20': [466], 's_13_21': [3270], 's_13_22': [902], 23: [4066, 3886, 212, 217, 216, 213, 214, 215], 's_13_23': [227], 25: [3452, 496, 3662, 497, 498], 's_13_25': [3167], 32: [932, 3424, 3421, 3422, 3423], 's_13_32': [557], 's_13_38': [106], 's_16_10': [452], 15: [4156, 4157, 4159, 951, 950, 4158, 949, 948, 947, 3274, 3273], 's_16_15': [1161, 4160], 24: [3752, 455, 3815, 3814, 3750, 3751, 454, 3813, 3812], 's_16_24': [3830], 26: [420, 890, 889, 888, 887, 3364, 891, 3363, 3362, 421, 3361], 's_16_26': [3650, 3649], 29: [3530, 437, 3527, 3529, 3528], 's_16_29': [558], 31: [664, 439, 424, 829, 3842, 3768, 3767, 514], 's_16_31': [739], 's_16_37': [783], 's_16_38': [3540], 's_16_42': [4010], 5: [4005, 3588, 842, 843, 844, 4006, 4007, 4008, 4009, 845], 's_22_5': [3573], 's_22_10': [3257], 's_22_11': [586], 's_22_24': [3797], 's_22_25': [3272], 27: [3437, 3888, 3439, 3438, 647, 649, 648], 's_22_27': [633], 's_22_28': [3632], 's_22_29': [678], 's_22_37': [3571, 348], 39: [3544, 873, 874, 3844, 3843, 575, 3932, 3930, 3931, 365], 's_22_39': [872], 's_22_40': [3678], 's_33_4': [3845], 's_33_14': [3695], 's_33_15': [3875], 's_33_23': [232], 's_33_26': [4189], 35: [3858, 4128, 740, 861, 860, 3918], 's_33_35': [4144], 's_33_37': [4234], 's_33_40': [4085], 3: [3724, 993, 992, 3455, 632, 3453, 3454], 's_43_3': [3469], 9: [646, 3348, 4218, 696, 695, 694, 692, 693], 's_43_9': [3948], 's_43_15': [336], 's_43_17': [3574], 18: [411, 410, 332, 333, 409, 331, 3646], 's_43_18': [4081], 's_43_30': [1040], 's_43_40': [516], 's_43_42': [785], 's_1_4': [3826], 's_1_5': [3991], 8: [3856, 3857, 726, 4038, 3407, 4037, 530, 529, 527, 528], 's_1_8': [4036], 's_1_19': [4052, 4051], 's_1_20': [3301], 's_1_23': [3331], 's_1_29': [3436], 's_1_32': [272], 's_1_38': [285], 's_4_7': [406], 's_4_8': [3347], 's_4_9': [709], 's_4_10': [559], 's_4_15': [3860], 's_4_17': [964], 's_4_18': [3211], 's_4_19': [3872], 's_4_24': [1144], 's_4_26': [3769], 's_4_38': [3122], 's_4_41': [3721], 's_10_32': [422], 's_10_11': [3495], 's_10_14': [408, 3616, 3615], 's_10_24': [3887], 's_10_26': [3137], 's_10_30': [546], 's_10_35': [3902, 3903], 's_10_40': [3947], 's_10_41': [3332], 's_14_23': [3765], 's_14_38': [243], 's_14_7': [3408], 's_14_9': [3723], 's_14_11': [3780], 's_14_24': [244], 's_14_25': [499], 's_14_26': [3619], 's_14_30': [3661], 's_14_31': [754], 's_14_34': [617], 36: [379, 3811, 380], 's_14_36': [3810], 's_14_39': [364], 's_14_40': [3647], 's_19_8': [620], 's_19_9': [666], 's_19_15': [531], 's_19_23': [335], 's_19_24': [3916], 's_19_31': [440], 's_19_36': [3901], 's_19_39': [260], 's_19_41': [500], 's_19_42': [4053, 4054], 's_20_3': [3394], 's_20_7': [121], 's_20_21': [166], 's_20_25': [3302], 's_20_31': [784], 's_20_37': [3694], 's_20_42': [3964], 's_21_5': [186], 's_21_23': [4125], 's_21_7': [3255], 's_21_11': [3210], 's_21_24': [169], 's_21_35': [846], 's_21_37': [786], 's_21_39': [200], 's_28_5': [3587], 's_28_8': [512], 's_28_23': [3360], 's_28_32': [317], 's_28_7': [601], 's_28_15': [767], 's_28_24': [679], 's_28_27': [3557], 's_28_34': [167], 's_28_40': [3617], 's_37_5': [3738], 's_37_8': [727, 4278], 's_37_18': [273], 's_37_39': [3679], 's_38_7': [361], 's_38_26': [435], 's_38_30': [3570], 's_42_5': [936], 's_42_8': [4039], 's_42_27': [3889], 's_42_30': [1070], 's_7_5': [3484], 's_7_32': [931], 's_7_3': [707], 's_7_11': [676], 's_7_15': [811], 's_7_18': [346], 's_7_26': [436], 's_30_8': [319], 's_30_9': [742], 's_30_26': [875], 's_30_15': [906], 's_30_41': [3962], 's_30_31': [3796], 's_34_5': [723], 's_34_8': [513], 's_34_23': [228], 's_34_39': [3543], 's_34_18': [318], 's_34_11': [3510], 's_40_8': [591], 's_40_26': [4174], 's_40_31': [3827], 's_40_35': [4069], 's_11_9': [616], 's_41_29': [3391], 's_41_32': [467, 3406], 's_41_18': [3736], 's_41_24': [3766], 's_41_25': [481], 's_17_3': [3515], 's_17_24': [3829], 's_17_26': [3904], 's_17_27': [962], 's_23_24': [229], 's_23_36': [3691], 's_25_8': [3677], 's_25_18': [438], 's_25_27': [3663], 's_32_3': [3409], 's_32_9': [662], 's_32_15': [3305], 's_32_26': [377, 3271], 's_15_5': [561], 's_15_29': [3485, 1007], 's_15_18': [4143, 4142, 4141], 's_24_39': [634], 's_24_27': [3828], 's_24_35': [755], 's_26_5': [3589], 's_26_3': [991], 's_26_9': [4219], 's_26_18': [3181], 's_29_9': [708], 's_29_27': [602], 's_29_39': [1038], 's_31_8': [425], 's_31_27': [619], 's_31_35': [859], 's_31_36': [3841], 's_5_9': [3349], 's_27_39': [710, 3933], 's_27_35': [3873], 's_39_8': [665], 's_39_3': [3559], 's_39_36': [3871], 's_35_8': [725], 's_3_8': [677], 's_3_9': [3468], 's_8_36': [274]}</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0008829787234042551</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.001740838616465361</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>{0: [3201, 1321, 3066, 1320], 2: [1231, 2974, 2975, 2976, 1230], 9: [931, 1185, 3126, 3125], 15: [3363, 3364, 3365, 1171, 1170], 26: [1217, 1215, 1216], 28: [3096, 3095], 40: [3200, 3170, 1051], 43: [3290, 3291], 4: [885, 990, 3034], 7: [3019, 1082, 1081, 1080, 3020], 12: [3306, 3289, 947, 3305], 13: [1036, 1035], 14: [1262, 3171, 1155, 1261], 20: [886, 3184, 3186, 3185], 21: [930, 3064], 23: [3500, 3501, 1200, 1201, 1202], 24: [870, 871], 41: [2989, 750, 3048, 811, 3094, 810], 8: [3380, 1187, 1186], 17: [1020, 1022, 1021], 18: [1050, 3079, 3081, 3080], 22: [977, 3394, 932], 38: [1066, 2990, 3035, 1065], 39: [3049, 3050], 44: [3065, 1006, 1005], 29: [1037, 3379], 33: [975, 976], 42: [3349, 3351, 3350], 3: [3213, 3215, 991, 3214], 16: [1125, 3229, 1126, 3230], 32: [2991, 1111, 1110], 34: [855, 856, 3261, 3259, 3260], 35: [1052, 3334, 3335, 3336], 31: [1141, 3109, 3110, 1140], 37: [1097, 1095, 1096], 25: [917, 915, 3199, 916], 1: [3005, 902, 901, 3004, 900], 36: [960, 961, 3409, 962], 30: [3154, 1247, 1246, 3155, 3156], 5: [3245], 11: [945, 3140, 946], 6: [3424, 3425, 3426], 10: [1275, 1276, 3410, 3411, 1277], 19: [3321, 3320], 27: [1306, 3246]}</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.004476228314130578</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.009853569189637545</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>{0: [3201, 1321, 3066, 1320], 2: [1231, 2974, 2975, 2976, 1230], 9: [931, 1185, 3126, 3125], 15: [3363, 3364, 3365, 1171, 1170], 26: [1217, 1215, 1216], 28: [3096, 3095], 40: [3200, 3170, 1051], 43: [3290, 3291], 4: [885, 990, 3034], 7: [3019, 1082, 1081, 1080, 3020], 12: [3306, 3289, 947, 3305], 13: [1036, 1035], 14: [1262, 3171, 1155, 1261], 20: [886, 3184, 3186, 3185], 21: [930, 3064], 23: [3500, 3501, 1200, 1201, 1202], 24: [870, 871], 41: [2989, 750, 3048, 811, 3094, 810], 8: [3380, 1187, 1186], 17: [1020, 1022, 1021], 18: [1050, 3079, 3081, 3080], 22: [977, 3394, 932], 38: [1066, 2990, 3035, 1065], 39: [3049, 3050], 44: [3065, 1006, 1005], 29: [1037, 3379], 33: [975, 976], 42: [3349, 3351, 3350], 3: [3213, 3215, 991, 3214], 16: [1125, 3229, 1126, 3230], 32: [2991, 1111, 1110], 34: [855, 856, 3261, 3259, 3260], 35: [1052, 3334, 3335, 3336], 31: [1141, 3109, 3110, 1140], 37: [1097, 1095, 1096], 25: [917, 915, 3199, 916], 1: [3005, 902, 901, 3004, 900], 36: [960, 961, 3409, 962], 30: [3154, 1247, 1246, 3155, 3156], 5: [3245], 11: [945, 3140, 946], 6: [3424, 3425, 3426], 10: [1275, 1276, 3410, 3411, 1277], 19: [3321, 3320], 27: [1306, 3246]}</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0.004476228314130578</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.009853569189637545</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>{0: [954, 4683, 879, 4684], 2: [4831, 955, 4834, 4833, 4832, 538, 537, 536, 535], 's_0_2': [880], 9: [1258, 1257, 1256, 1255, 4791, 4790, 4651, 4652, 4653, 4654, 969], 's_0_9': [909], 15: [834, 835, 4909, 957, 956], 's_0_15': [4729], 26: [1013, 5046, 4881, 774, 4609, 4610, 1271, 1270, 1269, 4611], 's_0_26': [4594], 28: [1166, 4593, 699, 700, 4878, 4879, 1165, 4880], 's_0_28': [744], 40: [5086, 5087, 5088, 4579, 759, 760, 761, 762, 763, 5403], 's_0_40': [878], 43: [684, 4699, 4697, 4698], 's_0_43': [924], 4: [4681, 522, 5147, 444, 445, 446], 's_2_4': [523], 7: [1094, 1093, 1092, 1091, 4936, 4937, 4938, 4939, 4941, 4940], 's_2_7': [355], 's_2_9': [4714], 12: [1017, 5359, 5356, 5357, 5358], 's_2_12': [5432, 508], 13: [805, 4998, 506, 4996, 551, 4997], 's_2_13': [475], 14: [4817, 610, 4758, 609], 's_2_14': [4877], 20: [5042, 611, 5222, 612, 613, 5421, 5420, 5418, 5419, 5417], 's_2_20': [5237], 21: [369, 370, 5599, 371, 372, 373, 374, 5598, 5597, 5596], 's_2_21': [539], 23: [4712, 5226, 594, 595, 596, 5027, 5028, 5029, 5030, 1181, 1182], 's_2_23': [580], 24: [985, 986, 989, 988, 987], 's_2_24': [970], 41: [959, 5074, 5282, 5554, 5553, 734, 5283, 5073, 732, 733], 's_2_41': [5327, 5328], 8: [1105, 670, 1136, 1135, 4863, 4864, 4862, 4865], 's_9_8': [4866], 17: [5133, 5132, 1030, 432, 1015, 4849, 4848, 4847, 4846, 430, 431], 's_9_17': [1014], 18: [4622, 4623, 4624, 1044, 1045, 1046, 1047, 5179, 5178, 5177, 5176], 's_9_18': [968], 's_9_21': [384], 22: [1049, 1048, 1078, 5314, 5316, 5315], 's_9_22': [1243], 's_9_23': [534], 38: [1059, 5118, 5119, 5120, 1060, 1061], 's_9_38': [4655], 39: [894, 490, 4891, 5105, 895, 896, 5104, 5103, 626, 625, 4892], 's_9_39': [4819], 44: [1077, 1076, 4775, 4666, 5270, 4667, 4668, 4669, 1075, 984], 's_9_44': [354], 's_15_17': [4955], 's_15_18': [4910], 29: [671, 5044, 5193, 807, 5134, 5043, 806], 's_15_29': [5135], 33: [5194, 5569, 899, 897, 5329, 5434, 898], 's_15_33': [5209], 's_15_39': [4894], 's_15_41': [958], 42: [4803, 746, 745], 's_15_42': [850], 3: [803, 5449, 929, 928, 927, 926, 4805, 4804, 925, 804, 4774], 's_26_3': [4806], 16: [4954, 4986, 913, 912, 4985, 4984, 911], 's_26_16': [1330], 's_26_28': [4971], 32: [520, 4563, 4787, 4638, 729, 730, 4788], 's_26_32': [4608], 34: [704, 5523, 838, 1346, 5091, 5090, 5089, 837, 836], 's_26_34': [5016], 35: [5224, 5163, 939, 940, 5164, 942, 941], 's_26_35': [4595], 's_26_38': [1074], 's_26_39': [4639], 's_26_43': [864], 's_28_7': [820], 's_28_13': [790], 's_28_14': [669], 's_28_16': [1150], 's_28_17': [4895], 's_28_23': [4773], 31: [5149, 777, 776, 4908, 403, 402, 401, 4906, 4907], 's_28_31': [655], 's_28_32': [698], 37: [1198, 1197, 5013, 5014, 5015, 5180, 1196], 's_28_37': [5151], 's_40_4': [521, 4952], 's_40_13': [552], 's_40_17': [582], 's_40_18': [4564, 833], 25: [5162, 5480, 5479, 779, 672, 673, 5433], 's_40_25': [5223], 's_40_31': [5208], 's_40_32': [4578], 's_40_33': [764, 5568], 's_40_34': [793], 's_40_35': [4580], 's_40_38': [716], 's_43_3': [789], 's_43_14': [654], 's_43_23': [624], 's_43_44': [504], 1: [5539, 5538, 731, 5056, 5057, 5537, 658, 657, 656, 5058], 's_4_1': [5041], 's_4_13': [5011], 's_4_17': [4876], 's_4_18': [5161], 's_4_21': [5146], 's_4_25': [5148], 36: [1227, 5297, 943, 5298, 5301, 5300, 5299], 's_4_36': [492], 's_4_41': [447], 's_4_44': [429], 's_7_21': [5600], 's_7_25': [1109], 30: [341, 342, 5251, 5390, 5252, 5389, 5388, 5387, 598], 's_7_30': [340], 's_7_32': [715], 's_7_37': [5525], 's_7_38': [5045], 5: [5075, 5076, 4896, 1211, 1210], 's_7_5': [1240], 's_7_8': [5060], 11: [5372, 404, 643, 5495, 5494, 5492, 5493], 's_7_11': [5510], 's_7_16': [1286], 's_7_18': [5285], 's_7_23': [1106], 's_7_31': [325], 's_7_35': [4970], 's_7_39': [280], 's_12_1': [642], 6: [5312, 565, 4982, 568, 567, 566], 's_12_6': [418], 10: [5225, 5136, 1137], 's_12_10': [1002], 's_12_17': [5341], 's_12_20': [883], 's_12_22': [5360], 's_12_24': [5330], 's_12_30': [388], 's_12_34': [703], 's_12_41': [583], 's_12_44': [5240], 's_13_1': [386], 's_13_3': [4924], 's_13_16': [4969], 's_13_17': [4967], 19: [1152, 5255, 972, 851, 852, 5254], 's_13_19': [866], 's_13_20': [5267, 507], 's_13_29': [686], 's_13_30': [356], 's_13_31': [5102], 's_13_39': [4922], 's_14_32': [608], 's_14_42': [4818], 's_14_6': [4727], 's_14_39': [4953], 's_14_44': [714], 's_20_3': [823], 's_20_38': [597], 's_20_17': [5221], 27: [1288, 1287], 's_20_27': [1273], 's_20_33': [868], 's_21_1': [344, 5536], 's_21_11': [644], 's_21_18': [4621], 's_21_24': [974], 's_21_34': [719, 5658], 's_21_39': [4801], 's_21_41': [5281], 's_21_44': [459, 4816], 's_23_22': [5331], 's_23_32': [519], 's_23_38': [881], 's_23_42': [4713], 's_23_18': [1001], 's_23_19': [5256], 's_23_27': [5271], 's_23_34': [5031], 's_23_36': [1212], 's_23_39': [581], 's_24_25': [5465], 's_24_16': [5059], 's_24_34': [5524], 's_24_39': [4999], 's_41_3': [5448], 's_41_38': [701], 's_41_11': [854], 's_41_33': [884], 's_41_35': [717], 's_41_36': [748], 's_41_39': [5072], 's_8_3': [1120], 's_8_6': [4802], 's_8_10': [1122, 1121], 's_8_31': [640], 's_8_35': [4745], 's_17_25': [5192, 5191], 's_17_29': [641], 's_17_30': [5266], 's_17_6': [550], 's_17_18': [1016], 's_17_44': [1029], 's_18_25': [687], 's_18_32': [638], 's_18_38': [4730], 's_18_10': [1032], 's_18_31': [5150], 's_18_44': [983], 's_22_1': [5313], 's_22_19': [1167], 's_22_29': [792], 's_22_33': [5435], 's_38_1': [791], 's_38_3': [4820], 's_38_19': [971], 's_39_37': [5106], 's_44_32': [399, 400], 's_44_37': [5195], 's_44_5': [4776], 's_44_35': [4760], 's_44_19': [1123], 's_29_1': [5253], 's_29_25': [5268], 's_29_33': [5284], 's_29_35': [882], 's_29_36': [702], 's_29_42': [747], 's_33_3': [5584], 's_33_11': [1034], 's_33_16': [914], 's_33_19': [853], 's_33_31': [778], 's_33_34': [822], 's_42_1': [4968], 's_42_3': [819], 's_42_31': [775], 's_3_1': [973], 's_3_5': [1225], 's_3_11': [944], 's_3_32': [4533], 's_3_35': [5239], 's_16_30': [5374], 's_16_5': [1301], 's_32_1': [416, 415], 's_34_37': [5121, 1151], 's_34_5': [1345], 's_34_36': [5404], 's_34_27': [5166], 's_35_36': [867], 's_31_30': [5386], 's_31_37': [821], 's_31_11': [5371], 's_37_1': [5540], 's_37_30': [5375], 's_37_5': [5061], 's_37_10': [1062], 's_37_19': [5210], 's_25_1': [749], 's_25_6': [5207], 's_1_30': [1003], 's_30_6': [5402], 's_30_11': [808], 's_30_36': [627], 's_36_6': [553], 's_36_10': [1242], 's_36_19': [1138], 's_10_27': [1272]}</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0008492647058823531</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.001792214365335486</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>{0: [954, 4683, 879, 4684], 2: [4831, 955, 4834, 4833, 4832, 538, 537, 536, 535], 's_0_2': [880], 9: [1258, 1257, 1256, 1255, 4791, 4790, 4651, 4652, 4653, 4654, 969], 's_0_9': [909], 15: [834, 835, 4909, 957, 956], 's_0_15': [4729], 26: [1013, 5046, 4881, 774, 4609, 4610, 1271, 1270, 1269, 4611], 's_0_26': [4594], 28: [1166, 4593, 699, 700, 4878, 4879, 1165, 4880], 's_0_28': [744], 40: [5086, 5087, 5088, 4579, 759, 760, 761, 762, 763, 5403], 's_0_40': [878], 43: [684, 4699, 4697, 4698], 's_0_43': [924], 4: [4681, 522, 5147, 444, 445, 446], 's_2_4': [523], 7: [1094, 1093, 1092, 1091, 4936, 4937, 4938, 4939, 4941, 4940], 's_2_7': [355], 's_2_9': [4714], 12: [1017, 5359, 5356, 5357, 5358], 's_2_12': [5432, 508], 13: [805, 4998, 506, 4996, 551, 4997], 's_2_13': [475], 14: [4817, 610, 4758, 609], 's_2_14': [4877], 20: [5042, 611, 5222, 612, 613, 5421, 5420, 5418, 5419, 5417], 's_2_20': [5237], 21: [369, 370, 5599, 371, 372, 373, 374, 5598, 5597, 5596], 's_2_21': [539], 23: [4712, 5226, 594, 595, 596, 5027, 5028, 5029, 5030, 1181, 1182], 's_2_23': [580], 24: [985, 986, 989, 988, 987], 's_2_24': [970], 41: [959, 5074, 5282, 5554, 5553, 734, 5283, 5073, 732, 733], 's_2_41': [5327, 5328], 8: [1105, 670, 1136, 1135, 4863, 4864, 4862, 4865], 's_9_8': [4866], 17: [5133, 5132, 1030, 432, 1015, 4849, 4848, 4847, 4846, 430, 431], 's_9_17': [1014], 18: [4622, 4623, 4624, 1044, 1045, 1046, 1047, 5179, 5178, 5177, 5176], 's_9_18': [968], 's_9_21': [384], 22: [1049, 1048, 1078, 5314, 5316, 5315], 's_9_22': [1243], 's_9_23': [534], 38: [1059, 5118, 5119, 5120, 1060, 1061], 's_9_38': [4655], 39: [894, 490, 4891, 5105, 895, 896, 5104, 5103, 626, 625, 4892], 's_9_39': [4819], 44: [1077, 1076, 4775, 4666, 5270, 4667, 4668, 4669, 1075, 984], 's_9_44': [354], 's_15_17': [4955], 's_15_18': [4910], 29: [671, 5044, 5193, 807, 5134, 5043, 806], 's_15_29': [5135], 33: [5194, 5569, 899, 897, 5329, 5434, 898], 's_15_33': [5209], 's_15_39': [4894], 's_15_41': [958], 42: [4803, 746, 745], 's_15_42': [850], 3: [803, 5449, 929, 928, 927, 926, 4805, 4804, 925, 804, 4774], 's_26_3': [4806], 16: [4954, 4986, 913, 912, 4985, 4984, 911], 's_26_16': [1330], 's_26_28': [4971], 32: [520, 4563, 4787, 4638, 729, 730, 4788], 's_26_32': [4608], 34: [704, 5523, 838, 1346, 5091, 5090, 5089, 837, 836], 's_26_34': [5016], 35: [5224, 5163, 939, 940, 5164, 942, 941], 's_26_35': [4595], 's_26_38': [1074], 's_26_39': [4639], 's_26_43': [864], 's_28_7': [820], 's_28_13': [790], 's_28_14': [669], 's_28_16': [1150], 's_28_17': [4895], 's_28_23': [4773], 31: [5149, 777, 776, 4908, 403, 402, 401, 4906, 4907], 's_28_31': [655], 's_28_32': [698], 37: [1198, 1197, 5013, 5014, 5015, 5180, 1196], 's_28_37': [5151], 's_40_4': [521, 4952], 's_40_13': [552], 's_40_17': [582], 's_40_18': [4564, 833], 25: [5162, 5480, 5479, 779, 672, 673, 5433], 's_40_25': [5223], 's_40_31': [5208], 's_40_32': [4578], 's_40_33': [764, 5568], 's_40_34': [793], 's_40_35': [4580], 's_40_38': [716], 's_43_3': [789], 's_43_14': [654], 's_43_23': [624], 's_43_44': [504], 1: [5539, 5538, 731, 5056, 5057, 5537, 658, 657, 656, 5058], 's_4_1': [5041], 's_4_13': [5011], 's_4_17': [4876], 's_4_18': [5161], 's_4_21': [5146], 's_4_25': [5148], 36: [1227, 5297, 943, 5298, 5301, 5300, 5299], 's_4_36': [492], 's_4_41': [447], 's_4_44': [429], 's_7_21': [5600], 's_7_25': [1109], 30: [341, 342, 5251, 5390, 5252, 5389, 5388, 5387, 598], 's_7_30': [340], 's_7_32': [715], 's_7_37': [5525], 's_7_38': [5045], 5: [5075, 5076, 4896, 1211, 1210], 's_7_5': [1240], 's_7_8': [5060], 11: [5372, 404, 643, 5495, 5494, 5492, 5493], 's_7_11': [5510], 's_7_16': [1286], 's_7_18': [5285], 's_7_23': [1106], 's_7_31': [325], 's_7_35': [4970], 's_7_39': [280], 's_12_1': [642], 6: [5312, 565, 4982, 568, 567, 566], 's_12_6': [418], 10: [5225, 5136, 1137], 's_12_10': [1002], 's_12_17': [5341], 's_12_20': [883], 's_12_22': [5360], 's_12_24': [5330], 's_12_30': [388], 's_12_34': [703], 's_12_41': [583], 's_12_44': [5240], 's_13_1': [386], 's_13_3': [4924], 's_13_16': [4969], 's_13_17': [4967], 19: [1152, 5255, 972, 851, 852, 5254], 's_13_19': [866], 's_13_20': [5267, 507], 's_13_29': [686], 's_13_30': [356], 's_13_31': [5102], 's_13_39': [4922], 's_14_32': [608], 's_14_42': [4818], 's_14_6': [4727], 's_14_39': [4953], 's_14_44': [714], 's_20_3': [823], 's_20_38': [597], 's_20_17': [5221], 27: [1288, 1287], 's_20_27': [1273], 's_20_33': [868], 's_21_1': [344, 5536], 's_21_11': [644], 's_21_18': [4621], 's_21_24': [974], 's_21_34': [719, 5658], 's_21_39': [4801], 's_21_41': [5281], 's_21_44': [459, 4816], 's_23_22': [5331], 's_23_32': [519], 's_23_38': [881], 's_23_42': [4713], 's_23_18': [1001], 's_23_19': [5256], 's_23_27': [5271], 's_23_34': [5031], 's_23_36': [1212], 's_23_39': [581], 's_24_25': [5465], 's_24_16': [5059], 's_24_34': [5524], 's_24_39': [4999], 's_41_3': [5448], 's_41_38': [701], 's_41_11': [854], 's_41_33': [884], 's_41_35': [717], 's_41_36': [748], 's_41_39': [5072], 's_8_3': [1120], 's_8_6': [4802], 's_8_10': [1122, 1121], 's_8_31': [640], 's_8_35': [4745], 's_17_25': [5192, 5191], 's_17_29': [641], 's_17_30': [5266], 's_17_6': [550], 's_17_18': [1016], 's_17_44': [1029], 's_18_25': [687], 's_18_32': [638], 's_18_38': [4730], 's_18_10': [1032], 's_18_31': [5150], 's_18_44': [983], 's_22_1': [5313], 's_22_19': [1167], 's_22_29': [792], 's_22_33': [5435], 's_38_1': [791], 's_38_3': [4820], 's_38_19': [971], 's_39_37': [5106], 's_44_32': [399, 400], 's_44_37': [5195], 's_44_5': [4776], 's_44_35': [4760], 's_44_19': [1123], 's_29_1': [5253], 's_29_25': [5268], 's_29_33': [5284], 's_29_35': [882], 's_29_36': [702], 's_29_42': [747], 's_33_3': [5584], 's_33_11': [1034], 's_33_16': [914], 's_33_19': [853], 's_33_31': [778], 's_33_34': [822], 's_42_1': [4968], 's_42_3': [819], 's_42_31': [775], 's_3_1': [973], 's_3_5': [1225], 's_3_11': [944], 's_3_32': [4533], 's_3_35': [5239], 's_16_30': [5374], 's_16_5': [1301], 's_32_1': [416, 415], 's_34_37': [5121, 1151], 's_34_5': [1345], 's_34_36': [5404], 's_34_27': [5166], 's_35_36': [867], 's_31_30': [5386], 's_31_37': [821], 's_31_11': [5371], 's_37_1': [5540], 's_37_30': [5375], 's_37_5': [5061], 's_37_10': [1062], 's_37_19': [5210], 's_25_1': [749], 's_25_6': [5207], 's_1_30': [1003], 's_30_6': [5402], 's_30_11': [808], 's_30_36': [627], 's_36_6': [553], 's_36_10': [1242], 's_36_19': [1138], 's_10_27': [1272]}</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0.0008492647058823531</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.001792214365335486</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>{0: [5313, 5160, 5161, 5162, 598, 597], 2: [5341, 5252, 463, 462], 4: [568, 5417], 12: [5387, 5402, 538], 14: [5340, 5220, 251, 252], 18: [5027, 5026, 296, 5025], 22: [5070, 372, 5071], 26: [5103, 672, 671], 29: [5175, 492, 5176], 33: [5055, 5057, 431, 5056], 36: [5040, 282, 281, 5041], 41: [5372, 5371, 191, 192, 5370, 193], 42: [4951, 236, 5146, 238, 237], 43: [446], 45: [5311, 508, 5312], 10: [583, 581, 5237, 582], 20: [5267, 297, 5265, 5266], 24: [5250, 5251], 25: [388, 387], 31: [5432, 5431, 5430, 176, 177, 178], 35: [5207, 5042, 5206, 507, 506], 1: [5221, 432, 537, 5298, 5297], 9: [554, 552, 553], 13: [5147, 4997, 566, 567], 21: [5416, 5190, 313, 312], 6: [206, 5357, 5356, 207, 208, 5355], 11: [5386, 403, 401, 5102, 402], 19: [5401, 5400, 221, 222, 223], 38: [523, 5132, 522], 3: [5010, 5012, 5011], 5: [5235, 447, 5236], 27: [733, 732, 5088, 521, 5085, 5086, 5087], 32: [5118, 5115, 311, 5117, 5116], 7: [491, 4980, 341, 4981, 4982], 23: [162, 4995, 161], 28: [655, 5177, 657, 656], 34: [342, 5131], 37: [4968, 4967, 326, 328, 4966, 327], 8: [5193, 5192, 356, 357, 5191], 40: [267, 5101, 266], 16: [610, 612, 5133, 611], 39: [5072, 5073, 536, 4952], 30: [5283, 419, 418, 5281, 5282], 44: [625, 5222, 626, 627], 15: [716, 5148, 717], 17: [5327, 493, 5462]}</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.009344654272190504</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.01283040314529342</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>{0: [5313, 5160, 5161, 5162, 598, 597], 2: [5341, 5252, 463, 462], 4: [568, 5417], 12: [5387, 5402, 538], 14: [5340, 5220, 251, 252], 18: [5027, 5026, 296, 5025], 22: [5070, 372, 5071], 26: [5103, 672, 671], 29: [5175, 492, 5176], 33: [5055, 5057, 431, 5056], 36: [5040, 282, 281, 5041], 41: [5372, 5371, 191, 192, 5370, 193], 42: [4951, 236, 5146, 238, 237], 43: [446], 45: [5311, 508, 5312], 10: [583, 581, 5237, 582], 20: [5267, 297, 5265, 5266], 24: [5250, 5251], 25: [388, 387], 31: [5432, 5431, 5430, 176, 177, 178], 35: [5207, 5042, 5206, 507, 506], 1: [5221, 432, 537, 5298, 5297], 9: [554, 552, 553], 13: [5147, 4997, 566, 567], 21: [5416, 5190, 313, 312], 6: [206, 5357, 5356, 207, 208, 5355], 11: [5386, 403, 401, 5102, 402], 19: [5401, 5400, 221, 222, 223], 38: [523, 5132, 522], 3: [5010, 5012, 5011], 5: [5235, 447, 5236], 27: [733, 732, 5088, 521, 5085, 5086, 5087], 32: [5118, 5115, 311, 5117, 5116], 7: [491, 4980, 341, 4981, 4982], 23: [162, 4995, 161], 28: [655, 5177, 657, 656], 34: [342, 5131], 37: [4968, 4967, 326, 328, 4966, 327], 8: [5193, 5192, 356, 357, 5191], 40: [267, 5101, 266], 16: [610, 612, 5133, 611], 39: [5072, 5073, 536, 4952], 30: [5283, 419, 418, 5281, 5282], 44: [625, 5222, 626, 627], 15: [716, 5148, 717], 17: [5327, 493, 5462]}</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0.009344654272190504</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01283040314529342</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>{0: [2323, 5382, 5383, 4513, 2668, 2667, 2666, 2665, 2664, 4648, 2588], 2: [2579, 5247, 2578, 5248, 5129, 2577], 's_0_2': [5084, 2636], 4: [4559, 2258, 4558, 4557], 's_0_4': [2483], 12: [2696, 4619, 2693, 2695, 2694], 's_0_12': [4904], 14: [5412, 5413, 2593, 4705, 4706, 4707, 2592, 2591, 2590, 2589, 4708], 's_0_14': [4709], 18: [2321, 2247, 5246, 2353, 2068, 5306, 2322, 2067, 5307], 's_0_18': [2368], 22: [2739, 2740, 2741, 5364, 5054, 5365, 5366, 5367, 5368, 2622, 2621], 's_0_22': [2653], 26: [2304, 2305, 4886, 4887, 4889, 4888], 's_0_26': [4874], 29: [1842, 5323, 2309, 5322, 5321, 5096, 5094, 2308, 5095, 2051, 2052], 's_0_29': [2473], 33: [4737, 2319, 4601, 4602, 4603, 2547, 2546, 2545, 2544], 's_0_33': [4588, 2468], 36: [2053, 2219, 2638, 5501, 5502, 5503, 2727, 2728, 2729, 5504], 's_0_36': [5384], 41: [5529, 2608, 2607, 2697, 5204, 5203, 1903, 1902, 5199, 5202, 5201, 1887, 5200], 's_0_41': [5414, 2698], 42: [4781, 4780, 1944, 5442, 5441, 2233, 2232, 5276, 5275, 1947, 1946, 1945], 's_0_42': [2324, 5517], 43: [5381, 4736, 2170, 2171, 2173, 2172], 's_0_43': [2263, 5427], 45: [1934, 1933, 1932, 1931, 4512, 4511, 4510, 1913, 1914, 4809, 1930], 's_0_45': [5621, 2669, 5624, 5620, 5623, 5622], 10: [2438, 2439, 2442, 2441, 2440], 's_2_10': [5278], 's_2_12': [5114], 's_2_14': [5294], 20: [1783, 5454, 5456, 5457, 2382, 5232, 5455, 2429, 2427, 2428], 's_2_20': [2337], 24: [4991, 2292, 2291, 2288, 2289, 2290], 's_2_24': [2307], 25: [2384, 5578, 2444, 5576, 5577], 's_2_25': [5563], 31: [5650, 5009, 5008, 2114, 2516, 2517, 2518, 2519, 5653, 5652, 5651], 's_2_31': [5263], 35: [5308, 2485, 4992, 2486, 2489, 2488, 2487], 's_2_35': [5098], 's_2_41': [2742, 5249], 1: [2140, 4840, 2273, 4543, 4544, 4841, 2215, 4839, 4541, 2214, 4542], 's_4_1': [4481], 9: [5113, 2426, 2423, 2424, 2425], 's_4_9': [4527], 's_4_12': [2603], 13: [4645, 2125, 4556, 2123, 2124], 's_4_13': [4646], 21: [5546, 5545, 2098, 2097, 2096, 4587, 4586, 2093, 2094, 2095], 's_4_21': [2333], 's_12_1': [2678], 6: [4929, 1738, 1737, 1736, 1735, 1734, 4724, 4723, 4722, 4721, 4720, 4719], 's_12_6': [2649], 11: [4829, 4828, 1782, 4827, 4826, 4825, 4824, 1781, 1780], 's_12_11': [4814], 19: [4574, 4573, 1859, 1858, 2349, 1857, 1856, 1855, 1854, 4570, 4571, 4572], 's_12_19': [2633], 's_12_31': [4994], 38: [4979, 2562, 2650, 4934, 2563, 4946, 4947, 4948, 4949, 2561], 's_12_38': [4964], 's_12_41': [2682, 2681], 's_14_1': [2139], 3: [5111, 5291, 2188, 2184, 2185, 2186, 2187], 's_14_3': [4691], 5: [5338, 5337, 2293, 5484, 5485, 5486, 5487], 's_14_5': [2548], 's_14_19': [2004], 's_14_20': [2338], 's_14_24': [4692], 27: [5159, 5158, 5157, 5156, 5230, 4797, 4796, 2020, 2021, 2022], 's_14_27': [2049], 's_14_29': [5324], 's_14_31': [2605], 32: [5038, 5037, 4749, 4750, 4751, 4752, 2366, 2365], 's_14_32': [5023], 's_14_33': [2514], 's_14_36': [5339], 's_14_45': [2378, 2379], 's_18_3': [2112], 7: [5049, 5050, 2245, 2246, 5051], 's_18_7': [5142], 's_18_20': [5352], 23: [5110, 5515, 5530, 2007, 2008, 2009], 's_18_23': [5215], 28: [5126, 5127, 5053, 5052, 2306], 's_18_28': [4962], 's_18_29': [2217], 34: [2549, 5353, 5470, 5471, 2503, 5472, 5473], 's_18_34': [2248], 's_18_35': [5397], 37: [5022, 5424, 5425, 1813, 1812, 5021, 5020, 5019, 1811], 's_18_37': [5379, 5380], 's_18_42': [5292], 's_22_1': [2754], 's_22_6': [2755], 8: [2576, 1978, 1977, 1975, 4915, 4916, 1976, 4917, 4918], 's_22_8': [4919], 's_22_23': [1993], 's_22_31': [5173], 's_22_35': [2383], 40: [5591, 5575, 5259, 5350, 5590, 2039, 5260, 2038], 's_22_40': [1917], 's_22_43': [5351], 's_26_1': [2155], 's_26_3': [4676], 's_26_7': [4856], 's_26_10': [4873], 's_26_11': [2395, 4872], 's_26_13': [4871], 16: [2381, 2500, 4900, 4903, 2396, 4902, 4901], 's_26_16': [2080], 39: [4661, 2230, 4783, 4782, 2229], 's_26_39': [4932], 's_29_6': [1721], 's_29_7': [1751], 's_29_10': [2457], 's_29_19': [5214], 's_29_20': [5637], 's_29_25': [2294], 30: [2144, 2143, 4976, 4975, 2141, 2142], 's_29_30': [2111], 's_29_35': [2398], 's_29_37': [2066], 's_29_40': [1843], 's_29_41': [5320], 's_29_42': [5245], 's_29_43': [5411, 2218], 's_33_6': [2484], 's_33_8': [2469, 2470], 's_33_10': [2453], 's_33_11': [4678, 2604], 's_33_13': [2063], 's_33_16': [4933], 's_33_19': [2199], 's_33_27': [2274], 's_33_38': [4813], 's_33_41': [2532, 5083], 's_33_43': [2154], 's_36_5': [2083], 's_36_27': [5144], 's_36_34': [5474], 's_36_35': [5309], 's_36_37': [2023, 2024], 's_36_41': [2637], 's_36_42': [2174], 's_41_5': [5544, 1814], 's_41_10': [5217], 's_41_20': [1918], 's_41_27': [2712], 's_41_31': [5218], 's_41_37': [5274], 's_41_38': [5189, 5188], 's_41_42': [5305], 's_41_45': [5500], 's_42_5': [2203], 's_42_8': [5440], 's_42_13': [4644], 's_42_20': [5277], 's_42_25': [2234], 's_42_30': [5066, 2231], 's_42_39': [4659, 4660], 's_42_45': [4690], 's_43_5': [5396], 's_43_13': [2109], 's_43_32': [4765, 4766], 's_43_38': [4931], 's_45_1': [2108], 's_45_6': [1840], 's_45_9': [2408], 's_45_19': [1973], 's_45_31': [5635, 5636], 's_45_40': [5559, 1919], 's_10_1': [4842], 's_10_5': [5293, 2533], 's_10_8': [2455], 's_10_9': [4482], 's_10_16': [4963], 's_10_39': [4812, 2380], 's_20_30': [5231], 44: [4675, 4674, 1899, 5187, 5186, 5185, 5184, 1827, 1826, 5004, 1900], 's_20_44': [2352], 's_20_8': [1948, 5335], 's_20_9': [5172], 's_20_16': [2397], 's_20_19': [5439], 's_20_23': [1888], 's_20_24': [5082], 's_20_25': [5683], 's_20_37': [5394], 's_20_40': [2128], 's_24_30': [5216], 's_24_11': [4811], 's_24_19': [4617], 's_24_21': [2303], 's_24_37': [5036], 's_25_34': [2504], 's_25_35': [5638], 's_25_40': [2189], 's_31_27': [5143], 's_31_30': [5666], 's_31_5': [5606, 5607, 2354], 's_31_9': [5128], 's_31_21': [2339, 5547], 's_31_23': [5516], 's_31_32': [5007], 's_31_38': [5458, 2564], 's_35_27': [2472], 's_35_8': [4993], 's_35_9': [4857], 's_35_11': [2515, 4798], 's_35_16': [4978], 's_35_28': [2336], 's_35_34': [5428], 15: [1989, 4885, 1991, 1990], 's_1_15': [4540], 's_1_27': [4855], 's_1_30': [1870], 's_1_39': [2228], 's_1_44': [4854], 's_9_39': [2409], 's_9_44': [2411], 's_9_8': [2410], 's_9_11': [2454, 4753], 's_9_28': [5112], 's_13_15': [4810], 's_13_44': [1974], 's_13_3': [2169], 's_13_38': [2110], 's_21_30': [5141], 's_21_37': [5426], 's_21_40': [1979], 's_21_5': [1994], 's_21_6': [2079], 's_21_19': [2243, 4526], 's_21_32': [2364], 's_21_34': [2204], 's_6_27': [4735], 's_6_44': [4959], 's_6_37': [5289], 's_6_5': [5469], 's_6_11': [5304], 17: [2635, 2634], 's_6_17': [4739], 's_6_32': [1749], 's_11_39': [2530], 's_11_37': [4944], 's_11_40': [1796, 1797], 's_11_17': [2619], 's_11_19': [4869], 's_11_32': [1884], 's_19_7': [1841], 's_19_34': [1844], 's_19_23': [5125], 's_38_27': [2320], 's_38_8': [2260], 's_38_34': [5398], 's_38_17': [2620], 's_38_16': [4858], 's_38_28': [5068], 's_3_7': [5171], 's_3_8': [5290], 's_3_37': [2156], 's_3_40': [5261], 's_5_8': [1963], 's_5_40': [5336], 's_5_34': [2278], 's_27_15': [4870], 's_27_23': [5170], 's_27_28': [2367, 5097], 's_27_32': [2350], 's_27_39': [2259], 's_27_44': [1992], 's_32_15': [2005], 's_32_44': [1825], 's_32_37': [2471], 's_32_28': [2531], 's_7_44': [1901], 's_7_8': [1961], 's_7_16': [2201], 's_7_28': [4977], 's_28_8': [2351], 's_28_37': [2261], 's_37_15': [5035], 's_37_44': [2456], 's_8_15': [4990], 's_8_30': [2036], 's_8_40': [5410], 's_16_15': [2006], 's_16_39': [2335], 's_16_44': [4899], 's_30_15': [5006, 5005]}</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0008843537414965987</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.001708824039058567</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>{0: [2323, 5382, 5383, 4513, 2668, 2667, 2666, 2665, 2664, 4648, 2588], 2: [2579, 5247, 2578, 5248, 5129, 2577], 's_0_2': [5084, 2636], 4: [4559, 2258, 4558, 4557], 's_0_4': [2483], 12: [2696, 4619, 2693, 2695, 2694], 's_0_12': [4904], 14: [5412, 5413, 2593, 4705, 4706, 4707, 2592, 2591, 2590, 2589, 4708], 's_0_14': [4709], 18: [2321, 2247, 5246, 2353, 2068, 5306, 2322, 2067, 5307], 's_0_18': [2368], 22: [2739, 2740, 2741, 5364, 5054, 5365, 5366, 5367, 5368, 2622, 2621], 's_0_22': [2653], 26: [2304, 2305, 4886, 4887, 4889, 4888], 's_0_26': [4874], 29: [1842, 5323, 2309, 5322, 5321, 5096, 5094, 2308, 5095, 2051, 2052], 's_0_29': [2473], 33: [4737, 2319, 4601, 4602, 4603, 2547, 2546, 2545, 2544], 's_0_33': [4588, 2468], 36: [2053, 2219, 2638, 5501, 5502, 5503, 2727, 2728, 2729, 5504], 's_0_36': [5384], 41: [5529, 2608, 2607, 2697, 5204, 5203, 1903, 1902, 5199, 5202, 5201, 1887, 5200], 's_0_41': [5414, 2698], 42: [4781, 4780, 1944, 5442, 5441, 2233, 2232, 5276, 5275, 1947, 1946, 1945], 's_0_42': [2324, 5517], 43: [5381, 4736, 2170, 2171, 2173, 2172], 's_0_43': [2263, 5427], 45: [1934, 1933, 1932, 1931, 4512, 4511, 4510, 1913, 1914, 4809, 1930], 's_0_45': [5621, 2669, 5624, 5620, 5623, 5622], 10: [2438, 2439, 2442, 2441, 2440], 's_2_10': [5278], 's_2_12': [5114], 's_2_14': [5294], 20: [1783, 5454, 5456, 5457, 2382, 5232, 5455, 2429, 2427, 2428], 's_2_20': [2337], 24: [4991, 2292, 2291, 2288, 2289, 2290], 's_2_24': [2307], 25: [2384, 5578, 2444, 5576, 5577], 's_2_25': [5563], 31: [5650, 5009, 5008, 2114, 2516, 2517, 2518, 2519, 5653, 5652, 5651], 's_2_31': [5263], 35: [5308, 2485, 4992, 2486, 2489, 2488, 2487], 's_2_35': [5098], 's_2_41': [2742, 5249], 1: [2140, 4840, 2273, 4543, 4544, 4841, 2215, 4839, 4541, 2214, 4542], 's_4_1': [4481], 9: [5113, 2426, 2423, 2424, 2425], 's_4_9': [4527], 's_4_12': [2603], 13: [4645, 2125, 4556, 2123, 2124], 's_4_13': [4646], 21: [5546, 5545, 2098, 2097, 2096, 4587, 4586, 2093, 2094, 2095], 's_4_21': [2333], 's_12_1': [2678], 6: [4929, 1738, 1737, 1736, 1735, 1734, 4724, 4723, 4722, 4721, 4720, 4719], 's_12_6': [2649], 11: [4829, 4828, 1782, 4827, 4826, 4825, 4824, 1781, 1780], 's_12_11': [4814], 19: [4574, 4573, 1859, 1858, 2349, 1857, 1856, 1855, 1854, 4570, 4571, 4572], 's_12_19': [2633], 's_12_31': [4994], 38: [4979, 2562, 2650, 4934, 2563, 4946, 4947, 4948, 4949, 2561], 's_12_38': [4964], 's_12_41': [2682, 2681], 's_14_1': [2139], 3: [5111, 5291, 2188, 2184, 2185, 2186, 2187], 's_14_3': [4691], 5: [5338, 5337, 2293, 5484, 5485, 5486, 5487], 's_14_5': [2548], 's_14_19': [2004], 's_14_20': [2338], 's_14_24': [4692], 27: [5159, 5158, 5157, 5156, 5230, 4797, 4796, 2020, 2021, 2022], 's_14_27': [2049], 's_14_29': [5324], 's_14_31': [2605], 32: [5038, 5037, 4749, 4750, 4751, 4752, 2366, 2365], 's_14_32': [5023], 's_14_33': [2514], 's_14_36': [5339], 's_14_45': [2378, 2379], 's_18_3': [2112], 7: [5049, 5050, 2245, 2246, 5051], 's_18_7': [5142], 's_18_20': [5352], 23: [5110, 5515, 5530, 2007, 2008, 2009], 's_18_23': [5215], 28: [5126, 5127, 5053, 5052, 2306], 's_18_28': [4962], 's_18_29': [2217], 34: [2549, 5353, 5470, 5471, 2503, 5472, 5473], 's_18_34': [2248], 's_18_35': [5397], 37: [5022, 5424, 5425, 1813, 1812, 5021, 5020, 5019, 1811], 's_18_37': [5379, 5380], 's_18_42': [5292], 's_22_1': [2754], 's_22_6': [2755], 8: [2576, 1978, 1977, 1975, 4915, 4916, 1976, 4917, 4918], 's_22_8': [4919], 's_22_23': [1993], 's_22_31': [5173], 's_22_35': [2383], 40: [5591, 5575, 5259, 5350, 5590, 2039, 5260, 2038], 's_22_40': [1917], 's_22_43': [5351], 's_26_1': [2155], 's_26_3': [4676], 's_26_7': [4856], 's_26_10': [4873], 's_26_11': [2395, 4872], 's_26_13': [4871], 16: [2381, 2500, 4900, 4903, 2396, 4902, 4901], 's_26_16': [2080], 39: [4661, 2230, 4783, 4782, 2229], 's_26_39': [4932], 's_29_6': [1721], 's_29_7': [1751], 's_29_10': [2457], 's_29_19': [5214], 's_29_20': [5637], 's_29_25': [2294], 30: [2144, 2143, 4976, 4975, 2141, 2142], 's_29_30': [2111], 's_29_35': [2398], 's_29_37': [2066], 's_29_40': [1843], 's_29_41': [5320], 's_29_42': [5245], 's_29_43': [5411, 2218], 's_33_6': [2484], 's_33_8': [2469, 2470], 's_33_10': [2453], 's_33_11': [4678, 2604], 's_33_13': [2063], 's_33_16': [4933], 's_33_19': [2199], 's_33_27': [2274], 's_33_38': [4813], 's_33_41': [2532, 5083], 's_33_43': [2154], 's_36_5': [2083], 's_36_27': [5144], 's_36_34': [5474], 's_36_35': [5309], 's_36_37': [2023, 2024], 's_36_41': [2637], 's_36_42': [2174], 's_41_5': [5544, 1814], 's_41_10': [5217], 's_41_20': [1918], 's_41_27': [2712], 's_41_31': [5218], 's_41_37': [5274], 's_41_38': [5189, 5188], 's_41_42': [5305], 's_41_45': [5500], 's_42_5': [2203], 's_42_8': [5440], 's_42_13': [4644], 's_42_20': [5277], 's_42_25': [2234], 's_42_30': [5066, 2231], 's_42_39': [4659, 4660], 's_42_45': [4690], 's_43_5': [5396], 's_43_13': [2109], 's_43_32': [4765, 4766], 's_43_38': [4931], 's_45_1': [2108], 's_45_6': [1840], 's_45_9': [2408], 's_45_19': [1973], 's_45_31': [5635, 5636], 's_45_40': [5559, 1919], 's_10_1': [4842], 's_10_5': [5293, 2533], 's_10_8': [2455], 's_10_9': [4482], 's_10_16': [4963], 's_10_39': [4812, 2380], 's_20_30': [5231], 44: [4675, 4674, 1899, 5187, 5186, 5185, 5184, 1827, 1826, 5004, 1900], 's_20_44': [2352], 's_20_8': [1948, 5335], 's_20_9': [5172], 's_20_16': [2397], 's_20_19': [5439], 's_20_23': [1888], 's_20_24': [5082], 's_20_25': [5683], 's_20_37': [5394], 's_20_40': [2128], 's_24_30': [5216], 's_24_11': [4811], 's_24_19': [4617], 's_24_21': [2303], 's_24_37': [5036], 's_25_34': [2504], 's_25_35': [5638], 's_25_40': [2189], 's_31_27': [5143], 's_31_30': [5666], 's_31_5': [5606, 5607, 2354], 's_31_9': [5128], 's_31_21': [2339, 5547], 's_31_23': [5516], 's_31_32': [5007], 's_31_38': [5458, 2564], 's_35_27': [2472], 's_35_8': [4993], 's_35_9': [4857], 's_35_11': [2515, 4798], 's_35_16': [4978], 's_35_28': [2336], 's_35_34': [5428], 15: [1989, 4885, 1991, 1990], 's_1_15': [4540], 's_1_27': [4855], 's_1_30': [1870], 's_1_39': [2228], 's_1_44': [4854], 's_9_39': [2409], 's_9_44': [2411], 's_9_8': [2410], 's_9_11': [2454, 4753], 's_9_28': [5112], 's_13_15': [4810], 's_13_44': [1974], 's_13_3': [2169], 's_13_38': [2110], 's_21_30': [5141], 's_21_37': [5426], 's_21_40': [1979], 's_21_5': [1994], 's_21_6': [2079], 's_21_19': [2243, 4526], 's_21_32': [2364], 's_21_34': [2204], 's_6_27': [4735], 's_6_44': [4959], 's_6_37': [5289], 's_6_5': [5469], 's_6_11': [5304], 17: [2635, 2634], 's_6_17': [4739], 's_6_32': [1749], 's_11_39': [2530], 's_11_37': [4944], 's_11_40': [1796, 1797], 's_11_17': [2619], 's_11_19': [4869], 's_11_32': [1884], 's_19_7': [1841], 's_19_34': [1844], 's_19_23': [5125], 's_38_27': [2320], 's_38_8': [2260], 's_38_34': [5398], 's_38_17': [2620], 's_38_16': [4858], 's_38_28': [5068], 's_3_7': [5171], 's_3_8': [5290], 's_3_37': [2156], 's_3_40': [5261], 's_5_8': [1963], 's_5_40': [5336], 's_5_34': [2278], 's_27_15': [4870], 's_27_23': [5170], 's_27_28': [2367, 5097], 's_27_32': [2350], 's_27_39': [2259], 's_27_44': [1992], 's_32_15': [2005], 's_32_44': [1825], 's_32_37': [2471], 's_32_28': [2531], 's_7_44': [1901], 's_7_8': [1961], 's_7_16': [2201], 's_7_28': [4977], 's_28_8': [2351], 's_28_37': [2261], 's_37_15': [5035], 's_37_44': [2456], 's_8_15': [4990], 's_8_30': [2036], 's_8_40': [5410], 's_16_15': [2006], 's_16_39': [2335], 's_16_44': [4899], 's_30_15': [5006, 5005]}</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0.0008843537414965987</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.001708824039058567</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>{0: [2427, 2426], 2: [5188, 5187], 9: [2203, 5113, 2352, 2202, 5112], 12: [5067, 2323, 2321, 2322], 14: [2578, 5082, 2577, 5083], 20: [5456, 2248, 5308, 5307, 2247], 22: [2412, 5503, 2413], 23: [5352, 5354, 2653, 5353], 28: [2698, 5459, 5458, 5457, 2428], 34: [5366, 2473, 5368, 5367], 44: [2456, 5202, 2457], 45: [5081, 2218, 2217, 5157, 5158], 8: [2443, 2441, 5247, 5248, 2442], 10: [2487, 2488, 5339, 5338], 16: [5186, 5171, 5262, 2157, 5261], 30: [5233, 2591, 2592], 31: [5263, 2608, 2606, 2607], 36: [2531, 2532, 2534, 2533], 41: [5489, 5172, 5173, 2668, 2666, 2667], 24: [2231, 2232, 5324, 5323, 5322], 25: [5264, 5038, 5114, 2637, 2636], 29: [5592, 2353, 2354], 35: [5216, 5218, 5217], 38: [2291, 5052, 5053, 5054], 42: [5142, 2368, 2367, 5097, 5098], 3: [2579, 5472, 5473, 2638, 5474], 5: [5293, 5292, 2293, 2292], 7: [5232, 2383, 5128, 2382], 27: [5608, 2337, 2338, 2339, 5607], 32: [5398, 5396, 5397], 39: [5201, 5442, 2307, 2308], 1: [2549, 2546, 2547, 2548], 13: [5381, 2519, 5382, 2517, 2518, 5383], 21: [2635, 5008, 5068, 2516], 40: [5429, 5428], 4: [2472], 17: [2294, 2593, 5546, 5548, 5547], 33: [2669, 2369, 5531, 5533, 5532], 19: [2504, 2503, 2501, 2502], 18: [5294, 2683, 2682], 37: [5609, 2729, 2728, 2621, 2727, 5129], 46: [2278, 5414, 5412, 5413], 6: [2561, 2562, 5593, 2564, 2563], 15: [2396, 5427, 2398, 2397], 26: [2713, 2712, 2697, 5143, 5144], 43: [2623, 5203, 5279, 2622], 11: [5277, 5278]}</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.01181544148386103</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01423401929065904</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>{0: [2427, 2426], 2: [5188, 5187], 9: [2203, 5113, 2352, 2202, 5112], 12: [5067, 2323, 2321, 2322], 14: [2578, 5082, 2577, 5083], 20: [5456, 2248, 5308, 5307, 2247], 22: [2412, 5503, 2413], 23: [5352, 5354, 2653, 5353], 28: [2698, 5459, 5458, 5457, 2428], 34: [5366, 2473, 5368, 5367], 44: [2456, 5202, 2457], 45: [5081, 2218, 2217, 5157, 5158], 8: [2443, 2441, 5247, 5248, 2442], 10: [2487, 2488, 5339, 5338], 16: [5186, 5171, 5262, 2157, 5261], 30: [5233, 2591, 2592], 31: [5263, 2608, 2606, 2607], 36: [2531, 2532, 2534, 2533], 41: [5489, 5172, 5173, 2668, 2666, 2667], 24: [2231, 2232, 5324, 5323, 5322], 25: [5264, 5038, 5114, 2637, 2636], 29: [5592, 2353, 2354], 35: [5216, 5218, 5217], 38: [2291, 5052, 5053, 5054], 42: [5142, 2368, 2367, 5097, 5098], 3: [2579, 5472, 5473, 2638, 5474], 5: [5293, 5292, 2293, 2292], 7: [5232, 2383, 5128, 2382], 27: [5608, 2337, 2338, 2339, 5607], 32: [5398, 5396, 5397], 39: [5201, 5442, 2307, 2308], 1: [2549, 2546, 2547, 2548], 13: [5381, 2519, 5382, 2517, 2518, 5383], 21: [2635, 5008, 5068, 2516], 40: [5429, 5428], 4: [2472], 17: [2294, 2593, 5546, 5548, 5547], 33: [2669, 2369, 5531, 5533, 5532], 19: [2504, 2503, 2501, 2502], 18: [5294, 2683, 2682], 37: [5609, 2729, 2728, 2621, 2727, 5129], 46: [2278, 5414, 5412, 5413], 6: [2561, 2562, 5593, 2564, 2563], 15: [2396, 5427, 2398, 2397], 26: [2713, 2712, 2697, 5143, 5144], 43: [2623, 5203, 5279, 2622], 11: [5277, 5278]}</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01181544148386103</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01423401929065904</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>{0: [4542, 2470, 2394, 4573, 2469, 2468, 2405, 2406, 2407, 4423], 2: [2510, 3883, 2495, 4003, 2181, 4001, 2315, 4002], 's_0_2': [3987], 9: [2185, 4614, 4511, 1764, 2078, 4708, 4707, 4706, 4734, 4735, 4736, 2079], 's_0_9': [2484], 12: [4362, 1702, 4298, 4299, 4361, 2107, 4300], 's_0_12': [2378], 14: [3968, 4343, 4857, 4856, 4855, 4854, 4853, 1615, 1614, 1613, 1610, 1611, 1612], 's_0_14': [2485], 20: [2198, 4480, 4483, 4482, 4481], 's_0_20': [2438], 22: [4902, 4344, 4345, 4346, 4348, 4347, 2290, 2289, 2288, 2287], 's_0_22': [4422], 23: [2515, 1624, 4873, 4872, 1625, 1626, 1627, 1628, 1629, 1630, 4838, 4839, 4871, 4870, 1900], 's_0_23': [4888], 28: [2483, 2482, 2392, 3803, 3804, 1879, 1880, 1881, 4317, 4316, 4315, 4255, 1957], 's_0_28': [4558], 34: [2364, 4452, 4451, 1941, 1942, 4448, 1943, 4449, 2363, 4450], 's_0_34': [4497], 44: [4658, 1719, 4823, 2274, 4827, 4826, 4824, 4825], 's_0_44': [4812], 45: [1718, 1883, 1658, 4373, 4603, 2273, 1659, 4599, 4600, 4601, 4602], 's_0_45': [2408], 8: [1657, 2512, 2511, 4078, 2450, 3942, 3941, 3940, 3939, 3937, 1656, 1655, 3938], 's_2_8': [2180], 10: [2030, 2259, 4676, 4674, 1824, 1823, 3897, 3896, 1822, 1821, 1820, 3895, 4675, 3894], 's_2_10': [2285], 16: [4463, 1598, 1597, 1596, 4091, 4090, 4089, 4088], 's_2_16': [4106], 30: [2320, 2319, 2318, 2420, 2421, 2422, 4465, 4466, 4467], 's_2_30': [3972], 31: [2345, 2346, 1641, 1537, 1536, 2376, 4148, 4152, 4151, 4150, 4149], 's_2_31': [2316], 36: [4693, 2574, 2573, 2572, 2571, 2570, 2569, 4000, 1910, 3773, 3774, 3808, 3807, 3806, 3805, 1909], 's_2_36': [2524, 2525], 41: [4048, 2021, 2020, 2361, 4047, 4046, 2045, 2046, 2047, 2048, 2049, 4781], 's_2_41': [4017], 's_9_14': [2080], 24: [4358, 4403, 1734, 1733, 4628, 4703, 1643, 1644], 's_9_24': [4689], 25: [4528, 4527, 4212, 2347, 2351, 2350, 2349, 2348], 's_9_25': [4692], 29: [4077, 2213, 4331, 2211, 2212], 's_9_29': [2214], 's_9_34': [1944], 35: [3909, 1775, 1776, 1779, 1778, 1777], 's_9_35': [4749], 's_9_36': [4633, 2499], 38: [3864, 1594, 3863, 4929, 1505, 1506, 1507, 1508, 1509, 1765, 1504, 4808, 4807], 's_9_38': [4613], 's_9_41': [4630], 42: [4193, 4117, 1551, 2091, 1552, 1553, 4598, 2092, 2093, 4645, 4644, 4643, 1599], 's_9_42': [1959], 's_9_44': [1899], 's_9_45': [4673], 3: [1940, 4257, 4256, 3969, 3970, 2061, 2060], 's_12_3': [2062], 5: [4389, 1808, 1809, 1810, 5037, 5036, 5035, 5034, 1811], 's_12_5': [1867, 4464], 7: [4240, 1841, 4269, 1837, 1838, 2513, 2514, 4753, 1839, 1840, 4750, 4751, 4752], 's_12_7': [4314], 's_12_8': [4163, 1701], 's_12_16': [1687], 's_12_20': [2183], 's_12_24': [1703], 27: [4194, 4195, 2201, 2200, 2199, 1926, 1927, 1928, 4540, 4541], 's_12_27': [2108], 's_12_28': [2272], 32: [1671, 4208, 4209, 1792, 4075, 4074, 1791], 's_12_32': [4404], 39: [4554, 1825, 4764, 1745, 1746, 1749, 1747, 1748], 's_12_39': [4419], 's_12_41': [1897, 4360], 's_12_42': [4297], 1: [2239, 2230, 2229, 2228, 2243, 2240, 2241, 2242], 's_14_1': [2260, 4977], 's_14_3': [3983, 3984, 1865], 's_14_8': [3998], 13: [2140, 2139, 4029, 4030, 4031, 2138, 2137, 4122, 4121, 2135, 2136], 's_14_13': [1685], 21: [4858, 4123, 4843, 4213, 2541, 4408, 2545, 4018, 2544, 2542, 2543], 's_14_21': [4842], 's_14_23': [1735], 's_14_30': [2425, 4917], 's_14_31': [4238], 40: [2330, 3923, 3924, 3927, 3926, 2074, 3925], 's_14_40': [1595], 's_14_41': [2170], 's_14_42': [4043, 1550], 's_14_45': [4538], 's_20_1': [4496], 4: [4374, 2033, 4375], 's_20_4': [2003], 's_20_7': [2498], 17: [4629, 1854, 4570, 4571, 2254, 2255, 2256, 4286, 2152, 2153], 's_20_17': [4526], 's_20_28': [2393], 33: [2528, 4363, 4226, 4227, 4228, 2497, 2496], 's_20_33': [4498], 's_20_34': [4479], 's_20_36': [3809, 2629, 2630, 2631, 2632, 2633], 's_20_45': [2258], 's_22_8': [1732, 4313], 's_22_10': [4811], 's_22_13': [4646], 19: [4798, 2034, 2035, 4797, 4794, 4795, 2155, 4796], 's_22_19': [2335], 's_22_23': [2275], 's_22_28': [2467], 's_22_33': [2601, 4229, 2602], 's_22_36': [2554, 2555, 2556, 2557, 2558], 's_22_39': [4329], 's_22_44': [2305], 's_23_1': [4886], 's_23_7': [2215], 18: [2381, 4737, 2380], 's_23_18': [2365], 's_23_19': [1930], 's_23_27': [4947, 2245], 's_23_28': [1639], 's_23_30': [4887], 's_23_32': [4059, 4058], 's_23_34': [1673, 4523], 's_23_36': [3759, 3758], 37: [5007, 5006, 5005, 4914, 4915, 4990, 2065], 's_23_37': [2410], 's_23_40': [1640], 's_23_41': [4840], 46: [2165, 4060, 4768, 4061, 2456, 2455, 2454, 2453, 2452, 2166, 4136, 2167, 4301, 4302], 's_23_46': [2395], 's_28_3': [2122], 6: [2076, 4198, 4197, 4196], 's_28_6': [2377], 's_28_8': [4318, 4303], 's_28_10': [1699], 15: [1731, 1730, 3879, 1729], 's_28_15': [4014], 26: [4765, 1915, 4135, 1914, 1913, 4133, 4134, 1911, 1912], 's_28_26': [4119], 's_28_29': [4332], 's_28_32': [4284, 1866], 's_28_33': [4333], 's_28_34': [4210], 's_28_41': [4270], 43: [4015, 1986, 4436, 1987, 1853, 1990, 1989, 4434, 4433, 4435, 1988], 's_28_43': [4045], 's_28_46': [2302], 's_34_1': [4572], 's_34_3': [4180], 's_34_4': [4525], 's_34_25': [2303], 's_34_39': [1793], 's_34_43': [4165], 's_34_45': [4587], 's_34_46': [4662], 's_44_24': [1645], 's_44_26': [1869], 's_44_27': [4661], 's_44_30': [4782], 's_44_39': [4809], 's_44_43': [4810], 's_44_45': [1884], 's_45_4': [1717], 's_45_16': [4478], 's_45_19': [1660], 's_45_24': [1582], 's_45_26': [4615], 's_45_35': [1794], 's_45_42': [1868], 's_8_6': [4273, 2586], 's_8_33': [4393], 's_8_15': [3953], 's_8_17': [2270], 's_8_21': [4032, 2300, 4033], 's_8_31': [4178], 's_8_32': [1672, 4283], 's_8_38': [3818], 's_8_42': [1566, 1565], 11: [1973, 2210, 1972, 1971, 3986, 3985, 1970], 's_10_11': [3910, 2105], 's_10_36': [2434, 3898], 's_10_46': [3881], 's_10_3': [2015], 's_10_15': [1714], 's_10_18': [2304], 's_10_35': [1805], 's_10_43': [1985], 's_16_24': [4568], 's_16_29': [2225], 's_16_31': [4253], 's_16_35': [4104], 's_16_39': [1761], 's_16_42': [4553], 's_30_11': [1958], 's_30_25': [2333], 's_30_4': [2018], 's_30_17': [4556, 2123], 's_30_18': [4722], 's_30_21': [4438], 's_30_31': [4063], 's_30_42': [4166, 4167], 's_31_25': [2301], 's_31_40': [2375], 's_31_46': [2016], 's_31_24': [4388], 's_31_41': [4092], 's_31_42': [4267], 's_31_43': [4418], 's_36_1': [2224], 's_36_13': [2134], 's_36_25': [4648, 4647], 's_36_3': [2059], 's_36_7': [4468], 's_36_32': [1895], 's_36_35': [1774], 's_36_38': [3772], 's_36_40': [2419], 's_36_46': [2164], 's_41_13': [2090, 3971], 's_41_27': [2063], 's_41_33': [2436, 2435], 's_41_40': [2360], 's_41_46': [4137], 's_41_7': [4720, 1974], 's_41_17': [4586], 's_41_21': [2465], 's_41_26': [4885], 's_41_37': [2036], 's_41_43': [4690], 's_24_42': [4508], 's_24_43': [4509], 's_25_1': [4437], 's_25_6': [2271], 's_25_3': [2226], 's_25_18': [5067], 's_25_21': [4407], 's_25_37': [2366], 's_29_6': [2197], 's_29_11': [2195, 2196], 's_29_42': [4376], 's_35_39': [4239], 's_35_7': [4659], 's_35_15': [3908], 's_35_43': [4524], 's_38_5': [4944], 's_38_19': [1795], 's_38_15': [3878, 1490], 's_38_37': [1826], 's_42_6': [2077], 's_42_27': [4225, 4224, 4223], 's_42_33': [4211], 's_42_32': [4073, 1491], 's_42_26': [4132], 's_42_7': [2109], 's_3_6': [4120], 's_3_13': [1925], 's_3_33': [2032], 's_3_17': [4241], 's_3_39': [1715, 3999], 's_5_46': [5022], 's_5_17': [4569], 's_5_39': [4704], 's_5_4': [4359], 's_5_18': [2396], 's_5_19': [2156], 's_5_32': [1762, 4254], 's_7_11': [4390], 's_7_13': [2154], 's_7_39': [4884], 's_7_32': [1836], 's_7_21': [4678], 's_7_37': [5004], 's_27_1': [4962], 's_27_11': [4555], 's_27_13': [4901], 's_27_15': [1716], 's_27_17': [1898], 's_27_19': [4841], 's_27_32': [1956], 's_27_37': [5021, 2306], 's_27_39': [4539], 's_32_13': [1806], 's_32_46': [4076], 's_32_15': [4164], 's_39_13': [1851, 1852, 4179], 's_1_6': [4181], 's_1_11': [3836], 's_1_13': [3956], 's_1_33': [2286, 4062], 's_1_40': [3791], 's_1_46': [3821], 's_13_11': [2150], 's_13_15': [1760], 's_13_19': [4931], 's_13_21': [2481], 's_13_33': [2451, 4168], 's_13_46': [4271], 's_21_6': [2527], 's_21_19': [2530], 's_40_15': [1684], 's_40_17': [2269], 's_4_11': [4495], 's_17_33': [2151], 's_17_19': [2019], 's_17_43': [2004], 's_33_6': [2466], 's_19_46': [2409], 's_18_46': [4933], 's_37_46': [4992], 's_37_26': [4900], 's_46_6': [2106], 's_46_26': [2031], 's_6_26': [2121], 's_15_26': [4118], 's_26_43': [4780], 's_43_11': [4405]}</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.001199367088607595</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.001954249085675611</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>{0: [4542, 2470, 2394, 4573, 2469, 2468, 2405, 2406, 2407, 4423], 2: [2510, 3883, 2495, 4003, 2181, 4001, 2315, 4002], 's_0_2': [3987], 9: [2185, 4614, 4511, 1764, 2078, 4708, 4707, 4706, 4734, 4735, 4736, 2079], 's_0_9': [2484], 12: [4362, 1702, 4298, 4299, 4361, 2107, 4300], 's_0_12': [2378], 14: [3968, 4343, 4857, 4856, 4855, 4854, 4853, 1615, 1614, 1613, 1610, 1611, 1612], 's_0_14': [2485], 20: [2198, 4480, 4483, 4482, 4481], 's_0_20': [2438], 22: [4902, 4344, 4345, 4346, 4348, 4347, 2290, 2289, 2288, 2287], 's_0_22': [4422], 23: [2515, 1624, 4873, 4872, 1625, 1626, 1627, 1628, 1629, 1630, 4838, 4839, 4871, 4870, 1900], 's_0_23': [4888], 28: [2483, 2482, 2392, 3803, 3804, 1879, 1880, 1881, 4317, 4316, 4315, 4255, 1957], 's_0_28': [4558], 34: [2364, 4452, 4451, 1941, 1942, 4448, 1943, 4449, 2363, 4450], 's_0_34': [4497], 44: [4658, 1719, 4823, 2274, 4827, 4826, 4824, 4825], 's_0_44': [4812], 45: [1718, 1883, 1658, 4373, 4603, 2273, 1659, 4599, 4600, 4601, 4602], 's_0_45': [2408], 8: [1657, 2512, 2511, 4078, 2450, 3942, 3941, 3940, 3939, 3937, 1656, 1655, 3938], 's_2_8': [2180], 10: [2030, 2259, 4676, 4674, 1824, 1823, 3897, 3896, 1822, 1821, 1820, 3895, 4675, 3894], 's_2_10': [2285], 16: [4463, 1598, 1597, 1596, 4091, 4090, 4089, 4088], 's_2_16': [4106], 30: [2320, 2319, 2318, 2420, 2421, 2422, 4465, 4466, 4467], 's_2_30': [3972], 31: [2345, 2346, 1641, 1537, 1536, 2376, 4148, 4152, 4151, 4150, 4149], 's_2_31': [2316], 36: [4693, 2574, 2573, 2572, 2571, 2570, 2569, 4000, 1910, 3773, 3774, 3808, 3807, 3806, 3805, 1909], 's_2_36': [2524, 2525], 41: [4048, 2021, 2020, 2361, 4047, 4046, 2045, 2046, 2047, 2048, 2049, 4781], 's_2_41': [4017], 's_9_14': [2080], 24: [4358, 4403, 1734, 1733, 4628, 4703, 1643, 1644], 's_9_24': [4689], 25: [4528, 4527, 4212, 2347, 2351, 2350, 2349, 2348], 's_9_25': [4692], 29: [4077, 2213, 4331, 2211, 2212], 's_9_29': [2214], 's_9_34': [1944], 35: [3909, 1775, 1776, 1779, 1778, 1777], 's_9_35': [4749], 's_9_36': [4633, 2499], 38: [3864, 1594, 3863, 4929, 1505, 1506, 1507, 1508, 1509, 1765, 1504, 4808, 4807], 's_9_38': [4613], 's_9_41': [4630], 42: [4193, 4117, 1551, 2091, 1552, 1553, 4598, 2092, 2093, 4645, 4644, 4643, 1599], 's_9_42': [1959], 's_9_44': [1899], 's_9_45': [4673], 3: [1940, 4257, 4256, 3969, 3970, 2061, 2060], 's_12_3': [2062], 5: [4389, 1808, 1809, 1810, 5037, 5036, 5035, 5034, 1811], 's_12_5': [1867, 4464], 7: [4240, 1841, 4269, 1837, 1838, 2513, 2514, 4753, 1839, 1840, 4750, 4751, 4752], 's_12_7': [4314], 's_12_8': [4163, 1701], 's_12_16': [1687], 's_12_20': [2183], 's_12_24': [1703], 27: [4194, 4195, 2201, 2200, 2199, 1926, 1927, 1928, 4540, 4541], 's_12_27': [2108], 's_12_28': [2272], 32: [1671, 4208, 4209, 1792, 4075, 4074, 1791], 's_12_32': [4404], 39: [4554, 1825, 4764, 1745, 1746, 1749, 1747, 1748], 's_12_39': [4419], 's_12_41': [1897, 4360], 's_12_42': [4297], 1: [2239, 2230, 2229, 2228, 2243, 2240, 2241, 2242], 's_14_1': [2260, 4977], 's_14_3': [3983, 3984, 1865], 's_14_8': [3998], 13: [2140, 2139, 4029, 4030, 4031, 2138, 2137, 4122, 4121, 2135, 2136], 's_14_13': [1685], 21: [4858, 4123, 4843, 4213, 2541, 4408, 2545, 4018, 2544, 2542, 2543], 's_14_21': [4842], 's_14_23': [1735], 's_14_30': [2425, 4917], 's_14_31': [4238], 40: [2330, 3923, 3924, 3927, 3926, 2074, 3925], 's_14_40': [1595], 's_14_41': [2170], 's_14_42': [4043, 1550], 's_14_45': [4538], 's_20_1': [4496], 4: [4374, 2033, 4375], 's_20_4': [2003], 's_20_7': [2498], 17: [4629, 1854, 4570, 4571, 2254, 2255, 2256, 4286, 2152, 2153], 's_20_17': [4526], 's_20_28': [2393], 33: [2528, 4363, 4226, 4227, 4228, 2497, 2496], 's_20_33': [4498], 's_20_34': [4479], 's_20_36': [3809, 2629, 2630, 2631, 2632, 2633], 's_20_45': [2258], 's_22_8': [1732, 4313], 's_22_10': [4811], 's_22_13': [4646], 19: [4798, 2034, 2035, 4797, 4794, 4795, 2155, 4796], 's_22_19': [2335], 's_22_23': [2275], 's_22_28': [2467], 's_22_33': [2601, 4229, 2602], 's_22_36': [2554, 2555, 2556, 2557, 2558], 's_22_39': [4329], 's_22_44': [2305], 's_23_1': [4886], 's_23_7': [2215], 18: [2381, 4737, 2380], 's_23_18': [2365], 's_23_19': [1930], 's_23_27': [4947, 2245], 's_23_28': [1639], 's_23_30': [4887], 's_23_32': [4059, 4058], 's_23_34': [1673, 4523], 's_23_36': [3759, 3758], 37: [5007, 5006, 5005, 4914, 4915, 4990, 2065], 's_23_37': [2410], 's_23_40': [1640], 's_23_41': [4840], 46: [2165, 4060, 4768, 4061, 2456, 2455, 2454, 2453, 2452, 2166, 4136, 2167, 4301, 4302], 's_23_46': [2395], 's_28_3': [2122], 6: [2076, 4198, 4197, 4196], 's_28_6': [2377], 's_28_8': [4318, 4303], 's_28_10': [1699], 15: [1731, 1730, 3879, 1729], 's_28_15': [4014], 26: [4765, 1915, 4135, 1914, 1913, 4133, 4134, 1911, 1912], 's_28_26': [4119], 's_28_29': [4332], 's_28_32': [4284, 1866], 's_28_33': [4333], 's_28_34': [4210], 's_28_41': [4270], 43: [4015, 1986, 4436, 1987, 1853, 1990, 1989, 4434, 4433, 4435, 1988], 's_28_43': [4045], 's_28_46': [2302], 's_34_1': [4572], 's_34_3': [4180], 's_34_4': [4525], 's_34_25': [2303], 's_34_39': [1793], 's_34_43': [4165], 's_34_45': [4587], 's_34_46': [4662], 's_44_24': [1645], 's_44_26': [1869], 's_44_27': [4661], 's_44_30': [4782], 's_44_39': [4809], 's_44_43': [4810], 's_44_45': [1884], 's_45_4': [1717], 's_45_16': [4478], 's_45_19': [1660], 's_45_24': [1582], 's_45_26': [4615], 's_45_35': [1794], 's_45_42': [1868], 's_8_6': [4273, 2586], 's_8_33': [4393], 's_8_15': [3953], 's_8_17': [2270], 's_8_21': [4032, 2300, 4033], 's_8_31': [4178], 's_8_32': [1672, 4283], 's_8_38': [3818], 's_8_42': [1566, 1565], 11: [1973, 2210, 1972, 1971, 3986, 3985, 1970], 's_10_11': [3910, 2105], 's_10_36': [2434, 3898], 's_10_46': [3881], 's_10_3': [2015], 's_10_15': [1714], 's_10_18': [2304], 's_10_35': [1805], 's_10_43': [1985], 's_16_24': [4568], 's_16_29': [2225], 's_16_31': [4253], 's_16_35': [4104], 's_16_39': [1761], 's_16_42': [4553], 's_30_11': [1958], 's_30_25': [2333], 's_30_4': [2018], 's_30_17': [4556, 2123], 's_30_18': [4722], 's_30_21': [4438], 's_30_31': [4063], 's_30_42': [4166, 4167], 's_31_25': [2301], 's_31_40': [2375], 's_31_46': [2016], 's_31_24': [4388], 's_31_41': [4092], 's_31_42': [4267], 's_31_43': [4418], 's_36_1': [2224], 's_36_13': [2134], 's_36_25': [4648, 4647], 's_36_3': [2059], 's_36_7': [4468], 's_36_32': [1895], 's_36_35': [1774], 's_36_38': [3772], 's_36_40': [2419], 's_36_46': [2164], 's_41_13': [2090, 3971], 's_41_27': [2063], 's_41_33': [2436, 2435], 's_41_40': [2360], 's_41_46': [4137], 's_41_7': [4720, 1974], 's_41_17': [4586], 's_41_21': [2465], 's_41_26': [4885], 's_41_37': [2036], 's_41_43': [4690], 's_24_42': [4508], 's_24_43': [4509], 's_25_1': [4437], 's_25_6': [2271], 's_25_3': [2226], 's_25_18': [5067], 's_25_21': [4407], 's_25_37': [2366], 's_29_6': [2197], 's_29_11': [2195, 2196], 's_29_42': [4376], 's_35_39': [4239], 's_35_7': [4659], 's_35_15': [3908], 's_35_43': [4524], 's_38_5': [4944], 's_38_19': [1795], 's_38_15': [3878, 1490], 's_38_37': [1826], 's_42_6': [2077], 's_42_27': [4225, 4224, 4223], 's_42_33': [4211], 's_42_32': [4073, 1491], 's_42_26': [4132], 's_42_7': [2109], 's_3_6': [4120], 's_3_13': [1925], 's_3_33': [2032], 's_3_17': [4241], 's_3_39': [1715, 3999], 's_5_46': [5022], 's_5_17': [4569], 's_5_39': [4704], 's_5_4': [4359], 's_5_18': [2396], 's_5_19': [2156], 's_5_32': [1762, 4254], 's_7_11': [4390], 's_7_13': [2154], 's_7_39': [4884], 's_7_32': [1836], 's_7_21': [4678], 's_7_37': [5004], 's_27_1': [4962], 's_27_11': [4555], 's_27_13': [4901], 's_27_15': [1716], 's_27_17': [1898], 's_27_19': [4841], 's_27_32': [1956], 's_27_37': [5021, 2306], 's_27_39': [4539], 's_32_13': [1806], 's_32_46': [4076], 's_32_15': [4164], 's_39_13': [1851, 1852, 4179], 's_1_6': [4181], 's_1_11': [3836], 's_1_13': [3956], 's_1_33': [2286, 4062], 's_1_40': [3791], 's_1_46': [3821], 's_13_11': [2150], 's_13_15': [1760], 's_13_19': [4931], 's_13_21': [2481], 's_13_33': [2451, 4168], 's_13_46': [4271], 's_21_6': [2527], 's_21_19': [2530], 's_40_15': [1684], 's_40_17': [2269], 's_4_11': [4495], 's_17_33': [2151], 's_17_19': [2019], 's_17_43': [2004], 's_33_6': [2466], 's_19_46': [2409], 's_18_46': [4933], 's_37_46': [4992], 's_37_26': [4900], 's_46_6': [2106], 's_46_26': [2031], 's_6_26': [2121], 's_15_26': [4118], 's_26_43': [4780], 's_43_11': [4405]}</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0.001199367088607595</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.001954249085675611</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>{0: [1915, 5456, 1916, 1917, 1918, 5455], 1: [5021, 1963, 5020, 1961, 1962], 2: [5065, 2246, 5066], 5: [2322, 2321, 4960, 4961, 4962], 6: [5202, 5199, 5200, 5201], 9: [5323, 2216, 5050, 5051, 2412, 2411, 5052], 10: [2024, 2217, 2218, 5440, 5441, 2219], 11: [2023, 5095, 2022], 17: [4975, 4976, 2307, 2306, 4991, 2141], 18: [4990, 5110, 1991, 1992], 21: [2189, 5291, 2188], 24: [5457, 2293, 2292], 31: [2143, 5486], 32: [2323, 5367, 5364, 5365, 5366], 33: [5277, 5275, 5276], 35: [2053, 2052, 2051], 37: [5005, 2113, 2111, 2112], 45: [5216, 5127, 5125, 2187, 5126], 3: [2291, 5037, 5035, 5036], 4: [5352, 5350, 2308, 5351], 12: [5262, 5260, 5261], 19: [5487, 2261, 2338, 2337, 5142], 20: [5335, 2038, 5337, 5336], 28: [2368, 5305, 5306, 5307], 29: [5082, 5081, 5080], 38: [2007, 2006], 39: [5155, 2142, 5157, 5156], 40: [5186, 5185], 42: [5425, 2008, 5290, 1931, 1932], 47: [2065, 2068, 5245, 2066, 2067], 13: [5379, 5470, 1948, 1946, 1947], 14: [2171, 5170, 5171, 2173, 2172], 25: [2247, 5247, 5246], 27: [2158, 5140, 2156, 5141, 2157], 36: [2367, 5112], 41: [5111, 2128, 2127, 2126], 16: [5411, 5381, 5292, 2203], 30: [5426, 2397, 2398, 5427], 34: [5097, 5232, 2353, 2352], 7: [1901, 1902], 23: [2098, 5215, 2096, 2097], 43: [5321, 5322], 26: [2232, 5096, 2231], 46: [2381, 2382, 2383, 5395, 5396, 5397], 15: [1976, 1978, 1977], 22: [1993, 5380], 44: [2248, 5472, 5471], 8: [2081, 2083, 2082, 5230, 5231]}</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01854418682795699</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.01862712671668864</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>{0: [1915, 5456, 1916, 1917, 1918, 5455], 1: [5021, 1963, 5020, 1961, 1962], 2: [5065, 2246, 5066], 5: [2322, 2321, 4960, 4961, 4962], 6: [5202, 5199, 5200, 5201], 9: [5323, 2216, 5050, 5051, 2412, 2411, 5052], 10: [2024, 2217, 2218, 5440, 5441, 2219], 11: [2023, 5095, 2022], 17: [4975, 4976, 2307, 2306, 4991, 2141], 18: [4990, 5110, 1991, 1992], 21: [2189, 5291, 2188], 24: [5457, 2293, 2292], 31: [2143, 5486], 32: [2323, 5367, 5364, 5365, 5366], 33: [5277, 5275, 5276], 35: [2053, 2052, 2051], 37: [5005, 2113, 2111, 2112], 45: [5216, 5127, 5125, 2187, 5126], 3: [2291, 5037, 5035, 5036], 4: [5352, 5350, 2308, 5351], 12: [5262, 5260, 5261], 19: [5487, 2261, 2338, 2337, 5142], 20: [5335, 2038, 5337, 5336], 28: [2368, 5305, 5306, 5307], 29: [5082, 5081, 5080], 38: [2007, 2006], 39: [5155, 2142, 5157, 5156], 40: [5186, 5185], 42: [5425, 2008, 5290, 1931, 1932], 47: [2065, 2068, 5245, 2066, 2067], 13: [5379, 5470, 1948, 1946, 1947], 14: [2171, 5170, 5171, 2173, 2172], 25: [2247, 5247, 5246], 27: [2158, 5140, 2156, 5141, 2157], 36: [2367, 5112], 41: [5111, 2128, 2127, 2126], 16: [5411, 5381, 5292, 2203], 30: [5426, 2397, 2398, 5427], 34: [5097, 5232, 2353, 2352], 7: [1901, 1902], 23: [2098, 5215, 2096, 2097], 43: [5321, 5322], 26: [2232, 5096, 2231], 46: [2381, 2382, 2383, 5395, 5396, 5397], 15: [1976, 1978, 1977], 22: [1993, 5380], 44: [2248, 5472, 5471], 8: [2081, 2083, 2082, 5230, 5231]}</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0.01854418682795699</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01862712671668864</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>{0: [4015, 3387, 3386, 3385, 1952, 1956, 1955, 1954, 1953], 1: [3281, 1880, 2177, 4045, 2135, 3958, 4046, 3957, 2178, 2179, 2180, 3956], 's_0_1': [1925], 2: [2030, 3912, 3908, 3911, 2105, 3909, 1970, 3910], 's_0_2': [3880], 5: [1942, 1936, 1937, 3611, 3610, 1938, 1941, 1940, 1939], 's_0_5': [4000], 6: [1592, 1593, 1594, 1595, 4181, 2076, 1596, 4135, 4134, 4133], 's_0_6': [2016], 9: [3928, 3927, 3279, 3926, 3925, 3924, 1816, 1817, 1818, 1819, 1820], 's_0_9': [3355, 3354], 10: [3280, 2056, 1638, 2061, 2060, 1639, 3788, 3789, 2057, 2058, 2059, 3790], 's_0_10': [2045], 11: [3655, 1968, 1966, 1967, 3430, 2296, 2297, 3432, 3431], 's_0_11': [2357], 17: [3849, 3854, 1863, 1864, 3850, 3853, 3852, 3851], 's_0_17': [3865], 18: [1832, 3340, 3175, 1924, 3189, 1921, 1923, 1922], 's_0_18': [3805], 21: [3643, 2448, 2447, 2311, 2312, 3508, 2344, 2343, 2193, 3507], 's_0_21': [2192], 24: [1866, 4119, 2253, 2254, 2255, 4120, 4106, 4123, 4122, 4121, 2151], 's_0_24': [2031], 31: [3657, 2418, 2476, 3673, 2477, 2478], 's_0_31': [2462], 32: [3476, 1713, 1712, 2222, 3446, 3445, 3444], 's_0_32': [2207], 33: [3713, 3714, 3715, 3719, 3718, 3717, 3716], 's_0_33': [1969], 35: [3763, 3762, 2029, 3759, 3760, 3761], 's_0_35': [3730], 37: [4029, 4030, 2001, 4315, 4272, 4271, 4270, 2002], 's_0_37': [1957], 45: [4213, 4208, 3462, 2358, 2359, 2360, 2361, 2362, 4212, 4209, 4210, 4211], 's_0_45': [4225], 's_1_2': [2165], 3: [2494, 2495, 2496, 1986, 4150, 4151, 4152, 4153], 's_1_3': [2571, 2570, 3943], 4: [2661, 2660, 2659, 2658, 3341, 3342, 3343, 3344, 2657], 's_1_4': [2236], 's_1_5': [3984, 3985], 's_1_9': [4014, 1821], 12: [2256, 4182, 4183, 2601, 2600, 3884, 2597, 2598, 3823, 2599], 's_1_12': [2555], 19: [3369, 3368, 3370, 3583, 2493, 3371, 3372, 1787, 3373, 2492], 's_1_19': [2221], 20: [2568, 3625, 2569, 3778, 1998, 1999, 3775, 3777, 3776], 's_1_20': [2164], 28: [2042, 2043, 3701, 1656, 1655, 1654, 3699, 3700], 's_1_28': [3999, 3998], 29: [3624, 1726, 1727, 1728, 4075, 4074, 3969, 1730, 1729], 's_1_29': [1865], 's_1_35': [3686], 's_1_37': [3954, 1775], 38: [2176, 3233, 3236, 3234, 3235], 's_1_38': [2116], 39: [2119, 2241, 3806, 2239, 4079, 4078, 4077, 2240], 's_1_39': [2585], 40: [1876, 1852, 1851, 1850, 1849, 3294, 1847, 1848], 's_1_40': [1836], 42: [2298, 1878, 3668, 3669, 3672, 3671, 3670], 's_1_42': [3596], 47: [3413, 3418, 3417, 3414, 3416, 3415], 's_1_47': [2162], 13: [1671, 3519, 1668, 1670, 3744, 3743, 1669], 's_2_13': [3923], 14: [4166, 2212, 3687, 2208, 2211, 2210, 2209], 's_2_14': [2106], 's_2_17': [1985], 25: [4254, 2315, 4255, 4032, 2150, 4031, 2032, 2166, 2167, 4256], 's_2_25': [3986], 27: [3428, 1652, 3309, 3310, 3311, 3312, 2436, 2435, 2434, 2433, 2432, 3402, 2342], 's_2_27': [2449], 's_2_29': [1805], 's_2_35': [1909], 36: [4149, 4196, 4195, 4194, 1742, 1743, 1744, 1745, 4197, 1746], 's_2_36': [1971], 's_2_37': [1790], 's_2_39': [2089, 3821], 41: [3833, 2522, 2523, 2524, 2525, 3834, 3835, 2015, 3898, 3897, 3896], 's_2_41': [3940], 's_5_3': [1926], 's_5_9': [3939], 's_5_14': [4165], 16: [3628, 2238, 3627, 3626], 's_5_16': [2163], 's_5_17': [3685], 's_5_25': [1927, 4284], 's_5_32': [3609], 's_5_38': [3219], 's_5_41': [3895], 's_5_42': [2133], 's_5_47': [3399], 's_6_10': [3503], 's_6_13': [3983], 's_6_14': [2197], 's_6_24': [2046], 's_6_27': [3443], 30: [2224, 2225, 3970, 2194, 2195, 2075, 3971], 's_6_30': [2091, 2090], 34: [2136, 3613, 4136, 4137, 2463, 2464, 2465, 2466], 's_6_34': [2226], 's_6_36': [4118], 's_6_45': [1686], 's_6_47': [1607], 's_9_4': [3913], 7: [3879, 1622, 1623, 1566, 1565, 3878, 1625, 1624], 's_9_7': [3278], 's_9_10': [3864, 3758, 1699], 's_9_18': [3204], 's_9_19': [1802], 23: [3253, 2074, 3252, 3251, 3264, 3265, 3266, 2073, 2072, 2071], 's_9_23': [1861], 's_9_25': [2300], 's_9_38': [1801], 's_9_42': [3594], 43: [2386, 2387, 3567, 2390, 2389, 2388], 's_9_43': [2375], 's_10_4': [2027], 's_10_11': [3220], 's_10_13': [3608], 's_10_20': [1997], 's_10_23': [1906], 's_10_25': [4226], 26: [3504, 2330, 1653, 3534, 3535, 2329, 2328, 3536, 3537], 's_10_26': [3521], 's_10_32': [1714], 's_10_36': [3728], 's_10_40': [3804], 's_10_41': [1640], 46: [2479, 2404, 2405, 4089, 4090, 4091, 2480, 2481, 4092], 's_10_46': [4105], 's_10_47': [1637], 's_11_4': [2012], 15: [3656, 2341, 3207, 2148, 3206, 3505, 2146, 3506, 2147], 's_11_15': [3325, 3326], 's_11_18': [3190], 's_11_26': [2237], 's_11_27': [3282], 's_11_28': [1984], 's_11_35': [2014], 's_11_38': [3250, 1891], 's_11_43': [3477], 's_11_45': [2417, 3552], 's_11_47': [2117], 's_17_12': [2720], 's_17_13': [1774], 's_17_26': [1862], 's_17_29': [1835], 's_17_33': [2689], 's_17_34': [3868], 's_17_39': [2104], 's_17_40': [3639], 's_17_42': [3654], 's_18_13': [3520], 's_18_15': [3176], 22: [3564, 1895, 1894, 1892, 1893], 's_18_22': [3549], 's_18_23': [1786], 's_18_27': [1771], 's_18_41': [3820], 's_18_42': [3729], 's_21_4': [2446], 's_21_12': [3463], 's_21_23': [3267], 's_21_27': [3732], 's_21_30': [3702], 's_21_31': [3493], 's_21_32': [3522], 's_21_42': [3612], 's_21_45': [2345], 's_24_3': [2586], 's_24_4': [4138], 's_24_12': [2421], 's_24_14': [4061, 2181], 's_24_16': [3581], 's_24_25': [2152], 's_24_30': [4076], 's_24_34': [2346, 4017, 2270], 's_24_39': [2526], 's_24_40': [4269], 44: [1822, 1756, 1757, 4179, 1761, 1760, 1758, 1759], 's_24_44': [1881], 's_24_45': [2406], 's_24_46': [4002], 8: [3941, 2539, 3793, 2285, 3792, 2281, 2282, 2283, 2284], 's_31_8': [3642], 's_31_19': [2508], 's_31_23': [3268], 's_31_27': [3433], 's_31_43': [3237], 's_31_46': [2420, 2419], 's_32_13': [3489], 's_32_14': [3492], 's_32_22': [3563], 's_32_28': [3684], 's_32_44': [3578], 's_33_7': [1564], 's_33_8': [2374], 's_33_16': [2268], 's_33_20': [2314], 's_33_28': [1698], 's_33_34': [2583], 's_33_35': [2554], 's_35_3': [2509], 's_35_4': [2644], 's_35_20': [2269], 's_35_28': [1804], 's_35_40': [1834], 's_37_12': [4316, 4317, 2347], 's_37_25': [2107], 's_37_27': [2451], 's_37_28': [4044], 's_37_39': [4286], 's_37_44': [4180], 's_37_45': [1987], 's_45_7': [4223], 's_45_14': [3461], 's_45_25': [1657], 's_45_26': [3942], 's_45_27': [4287], 's_45_34': [3747], 's_45_39': [2331], 's_45_40': [1837], 's_3_8': [3703], 's_3_19': [3733, 2613], 's_3_29': [4060], 's_3_34': [2541, 4063], 's_3_36': [2121], 's_3_41': [2510], 's_3_46': [2376], 's_4_8': [3794], 's_4_15': [2102], 's_4_19': [2643], 's_4_20': [3704], 's_4_23': [2596], 's_4_43': [3358], 's_12_8': [2584], 's_12_27': [3838], 's_12_39': [4064], 's_12_41': [3598], 's_12_46': [4018], 's_12_47': [3494, 2642], 's_19_20': [2567], 's_19_26': [2327], 's_19_34': [2538], 's_19_36': [3474], 's_19_40': [3384], 's_19_44': [3459], 's_20_15': [2013], 's_20_22': [3640], 's_20_23': [3745], 's_20_26': [2028], 's_20_27': [3478], 's_20_28': [3595], 's_20_43': [3568], 's_20_46': [3808], 's_28_7': [3638], 's_28_15': [3491], 's_28_22': [1908], 's_28_36': [4088], 's_28_39': [2134], 's_28_41': [3698, 1609], 's_28_47': [3400], 's_29_13': [3593], 's_29_26': [1803], 's_29_27': [3429], 's_29_30': [1910], 's_29_38': [1711], 's_29_41': [3819], 's_29_42': [1788], 's_38_8': [3221], 's_38_23': [2191], 's_38_40': [1846], 's_39_8': [3791], 's_39_14': [4062], 's_39_23': [2149, 3866], 's_39_27': [2450], 's_39_34': [4228, 2511], 's_39_36': [2301], 's_40_15': [3490], 's_40_27': [3293], 's_42_7': [3683], 's_42_15': [1877], 's_42_30': [2223], 's_47_8': [3401], 's_47_22': [1907], 's_47_41': [3403], 's_47_43': [2402], 's_47_44': [3398], 's_13_22': [1773], 's_13_44': [3938], 's_14_8': [4047], 's_14_15': [3641], 's_14_16': [3746], 's_14_25': [4001], 's_14_26': [3566, 2267], 's_14_41': [3836], 's_25_8': [3882], 's_25_26': [3987], 's_25_30': [2196], 's_25_36': [1731], 's_25_41': [3881], 's_25_44': [1762], 's_27_7': [3308], 's_27_8': [3327], 's_27_15': [2131], 's_27_41': [3538], 's_27_43': [3582], 's_27_46': [4003], 's_36_26': [3548], 's_36_34': [4198], 's_36_41': [1684, 3894], 's_41_8': [3972, 3973, 2540], 's_41_43': [3328], 's_41_46': [3883], 's_16_34': [3523, 2373], 's_16_23': [2088], 's_34_8': [3658], 's_34_43': [3597], 's_34_46': [2286], 's_23_15': [3296], 's_23_26': [2087], 's_23_43': [2371], 's_23_44': [1741], 's_26_8': [3807], 's_46_22': [4104], 's_15_8': [3191]}</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0007378048780487805</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001473024847404412</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>{0: [4015, 3387, 3386, 3385, 1952, 1956, 1955, 1954, 1953], 1: [3281, 1880, 2177, 4045, 2135, 3958, 4046, 3957, 2178, 2179, 2180, 3956], 's_0_1': [1925], 2: [2030, 3912, 3908, 3911, 2105, 3909, 1970, 3910], 's_0_2': [3880], 5: [1942, 1936, 1937, 3611, 3610, 1938, 1941, 1940, 1939], 's_0_5': [4000], 6: [1592, 1593, 1594, 1595, 4181, 2076, 1596, 4135, 4134, 4133], 's_0_6': [2016], 9: [3928, 3927, 3279, 3926, 3925, 3924, 1816, 1817, 1818, 1819, 1820], 's_0_9': [3355, 3354], 10: [3280, 2056, 1638, 2061, 2060, 1639, 3788, 3789, 2057, 2058, 2059, 3790], 's_0_10': [2045], 11: [3655, 1968, 1966, 1967, 3430, 2296, 2297, 3432, 3431], 's_0_11': [2357], 17: [3849, 3854, 1863, 1864, 3850, 3853, 3852, 3851], 's_0_17': [3865], 18: [1832, 3340, 3175, 1924, 3189, 1921, 1923, 1922], 's_0_18': [3805], 21: [3643, 2448, 2447, 2311, 2312, 3508, 2344, 2343, 2193, 3507], 's_0_21': [2192], 24: [1866, 4119, 2253, 2254, 2255, 4120, 4106, 4123, 4122, 4121, 2151], 's_0_24': [2031], 31: [3657, 2418, 2476, 3673, 2477, 2478], 's_0_31': [2462], 32: [3476, 1713, 1712, 2222, 3446, 3445, 3444], 's_0_32': [2207], 33: [3713, 3714, 3715, 3719, 3718, 3717, 3716], 's_0_33': [1969], 35: [3763, 3762, 2029, 3759, 3760, 3761], 's_0_35': [3730], 37: [4029, 4030, 2001, 4315, 4272, 4271, 4270, 2002], 's_0_37': [1957], 45: [4213, 4208, 3462, 2358, 2359, 2360, 2361, 2362, 4212, 4209, 4210, 4211], 's_0_45': [4225], 's_1_2': [2165], 3: [2494, 2495, 2496, 1986, 4150, 4151, 4152, 4153], 's_1_3': [2571, 2570, 3943], 4: [2661, 2660, 2659, 2658, 3341, 3342, 3343, 3344, 2657], 's_1_4': [2236], 's_1_5': [3984, 3985], 's_1_9': [4014, 1821], 12: [2256, 4182, 4183, 2601, 2600, 3884, 2597, 2598, 3823, 2599], 's_1_12': [2555], 19: [3369, 3368, 3370, 3583, 2493, 3371, 3372, 1787, 3373, 2492], 's_1_19': [2221], 20: [2568, 3625, 2569, 3778, 1998, 1999, 3775, 3777, 3776], 's_1_20': [2164], 28: [2042, 2043, 3701, 1656, 1655, 1654, 3699, 3700], 's_1_28': [3999, 3998], 29: [3624, 1726, 1727, 1728, 4075, 4074, 3969, 1730, 1729], 's_1_29': [1865], 's_1_35': [3686], 's_1_37': [3954, 1775], 38: [2176, 3233, 3236, 3234, 3235], 's_1_38': [2116], 39: [2119, 2241, 3806, 2239, 4079, 4078, 4077, 2240], 's_1_39': [2585], 40: [1876, 1852, 1851, 1850, 1849, 3294, 1847, 1848], 's_1_40': [1836], 42: [2298, 1878, 3668, 3669, 3672, 3671, 3670], 's_1_42': [3596], 47: [3413, 3418, 3417, 3414, 3416, 3415], 's_1_47': [2162], 13: [1671, 3519, 1668, 1670, 3744, 3743, 1669], 's_2_13': [3923], 14: [4166, 2212, 3687, 2208, 2211, 2210, 2209], 's_2_14': [2106], 's_2_17': [1985], 25: [4254, 2315, 4255, 4032, 2150, 4031, 2032, 2166, 2167, 4256], 's_2_25': [3986], 27: [3428, 1652, 3309, 3310, 3311, 3312, 2436, 2435, 2434, 2433, 2432, 3402, 2342], 's_2_27': [2449], 's_2_29': [1805], 's_2_35': [1909], 36: [4149, 4196, 4195, 4194, 1742, 1743, 1744, 1745, 4197, 1746], 's_2_36': [1971], 's_2_37': [1790], 's_2_39': [2089, 3821], 41: [3833, 2522, 2523, 2524, 2525, 3834, 3835, 2015, 3898, 3897, 3896], 's_2_41': [3940], 's_5_3': [1926], 's_5_9': [3939], 's_5_14': [4165], 16: [3628, 2238, 3627, 3626], 's_5_16': [2163], 's_5_17': [3685], 's_5_25': [1927, 4284], 's_5_32': [3609], 's_5_38': [3219], 's_5_41': [3895], 's_5_42': [2133], 's_5_47': [3399], 's_6_10': [3503], 's_6_13': [3983], 's_6_14': [2197], 's_6_24': [2046], 's_6_27': [3443], 30: [2224, 2225, 3970, 2194, 2195, 2075, 3971], 's_6_30': [2091, 2090], 34: [2136, 3613, 4136, 4137, 2463, 2464, 2465, 2466], 's_6_34': [2226], 's_6_36': [4118], 's_6_45': [1686], 's_6_47': [1607], 's_9_4': [3913], 7: [3879, 1622, 1623, 1566, 1565, 3878, 1625, 1624], 's_9_7': [3278], 's_9_10': [3864, 3758, 1699], 's_9_18': [3204], 's_9_19': [1802], 23: [3253, 2074, 3252, 3251, 3264, 3265, 3266, 2073, 2072, 2071], 's_9_23': [1861], 's_9_25': [2300], 's_9_38': [1801], 's_9_42': [3594], 43: [2386, 2387, 3567, 2390, 2389, 2388], 's_9_43': [2375], 's_10_4': [2027], 's_10_11': [3220], 's_10_13': [3608], 's_10_20': [1997], 's_10_23': [1906], 's_10_25': [4226], 26: [3504, 2330, 1653, 3534, 3535, 2329, 2328, 3536, 3537], 's_10_26': [3521], 's_10_32': [1714], 's_10_36': [3728], 's_10_40': [3804], 's_10_41': [1640], 46: [2479, 2404, 2405, 4089, 4090, 4091, 2480, 2481, 4092], 's_10_46': [4105], 's_10_47': [1637], 's_11_4': [2012], 15: [3656, 2341, 3207, 2148, 3206, 3505, 2146, 3506, 2147], 's_11_15': [3325, 3326], 's_11_18': [3190], 's_11_26': [2237], 's_11_27': [3282], 's_11_28': [1984], 's_11_35': [2014], 's_11_38': [3250, 1891], 's_11_43': [3477], 's_11_45': [2417, 3552], 's_11_47': [2117], 's_17_12': [2720], 's_17_13': [1774], 's_17_26': [1862], 's_17_29': [1835], 's_17_33': [2689], 's_17_34': [3868], 's_17_39': [2104], 's_17_40': [3639], 's_17_42': [3654], 's_18_13': [3520], 's_18_15': [3176], 22: [3564, 1895, 1894, 1892, 1893], 's_18_22': [3549], 's_18_23': [1786], 's_18_27': [1771], 's_18_41': [3820], 's_18_42': [3729], 's_21_4': [2446], 's_21_12': [3463], 's_21_23': [3267], 's_21_27': [3732], 's_21_30': [3702], 's_21_31': [3493], 's_21_32': [3522], 's_21_42': [3612], 's_21_45': [2345], 's_24_3': [2586], 's_24_4': [4138], 's_24_12': [2421], 's_24_14': [4061, 2181], 's_24_16': [3581], 's_24_25': [2152], 's_24_30': [4076], 's_24_34': [2346, 4017, 2270], 's_24_39': [2526], 's_24_40': [4269], 44: [1822, 1756, 1757, 4179, 1761, 1760, 1758, 1759], 's_24_44': [1881], 's_24_45': [2406], 's_24_46': [4002], 8: [3941, 2539, 3793, 2285, 3792, 2281, 2282, 2283, 2284], 's_31_8': [3642], 's_31_19': [2508], 's_31_23': [3268], 's_31_27': [3433], 's_31_43': [3237], 's_31_46': [2420, 2419], 's_32_13': [3489], 's_32_14': [3492], 's_32_22': [3563], 's_32_28': [3684], 's_32_44': [3578], 's_33_7': [1564], 's_33_8': [2374], 's_33_16': [2268], 's_33_20': [2314], 's_33_28': [1698], 's_33_34': [2583], 's_33_35': [2554], 's_35_3': [2509], 's_35_4': [2644], 's_35_20': [2269], 's_35_28': [1804], 's_35_40': [1834], 's_37_12': [4316, 4317, 2347], 's_37_25': [2107], 's_37_27': [2451], 's_37_28': [4044], 's_37_39': [4286], 's_37_44': [4180], 's_37_45': [1987], 's_45_7': [4223], 's_45_14': [3461], 's_45_25': [1657], 's_45_26': [3942], 's_45_27': [4287], 's_45_34': [3747], 's_45_39': [2331], 's_45_40': [1837], 's_3_8': [3703], 's_3_19': [3733, 2613], 's_3_29': [4060], 's_3_34': [2541, 4063], 's_3_36': [2121], 's_3_41': [2510], 's_3_46': [2376], 's_4_8': [3794], 's_4_15': [2102], 's_4_19': [2643], 's_4_20': [3704], 's_4_23': [2596], 's_4_43': [3358], 's_12_8': [2584], 's_12_27': [3838], 's_12_39': [4064], 's_12_41': [3598], 's_12_46': [4018], 's_12_47': [3494, 2642], 's_19_20': [2567], 's_19_26': [2327], 's_19_34': [2538], 's_19_36': [3474], 's_19_40': [3384], 's_19_44': [3459], 's_20_15': [2013], 's_20_22': [3640], 's_20_23': [3745], 's_20_26': [2028], 's_20_27': [3478], 's_20_28': [3595], 's_20_43': [3568], 's_20_46': [3808], 's_28_7': [3638], 's_28_15': [3491], 's_28_22': [1908], 's_28_36': [4088], 's_28_39': [2134], 's_28_41': [3698, 1609], 's_28_47': [3400], 's_29_13': [3593], 's_29_26': [1803], 's_29_27': [3429], 's_29_30': [1910], 's_29_38': [1711], 's_29_41': [3819], 's_29_42': [1788], 's_38_8': [3221], 's_38_23': [2191], 's_38_40': [1846], 's_39_8': [3791], 's_39_14': [4062], 's_39_23': [2149, 3866], 's_39_27': [2450], 's_39_34': [4228, 2511], 's_39_36': [2301], 's_40_15': [3490], 's_40_27': [3293], 's_42_7': [3683], 's_42_15': [1877], 's_42_30': [2223], 's_47_8': [3401], 's_47_22': [1907], 's_47_41': [3403], 's_47_43': [2402], 's_47_44': [3398], 's_13_22': [1773], 's_13_44': [3938], 's_14_8': [4047], 's_14_15': [3641], 's_14_16': [3746], 's_14_25': [4001], 's_14_26': [3566, 2267], 's_14_41': [3836], 's_25_8': [3882], 's_25_26': [3987], 's_25_30': [2196], 's_25_36': [1731], 's_25_41': [3881], 's_25_44': [1762], 's_27_7': [3308], 's_27_8': [3327], 's_27_15': [2131], 's_27_41': [3538], 's_27_43': [3582], 's_27_46': [4003], 's_36_26': [3548], 's_36_34': [4198], 's_36_41': [1684, 3894], 's_41_8': [3972, 3973, 2540], 's_41_43': [3328], 's_41_46': [3883], 's_16_34': [3523, 2373], 's_16_23': [2088], 's_34_8': [3658], 's_34_43': [3597], 's_34_46': [2286], 's_23_15': [3296], 's_23_26': [2087], 's_23_43': [2371], 's_23_44': [1741], 's_26_8': [3807], 's_46_22': [4104], 's_15_8': [3191]}</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0.0007378048780487805</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.001473024847404412</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>{0: [2329, 3747, 3749, 3748], 7: [2630, 2628, 3869, 2629], 9: [2463, 3732, 2465, 2464], 11: [2614, 3763, 3761, 3762], 14: [3746, 2253, 2255, 2254], 18: [2688, 2689, 2690, 4034, 4033], 20: [3824, 2674, 3538, 3539, 2673], 21: [3779, 3776, 3778, 3777], 27: [2585, 2584, 2583], 35: [2778, 3733, 2734, 3734], 43: [2404, 3913, 2330, 3912], 47: [2433, 3627, 3629, 3628], 48: [3718, 2613, 3719], 1: [2675, 3897, 3899, 3898], 22: [3583, 3943, 2660, 2658, 2659], 29: [3839, 3852, 3853, 2704, 3854, 2705], 36: [2224, 2223, 3596, 3597, 3598], 38: [2644, 2645, 4017, 4018, 4019], 41: [2194, 2195, 3958, 3957, 3956], 44: [3808, 2719, 3809], 3: [2478, 4002, 4003, 2479, 2480], 5: [3702, 3704, 3703], 8: [2269, 3911, 4048, 4047, 2300], 10: [2270, 2749, 3987, 3988, 3989, 2750], 17: [2493, 2494, 3794, 3793], 23: [3868, 2539, 2540], 25: [2390, 3674, 2389, 3673], 28: [3882, 3884, 2495, 3883], 30: [2582, 3567, 2538, 3568], 31: [2555, 3643, 2554], 32: [2434, 3926, 3928, 3927], 33: [2417, 2419, 2418], 34: [2447, 3581, 3582, 2450, 2449, 2448], 46: [3552, 2239, 2238, 2328, 3672], 13: [2361, 2358, 2360, 2359], 19: [2299, 3642, 2298], 2: [3687, 3689, 3688], 15: [2643, 3612, 3613, 3614], 6: [3657, 3659, 3658], 12: [4049, 2571, 3823, 2568, 2569, 2570], 26: [2526, 2525, 3522, 3523, 2523, 2524], 40: [2405, 2283, 3972, 2285, 2284], 42: [3974, 2435, 2510, 3973], 16: [3478, 2600, 2599, 2597, 2598], 39: [2346, 2343, 2345, 2344], 45: [2374, 3942, 2375], 37: [3792, 2313, 2315, 2314], 24: [2509, 2508], 4: [3838]}</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01787036057946495</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.01711985193605345</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>{0: [2329, 3747, 3749, 3748], 7: [2630, 2628, 3869, 2629], 9: [2463, 3732, 2465, 2464], 11: [2614, 3763, 3761, 3762], 14: [3746, 2253, 2255, 2254], 18: [2688, 2689, 2690, 4034, 4033], 20: [3824, 2674, 3538, 3539, 2673], 21: [3779, 3776, 3778, 3777], 27: [2585, 2584, 2583], 35: [2778, 3733, 2734, 3734], 43: [2404, 3913, 2330, 3912], 47: [2433, 3627, 3629, 3628], 48: [3718, 2613, 3719], 1: [2675, 3897, 3899, 3898], 22: [3583, 3943, 2660, 2658, 2659], 29: [3839, 3852, 3853, 2704, 3854, 2705], 36: [2224, 2223, 3596, 3597, 3598], 38: [2644, 2645, 4017, 4018, 4019], 41: [2194, 2195, 3958, 3957, 3956], 44: [3808, 2719, 3809], 3: [2478, 4002, 4003, 2479, 2480], 5: [3702, 3704, 3703], 8: [2269, 3911, 4048, 4047, 2300], 10: [2270, 2749, 3987, 3988, 3989, 2750], 17: [2493, 2494, 3794, 3793], 23: [3868, 2539, 2540], 25: [2390, 3674, 2389, 3673], 28: [3882, 3884, 2495, 3883], 30: [2582, 3567, 2538, 3568], 31: [2555, 3643, 2554], 32: [2434, 3926, 3928, 3927], 33: [2417, 2419, 2418], 34: [2447, 3581, 3582, 2450, 2449, 2448], 46: [3552, 2239, 2238, 2328, 3672], 13: [2361, 2358, 2360, 2359], 19: [2299, 3642, 2298], 2: [3687, 3689, 3688], 15: [2643, 3612, 3613, 3614], 6: [3657, 3659, 3658], 12: [4049, 2571, 3823, 2568, 2569, 2570], 26: [2526, 2525, 3522, 3523, 2523, 2524], 40: [2405, 2283, 3972, 2285, 2284], 42: [3974, 2435, 2510, 3973], 16: [3478, 2600, 2599, 2597, 2598], 39: [2346, 2343, 2345, 2344], 45: [2374, 3942, 2375], 37: [3792, 2313, 2315, 2314], 24: [2509, 2508], 4: [3838]}</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01787036057946495</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01711985193605345</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>{0: [4498, 1887, 5214, 5215, 5216, 2217, 2216, 2513, 2514, 2515, 4933, 4932], 7: [2486, 4723, 2410, 2080, 2170, 4855, 4856, 2483, 2484, 2485, 4857], 's_0_7': [4558], 9: [2083, 5411, 2218, 5203, 5202, 5396, 4510, 4511, 4512, 2393, 2394, 2395, 2396, 2397, 2398, 5397], 's_0_9': [4603], 11: [5383, 4497, 2549, 2548, 2547, 2468, 2469, 2470, 2471, 5083], 's_0_11': [4708], 14: [4902, 2366, 5438, 5439, 5440, 5441, 5442, 2369, 2368, 5099, 5098, 5097, 2367], 's_0_14': [2335], 18: [1812, 4613, 1598, 1599, 1645, 1811, 4944, 4943, 1600, 5155, 5154, 1691, 1690, 4883], 's_0_18': [1932], 20: [5248, 4748, 4749, 4750, 5247, 5246, 2127, 2126, 1990, 1991, 5035], 's_0_20': [2112], 21: [4843, 5467, 5468, 5469, 1828, 1829, 2455, 4842, 4841, 2140, 2141, 2142, 2143, 5486, 5485, 5484], 's_0_21': [4873], 27: [4867, 4868, 4869, 2066, 2065, 1973, 1974, 1975, 2067, 4870], 's_0_27': [2052], 35: [5141, 1962, 5170, 2094, 2095, 2096], 's_0_35': [4916], 43: [5169, 4899, 1827, 1392, 1826, 1782, 5137, 5138, 5139], 's_0_43': [1842], 47: [4769, 5305, 1993, 2589, 2590, 2591, 2592, 5365, 5366, 5367, 5368], 's_0_47': [4693], 48: [1403, 1867, 4418, 1928, 4417, 4419, 4423, 4422, 4421, 4420], 's_0_48': [2543], 1: [2260, 1496, 4964, 4962, 4961, 4960, 4963, 1841, 4913, 4912, 4914, 1390, 1389], 's_7_1': [2230], 's_7_20': [2005], 22: [2034, 4663, 4662, 4778, 2198, 4661, 4660, 5273, 1617, 1616, 1615, 2199, 1614, 4658, 4659], 's_7_22': [2499], 's_7_27': [4871], 29: [4794, 5324, 5323, 5322, 2232, 2231, 5036, 4795, 4796, 4797, 2288, 2289, 2290, 2291], 's_7_29': [2185], 's_7_35': [4886], 36: [5047, 1436, 2304, 4602, 4600, 2305, 4601, 4599, 4853, 4852, 1435, 1434, 4597, 4598], 's_7_36': [4826], 38: [4948, 4947, 4976, 1541, 5063, 5064, 1976, 4946, 2036, 5065], 's_7_38': [2245], 41: [5018, 1706, 5188, 2487, 5187, 1767, 5183, 5184, 2261, 5186, 5185], 's_7_41': [2411], 44: [5095, 2453, 4647, 4646, 1961, 1960, 1959, 2048, 4645], 's_7_44': [4618], 's_7_47': [4858], 's_7_48': [4438], 3: [4979, 2651, 2650, 1793, 4813, 1795, 4809, 4812, 1794, 4811, 4810], 's_9_3': [2380], 5: [1796, 5049, 5053, 5052, 5051, 5050], 's_9_5': [2426, 5113], 8: [2443, 2442, 4434, 2321, 5037, 2441, 2440, 2439, 2438, 4482, 2243, 4481, 1778, 4479, 4480], 's_9_8': [2348], 10: [1798, 2009, 5275, 5409, 5410, 2006, 2007, 2008], 's_9_10': [5395], 17: [4707, 4705, 2108, 4706, 4436, 2153, 2154, 2155, 2024, 2023, 2022, 2021, 4931], 's_9_17': [2033], 's_9_20': [2427], 's_9_21': [2098], 23: [1347, 1899, 1898, 4570, 1346, 1345, 4626, 4569, 4568, 4567, 1344, 1343], 's_9_23': [1913], 25: [2558, 4521, 4522, 2608, 2607, 2606, 2605, 2604, 2603, 4523, 4524, 4525, 4526, 4527, 4528], 's_9_25': [2018], 28: [1901, 1902, 1467, 5143, 5142, 2202, 5231, 5232, 1377, 5227, 5228, 5229, 5230], 's_9_28': [2517], 's_9_29': [2338], 30: [2038, 5258, 5261, 5259, 5260], 's_9_30': [5262], 31: [4678, 2634, 2531, 5353, 2638, 2637, 2636, 5008, 2635], 's_9_31': [2622], 32: [5288, 5287, 1453, 5542, 5543, 2593, 2576, 2577, 2578, 1454, 2579, 5548, 5547, 5546, 5545, 5544], 's_9_32': [2263], 33: [4717, 5022, 5278, 1764, 5277, 2307, 2306, 5021, 4718, 1749, 4719, 4720, 2383, 4721, 2200, 2201], 's_9_33': [4753, 4752], 34: [1510, 5381, 1509, 1508, 4493, 4494, 4495, 4496, 2273, 4918, 4917, 4492, 2274, 2173, 2172, 2171, 4991, 2275], 's_9_34': [2183], 46: [2113, 2081, 2082, 2353, 5338, 2323, 5337, 5336], 's_9_46': [5307], 's_9_48': [2228, 2227], 's_11_8': [5038, 2501], 13: [5498, 5007, 5006, 5005, 5004, 1604, 1603, 1602, 5122, 5123, 1601, 5003], 's_11_13': [4992], 's_11_14': [2562], 19: [2174, 2564, 1664, 2384, 2053, 5504, 5503, 5502, 5499, 5500, 5501], 's_11_19': [2534], 's_11_20': [5233], 's_11_21': [4888], 's_11_25': [5263], 's_11_31': [5533], 's_11_32': [5398], 's_11_34': [2546], 's_11_44': [2408], 's_11_46': [5382], 's_14_1': [2681], 2: [1708, 1707, 4582, 5213, 5212, 1452, 1451, 4539, 4538, 4537, 4540, 1450, 1449], 's_14_2': [5453], 's_14_3': [5084], 's_14_5': [5067], 's_14_8': [4903], 's_14_10': [1783], 15: [1573, 1538, 1572, 1571, 4703, 1539, 1540, 4973], 's_14_15': [4974, 1751, 1752, 1753, 1768], 's_14_28': [2382], 's_14_29': [5292], 's_14_32': [5428, 5427, 2428], 's_14_34': [2248], 's_14_36': [2365, 4887], 's_14_41': [5157], 's_14_46': [2158], 's_14_47': [5352], 's_18_2': [1553], 's_18_3': [4808], 's_18_5': [5094], 6: [5244, 2129, 2128, 1854, 1855, 1856, 5321, 5320, 1858, 1857], 's_18_6': [5019], 12: [4934, 2680, 2454, 4687, 4688, 4689, 2710, 4784, 4783, 2424, 4690, 4691, 4692], 's_18_12': [1584], 's_18_20': [4763], 26: [2039, 4824, 5378, 5379, 4837, 4838, 4839, 1945, 5455, 5470, 5471, 1946, 1947, 5472, 1948], 's_18_26': [4823], 's_18_27': [1705], 's_18_28': [5199], 's_18_34': [1525], 's_18_35': [5156], 's_18_38': [5153], 40: [5319, 5318, 1483, 5002, 1481, 1482], 's_18_40': [4928], 42: [4898, 4731, 1673, 1674, 1676, 1480, 4732, 4733, 1675], 's_18_42': [4478], 's_18_48': [4433], 's_20_1': [1840], 's_20_6': [4975], 16: [2246, 5081, 4630, 4629, 4628, 4627, 1419, 1420, 1421, 5032, 1557, 1556, 5078, 5079, 5080], 's_20_16': [4747], 's_20_17': [5126], 's_20_29': [1810], 's_20_30': [5291], 's_20_33': [2412], 's_20_38': [4990], 's_21_3': [2545], 's_21_8': [4781, 4782, 4738, 4737, 2350], 's_21_12': [2530], 's_21_16': [1558], 's_21_19': [1723], 's_21_32': [1513], 's_21_33': [2139], 's_21_34': [2320], 's_21_35': [5171], 39: [5303, 1361, 1362, 5332, 1648, 1736, 1737, 5334, 5333], 's_21_39': [1618], 's_21_41': [5304], 's_21_43': [1393], 45: [5361, 1333, 1332, 5031, 1327, 1328, 1329, 1330, 1331], 's_21_45': [1363, 5376], 's_27_1': [1570], 's_27_10': [5200], 's_27_17': [2020], 's_27_25': [1958], 's_27_30': [5350], 's_27_35': [5020], 's_27_41': [2051], 's_27_42': [1495], 's_27_44': [4840], 's_35_10': [5245], 's_35_17': [4736], 's_35_38': [5110, 1992], 's_35_44': [4675], 's_35_47': [5290], 's_43_1': [1497], 's_43_3': [1825], 's_43_16': [1511], 's_43_32': [1407], 37: [1779, 1780, 1360, 4957, 4958, 4959, 1781, 1918, 1917, 1916, 5034], 's_43_37': [1391], 's_43_40': [5257], 's_43_41': [1647], 's_43_42': [4929], 's_47_22': [2664], 's_47_25': [2588], 's_47_26': [1978], 's_47_31': [5114], 's_47_32': [4993], 's_47_37': [5335], 's_47_46': [2518], 's_48_2': [1448], 's_48_3': [4464], 's_48_22': [2213], 's_48_23': [1433], 24: [1838, 4509, 4704, 1869, 1868], 's_48_24': [1808], 's_48_29': [4437], 's_48_45': [1342], 's_1_8': [2381], 's_1_12': [2711], 's_1_13': [2425], 's_1_22': [4777], 's_1_23': [4806], 's_1_29': [4872], 's_1_31': [2516], 's_1_33': [1765], 's_1_37': [4836], 's_1_40': [5017], 's_1_42': [4882], 's_22_15': [1644], 's_22_16': [5243], 's_22_17': [2169], 's_22_23': [1824], 's_22_25': [2559], 's_22_26': [1914], 's_22_29': [4793], 's_22_30': [5274], 's_22_32': [5289, 1678], 's_22_34': [1613], 's_22_36': [1630], 's_22_38': [2035], 's_22_42': [4673], 's_22_44': [2349], 's_29_12': [4798], 's_29_3': [2125], 4: [2529, 2215, 1989, 4588, 4585, 2214, 4586, 4587], 's_29_4': [4572], 's_29_6': [4780], 's_29_16': [5082], 's_29_24': [1734], 's_29_25': [5339], 's_29_28': [2247], 's_29_31': [2653], 's_29_34': [2203], 's_29_36': [1660], 's_29_41': [5127], 's_29_42': [4779], 's_29_46': [2533], 's_36_8': [4617], 's_36_12': [2259, 4676], 's_36_13': [1735], 's_36_37': [1466], 's_36_15': [4822], 's_36_26': [1944], 's_36_39': [5092], 's_38_8': [4977, 4978], 's_38_13': [2351], 's_38_15': [1631], 's_38_16': [5167], 's_38_44': [5125], 's_38_5': [1931], 's_38_17': [2186], 's_38_34': [2156], 's_38_10': [4900], 's_38_28': [1542], 's_38_39': [1721], 's_41_13': [5168], 's_41_31': [2621], 's_41_42': [1646], 's_41_2': [1662], 's_41_16': [5093], 's_41_5': [2456], 's_41_10': [1977], 's_41_34': [2187], 's_41_46': [2488], 's_44_2': [2063], 's_44_3': [4644], 's_44_26': [4945], 's_44_10': [4930], 's_44_17': [2364], 's_44_25': [4513], 's_44_34': [2078], 's_3_8': [1777, 1792], 's_3_31': [4874], 's_3_37': [4734], 's_3_2': [4554], 's_3_4': [4584], 's_3_5': [5054], 's_3_32': [5129], 's_5_33': [2336], 's_5_25': [5068], 's_5_39': [5109], 's_5_46': [5066], 's_8_12': [4827], 's_8_28': [5112], 's_8_34': [2303], 's_8_42': [1658], 's_8_46': [2322], 's_10_37': [1903], 's_10_17': [5560], 's_10_39': [1813], 's_10_6': [5575], 's_17_12': [2319], 's_17_23': [2004], 's_17_16': [2124], 's_17_26': [5605], 's_17_4': [2123], 's_17_32': [5530], 's_17_24': [4435], 's_17_25': [2138], 's_23_12': [1464], 's_23_2': [1358], 's_23_25': [1583], 's_23_32': [1318, 5317], 's_23_33': [4735], 's_23_45': [4686], 's_25_31': [2633, 4633], 's_25_15': [4553, 1568], 's_25_45': [4506], 's_25_32': [5413], 's_25_34': [1733], 's_25_19': [5489], 's_28_33': [2292], 's_28_37': [5140], 's_28_40': [5182], 's_28_16': [5107], 's_28_26': [5364, 1843], 's_28_45': [5226], 's_28_32': [5144], 's_28_34': [2157, 5201], 's_30_16': [1632, 1633], 's_30_34': [5276], 's_30_39': [1663], 's_31_12': [4889], 's_31_4': [2544], 's_31_19': [2668, 5474], 's_31_34': [4919], 's_32_12': [2665, 4949], 's_32_40': [1484], 's_32_34': [2278], 's_32_39': [1437, 1438], 's_33_2': [1748], 's_33_19': [2563], 's_33_37': [4614], 's_34_40': [4987], 's_34_16': [4657], 's_34_4': [2093], 's_34_6': [1853], 's_34_19': [2233], 's_34_46': [2188], 's_46_26': [2354], 's_46_6': [2097], 's_13_19': [5588], 's_13_37': [1720], 's_13_39': [5408], 's_13_40': [5108], 's_13_45': [1376], 's_19_37': [5425], 's_19_26': [5516], 's_19_6': [1859], 's_2_12': [4702], 's_2_37': [4942], 's_2_15': [4642], 's_2_16': [1523], 's_2_26': [1693], 's_2_45': [5211], 's_15_12': [1659], 's_15_40': [1555], 's_15_24': [4508], 's_15_39': [5197, 5198], 's_6_12': [1839], 's_6_40': [1722], 's_6_26': [5456], 's_12_4': [2379], 's_12_16': [1479], 's_26_37': [1915], 's_26_24': [1870], 's_26_39': [1738], 's_40_42': [4897], 's_42_45': [4716], 's_16_4': [2019], 's_39_37': [5124], 's_39_45': [5346], 's_45_37': [4986], 's_24_4': [1883]}</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.001505464480874317</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.001953884338715475</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>{0: [4498, 1887, 5214, 5215, 5216, 2217, 2216, 2513, 2514, 2515, 4933, 4932], 7: [2486, 4723, 2410, 2080, 2170, 4855, 4856, 2483, 2484, 2485, 4857], 's_0_7': [4558], 9: [2083, 5411, 2218, 5203, 5202, 5396, 4510, 4511, 4512, 2393, 2394, 2395, 2396, 2397, 2398, 5397], 's_0_9': [4603], 11: [5383, 4497, 2549, 2548, 2547, 2468, 2469, 2470, 2471, 5083], 's_0_11': [4708], 14: [4902, 2366, 5438, 5439, 5440, 5441, 5442, 2369, 2368, 5099, 5098, 5097, 2367], 's_0_14': [2335], 18: [1812, 4613, 1598, 1599, 1645, 1811, 4944, 4943, 1600, 5155, 5154, 1691, 1690, 4883], 's_0_18': [1932], 20: [5248, 4748, 4749, 4750, 5247, 5246, 2127, 2126, 1990, 1991, 5035], 's_0_20': [2112], 21: [4843, 5467, 5468, 5469, 1828, 1829, 2455, 4842, 4841, 2140, 2141, 2142, 2143, 5486, 5485, 5484], 's_0_21': [4873], 27: [4867, 4868, 4869, 2066, 2065, 1973, 1974, 1975, 2067, 4870], 's_0_27': [2052], 35: [5141, 1962, 5170, 2094, 2095, 2096], 's_0_35': [4916], 43: [5169, 4899, 1827, 1392, 1826, 1782, 5137, 5138, 5139], 's_0_43': [1842], 47: [4769, 5305, 1993, 2589, 2590, 2591, 2592, 5365, 5366, 5367, 5368], 's_0_47': [4693], 48: [1403, 1867, 4418, 1928, 4417, 4419, 4423, 4422, 4421, 4420], 's_0_48': [2543], 1: [2260, 1496, 4964, 4962, 4961, 4960, 4963, 1841, 4913, 4912, 4914, 1390, 1389], 's_7_1': [2230], 's_7_20': [2005], 22: [2034, 4663, 4662, 4778, 2198, 4661, 4660, 5273, 1617, 1616, 1615, 2199, 1614, 4658, 4659], 's_7_22': [2499], 's_7_27': [4871], 29: [4794, 5324, 5323, 5322, 2232, 2231, 5036, 4795, 4796, 4797, 2288, 2289, 2290, 2291], 's_7_29': [2185], 's_7_35': [4886], 36: [5047, 1436, 2304, 4602, 4600, 2305, 4601, 4599, 4853, 4852, 1435, 1434, 4597, 4598], 's_7_36': [4826], 38: [4948, 4947, 4976, 1541, 5063, 5064, 1976, 4946, 2036, 5065], 's_7_38': [2245], 41: [5018, 1706, 5188, 2487, 5187, 1767, 5183, 5184, 2261, 5186, 5185], 's_7_41': [2411], 44: [5095, 2453, 4647, 4646, 1961, 1960, 1959, 2048, 4645], 's_7_44': [4618], 's_7_47': [4858], 's_7_48': [4438], 3: [4979, 2651, 2650, 1793, 4813, 1795, 4809, 4812, 1794, 4811, 4810], 's_9_3': [2380], 5: [1796, 5049, 5053, 5052, 5051, 5050], 's_9_5': [2426, 5113], 8: [2443, 2442, 4434, 2321, 5037, 2441, 2440, 2439, 2438, 4482, 2243, 4481, 1778, 4479, 4480], 's_9_8': [2348], 10: [1798, 2009, 5275, 5409, 5410, 2006, 2007, 2008], 's_9_10': [5395], 17: [4707, 4705, 2108, 4706, 4436, 2153, 2154, 2155, 2024, 2023, 2022, 2021, 4931], 's_9_17': [2033], 's_9_20': [2427], 's_9_21': [2098], 23: [1347, 1899, 1898, 4570, 1346, 1345, 4626, 4569, 4568, 4567, 1344, 1343], 's_9_23': [1913], 25: [2558, 4521, 4522, 2608, 2607, 2606, 2605, 2604, 2603, 4523, 4524, 4525, 4526, 4527, 4528], 's_9_25': [2018], 28: [1901, 1902, 1467, 5143, 5142, 2202, 5231, 5232, 1377, 5227, 5228, 5229, 5230], 's_9_28': [2517], 's_9_29': [2338], 30: [2038, 5258, 5261, 5259, 5260], 's_9_30': [5262], 31: [4678, 2634, 2531, 5353, 2638, 2637, 2636, 5008, 2635], 's_9_31': [2622], 32: [5288, 5287, 1453, 5542, 5543, 2593, 2576, 2577, 2578, 1454, 2579, 5548, 5547, 5546, 5545, 5544], 's_9_32': [2263], 33: [4717, 5022, 5278, 1764, 5277, 2307, 2306, 5021, 4718, 1749, 4719, 4720, 2383, 4721, 2200, 2201], 's_9_33': [4753, 4752], 34: [1510, 5381, 1509, 1508, 4493, 4494, 4495, 4496, 2273, 4918, 4917, 4492, 2274, 2173, 2172, 2171, 4991, 2275], 's_9_34': [2183], 46: [2113, 2081, 2082, 2353, 5338, 2323, 5337, 5336], 's_9_46': [5307], 's_9_48': [2228, 2227], 's_11_8': [5038, 2501], 13: [5498, 5007, 5006, 5005, 5004, 1604, 1603, 1602, 5122, 5123, 1601, 5003], 's_11_13': [4992], 's_11_14': [2562], 19: [2174, 2564, 1664, 2384, 2053, 5504, 5503, 5502, 5499, 5500, 5501], 's_11_19': [2534], 's_11_20': [5233], 's_11_21': [4888], 's_11_25': [5263], 's_11_31': [5533], 's_11_32': [5398], 's_11_34': [2546], 's_11_44': [2408], 's_11_46': [5382], 's_14_1': [2681], 2: [1708, 1707, 4582, 5213, 5212, 1452, 1451, 4539, 4538, 4537, 4540, 1450, 1449], 's_14_2': [5453], 's_14_3': [5084], 's_14_5': [5067], 's_14_8': [4903], 's_14_10': [1783], 15: [1573, 1538, 1572, 1571, 4703, 1539, 1540, 4973], 's_14_15': [4974, 1751, 1752, 1753, 1768], 's_14_28': [2382], 's_14_29': [5292], 's_14_32': [5428, 5427, 2428], 's_14_34': [2248], 's_14_36': [2365, 4887], 's_14_41': [5157], 's_14_46': [2158], 's_14_47': [5352], 's_18_2': [1553], 's_18_3': [4808], 's_18_5': [5094], 6: [5244, 2129, 2128, 1854, 1855, 1856, 5321, 5320, 1858, 1857], 's_18_6': [5019], 12: [4934, 2680, 2454, 4687, 4688, 4689, 2710, 4784, 4783, 2424, 4690, 4691, 4692], 's_18_12': [1584], 's_18_20': [4763], 26: [2039, 4824, 5378, 5379, 4837, 4838, 4839, 1945, 5455, 5470, 5471, 1946, 1947, 5472, 1948], 's_18_26': [4823], 's_18_27': [1705], 's_18_28': [5199], 's_18_34': [1525], 's_18_35': [5156], 's_18_38': [5153], 40: [5319, 5318, 1483, 5002, 1481, 1482], 's_18_40': [4928], 42: [4898, 4731, 1673, 1674, 1676, 1480, 4732, 4733, 1675], 's_18_42': [4478], 's_18_48': [4433], 's_20_1': [1840], 's_20_6': [4975], 16: [2246, 5081, 4630, 4629, 4628, 4627, 1419, 1420, 1421, 5032, 1557, 1556, 5078, 5079, 5080], 's_20_16': [4747], 's_20_17': [5126], 's_20_29': [1810], 's_20_30': [5291], 's_20_33': [2412], 's_20_38': [4990], 's_21_3': [2545], 's_21_8': [4781, 4782, 4738, 4737, 2350], 's_21_12': [2530], 's_21_16': [1558], 's_21_19': [1723], 's_21_32': [1513], 's_21_33': [2139], 's_21_34': [2320], 's_21_35': [5171], 39: [5303, 1361, 1362, 5332, 1648, 1736, 1737, 5334, 5333], 's_21_39': [1618], 's_21_41': [5304], 's_21_43': [1393], 45: [5361, 1333, 1332, 5031, 1327, 1328, 1329, 1330, 1331], 's_21_45': [1363, 5376], 's_27_1': [1570], 's_27_10': [5200], 's_27_17': [2020], 's_27_25': [1958], 's_27_30': [5350], 's_27_35': [5020], 's_27_41': [2051], 's_27_42': [1495], 's_27_44': [4840], 's_35_10': [5245], 's_35_17': [4736], 's_35_38': [5110, 1992], 's_35_44': [4675], 's_35_47': [5290], 's_43_1': [1497], 's_43_3': [1825], 's_43_16': [1511], 's_43_32': [1407], 37: [1779, 1780, 1360, 4957, 4958, 4959, 1781, 1918, 1917, 1916, 5034], 's_43_37': [1391], 's_43_40': [5257], 's_43_41': [1647], 's_43_42': [4929], 's_47_22': [2664], 's_47_25': [2588], 's_47_26': [1978], 's_47_31': [5114], 's_47_32': [4993], 's_47_37': [5335], 's_47_46': [2518], 's_48_2': [1448], 's_48_3': [4464], 's_48_22': [2213], 's_48_23': [1433], 24: [1838, 4509, 4704, 1869, 1868], 's_48_24': [1808], 's_48_29': [4437], 's_48_45': [1342], 's_1_8': [2381], 's_1_12': [2711], 's_1_13': [2425], 's_1_22': [4777], 's_1_23': [4806], 's_1_29': [4872], 's_1_31': [2516], 's_1_33': [1765], 's_1_37': [4836], 's_1_40': [5017], 's_1_42': [4882], 's_22_15': [1644], 's_22_16': [5243], 's_22_17': [2169], 's_22_23': [1824], 's_22_25': [2559], 's_22_26': [1914], 's_22_29': [4793], 's_22_30': [5274], 's_22_32': [5289, 1678], 's_22_34': [1613], 's_22_36': [1630], 's_22_38': [2035], 's_22_42': [4673], 's_22_44': [2349], 's_29_12': [4798], 's_29_3': [2125], 4: [2529, 2215, 1989, 4588, 4585, 2214, 4586, 4587], 's_29_4': [4572], 's_29_6': [4780], 's_29_16': [5082], 's_29_24': [1734], 's_29_25': [5339], 's_29_28': [2247], 's_29_31': [2653], 's_29_34': [2203], 's_29_36': [1660], 's_29_41': [5127], 's_29_42': [4779], 's_29_46': [2533], 's_36_8': [4617], 's_36_12': [2259, 4676], 's_36_13': [1735], 's_36_37': [1466], 's_36_15': [4822], 's_36_26': [1944], 's_36_39': [5092], 's_38_8': [4977, 4978], 's_38_13': [2351], 's_38_15': [1631], 's_38_16': [5167], 's_38_44': [5125], 's_38_5': [1931], 's_38_17': [2186], 's_38_34': [2156], 's_38_10': [4900], 's_38_28': [1542], 's_38_39': [1721], 's_41_13': [5168], 's_41_31': [2621], 's_41_42': [1646], 's_41_2': [1662], 's_41_16': [5093], 's_41_5': [2456], 's_41_10': [1977], 's_41_34': [2187], 's_41_46': [2488], 's_44_2': [2063], 's_44_3': [4644], 's_44_26': [4945], 's_44_10': [4930], 's_44_17': [2364], 's_44_25': [4513], 's_44_34': [2078], 's_3_8': [1777, 1792], 's_3_31': [4874], 's_3_37': [4734], 's_3_2': [4554], 's_3_4': [4584], 's_3_5': [5054], 's_3_32': [5129], 's_5_33': [2336], 's_5_25': [5068], 's_5_39': [5109], 's_5_46': [5066], 's_8_12': [4827], 's_8_28': [5112], 's_8_34': [2303], 's_8_42': [1658], 's_8_46': [2322], 's_10_37': [1903], 's_10_17': [5560], 's_10_39': [1813], 's_10_6': [5575], 's_17_12': [2319], 's_17_23': [2004], 's_17_16': [2124], 's_17_26': [5605], 's_17_4': [2123], 's_17_32': [5530], 's_17_24': [4435], 's_17_25': [2138], 's_23_12': [1464], 's_23_2': [1358], 's_23_25': [1583], 's_23_32': [1318, 5317], 's_23_33': [4735], 's_23_45': [4686], 's_25_31': [2633, 4633], 's_25_15': [4553, 1568], 's_25_45': [4506], 's_25_32': [5413], 's_25_34': [1733], 's_25_19': [5489], 's_28_33': [2292], 's_28_37': [5140], 's_28_40': [5182], 's_28_16': [5107], 's_28_26': [5364, 1843], 's_28_45': [5226], 's_28_32': [5144], 's_28_34': [2157, 5201], 's_30_16': [1632, 1633], 's_30_34': [5276], 's_30_39': [1663], 's_31_12': [4889], 's_31_4': [2544], 's_31_19': [2668, 5474], 's_31_34': [4919], 's_32_12': [2665, 4949], 's_32_40': [1484], 's_32_34': [2278], 's_32_39': [1437, 1438], 's_33_2': [1748], 's_33_19': [2563], 's_33_37': [4614], 's_34_40': [4987], 's_34_16': [4657], 's_34_4': [2093], 's_34_6': [1853], 's_34_19': [2233], 's_34_46': [2188], 's_46_26': [2354], 's_46_6': [2097], 's_13_19': [5588], 's_13_37': [1720], 's_13_39': [5408], 's_13_40': [5108], 's_13_45': [1376], 's_19_37': [5425], 's_19_26': [5516], 's_19_6': [1859], 's_2_12': [4702], 's_2_37': [4942], 's_2_15': [4642], 's_2_16': [1523], 's_2_26': [1693], 's_2_45': [5211], 's_15_12': [1659], 's_15_40': [1555], 's_15_24': [4508], 's_15_39': [5197, 5198], 's_6_12': [1839], 's_6_40': [1722], 's_6_26': [5456], 's_12_4': [2379], 's_12_16': [1479], 's_26_37': [1915], 's_26_24': [1870], 's_26_39': [1738], 's_40_42': [4897], 's_42_45': [4716], 's_16_4': [2019], 's_39_37': [5124], 's_39_45': [5346], 's_45_37': [4986], 's_24_4': [1883]}</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0.001505464480874317</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.001953884338715475</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>{0: [1360, 1359], 5: [1345, 4943, 4941, 4942], 7: [1884, 1658, 4686, 1659, 4689, 4687, 4688], 11: [1780, 4851, 4852, 4854, 4853], 14: [4792, 4837, 1450, 1448, 1449], 29: [1210, 1208, 4763, 4762, 4761, 1209], 30: [1524, 4716, 4717], 39: [4401, 4431, 4656, 1283, 1286, 1285, 1284], 46: [4463, 4462, 1418, 1419, 1420, 4777], 49: [4581, 1374, 1373, 4584, 4583, 4582], 6: [1466, 4372, 4672, 1463, 1465, 1464], 17: [4746, 1240, 1238, 4626, 1239], 19: [4614, 1344, 4613, 4612, 1343], 37: [1631, 1629, 1630], 41: [4551, 1328, 1329, 1330], 47: [4731, 1510, 4778, 1508, 4732, 1509], 1: [1507, 4417, 4418, 1568, 4553], 12: [1405, 4506, 1404, 4508, 1403, 4507], 20: [4704, 4701, 4703, 4702], 21: [1313, 1315, 1314], 22: [4866, 1764, 1765, 4869, 4868, 4867], 24: [4806, 4809, 4807, 4808], 26: [4640, 1390, 4642, 4641, 1388, 1389], 44: [4539, 4821, 1733, 4822, 1734, 4823], 45: [1763, 1537, 4446, 4447, 1613, 4448], 15: [4881, 4882, 4883, 1674, 1675], 16: [4402, 4403, 1643, 1645, 1644], 25: [4509, 4779, 1748, 1749, 4764, 1660], 28: [4927, 4928, 4838, 1614, 1615], 36: [1779, 4432, 4419, 4433, 4434, 1778], 43: [1810, 4749, 4747, 4748], 48: [4386, 1222, 4850, 1225, 1224, 1223], 8: [1673, 4478, 4476, 4477], 27: [1628, 1523, 4491, 4492, 4493], 38: [1540, 4913, 4911, 4912, 1435], 42: [1432, 4521, 1434, 4522, 1433], 9: [4718, 1538, 1539], 10: [4596, 1268, 1270, 1269], 31: [4387, 1554, 1553, 1552, 4388], 33: [4536, 4538, 4537], 35: [1480, 1598, 4568, 1479], 40: [4733, 1600, 1599], 2: [4793, 1494, 1495, 4896, 4897, 1496], 3: [1583, 1584, 4658, 4657], 18: [1255, 1253, 1254], 23: [4389, 4794, 1717, 1719, 4643, 1718], 32: [1358, 4461, 1357], 4: [4569, 1703, 4627, 4628], 34: [1809, 4597, 4599, 4598], 13: [1300, 1298, 1299]}</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.03206827309236948</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02333919943680852</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>{0: [1360, 1359], 5: [1345, 4943, 4941, 4942], 7: [1884, 1658, 4686, 1659, 4689, 4687, 4688], 11: [1780, 4851, 4852, 4854, 4853], 14: [4792, 4837, 1450, 1448, 1449], 29: [1210, 1208, 4763, 4762, 4761, 1209], 30: [1524, 4716, 4717], 39: [4401, 4431, 4656, 1283, 1286, 1285, 1284], 46: [4463, 4462, 1418, 1419, 1420, 4777], 49: [4581, 1374, 1373, 4584, 4583, 4582], 6: [1466, 4372, 4672, 1463, 1465, 1464], 17: [4746, 1240, 1238, 4626, 1239], 19: [4614, 1344, 4613, 4612, 1343], 37: [1631, 1629, 1630], 41: [4551, 1328, 1329, 1330], 47: [4731, 1510, 4778, 1508, 4732, 1509], 1: [1507, 4417, 4418, 1568, 4553], 12: [1405, 4506, 1404, 4508, 1403, 4507], 20: [4704, 4701, 4703, 4702], 21: [1313, 1315, 1314], 22: [4866, 1764, 1765, 4869, 4868, 4867], 24: [4806, 4809, 4807, 4808], 26: [4640, 1390, 4642, 4641, 1388, 1389], 44: [4539, 4821, 1733, 4822, 1734, 4823], 45: [1763, 1537, 4446, 4447, 1613, 4448], 15: [4881, 4882, 4883, 1674, 1675], 16: [4402, 4403, 1643, 1645, 1644], 25: [4509, 4779, 1748, 1749, 4764, 1660], 28: [4927, 4928, 4838, 1614, 1615], 36: [1779, 4432, 4419, 4433, 4434, 1778], 43: [1810, 4749, 4747, 4748], 48: [4386, 1222, 4850, 1225, 1224, 1223], 8: [1673, 4478, 4476, 4477], 27: [1628, 1523, 4491, 4492, 4493], 38: [1540, 4913, 4911, 4912, 1435], 42: [1432, 4521, 1434, 4522, 1433], 9: [4718, 1538, 1539], 10: [4596, 1268, 1270, 1269], 31: [4387, 1554, 1553, 1552, 4388], 33: [4536, 4538, 4537], 35: [1480, 1598, 4568, 1479], 40: [4733, 1600, 1599], 2: [4793, 1494, 1495, 4896, 4897, 1496], 3: [1583, 1584, 4658, 4657], 18: [1255, 1253, 1254], 23: [4389, 4794, 1717, 1719, 4643, 1718], 32: [1358, 4461, 1357], 4: [4569, 1703, 4627, 4628], 34: [1809, 4597, 4599, 4598], 13: [1300, 1298, 1299]}</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0.03206827309236948</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02333919943680852</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>{0: [3948, 3947, 3662, 4037, 526, 527, 530, 529, 528], 5: [1041, 3842, 1040, 3155, 1036, 1037, 1038, 1039, 3843, 3844, 3845], 's_0_5': [3857], 7: [3578, 1698, 3197, 3198, 3667, 1294, 3669, 3199, 3200, 1216, 3306, 3307, 3668, 1292, 1293], 's_0_7': [541, 3167], 11: [4203, 3588, 691, 3663, 692, 696, 695, 694, 693], 's_0_11': [3153, 3152], 14: [1311, 4038, 3666, 4039, 4040, 1248, 1249, 1250, 4042, 4041], 's_0_14': [4023, 4022], 29: [3542, 3895, 3894, 3893, 601, 602, 3528, 3892, 3529, 873, 874, 3799, 3800, 1144, 3891], 's_0_29': [3362], 30: [680, 3396, 647, 679, 678, 1367, 3561, 3560, 4008, 3559, 3558, 3557], 's_0_30': [617, 3407], 39: [1366, 543, 3455, 3381, 3380, 1022, 3379, 3378, 3377, 542, 3287], 's_0_39': [3497], 46: [3932, 620, 4068, 3444, 1727, 1729, 1730, 4074, 830, 4069, 4070, 4071, 1728, 4072, 4073], 's_0_46': [3977], 49: [1711, 3218, 3217, 3752, 3753, 3754, 3755, 1084, 1083, 3216, 3215, 1081, 1082], 's_0_49': [514], 6: [1519, 3788, 3787, 3784, 3785, 1189, 3786], 's_5_6': [1054], 17: [3624, 1715, 1714, 1713, 1712, 3459, 3228, 3229, 3230, 1201, 1202, 3458, 3457, 3456], 's_5_17': [3214], 19: [1098, 3723, 1102, 1101, 1100, 1099, 3725, 3726, 3727, 3728, 3729, 1908, 1907, 3724, 1906], 's_5_19': [3830], 's_5_29': [1024], 37: [604, 1159, 3873, 3874, 1639, 1640, 3878, 3877, 3875, 3876], 's_5_37': [905], 's_5_39': [1021], 41: [1818, 1129, 1128, 1127, 3318, 3319, 3320, 3321, 3322, 1817, 3324, 3323], 's_5_41': [1051], 's_5_46': [619], 47: [1011, 1007, 3622, 3621, 4010, 1010, 1009, 1008, 3620, 3619], 's_5_47': [3710], 1: [4102, 1550, 1549, 3772, 1459, 3110, 3111, 3112, 1456, 1457, 1458], 's_7_1': [1186, 1185], 's_7_6': [1699], 12: [1802, 1803, 755, 3963, 3964, 3654, 3966, 1445, 3965, 1804, 1805, 3969, 3968, 3967], 's_7_12': [1819], 's_7_14': [3741], 's_7_17': [871], 20: [1773, 962, 3515, 3516, 3519, 3518, 3517], 's_7_20': [1788], 21: [3471, 1654, 1653, 1623, 3472, 3473], 's_7_21': [3623], 22: [3574, 3592, 3259, 976, 3289, 3290, 1112, 1113, 3575, 3288, 3576, 1338, 1339, 3591, 1340, 4101], 's_7_22': [975], 24: [3427, 4086, 1386, 1385, 3862, 1382, 1383, 1384], 's_7_24': [3352], 26: [3833, 1206, 1205, 1204, 1203, 3819, 3818, 4191, 1594, 1593, 3608, 3607, 3606], 's_7_26': [3593], 's_7_37': [1578, 3638], 's_7_39': [511], 44: [1772, 961, 3350, 3351, 3369, 3337, 3368, 3367, 3366, 1306, 1217, 3441, 1307], 's_7_44': [1141], 45: [916, 917, 3365, 1171, 3743, 1669, 1668, 1667, 3279, 3278, 3364, 3276, 1501, 3277], 's_7_45': [3308], 's_11_12': [709, 710], 15: [1954, 3715, 631, 632, 633, 3714, 3713, 1474, 3648, 3649, 3650, 3651, 3652], 's_11_15': [648], 16: [4012, 1430, 753, 3484, 3485, 1426, 3486, 1429, 1428, 1427, 3487], 's_11_16': [3453], 's_11_17': [3183, 736], 's_11_22': [3273], 25: [846, 3274, 845, 844, 840, 841, 842, 843], 's_11_25': [3213], 28: [3333, 932, 1053, 1052, 3334, 3335], 's_11_28': [3348], 36: [981, 4204, 3247, 3248, 1606, 1607, 1608, 1609, 1610, 1611, 4208, 4207, 4206, 4205], 's_11_36': [4129, 4128], 43: [751, 4177, 4176, 4175, 4174, 4173, 3243, 661, 662, 663, 664, 665, 666], 's_11_43': [3858], 48: [3469, 707, 3468], 's_11_48': [708], 's_14_6': [3861], 8: [950, 3949, 3950, 3951, 1670, 3850, 3849, 1625, 3848, 3847, 1310], 's_14_8': [875], 's_14_12': [1055], 's_14_15': [3636], 's_14_19': [1086], 's_14_20': [1218], 's_14_22': [3531], 's_14_24': [3906], 27: [1191, 1190, 3908, 1742, 1743, 1744, 3935, 1741, 3936, 3937, 3938, 1745], 's_14_27': [1355], 38: [1158, 1023, 828, 3604, 3605], 's_14_38': [1143], 42: [4084, 1172, 1173, 4085, 3696, 4083, 1174, 1175], 's_14_42': [771], 's_14_47': [1025], 's_29_6': [814], 9: [3185, 3184, 3186, 795, 889, 3169, 3814, 886, 3664, 3187, 887, 888], 's_29_9': [3829], 10: [3700, 3294, 1850, 1849, 1848, 3340, 1847], 's_29_10': [3880], 's_29_12': [1775], 's_29_16': [3514], 's_29_19': [3890], 's_29_25': [3709], 's_29_26': [1879], 31: [1246, 1247, 3501, 3500, 937, 936, 935, 934, 933], 's_29_31': [3634], 33: [741, 740, 739, 738, 3097, 3096, 3095, 3094, 3093, 723, 722, 721], 's_29_33': [3513], 35: [3769, 3770, 3771, 1326, 1325, 1324], 's_29_35': [1354], 's_29_38': [827], 's_29_39': [3437], 40: [572, 573, 574, 575, 576, 4142, 4252, 4251, 4250, 4249, 786, 4143], 's_29_40': [3452], 's_29_41': [616], 2: [4264, 3409, 3994, 3995, 996, 3408, 992, 995, 994, 993], 's_30_2': [3544], 3: [1117, 1397, 1398, 1116, 1115, 3683, 3682, 3681, 1114], 's_30_3': [3502], 's_30_12': [3828], 's_30_17': [3397, 3398], 18: [1595, 800, 4029, 4028, 1235, 1296, 4027, 4024, 4025, 4026], 's_30_18': [785], 's_30_20': [1337], 's_30_21': [1352], 's_30_42': [3545], 's_30_44': [1232], 's_30_46': [681], 's_30_47': [4009], 's_30_48': [3438], 's_30_49': [3767], 's_39_2': [737], 's_39_15': [3572], 's_39_16': [872], 's_39_19': [1097], 's_39_33': [3603, 3602], 's_39_36': [3246, 1321], 's_39_38': [1157], 's_39_48': [3470], 's_46_1': [1535], 's_46_3': [4056], 's_46_20': [3534], 23: [1520, 892, 796, 797, 798, 799, 891, 3982, 3981, 3980, 3979, 890, 3889], 's_46_23': [4054], 's_46_24': [1251], 's_46_27': [3804], 32: [3921, 1281, 1280, 1276, 1277, 1278, 1279], 's_46_32': [1266], 's_46_41': [3429], 's_46_42': [4082], 's_46_43': [876], 's_46_44': [1787], 's_46_45': [3504], 's_46_47': [1160], 4: [784, 859, 1476, 4113, 1341, 4147, 3903, 1461, 860, 861, 4144, 4145, 4146], 's_49_4': [3768], 's_49_9': [754], 's_49_10': [1726], 's_49_31': [3695], 's_49_33': [1515, 3173, 1576], 34: [1846, 3234, 3233, 1636, 1111, 3124, 3125, 3128, 3126, 3127], 's_49_34': [3140], 's_49_35': [1069], 's_49_36': [3293, 1696], 's_49_42': [3740], 's_49_44': [1531], 's_6_4': [3783], 's_6_8': [1534], 's_6_9': [964], 's_6_26': [1579], 's_6_45': [3803], 's_6_3': [1489], 's_6_16': [3832], 's_6_31': [949], 's_6_24': [3817], 's_6_32': [1264], 's_6_35': [1369], 's_17_8': [3953], 's_17_21': [1682], 's_17_26': [3609], 's_17_33': [1291, 3261], 's_17_18': [4044], 's_17_20': [3639], 's_17_22': [946], 's_17_19': [3460], 's_17_27': [3984], 's_17_43': [3227], 's_17_42': [1187], 's_17_10': [1833], 's_19_8': [1939], 's_19_21': [3548, 3549], 's_19_37': [1085], 's_19_47': [3860], 's_19_3': [4310], 's_19_22': [1188], 's_19_31': [4055], 's_19_40': [3722], 's_19_15': [1774, 3744], 's_19_25': [3738], 's_19_34': [3265, 1936], 's_19_35': [1234], 's_19_41': [3414], 's_19_42': [3801, 1219], 's_19_43': [1087], 's_37_1': [1504], 's_37_4': [3902], 's_37_33': [3798, 634], 's_37_16': [3488, 1638], 's_37_24': [3863], 's_37_27': [1565], 's_37_38': [829], 's_37_47': [3815], 's_41_33': [1350, 1351], 's_41_20': [3579], 's_41_43': [646], 's_41_44': [1487], 's_41_10': [3399], 's_41_15': [3594, 1863], 's_41_28': [767], 's_47_1': [1518, 3637], 13: [3201, 3758, 3757, 1444, 3202, 1441, 1442, 1443], 's_47_13': [3712, 1353], 's_47_26': [1368], 's_47_2': [4279], 's_47_12': [1070], 's_47_16': [918], 's_47_22': [978], 's_47_25': [858], 's_47_28': [1006], 's_47_35': [1323], 's_47_42': [4099], 's_47_43': [3618], 's_1_4': [4043], 's_1_8': [3952], 's_1_9': [990], 's_1_13': [3412], 's_1_21': [1577, 3382], 's_1_26': [3773], 's_1_33': [1155], 's_1_45': [3172, 1396], 's_12_4': [770], 's_12_13': [3759], 's_12_26': [1835], 's_12_16': [3907], 's_12_18': [1790], 's_12_20': [1758], 's_12_22': [1370], 's_12_27': [3939], 's_12_43': [3813], 's_12_44': [3489], 's_12_25': [3918], 's_12_32': [3922], 's_12_42': [756], 's_20_13': [3532], 's_20_21': [1517], 's_20_2': [3394], 's_20_3': [1233], 's_20_22': [1413], 's_20_28': [3439], 's_20_42': [1322, 3426], 's_20_48': [3454], 's_21_13': [1547, 3547], 's_21_15': [1473], 's_21_26': [3563], 's_21_44': [1622, 3428, 1697], 's_22_4': [1401], 's_22_13': [3577], 's_22_45': [3305, 991], 's_22_2': [3425], 's_22_3': [1548], 's_22_23': [3573], 's_22_25': [902], 's_22_34': [3260], 's_22_38': [1068], 's_22_43': [1236], 's_24_13': [3802], 's_24_16': [3997], 's_24_18': [1295], 's_24_23': [1460], 's_24_43': [1416, 4222], 's_24_44': [3411], 's_24_35': [3756], 's_26_4': [1221], 's_26_8': [1684], 's_26_10': [3834], 's_26_18': [4011], 's_26_27': [1655], 's_26_32': [3920], 's_26_35': [3816], 's_26_36': [3698], 's_26_38': [3711], 's_26_43': [1176], 's_44_33': [3098, 1545, 1546], 's_44_3': [1563, 1562], 's_44_16': [3442], 's_44_27': [3354], 's_44_36': [3338], 's_44_10': [1922], 's_44_25': [3244], 's_45_8': [1624], 's_45_9': [3424], 's_45_33': [1170], 's_45_10': [1786], 's_45_16': [3262], 's_45_25': [3363], 's_45_28': [947], 's_45_31': [1067], 's_45_32': [1262], 's_45_36': [1637, 3383], 's_15_8': [1969], 's_15_13': [1759], 's_15_33': [724], 's_15_43': [3633], 's_15_25': [3678, 3679, 919], 's_15_28': [3635], 's_16_4': [1491], 's_16_13': [1412, 1411], 's_16_2': [812], 's_16_23': [3543], 's_16_31': [1263], 's_16_36': [4013], 's_16_42': [3697], 's_25_9': [3048], 's_25_36': [4219], 's_25_28': [857], 's_25_34': [855], 's_28_23': [781], 's_28_40': [587], 's_28_38': [3530], 's_36_4': [1356], 's_36_8': [3923], 's_36_13': [3158, 1486], 's_36_3': [4221], 's_36_23': [3983], 's_36_31': [4189], 's_36_34': [3263], 's_36_43': [1492], 's_43_3': [1132], 's_43_31': [952], 's_43_40': [4158], 's_43_34': [766], 's_43_35': [1371, 4266], 's_48_33': [3393], 's_48_2': [977], 's_48_31': [948], 's_8_3': [1309], 's_8_9': [920], 's_8_10': [1924], 's_8_18': [1671], 's_8_23': [3904], 's_8_32': [3846], 's_8_35': [1399], 's_27_4': [1475], 's_27_13': [3203], 's_27_3': [3684], 's_27_18': [1505], 's_27_32': [1265], 's_27_34': [3264], 's_27_42': [1145], 's_38_9': [3589], 's_38_42': [3590], 's_42_4': [4098], 's_42_33': [726], 's_9_4': [3859], 's_9_33': [3168], 's_9_34': [780], 's_10_34': [1861], 's_31_4': [4114], 's_31_13': [1231], 's_31_2': [4220], 's_31_23': [4324], 's_31_32': [3336], 's_31_40': [4235], 's_33_4': [3933], 's_33_13': [3142, 1335], 's_35_40': [4237], 's_40_4': [862], 's_40_2': [4263], 's_40_3': [4236], 's_40_23': [877], 's_2_3': [3680], 's_2_18': [951], 's_2_23': [3934], 's_3_23': [1130], 's_18_32': [3996], 's_32_34': [1261], 's_34_13': [1530]}</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="E97" t="n">
         <v>0.001203655352480418</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F97" t="n">
         <v>0.001705100774348172</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>{0: [3948, 3947, 3662, 4037, 526, 527, 530, 529, 528], 5: [1041, 3842, 1040, 3155, 1036, 1037, 1038, 1039, 3843, 3844, 3845], 's_0_5': [3857], 7: [3578, 1698, 3197, 3198, 3667, 1294, 3669, 3199, 3200, 1216, 3306, 3307, 3668, 1292, 1293], 's_0_7': [541, 3167], 11: [4203, 3588, 691, 3663, 692, 696, 695, 694, 693], 's_0_11': [3153, 3152], 14: [1311, 4038, 3666, 4039, 4040, 1248, 1249, 1250, 4042, 4041], 's_0_14': [4023, 4022], 29: [3542, 3895, 3894, 3893, 601, 602, 3528, 3892, 3529, 873, 874, 3799, 3800, 1144, 3891], 's_0_29': [3362], 30: [680, 3396, 647, 679, 678, 1367, 3561, 3560, 4008, 3559, 3558, 3557], 's_0_30': [617, 3407], 39: [1366, 543, 3455, 3381, 3380, 1022, 3379, 3378, 3377, 542, 3287], 's_0_39': [3497], 46: [3932, 620, 4068, 3444, 1727, 1729, 1730, 4074, 830, 4069, 4070, 4071, 1728, 4072, 4073], 's_0_46': [3977], 49: [1711, 3218, 3217, 3752, 3753, 3754, 3755, 1084, 1083, 3216, 3215, 1081, 1082], 's_0_49': [514], 6: [1519, 3788, 3787, 3784, 3785, 1189, 3786], 's_5_6': [1054], 17: [3624, 1715, 1714, 1713, 1712, 3459, 3228, 3229, 3230, 1201, 1202, 3458, 3457, 3456], 's_5_17': [3214], 19: [1098, 3723, 1102, 1101, 1100, 1099, 3725, 3726, 3727, 3728, 3729, 1908, 1907, 3724, 1906], 's_5_19': [3830], 's_5_29': [1024], 37: [604, 1159, 3873, 3874, 1639, 1640, 3878, 3877, 3875, 3876], 's_5_37': [905], 's_5_39': [1021], 41: [1818, 1129, 1128, 1127, 3318, 3319, 3320, 3321, 3322, 1817, 3324, 3323], 's_5_41': [1051], 's_5_46': [619], 47: [1011, 1007, 3622, 3621, 4010, 1010, 1009, 1008, 3620, 3619], 's_5_47': [3710], 1: [4102, 1550, 1549, 3772, 1459, 3110, 3111, 3112, 1456, 1457, 1458], 's_7_1': [1186, 1185], 's_7_6': [1699], 12: [1802, 1803, 755, 3963, 3964, 3654, 3966, 1445, 3965, 1804, 1805, 3969, 3968, 3967], 's_7_12': [1819], 's_7_14': [3741], 's_7_17': [871], 20: [1773, 962, 3515, 3516, 3519, 3518, 3517], 's_7_20': [1788], 21: [3471, 1654, 1653, 1623, 3472, 3473], 's_7_21': [3623], 22: [3574, 3592, 3259, 976, 3289, 3290, 1112, 1113, 3575, 3288, 3576, 1338, 1339, 3591, 1340, 4101], 's_7_22': [975], 24: [3427, 4086, 1386, 1385, 3862, 1382, 1383, 1384], 's_7_24': [3352], 26: [3833, 1206, 1205, 1204, 1203, 3819, 3818, 4191, 1594, 1593, 3608, 3607, 3606], 's_7_26': [3593], 's_7_37': [1578, 3638], 's_7_39': [511], 44: [1772, 961, 3350, 3351, 3369, 3337, 3368, 3367, 3366, 1306, 1217, 3441, 1307], 's_7_44': [1141], 45: [916, 917, 3365, 1171, 3743, 1669, 1668, 1667, 3279, 3278, 3364, 3276, 1501, 3277], 's_7_45': [3308], 's_11_12': [709, 710], 15: [1954, 3715, 631, 632, 633, 3714, 3713, 1474, 3648, 3649, 3650, 3651, 3652], 's_11_15': [648], 16: [4012, 1430, 753, 3484, 3485, 1426, 3486, 1429, 1428, 1427, 3487], 's_11_16': [3453], 's_11_17': [3183, 736], 's_11_22': [3273], 25: [846, 3274, 845, 844, 840, 841, 842, 843], 's_11_25': [3213], 28: [3333, 932, 1053, 1052, 3334, 3335], 's_11_28': [3348], 36: [981, 4204, 3247, 3248, 1606, 1607, 1608, 1609, 1610, 1611, 4208, 4207, 4206, 4205], 's_11_36': [4129, 4128], 43: [751, 4177, 4176, 4175, 4174, 4173, 3243, 661, 662, 663, 664, 665, 666], 's_11_43': [3858], 48: [3469, 707, 3468], 's_11_48': [708], 's_14_6': [3861], 8: [950, 3949, 3950, 3951, 1670, 3850, 3849, 1625, 3848, 3847, 1310], 's_14_8': [875], 's_14_12': [1055], 's_14_15': [3636], 's_14_19': [1086], 's_14_20': [1218], 's_14_22': [3531], 's_14_24': [3906], 27: [1191, 1190, 3908, 1742, 1743, 1744, 3935, 1741, 3936, 3937, 3938, 1745], 's_14_27': [1355], 38: [1158, 1023, 828, 3604, 3605], 's_14_38': [1143], 42: [4084, 1172, 1173, 4085, 3696, 4083, 1174, 1175], 's_14_42': [771], 's_14_47': [1025], 's_29_6': [814], 9: [3185, 3184, 3186, 795, 889, 3169, 3814, 886, 3664, 3187, 887, 888], 's_29_9': [3829], 10: [3700, 3294, 1850, 1849, 1848, 3340, 1847], 's_29_10': [3880], 's_29_12': [1775], 's_29_16': [3514], 's_29_19': [3890], 's_29_25': [3709], 's_29_26': [1879], 31: [1246, 1247, 3501, 3500, 937, 936, 935, 934, 933], 's_29_31': [3634], 33: [741, 740, 739, 738, 3097, 3096, 3095, 3094, 3093, 723, 722, 721], 's_29_33': [3513], 35: [3769, 3770, 3771, 1326, 1325, 1324], 's_29_35': [1354], 's_29_38': [827], 's_29_39': [3437], 40: [572, 573, 574, 575, 576, 4142, 4252, 4251, 4250, 4249, 786, 4143], 's_29_40': [3452], 's_29_41': [616], 2: [4264, 3409, 3994, 3995, 996, 3408, 992, 995, 994, 993], 's_30_2': [3544], 3: [1117, 1397, 1398, 1116, 1115, 3683, 3682, 3681, 1114], 's_30_3': [3502], 's_30_12': [3828], 's_30_17': [3397, 3398], 18: [1595, 800, 4029, 4028, 1235, 1296, 4027, 4024, 4025, 4026], 's_30_18': [785], 's_30_20': [1337], 's_30_21': [1352], 's_30_42': [3545], 's_30_44': [1232], 's_30_46': [681], 's_30_47': [4009], 's_30_48': [3438], 's_30_49': [3767], 's_39_2': [737], 's_39_15': [3572], 's_39_16': [872], 's_39_19': [1097], 's_39_33': [3603, 3602], 's_39_36': [3246, 1321], 's_39_38': [1157], 's_39_48': [3470], 's_46_1': [1535], 's_46_3': [4056], 's_46_20': [3534], 23: [1520, 892, 796, 797, 798, 799, 891, 3982, 3981, 3980, 3979, 890, 3889], 's_46_23': [4054], 's_46_24': [1251], 's_46_27': [3804], 32: [3921, 1281, 1280, 1276, 1277, 1278, 1279], 's_46_32': [1266], 's_46_41': [3429], 's_46_42': [4082], 's_46_43': [876], 's_46_44': [1787], 's_46_45': [3504], 's_46_47': [1160], 4: [784, 859, 1476, 4113, 1341, 4147, 3903, 1461, 860, 861, 4144, 4145, 4146], 's_49_4': [3768], 's_49_9': [754], 's_49_10': [1726], 's_49_31': [3695], 's_49_33': [1515, 3173, 1576], 34: [1846, 3234, 3233, 1636, 1111, 3124, 3125, 3128, 3126, 3127], 's_49_34': [3140], 's_49_35': [1069], 's_49_36': [3293, 1696], 's_49_42': [3740], 's_49_44': [1531], 's_6_4': [3783], 's_6_8': [1534], 's_6_9': [964], 's_6_26': [1579], 's_6_45': [3803], 's_6_3': [1489], 's_6_16': [3832], 's_6_31': [949], 's_6_24': [3817], 's_6_32': [1264], 's_6_35': [1369], 's_17_8': [3953], 's_17_21': [1682], 's_17_26': [3609], 's_17_33': [1291, 3261], 's_17_18': [4044], 's_17_20': [3639], 's_17_22': [946], 's_17_19': [3460], 's_17_27': [3984], 's_17_43': [3227], 's_17_42': [1187], 's_17_10': [1833], 's_19_8': [1939], 's_19_21': [3548, 3549], 's_19_37': [1085], 's_19_47': [3860], 's_19_3': [4310], 's_19_22': [1188], 's_19_31': [4055], 's_19_40': [3722], 's_19_15': [1774, 3744], 's_19_25': [3738], 's_19_34': [3265, 1936], 's_19_35': [1234], 's_19_41': [3414], 's_19_42': [3801, 1219], 's_19_43': [1087], 's_37_1': [1504], 's_37_4': [3902], 's_37_33': [3798, 634], 's_37_16': [3488, 1638], 's_37_24': [3863], 's_37_27': [1565], 's_37_38': [829], 's_37_47': [3815], 's_41_33': [1350, 1351], 's_41_20': [3579], 's_41_43': [646], 's_41_44': [1487], 's_41_10': [3399], 's_41_15': [3594, 1863], 's_41_28': [767], 's_47_1': [1518, 3637], 13: [3201, 3758, 3757, 1444, 3202, 1441, 1442, 1443], 's_47_13': [3712, 1353], 's_47_26': [1368], 's_47_2': [4279], 's_47_12': [1070], 's_47_16': [918], 's_47_22': [978], 's_47_25': [858], 's_47_28': [1006], 's_47_35': [1323], 's_47_42': [4099], 's_47_43': [3618], 's_1_4': [4043], 's_1_8': [3952], 's_1_9': [990], 's_1_13': [3412], 's_1_21': [1577, 3382], 's_1_26': [3773], 's_1_33': [1155], 's_1_45': [3172, 1396], 's_12_4': [770], 's_12_13': [3759], 's_12_26': [1835], 's_12_16': [3907], 's_12_18': [1790], 's_12_20': [1758], 's_12_22': [1370], 's_12_27': [3939], 's_12_43': [3813], 's_12_44': [3489], 's_12_25': [3918], 's_12_32': [3922], 's_12_42': [756], 's_20_13': [3532], 's_20_21': [1517], 's_20_2': [3394], 's_20_3': [1233], 's_20_22': [1413], 's_20_28': [3439], 's_20_42': [1322, 3426], 's_20_48': [3454], 's_21_13': [1547, 3547], 's_21_15': [1473], 's_21_26': [3563], 's_21_44': [1622, 3428, 1697], 's_22_4': [1401], 's_22_13': [3577], 's_22_45': [3305, 991], 's_22_2': [3425], 's_22_3': [1548], 's_22_23': [3573], 's_22_25': [902], 's_22_34': [3260], 's_22_38': [1068], 's_22_43': [1236], 's_24_13': [3802], 's_24_16': [3997], 's_24_18': [1295], 's_24_23': [1460], 's_24_43': [1416, 4222], 's_24_44': [3411], 's_24_35': [3756], 's_26_4': [1221], 's_26_8': [1684], 's_26_10': [3834], 's_26_18': [4011], 's_26_27': [1655], 's_26_32': [3920], 's_26_35': [3816], 's_26_36': [3698], 's_26_38': [3711], 's_26_43': [1176], 's_44_33': [3098, 1545, 1546], 's_44_3': [1563, 1562], 's_44_16': [3442], 's_44_27': [3354], 's_44_36': [3338], 's_44_10': [1922], 's_44_25': [3244], 's_45_8': [1624], 's_45_9': [3424], 's_45_33': [1170], 's_45_10': [1786], 's_45_16': [3262], 's_45_25': [3363], 's_45_28': [947], 's_45_31': [1067], 's_45_32': [1262], 's_45_36': [1637, 3383], 's_15_8': [1969], 's_15_13': [1759], 's_15_33': [724], 's_15_43': [3633], 's_15_25': [3678, 3679, 919], 's_15_28': [3635], 's_16_4': [1491], 's_16_13': [1412, 1411], 's_16_2': [812], 's_16_23': [3543], 's_16_31': [1263], 's_16_36': [4013], 's_16_42': [3697], 's_25_9': [3048], 's_25_36': [4219], 's_25_28': [857], 's_25_34': [855], 's_28_23': [781], 's_28_40': [587], 's_28_38': [3530], 's_36_4': [1356], 's_36_8': [3923], 's_36_13': [3158, 1486], 's_36_3': [4221], 's_36_23': [3983], 's_36_31': [4189], 's_36_34': [3263], 's_36_43': [1492], 's_43_3': [1132], 's_43_31': [952], 's_43_40': [4158], 's_43_34': [766], 's_43_35': [1371, 4266], 's_48_33': [3393], 's_48_2': [977], 's_48_31': [948], 's_8_3': [1309], 's_8_9': [920], 's_8_10': [1924], 's_8_18': [1671], 's_8_23': [3904], 's_8_32': [3846], 's_8_35': [1399], 's_27_4': [1475], 's_27_13': [3203], 's_27_3': [3684], 's_27_18': [1505], 's_27_32': [1265], 's_27_34': [3264], 's_27_42': [1145], 's_38_9': [3589], 's_38_42': [3590], 's_42_4': [4098], 's_42_33': [726], 's_9_4': [3859], 's_9_33': [3168], 's_9_34': [780], 's_10_34': [1861], 's_31_4': [4114], 's_31_13': [1231], 's_31_2': [4220], 's_31_23': [4324], 's_31_32': [3336], 's_31_40': [4235], 's_33_4': [3933], 's_33_13': [3142, 1335], 's_35_40': [4237], 's_40_4': [862], 's_40_2': [4263], 's_40_3': [4236], 's_40_23': [877], 's_2_3': [3680], 's_2_18': [951], 's_2_23': [3934], 's_3_23': [1130], 's_18_32': [3996], 's_32_34': [1261], 's_34_13': [1530]}</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I97" t="n">
         <v>0.001203655352480418</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J97" t="n">
         <v>0.001705100774348172</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K97" t="n">
         <v>0.001</v>
       </c>
     </row>
